--- a/excel-files/jm.xlsx
+++ b/excel-files/jm.xlsx
@@ -4191,7 +4191,7 @@
     <t>SOGA FORRADA 4 MM. 200 M.</t>
   </si>
   <si>
-    <t>PINTURAS ASFALTICA X 1 LT</t>
+    <t>PINTURA ASFALTICA X 1 LT</t>
   </si>
   <si>
     <t>SOGA FORRADA 5 MM. 150 M.</t>
@@ -11810,16 +11810,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK3704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3478" workbookViewId="0">
+      <selection activeCell="C3478" sqref="C3478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="3" width="61" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13382,7 +13383,7 @@
         <v>21</v>
       </c>
       <c r="E90" s="3">
-        <v>1528.67</v>
+        <v>1532.73</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -13399,7 +13400,7 @@
         <v>21</v>
       </c>
       <c r="E91" s="3">
-        <v>1404.46</v>
+        <v>1408.19</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -13416,7 +13417,7 @@
         <v>21</v>
       </c>
       <c r="E92" s="3">
-        <v>2549.71</v>
+        <v>2556.5</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -13433,7 +13434,7 @@
         <v>21</v>
       </c>
       <c r="E93" s="3">
-        <v>1659.13</v>
+        <v>1663.53</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -13450,7 +13451,7 @@
         <v>21</v>
       </c>
       <c r="E94" s="3">
-        <v>1368.86</v>
+        <v>1372.49</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -13467,7 +13468,7 @@
         <v>21</v>
       </c>
       <c r="E95" s="3">
-        <v>1659.13</v>
+        <v>1663.53</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -13484,7 +13485,7 @@
         <v>21</v>
       </c>
       <c r="E96" s="3">
-        <v>1659.13</v>
+        <v>1663.53</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -13501,7 +13502,7 @@
         <v>21</v>
       </c>
       <c r="E97" s="3">
-        <v>1659.13</v>
+        <v>1663.53</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -13518,7 +13519,7 @@
         <v>21</v>
       </c>
       <c r="E98" s="3">
-        <v>2662.43</v>
+        <v>2669.51</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -13535,7 +13536,7 @@
         <v>21</v>
       </c>
       <c r="E99" s="3">
-        <v>1451.32</v>
+        <v>1455.18</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -13552,7 +13553,7 @@
         <v>21</v>
       </c>
       <c r="E100" s="3">
-        <v>1853.73</v>
+        <v>1858.66</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -13569,7 +13570,7 @@
         <v>21</v>
       </c>
       <c r="E101" s="3">
-        <v>689.38</v>
+        <v>691.2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -13586,7 +13587,7 @@
         <v>21</v>
       </c>
       <c r="E102" s="3">
-        <v>963.15</v>
+        <v>965.71</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -13603,7 +13604,7 @@
         <v>21</v>
       </c>
       <c r="E103" s="3">
-        <v>1335.88</v>
+        <v>1339.42</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -13620,7 +13621,7 @@
         <v>21</v>
       </c>
       <c r="E104" s="3">
-        <v>722.36</v>
+        <v>724.28</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -13637,7 +13638,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="3">
-        <v>2074.73</v>
+        <v>2080.2399999999998</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -14453,7 +14454,7 @@
         <v>21</v>
       </c>
       <c r="E153" s="3">
-        <v>12206.99</v>
+        <v>12239.44</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -14470,7 +14471,7 @@
         <v>21</v>
       </c>
       <c r="E154" s="3">
-        <v>933.53</v>
+        <v>936.01</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -14487,7 +14488,7 @@
         <v>21</v>
       </c>
       <c r="E155" s="3">
-        <v>1695.86</v>
+        <v>1700.38</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -15524,7 +15525,7 @@
         <v>21</v>
       </c>
       <c r="E216" s="3">
-        <v>1300.05</v>
+        <v>1303.5</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -15541,7 +15542,7 @@
         <v>21</v>
       </c>
       <c r="E217" s="3">
-        <v>1334.17</v>
+        <v>1337.71</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -15558,7 +15559,7 @@
         <v>21</v>
       </c>
       <c r="E218" s="3">
-        <v>1364.88</v>
+        <v>1368.51</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -15575,7 +15576,7 @@
         <v>21</v>
       </c>
       <c r="E219" s="3">
-        <v>1402.41</v>
+        <v>1406.15</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -15592,7 +15593,7 @@
         <v>21</v>
       </c>
       <c r="E220" s="3">
-        <v>1436.54</v>
+        <v>1440.37</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -15609,7 +15610,7 @@
         <v>21</v>
       </c>
       <c r="E221" s="3">
-        <v>1453.6</v>
+        <v>1457.46</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -15626,7 +15627,7 @@
         <v>21</v>
       </c>
       <c r="E222" s="3">
-        <v>1245.45</v>
+        <v>1248.76</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -15643,7 +15644,7 @@
         <v>21</v>
       </c>
       <c r="E223" s="3">
-        <v>1276.1600000000001</v>
+        <v>1279.56</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -19723,7 +19724,7 @@
         <v>21</v>
       </c>
       <c r="E463" s="3">
-        <v>2585.9899999999998</v>
+        <v>2592.87</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -19740,7 +19741,7 @@
         <v>21</v>
       </c>
       <c r="E464" s="3">
-        <v>2585.9899999999998</v>
+        <v>2592.87</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
@@ -19757,7 +19758,7 @@
         <v>21</v>
       </c>
       <c r="E465" s="3">
-        <v>600.32000000000005</v>
+        <v>601.91999999999996</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
@@ -27730,7 +27731,7 @@
         <v>21</v>
       </c>
       <c r="E934" s="3">
-        <v>2777.99</v>
+        <v>2785.37</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
@@ -27747,7 +27748,7 @@
         <v>21</v>
       </c>
       <c r="E935" s="3">
-        <v>197.04</v>
+        <v>197.56</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
@@ -27764,7 +27765,7 @@
         <v>21</v>
       </c>
       <c r="E936" s="3">
-        <v>297.18</v>
+        <v>297.97000000000003</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
@@ -27781,7 +27782,7 @@
         <v>21</v>
       </c>
       <c r="E937" s="3">
-        <v>503.91</v>
+        <v>505.25</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
@@ -27798,7 +27799,7 @@
         <v>21</v>
       </c>
       <c r="E938" s="3">
-        <v>846.32</v>
+        <v>848.57</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.2">
@@ -27815,7 +27816,7 @@
         <v>21</v>
       </c>
       <c r="E939" s="3">
-        <v>271.33999999999997</v>
+        <v>272.06</v>
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
@@ -27832,7 +27833,7 @@
         <v>21</v>
       </c>
       <c r="E940" s="3">
-        <v>403.78</v>
+        <v>404.86</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
@@ -27849,7 +27850,7 @@
         <v>21</v>
       </c>
       <c r="E941" s="3">
-        <v>604.04999999999995</v>
+        <v>605.66999999999996</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
@@ -27866,7 +27867,7 @@
         <v>21</v>
       </c>
       <c r="E942" s="3">
-        <v>1149.96</v>
+        <v>1153.02</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.2">
@@ -27883,7 +27884,7 @@
         <v>21</v>
       </c>
       <c r="E943" s="3">
-        <v>1873.53</v>
+        <v>1878.51</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
@@ -27900,7 +27901,7 @@
         <v>21</v>
       </c>
       <c r="E944" s="3">
-        <v>361.78</v>
+        <v>362.75</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.2">
@@ -27917,7 +27918,7 @@
         <v>21</v>
       </c>
       <c r="E945" s="3">
-        <v>1198.4100000000001</v>
+        <v>1201.6099999999999</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.2">
@@ -27934,7 +27935,7 @@
         <v>21</v>
       </c>
       <c r="E946" s="3">
-        <v>299.36</v>
+        <v>300.16000000000003</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.2">
@@ -27951,7 +27952,7 @@
         <v>21</v>
       </c>
       <c r="E947" s="3">
-        <v>506.37</v>
+        <v>507.71</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.2">
@@ -27968,7 +27969,7 @@
         <v>21</v>
       </c>
       <c r="E948" s="3">
-        <v>815.29</v>
+        <v>817.46</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.2">
@@ -30280,7 +30281,7 @@
         <v>21</v>
       </c>
       <c r="E1084" s="3">
-        <v>13457.87</v>
+        <v>14346.49</v>
       </c>
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
@@ -30297,7 +30298,7 @@
         <v>21</v>
       </c>
       <c r="E1085" s="3">
-        <v>13200.51</v>
+        <v>13992.14</v>
       </c>
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.2">
@@ -30314,7 +30315,7 @@
         <v>21</v>
       </c>
       <c r="E1086" s="3">
-        <v>4664.43</v>
+        <v>4991.55</v>
       </c>
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.2">
@@ -30331,7 +30332,7 @@
         <v>21</v>
       </c>
       <c r="E1087" s="3">
-        <v>4664.43</v>
+        <v>4991.55</v>
       </c>
     </row>
     <row r="1088" spans="1:5" x14ac:dyDescent="0.2">
@@ -30348,7 +30349,7 @@
         <v>21</v>
       </c>
       <c r="E1088" s="3">
-        <v>11685.02</v>
+        <v>12667.49</v>
       </c>
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.2">
@@ -30365,7 +30366,7 @@
         <v>21</v>
       </c>
       <c r="E1089" s="3">
-        <v>11025</v>
+        <v>11851.65</v>
       </c>
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.2">
@@ -30382,7 +30383,7 @@
         <v>21</v>
       </c>
       <c r="E1090" s="3">
-        <v>5189.8599999999997</v>
+        <v>5554.75</v>
       </c>
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.2">
@@ -30399,7 +30400,7 @@
         <v>21</v>
       </c>
       <c r="E1091" s="3">
-        <v>5070.03</v>
+        <v>5386.32</v>
       </c>
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.2">
@@ -30416,7 +30417,7 @@
         <v>21</v>
       </c>
       <c r="E1092" s="3">
-        <v>6839.92</v>
+        <v>7193.45</v>
       </c>
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.2">
@@ -30450,7 +30451,7 @@
         <v>21</v>
       </c>
       <c r="E1094" s="3">
-        <v>2341.4299999999998</v>
+        <v>2508.94</v>
       </c>
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.2">
@@ -30467,7 +30468,7 @@
         <v>21</v>
       </c>
       <c r="E1095" s="3">
-        <v>8388.58</v>
+        <v>9132.17</v>
       </c>
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.2">
@@ -30484,7 +30485,7 @@
         <v>21</v>
       </c>
       <c r="E1096" s="3">
-        <v>7522.09</v>
+        <v>8123.34</v>
       </c>
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.2">
@@ -32524,7 +32525,7 @@
         <v>21</v>
       </c>
       <c r="E1216" s="3">
-        <v>16993.669999999998</v>
+        <v>17038.86</v>
       </c>
     </row>
     <row r="1217" spans="1:5" x14ac:dyDescent="0.2">
@@ -32541,7 +32542,7 @@
         <v>21</v>
       </c>
       <c r="E1217" s="3">
-        <v>16993.669999999998</v>
+        <v>17038.86</v>
       </c>
     </row>
     <row r="1218" spans="1:5" x14ac:dyDescent="0.2">
@@ -32558,7 +32559,7 @@
         <v>21</v>
       </c>
       <c r="E1218" s="3">
-        <v>16993.669999999998</v>
+        <v>17038.86</v>
       </c>
     </row>
     <row r="1219" spans="1:5" x14ac:dyDescent="0.2">
@@ -32575,7 +32576,7 @@
         <v>21</v>
       </c>
       <c r="E1219" s="3">
-        <v>16993.669999999998</v>
+        <v>17038.86</v>
       </c>
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.2">
@@ -32592,7 +32593,7 @@
         <v>21</v>
       </c>
       <c r="E1220" s="3">
-        <v>16993.669999999998</v>
+        <v>17038.86</v>
       </c>
     </row>
     <row r="1221" spans="1:5" x14ac:dyDescent="0.2">
@@ -32609,7 +32610,7 @@
         <v>21</v>
       </c>
       <c r="E1221" s="3">
-        <v>16993.669999999998</v>
+        <v>17038.86</v>
       </c>
     </row>
     <row r="1222" spans="1:5" x14ac:dyDescent="0.2">
@@ -32626,7 +32627,7 @@
         <v>21</v>
       </c>
       <c r="E1222" s="3">
-        <v>16993.669999999998</v>
+        <v>17038.86</v>
       </c>
     </row>
     <row r="1223" spans="1:5" x14ac:dyDescent="0.2">
@@ -32643,7 +32644,7 @@
         <v>21</v>
       </c>
       <c r="E1223" s="3">
-        <v>16993.669999999998</v>
+        <v>17038.86</v>
       </c>
     </row>
     <row r="1224" spans="1:5" x14ac:dyDescent="0.2">
@@ -32660,7 +32661,7 @@
         <v>21</v>
       </c>
       <c r="E1224" s="3">
-        <v>16993.669999999998</v>
+        <v>17038.86</v>
       </c>
     </row>
     <row r="1225" spans="1:5" x14ac:dyDescent="0.2">
@@ -32694,7 +32695,7 @@
         <v>21</v>
       </c>
       <c r="E1226" s="3">
-        <v>16847.169999999998</v>
+        <v>16891.98</v>
       </c>
     </row>
     <row r="1227" spans="1:5" x14ac:dyDescent="0.2">
@@ -32711,7 +32712,7 @@
         <v>21</v>
       </c>
       <c r="E1227" s="3">
-        <v>16847.169999999998</v>
+        <v>16891.98</v>
       </c>
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.2">
@@ -32728,7 +32729,7 @@
         <v>21</v>
       </c>
       <c r="E1228" s="3">
-        <v>16847.169999999998</v>
+        <v>16891.98</v>
       </c>
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.2">
@@ -32745,7 +32746,7 @@
         <v>21</v>
       </c>
       <c r="E1229" s="3">
-        <v>16847.169999999998</v>
+        <v>16891.98</v>
       </c>
     </row>
     <row r="1230" spans="1:5" x14ac:dyDescent="0.2">
@@ -32762,7 +32763,7 @@
         <v>21</v>
       </c>
       <c r="E1230" s="3">
-        <v>16847.169999999998</v>
+        <v>16891.98</v>
       </c>
     </row>
     <row r="1231" spans="1:5" x14ac:dyDescent="0.2">
@@ -32779,7 +32780,7 @@
         <v>21</v>
       </c>
       <c r="E1231" s="3">
-        <v>16993.669999999998</v>
+        <v>17038.86</v>
       </c>
     </row>
     <row r="1232" spans="1:5" x14ac:dyDescent="0.2">
@@ -32796,7 +32797,7 @@
         <v>21</v>
       </c>
       <c r="E1232" s="3">
-        <v>16847.169999999998</v>
+        <v>16891.98</v>
       </c>
     </row>
     <row r="1233" spans="1:5" x14ac:dyDescent="0.2">
@@ -32949,7 +32950,7 @@
         <v>21</v>
       </c>
       <c r="E1241" s="3">
-        <v>218.03</v>
+        <v>223.1</v>
       </c>
     </row>
     <row r="1242" spans="1:5" x14ac:dyDescent="0.2">
@@ -32966,7 +32967,7 @@
         <v>21</v>
       </c>
       <c r="E1242" s="3">
-        <v>383.13</v>
+        <v>392.06</v>
       </c>
     </row>
     <row r="1243" spans="1:5" x14ac:dyDescent="0.2">
@@ -32983,7 +32984,7 @@
         <v>21</v>
       </c>
       <c r="E1243" s="3">
-        <v>608.13</v>
+        <v>622.29</v>
       </c>
     </row>
     <row r="1244" spans="1:5" x14ac:dyDescent="0.2">
@@ -49150,7 +49151,7 @@
         <v>21</v>
       </c>
       <c r="E2194" s="3">
-        <v>250.68</v>
+        <v>251.35</v>
       </c>
     </row>
     <row r="2195" spans="1:5" x14ac:dyDescent="0.2">
@@ -49167,7 +49168,7 @@
         <v>21</v>
       </c>
       <c r="E2195" s="3">
-        <v>517.86</v>
+        <v>519.23</v>
       </c>
     </row>
     <row r="2196" spans="1:5" x14ac:dyDescent="0.2">
@@ -49184,7 +49185,7 @@
         <v>21</v>
       </c>
       <c r="E2196" s="3">
-        <v>930.17</v>
+        <v>932.64</v>
       </c>
     </row>
     <row r="2197" spans="1:5" x14ac:dyDescent="0.2">
@@ -49201,7 +49202,7 @@
         <v>21</v>
       </c>
       <c r="E2197" s="3">
-        <v>1385.35</v>
+        <v>1389.04</v>
       </c>
     </row>
     <row r="2198" spans="1:5" x14ac:dyDescent="0.2">
@@ -49218,7 +49219,7 @@
         <v>21</v>
       </c>
       <c r="E2198" s="3">
-        <v>2074.73</v>
+        <v>2080.2399999999998</v>
       </c>
     </row>
     <row r="2199" spans="1:5" x14ac:dyDescent="0.2">
@@ -49235,7 +49236,7 @@
         <v>21</v>
       </c>
       <c r="E2199" s="3">
-        <v>250.68</v>
+        <v>251.35</v>
       </c>
     </row>
     <row r="2200" spans="1:5" x14ac:dyDescent="0.2">
@@ -49252,7 +49253,7 @@
         <v>21</v>
       </c>
       <c r="E2200" s="3">
-        <v>517.86</v>
+        <v>519.23</v>
       </c>
     </row>
     <row r="2201" spans="1:5" x14ac:dyDescent="0.2">
@@ -49269,7 +49270,7 @@
         <v>21</v>
       </c>
       <c r="E2201" s="3">
-        <v>930.17</v>
+        <v>932.64</v>
       </c>
     </row>
     <row r="2202" spans="1:5" x14ac:dyDescent="0.2">
@@ -49286,7 +49287,7 @@
         <v>21</v>
       </c>
       <c r="E2202" s="3">
-        <v>1385.35</v>
+        <v>1389.04</v>
       </c>
     </row>
     <row r="2203" spans="1:5" x14ac:dyDescent="0.2">
@@ -49303,7 +49304,7 @@
         <v>21</v>
       </c>
       <c r="E2203" s="3">
-        <v>2074.73</v>
+        <v>2080.2399999999998</v>
       </c>
     </row>
     <row r="2204" spans="1:5" x14ac:dyDescent="0.2">
@@ -49320,7 +49321,7 @@
         <v>21</v>
       </c>
       <c r="E2204" s="3">
-        <v>1781.17</v>
+        <v>1785.91</v>
       </c>
     </row>
     <row r="2205" spans="1:5" x14ac:dyDescent="0.2">
@@ -49337,7 +49338,7 @@
         <v>21</v>
       </c>
       <c r="E2205" s="3">
-        <v>1167.6500000000001</v>
+        <v>1170.76</v>
       </c>
     </row>
     <row r="2206" spans="1:5" x14ac:dyDescent="0.2">
@@ -49354,7 +49355,7 @@
         <v>21</v>
       </c>
       <c r="E2206" s="3">
-        <v>1167.6500000000001</v>
+        <v>1170.76</v>
       </c>
     </row>
     <row r="2207" spans="1:5" x14ac:dyDescent="0.2">
@@ -53485,7 +53486,7 @@
         <v>21</v>
       </c>
       <c r="E2449" s="3">
-        <v>2256.15</v>
+        <v>2262.15</v>
       </c>
     </row>
     <row r="2450" spans="1:5" x14ac:dyDescent="0.2">
@@ -53502,7 +53503,7 @@
         <v>21</v>
       </c>
       <c r="E2450" s="3">
-        <v>4725.67</v>
+        <v>4738.24</v>
       </c>
     </row>
     <row r="2451" spans="1:5" x14ac:dyDescent="0.2">
@@ -53519,7 +53520,7 @@
         <v>21</v>
       </c>
       <c r="E2451" s="3">
-        <v>3043.45</v>
+        <v>3051.54</v>
       </c>
     </row>
     <row r="2452" spans="1:5" x14ac:dyDescent="0.2">
@@ -53536,7 +53537,7 @@
         <v>21</v>
       </c>
       <c r="E2452" s="3">
-        <v>2101.12</v>
+        <v>2106.6999999999998</v>
       </c>
     </row>
     <row r="2453" spans="1:5" x14ac:dyDescent="0.2">
@@ -53553,7 +53554,7 @@
         <v>21</v>
       </c>
       <c r="E2453" s="3">
-        <v>4184.2700000000004</v>
+        <v>4195.3999999999996</v>
       </c>
     </row>
     <row r="2454" spans="1:5" x14ac:dyDescent="0.2">
@@ -53570,7 +53571,7 @@
         <v>21</v>
       </c>
       <c r="E2454" s="3">
-        <v>527.75</v>
+        <v>529.16</v>
       </c>
     </row>
     <row r="2455" spans="1:5" x14ac:dyDescent="0.2">
@@ -53587,7 +53588,7 @@
         <v>21</v>
       </c>
       <c r="E2455" s="3">
-        <v>481.58</v>
+        <v>482.86</v>
       </c>
     </row>
     <row r="2456" spans="1:5" x14ac:dyDescent="0.2">
@@ -53604,7 +53605,7 @@
         <v>21</v>
       </c>
       <c r="E2456" s="3">
-        <v>907.08</v>
+        <v>909.5</v>
       </c>
     </row>
     <row r="2457" spans="1:5" x14ac:dyDescent="0.2">
@@ -53621,7 +53622,7 @@
         <v>21</v>
       </c>
       <c r="E2457" s="3">
-        <v>1022.52</v>
+        <v>1025.24</v>
       </c>
     </row>
     <row r="2458" spans="1:5" x14ac:dyDescent="0.2">
@@ -53638,7 +53639,7 @@
         <v>21</v>
       </c>
       <c r="E2458" s="3">
-        <v>148.43</v>
+        <v>148.83000000000001</v>
       </c>
     </row>
     <row r="2459" spans="1:5" x14ac:dyDescent="0.2">
@@ -53655,7 +53656,7 @@
         <v>21</v>
       </c>
       <c r="E2459" s="3">
-        <v>527.75</v>
+        <v>529.16</v>
       </c>
     </row>
     <row r="2460" spans="1:5" x14ac:dyDescent="0.2">
@@ -53672,7 +53673,7 @@
         <v>21</v>
       </c>
       <c r="E2460" s="3">
-        <v>481.58</v>
+        <v>482.86</v>
       </c>
     </row>
     <row r="2461" spans="1:5" x14ac:dyDescent="0.2">
@@ -53689,7 +53690,7 @@
         <v>21</v>
       </c>
       <c r="E2461" s="3">
-        <v>1022.52</v>
+        <v>1025.24</v>
       </c>
     </row>
     <row r="2462" spans="1:5" x14ac:dyDescent="0.2">
@@ -53706,7 +53707,7 @@
         <v>21</v>
       </c>
       <c r="E2462" s="3">
-        <v>531.04999999999995</v>
+        <v>532.47</v>
       </c>
     </row>
     <row r="2463" spans="1:5" x14ac:dyDescent="0.2">
@@ -53723,7 +53724,7 @@
         <v>21</v>
       </c>
       <c r="E2463" s="3">
-        <v>867.49</v>
+        <v>869.79</v>
       </c>
     </row>
     <row r="2464" spans="1:5" x14ac:dyDescent="0.2">
@@ -53740,7 +53741,7 @@
         <v>21</v>
       </c>
       <c r="E2464" s="3">
-        <v>10795.86</v>
+        <v>10824.56</v>
       </c>
     </row>
     <row r="2465" spans="1:5" x14ac:dyDescent="0.2">
@@ -53757,7 +53758,7 @@
         <v>21</v>
       </c>
       <c r="E2465" s="3">
-        <v>8965.2099999999991</v>
+        <v>8989.06</v>
       </c>
     </row>
     <row r="2466" spans="1:5" x14ac:dyDescent="0.2">
@@ -55270,7 +55271,7 @@
         <v>21</v>
       </c>
       <c r="E2554" s="3">
-        <v>2483.7399999999998</v>
+        <v>2490.34</v>
       </c>
     </row>
     <row r="2555" spans="1:5" x14ac:dyDescent="0.2">
@@ -55984,7 +55985,7 @@
         <v>21</v>
       </c>
       <c r="E2596" s="3">
-        <v>16336.52</v>
+        <v>16379.97</v>
       </c>
     </row>
     <row r="2597" spans="1:5" x14ac:dyDescent="0.2">
@@ -56001,7 +56002,7 @@
         <v>21</v>
       </c>
       <c r="E2597" s="3">
-        <v>18533.98</v>
+        <v>18583.27</v>
       </c>
     </row>
     <row r="2598" spans="1:5" x14ac:dyDescent="0.2">
@@ -56987,7 +56988,7 @@
         <v>21</v>
       </c>
       <c r="E2655" s="3">
-        <v>153.76</v>
+        <v>161.47</v>
       </c>
     </row>
     <row r="2656" spans="1:5" x14ac:dyDescent="0.2">
@@ -58126,7 +58127,7 @@
         <v>21</v>
       </c>
       <c r="E2722" s="3">
-        <v>755.35</v>
+        <v>757.37</v>
       </c>
     </row>
     <row r="2723" spans="1:5" x14ac:dyDescent="0.2">
@@ -58143,7 +58144,7 @@
         <v>21</v>
       </c>
       <c r="E2723" s="3">
-        <v>745.45</v>
+        <v>747.43</v>
       </c>
     </row>
     <row r="2724" spans="1:5" x14ac:dyDescent="0.2">
@@ -58160,7 +58161,7 @@
         <v>21</v>
       </c>
       <c r="E2724" s="3">
-        <v>794.93</v>
+        <v>797.05</v>
       </c>
     </row>
     <row r="2725" spans="1:5" x14ac:dyDescent="0.2">
@@ -58177,7 +58178,7 @@
         <v>21</v>
       </c>
       <c r="E2725" s="3">
-        <v>283.67</v>
+        <v>284.42</v>
       </c>
     </row>
     <row r="2726" spans="1:5" x14ac:dyDescent="0.2">
@@ -58194,7 +58195,7 @@
         <v>21</v>
       </c>
       <c r="E2726" s="3">
-        <v>514.55999999999995</v>
+        <v>515.92999999999995</v>
       </c>
     </row>
     <row r="2727" spans="1:5" x14ac:dyDescent="0.2">
@@ -58211,7 +58212,7 @@
         <v>21</v>
       </c>
       <c r="E2727" s="3">
-        <v>514.55999999999995</v>
+        <v>515.92999999999995</v>
       </c>
     </row>
     <row r="2728" spans="1:5" x14ac:dyDescent="0.2">
@@ -58228,7 +58229,7 @@
         <v>21</v>
       </c>
       <c r="E2728" s="3">
-        <v>385.92</v>
+        <v>386.94</v>
       </c>
     </row>
     <row r="2729" spans="1:5" x14ac:dyDescent="0.2">
@@ -58245,7 +58246,7 @@
         <v>21</v>
       </c>
       <c r="E2729" s="3">
-        <v>385.92</v>
+        <v>386.94</v>
       </c>
     </row>
     <row r="2730" spans="1:5" x14ac:dyDescent="0.2">
@@ -58262,7 +58263,7 @@
         <v>21</v>
       </c>
       <c r="E2730" s="3">
-        <v>385.92</v>
+        <v>386.94</v>
       </c>
     </row>
     <row r="2731" spans="1:5" x14ac:dyDescent="0.2">
@@ -58313,7 +58314,7 @@
         <v>21</v>
       </c>
       <c r="E2733" s="3">
-        <v>191.31</v>
+        <v>191.82</v>
       </c>
     </row>
     <row r="2734" spans="1:5" x14ac:dyDescent="0.2">
@@ -58330,7 +58331,7 @@
         <v>21</v>
       </c>
       <c r="E2734" s="3">
-        <v>277.07</v>
+        <v>277.81</v>
       </c>
     </row>
     <row r="2735" spans="1:5" x14ac:dyDescent="0.2">
@@ -58347,7 +58348,7 @@
         <v>21</v>
       </c>
       <c r="E2735" s="3">
-        <v>277.07</v>
+        <v>277.81</v>
       </c>
     </row>
     <row r="2736" spans="1:5" x14ac:dyDescent="0.2">
@@ -58364,7 +58365,7 @@
         <v>21</v>
       </c>
       <c r="E2736" s="3">
-        <v>133.76</v>
+        <v>134.11000000000001</v>
       </c>
     </row>
     <row r="2737" spans="1:5" x14ac:dyDescent="0.2">
@@ -58381,7 +58382,7 @@
         <v>21</v>
       </c>
       <c r="E2737" s="3">
-        <v>336.44</v>
+        <v>337.34</v>
       </c>
     </row>
     <row r="2738" spans="1:5" x14ac:dyDescent="0.2">
@@ -58398,7 +58399,7 @@
         <v>21</v>
       </c>
       <c r="E2738" s="3">
-        <v>501.37</v>
+        <v>502.7</v>
       </c>
     </row>
     <row r="2739" spans="1:5" x14ac:dyDescent="0.2">
@@ -58415,7 +58416,7 @@
         <v>21</v>
       </c>
       <c r="E2739" s="3">
-        <v>669.59</v>
+        <v>671.36</v>
       </c>
     </row>
     <row r="2740" spans="1:5" x14ac:dyDescent="0.2">
@@ -58432,7 +58433,7 @@
         <v>21</v>
       </c>
       <c r="E2740" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2741" spans="1:5" x14ac:dyDescent="0.2">
@@ -58449,7 +58450,7 @@
         <v>21</v>
       </c>
       <c r="E2741" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2742" spans="1:5" x14ac:dyDescent="0.2">
@@ -58466,7 +58467,7 @@
         <v>21</v>
       </c>
       <c r="E2742" s="3">
-        <v>114.65</v>
+        <v>114.95</v>
       </c>
     </row>
     <row r="2743" spans="1:5" x14ac:dyDescent="0.2">
@@ -58483,7 +58484,7 @@
         <v>21</v>
       </c>
       <c r="E2743" s="3">
-        <v>114.65</v>
+        <v>114.95</v>
       </c>
     </row>
     <row r="2744" spans="1:5" x14ac:dyDescent="0.2">
@@ -58500,7 +58501,7 @@
         <v>21</v>
       </c>
       <c r="E2744" s="3">
-        <v>114.65</v>
+        <v>114.95</v>
       </c>
     </row>
     <row r="2745" spans="1:5" x14ac:dyDescent="0.2">
@@ -58517,7 +58518,7 @@
         <v>21</v>
       </c>
       <c r="E2745" s="3">
-        <v>114.65</v>
+        <v>114.95</v>
       </c>
     </row>
     <row r="2746" spans="1:5" x14ac:dyDescent="0.2">
@@ -58534,7 +58535,7 @@
         <v>21</v>
       </c>
       <c r="E2746" s="3">
-        <v>910.37</v>
+        <v>912.8</v>
       </c>
     </row>
     <row r="2747" spans="1:5" x14ac:dyDescent="0.2">
@@ -58551,7 +58552,7 @@
         <v>21</v>
       </c>
       <c r="E2747" s="3">
-        <v>1213.83</v>
+        <v>1217.06</v>
       </c>
     </row>
     <row r="2748" spans="1:5" x14ac:dyDescent="0.2">
@@ -58585,7 +58586,7 @@
         <v>21</v>
       </c>
       <c r="E2749" s="3">
-        <v>63.69</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="2750" spans="1:5" x14ac:dyDescent="0.2">
@@ -58602,7 +58603,7 @@
         <v>21</v>
       </c>
       <c r="E2750" s="3">
-        <v>63.69</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="2751" spans="1:5" x14ac:dyDescent="0.2">
@@ -58619,7 +58620,7 @@
         <v>21</v>
       </c>
       <c r="E2751" s="3">
-        <v>63.69</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="2752" spans="1:5" x14ac:dyDescent="0.2">
@@ -58636,7 +58637,7 @@
         <v>21</v>
       </c>
       <c r="E2752" s="3">
-        <v>63.69</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="2753" spans="1:5" x14ac:dyDescent="0.2">
@@ -58653,7 +58654,7 @@
         <v>21</v>
       </c>
       <c r="E2753" s="3">
-        <v>105.1</v>
+        <v>105.37</v>
       </c>
     </row>
     <row r="2754" spans="1:5" x14ac:dyDescent="0.2">
@@ -58670,7 +58671,7 @@
         <v>21</v>
       </c>
       <c r="E2754" s="3">
-        <v>191.08</v>
+        <v>191.59</v>
       </c>
     </row>
     <row r="2755" spans="1:5" x14ac:dyDescent="0.2">
@@ -58687,7 +58688,7 @@
         <v>21</v>
       </c>
       <c r="E2755" s="3">
-        <v>101.91</v>
+        <v>102.18</v>
       </c>
     </row>
     <row r="2756" spans="1:5" x14ac:dyDescent="0.2">
@@ -58704,7 +58705,7 @@
         <v>21</v>
       </c>
       <c r="E2756" s="3">
-        <v>101.91</v>
+        <v>102.18</v>
       </c>
     </row>
     <row r="2757" spans="1:5" x14ac:dyDescent="0.2">
@@ -58721,7 +58722,7 @@
         <v>21</v>
       </c>
       <c r="E2757" s="3">
-        <v>101.91</v>
+        <v>102.18</v>
       </c>
     </row>
     <row r="2758" spans="1:5" x14ac:dyDescent="0.2">
@@ -58738,7 +58739,7 @@
         <v>21</v>
       </c>
       <c r="E2758" s="3">
-        <v>101.91</v>
+        <v>102.18</v>
       </c>
     </row>
     <row r="2759" spans="1:5" x14ac:dyDescent="0.2">
@@ -58755,7 +58756,7 @@
         <v>21</v>
       </c>
       <c r="E2759" s="3">
-        <v>101.91</v>
+        <v>102.18</v>
       </c>
     </row>
     <row r="2760" spans="1:5" x14ac:dyDescent="0.2">
@@ -58772,7 +58773,7 @@
         <v>21</v>
       </c>
       <c r="E2760" s="3">
-        <v>95.66</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="2761" spans="1:5" x14ac:dyDescent="0.2">
@@ -58789,7 +58790,7 @@
         <v>21</v>
       </c>
       <c r="E2761" s="3">
-        <v>517.86</v>
+        <v>519.23</v>
       </c>
     </row>
     <row r="2762" spans="1:5" x14ac:dyDescent="0.2">
@@ -58806,7 +58807,7 @@
         <v>21</v>
       </c>
       <c r="E2762" s="3">
-        <v>517.86</v>
+        <v>519.23</v>
       </c>
     </row>
     <row r="2763" spans="1:5" x14ac:dyDescent="0.2">
@@ -58823,7 +58824,7 @@
         <v>21</v>
       </c>
       <c r="E2763" s="3">
-        <v>517.86</v>
+        <v>519.23</v>
       </c>
     </row>
     <row r="2764" spans="1:5" x14ac:dyDescent="0.2">
@@ -58840,7 +58841,7 @@
         <v>21</v>
       </c>
       <c r="E2764" s="3">
-        <v>517.86</v>
+        <v>519.23</v>
       </c>
     </row>
     <row r="2765" spans="1:5" x14ac:dyDescent="0.2">
@@ -58857,7 +58858,7 @@
         <v>21</v>
       </c>
       <c r="E2765" s="3">
-        <v>517.86</v>
+        <v>519.23</v>
       </c>
     </row>
     <row r="2766" spans="1:5" x14ac:dyDescent="0.2">
@@ -58874,7 +58875,7 @@
         <v>21</v>
       </c>
       <c r="E2766" s="3">
-        <v>517.86</v>
+        <v>519.23</v>
       </c>
     </row>
     <row r="2767" spans="1:5" x14ac:dyDescent="0.2">
@@ -58891,7 +58892,7 @@
         <v>21</v>
       </c>
       <c r="E2767" s="3">
-        <v>517.86</v>
+        <v>519.23</v>
       </c>
     </row>
     <row r="2768" spans="1:5" x14ac:dyDescent="0.2">
@@ -58908,7 +58909,7 @@
         <v>21</v>
       </c>
       <c r="E2768" s="3">
-        <v>95.66</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="2769" spans="1:5" x14ac:dyDescent="0.2">
@@ -58925,7 +58926,7 @@
         <v>21</v>
       </c>
       <c r="E2769" s="3">
-        <v>95.66</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="2770" spans="1:5" x14ac:dyDescent="0.2">
@@ -58942,7 +58943,7 @@
         <v>21</v>
       </c>
       <c r="E2770" s="3">
-        <v>95.66</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="2771" spans="1:5" x14ac:dyDescent="0.2">
@@ -58959,7 +58960,7 @@
         <v>21</v>
       </c>
       <c r="E2771" s="3">
-        <v>95.66</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="2772" spans="1:5" x14ac:dyDescent="0.2">
@@ -58976,7 +58977,7 @@
         <v>21</v>
       </c>
       <c r="E2772" s="3">
-        <v>290.26</v>
+        <v>291.04000000000002</v>
       </c>
     </row>
     <row r="2773" spans="1:5" x14ac:dyDescent="0.2">
@@ -58993,7 +58994,7 @@
         <v>21</v>
       </c>
       <c r="E2773" s="3">
-        <v>385.92</v>
+        <v>386.94</v>
       </c>
     </row>
     <row r="2774" spans="1:5" x14ac:dyDescent="0.2">
@@ -59010,7 +59011,7 @@
         <v>21</v>
       </c>
       <c r="E2774" s="3">
-        <v>577.23</v>
+        <v>578.77</v>
       </c>
     </row>
     <row r="2775" spans="1:5" x14ac:dyDescent="0.2">
@@ -59027,7 +59028,7 @@
         <v>21</v>
       </c>
       <c r="E2775" s="3">
-        <v>160.37</v>
+        <v>160.79</v>
       </c>
     </row>
     <row r="2776" spans="1:5" x14ac:dyDescent="0.2">
@@ -59044,7 +59045,7 @@
         <v>21</v>
       </c>
       <c r="E2776" s="3">
-        <v>201.32</v>
+        <v>201.86</v>
       </c>
     </row>
     <row r="2777" spans="1:5" x14ac:dyDescent="0.2">
@@ -59061,7 +59062,7 @@
         <v>21</v>
       </c>
       <c r="E2777" s="3">
-        <v>228.62</v>
+        <v>229.23</v>
       </c>
     </row>
     <row r="2778" spans="1:5" x14ac:dyDescent="0.2">
@@ -59078,7 +59079,7 @@
         <v>21</v>
       </c>
       <c r="E2778" s="3">
-        <v>375.34</v>
+        <v>376.34</v>
       </c>
     </row>
     <row r="2779" spans="1:5" x14ac:dyDescent="0.2">
@@ -59095,7 +59096,7 @@
         <v>21</v>
       </c>
       <c r="E2779" s="3">
-        <v>63.69</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="2780" spans="1:5" x14ac:dyDescent="0.2">
@@ -59112,7 +59113,7 @@
         <v>21</v>
       </c>
       <c r="E2780" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2781" spans="1:5" x14ac:dyDescent="0.2">
@@ -59129,7 +59130,7 @@
         <v>21</v>
       </c>
       <c r="E2781" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.2">
@@ -59146,7 +59147,7 @@
         <v>21</v>
       </c>
       <c r="E2782" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.2">
@@ -59163,7 +59164,7 @@
         <v>21</v>
       </c>
       <c r="E2783" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.2">
@@ -59180,7 +59181,7 @@
         <v>21</v>
       </c>
       <c r="E2784" s="3">
-        <v>544.25</v>
+        <v>545.67999999999995</v>
       </c>
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.2">
@@ -59197,7 +59198,7 @@
         <v>21</v>
       </c>
       <c r="E2785" s="3">
-        <v>1085.19</v>
+        <v>1088.07</v>
       </c>
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.2">
@@ -59214,7 +59215,7 @@
         <v>21</v>
       </c>
       <c r="E2786" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.2">
@@ -59231,7 +59232,7 @@
         <v>21</v>
       </c>
       <c r="E2787" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.2">
@@ -59248,7 +59249,7 @@
         <v>21</v>
       </c>
       <c r="E2788" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.2">
@@ -59265,7 +59266,7 @@
         <v>21</v>
       </c>
       <c r="E2789" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.2">
@@ -59282,7 +59283,7 @@
         <v>21</v>
       </c>
       <c r="E2790" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.2">
@@ -59299,7 +59300,7 @@
         <v>21</v>
       </c>
       <c r="E2791" s="3">
-        <v>92.36</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.2">
@@ -59316,7 +59317,7 @@
         <v>21</v>
       </c>
       <c r="E2792" s="3">
-        <v>63.69</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.2">
@@ -59333,7 +59334,7 @@
         <v>21</v>
       </c>
       <c r="E2793" s="3">
-        <v>771.84</v>
+        <v>773.89</v>
       </c>
     </row>
     <row r="2794" spans="1:5" x14ac:dyDescent="0.2">
@@ -59350,7 +59351,7 @@
         <v>21</v>
       </c>
       <c r="E2794" s="3">
-        <v>188.01</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="2795" spans="1:5" x14ac:dyDescent="0.2">
@@ -59367,7 +59368,7 @@
         <v>21</v>
       </c>
       <c r="E2795" s="3">
-        <v>306.76</v>
+        <v>307.58</v>
       </c>
     </row>
     <row r="2796" spans="1:5" x14ac:dyDescent="0.2">
@@ -59384,7 +59385,7 @@
         <v>21</v>
       </c>
       <c r="E2796" s="3">
-        <v>1431.53</v>
+        <v>1435.34</v>
       </c>
     </row>
     <row r="2797" spans="1:5" x14ac:dyDescent="0.2">
@@ -59401,7 +59402,7 @@
         <v>21</v>
       </c>
       <c r="E2797" s="3">
-        <v>847.7</v>
+        <v>849.95</v>
       </c>
     </row>
     <row r="2798" spans="1:5" x14ac:dyDescent="0.2">
@@ -59418,7 +59419,7 @@
         <v>21</v>
       </c>
       <c r="E2798" s="3">
-        <v>133.76</v>
+        <v>134.11000000000001</v>
       </c>
     </row>
     <row r="2799" spans="1:5" x14ac:dyDescent="0.2">
@@ -59435,7 +59436,7 @@
         <v>21</v>
       </c>
       <c r="E2799" s="3">
-        <v>133.76</v>
+        <v>134.11000000000001</v>
       </c>
     </row>
     <row r="2800" spans="1:5" x14ac:dyDescent="0.2">
@@ -65980,7 +65981,7 @@
         <v>21</v>
       </c>
       <c r="E3184" s="3">
-        <v>3295.16</v>
+        <v>3303.93</v>
       </c>
     </row>
     <row r="3185" spans="1:5" x14ac:dyDescent="0.2">
@@ -65997,7 +65998,7 @@
         <v>21</v>
       </c>
       <c r="E3185" s="3">
-        <v>3295.16</v>
+        <v>3303.93</v>
       </c>
     </row>
     <row r="3186" spans="1:5" x14ac:dyDescent="0.2">
@@ -66014,7 +66015,7 @@
         <v>21</v>
       </c>
       <c r="E3186" s="3">
-        <v>2275.94</v>
+        <v>2281.9899999999998</v>
       </c>
     </row>
     <row r="3187" spans="1:5" x14ac:dyDescent="0.2">
@@ -66031,7 +66032,7 @@
         <v>21</v>
       </c>
       <c r="E3187" s="3">
-        <v>2275.94</v>
+        <v>2281.9899999999998</v>
       </c>
     </row>
     <row r="3188" spans="1:5" x14ac:dyDescent="0.2">
@@ -67289,7 +67290,7 @@
         <v>21</v>
       </c>
       <c r="E3261" s="3">
-        <v>1032.47</v>
+        <v>1094.42</v>
       </c>
     </row>
     <row r="3262" spans="1:5" x14ac:dyDescent="0.2">
@@ -67306,7 +67307,7 @@
         <v>21</v>
       </c>
       <c r="E3262" s="3">
-        <v>1032.47</v>
+        <v>1094.42</v>
       </c>
     </row>
     <row r="3263" spans="1:5" x14ac:dyDescent="0.2">
@@ -67323,7 +67324,7 @@
         <v>21</v>
       </c>
       <c r="E3263" s="3">
-        <v>1032.47</v>
+        <v>1094.42</v>
       </c>
     </row>
     <row r="3264" spans="1:5" x14ac:dyDescent="0.2">
@@ -67340,7 +67341,7 @@
         <v>21</v>
       </c>
       <c r="E3264" s="3">
-        <v>1032.47</v>
+        <v>1094.42</v>
       </c>
     </row>
     <row r="3265" spans="1:5" x14ac:dyDescent="0.2">
@@ -67357,7 +67358,7 @@
         <v>21</v>
       </c>
       <c r="E3265" s="3">
-        <v>1032.47</v>
+        <v>1094.42</v>
       </c>
     </row>
     <row r="3266" spans="1:5" x14ac:dyDescent="0.2">
@@ -67374,7 +67375,7 @@
         <v>21</v>
       </c>
       <c r="E3266" s="3">
-        <v>1032.47</v>
+        <v>1094.42</v>
       </c>
     </row>
     <row r="3267" spans="1:5" x14ac:dyDescent="0.2">
@@ -67391,7 +67392,7 @@
         <v>21</v>
       </c>
       <c r="E3267" s="3">
-        <v>683.27</v>
+        <v>724.28</v>
       </c>
     </row>
     <row r="3268" spans="1:5" x14ac:dyDescent="0.2">
@@ -67408,7 +67409,7 @@
         <v>21</v>
       </c>
       <c r="E3268" s="3">
-        <v>782.07</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3269" spans="1:5" x14ac:dyDescent="0.2">
@@ -67425,7 +67426,7 @@
         <v>21</v>
       </c>
       <c r="E3269" s="3">
-        <v>683.27</v>
+        <v>724.28</v>
       </c>
     </row>
     <row r="3270" spans="1:5" x14ac:dyDescent="0.2">
@@ -67442,7 +67443,7 @@
         <v>21</v>
       </c>
       <c r="E3270" s="3">
-        <v>782.07</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3271" spans="1:5" x14ac:dyDescent="0.2">
@@ -67459,7 +67460,7 @@
         <v>21</v>
       </c>
       <c r="E3271" s="3">
-        <v>716.27</v>
+        <v>759.26</v>
       </c>
     </row>
     <row r="3272" spans="1:5" x14ac:dyDescent="0.2">
@@ -67476,7 +67477,7 @@
         <v>21</v>
       </c>
       <c r="E3272" s="3">
-        <v>821.28</v>
+        <v>870.57</v>
       </c>
     </row>
     <row r="3273" spans="1:5" x14ac:dyDescent="0.2">
@@ -67493,7 +67494,7 @@
         <v>21</v>
       </c>
       <c r="E3273" s="3">
-        <v>933.46</v>
+        <v>935.96</v>
       </c>
     </row>
     <row r="3274" spans="1:5" x14ac:dyDescent="0.2">
@@ -67510,7 +67511,7 @@
         <v>21</v>
       </c>
       <c r="E3274" s="3">
-        <v>1025.82</v>
+        <v>1028.56</v>
       </c>
     </row>
     <row r="3275" spans="1:5" x14ac:dyDescent="0.2">
@@ -67527,7 +67528,7 @@
         <v>21</v>
       </c>
       <c r="E3275" s="3">
-        <v>735.56</v>
+        <v>737.52</v>
       </c>
     </row>
     <row r="3276" spans="1:5" x14ac:dyDescent="0.2">
@@ -67544,7 +67545,7 @@
         <v>21</v>
       </c>
       <c r="E3276" s="3">
-        <v>695.98</v>
+        <v>697.83</v>
       </c>
     </row>
     <row r="3277" spans="1:5" x14ac:dyDescent="0.2">
@@ -67561,7 +67562,7 @@
         <v>21</v>
       </c>
       <c r="E3277" s="3">
-        <v>676.18</v>
+        <v>677.99</v>
       </c>
     </row>
     <row r="3278" spans="1:5" x14ac:dyDescent="0.2">
@@ -67578,7 +67579,7 @@
         <v>21</v>
       </c>
       <c r="E3278" s="3">
-        <v>870.79</v>
+        <v>873.11</v>
       </c>
     </row>
     <row r="3279" spans="1:5" x14ac:dyDescent="0.2">
@@ -67595,7 +67596,7 @@
         <v>21</v>
       </c>
       <c r="E3279" s="3">
-        <v>2599.19</v>
+        <v>2606.1</v>
       </c>
     </row>
     <row r="3280" spans="1:5" x14ac:dyDescent="0.2">
@@ -67612,7 +67613,7 @@
         <v>21</v>
       </c>
       <c r="E3280" s="3">
-        <v>1837.24</v>
+        <v>1842.12</v>
       </c>
     </row>
     <row r="3281" spans="1:5" x14ac:dyDescent="0.2">
@@ -67629,7 +67630,7 @@
         <v>21</v>
       </c>
       <c r="E3281" s="3">
-        <v>2200.0700000000002</v>
+        <v>2205.9299999999998</v>
       </c>
     </row>
     <row r="3282" spans="1:5" x14ac:dyDescent="0.2">
@@ -67646,7 +67647,7 @@
         <v>21</v>
       </c>
       <c r="E3282" s="3">
-        <v>2724.53</v>
+        <v>2731.77</v>
       </c>
     </row>
     <row r="3283" spans="1:5" x14ac:dyDescent="0.2">
@@ -67663,7 +67664,7 @@
         <v>21</v>
       </c>
       <c r="E3283" s="3">
-        <v>2193.48</v>
+        <v>2199.3200000000002</v>
       </c>
     </row>
     <row r="3284" spans="1:5" x14ac:dyDescent="0.2">
@@ -67680,7 +67681,7 @@
         <v>21</v>
       </c>
       <c r="E3284" s="3">
-        <v>2397.98</v>
+        <v>2404.35</v>
       </c>
     </row>
     <row r="3285" spans="1:5" x14ac:dyDescent="0.2">
@@ -67697,7 +67698,7 @@
         <v>21</v>
       </c>
       <c r="E3285" s="3">
-        <v>2071.4299999999998</v>
+        <v>2076.94</v>
       </c>
     </row>
     <row r="3286" spans="1:5" x14ac:dyDescent="0.2">
@@ -67714,7 +67715,7 @@
         <v>21</v>
       </c>
       <c r="E3286" s="3">
-        <v>716.27</v>
+        <v>759.26</v>
       </c>
     </row>
     <row r="3287" spans="1:5" x14ac:dyDescent="0.2">
@@ -67731,7 +67732,7 @@
         <v>21</v>
       </c>
       <c r="E3287" s="3">
-        <v>821.28</v>
+        <v>870.57</v>
       </c>
     </row>
     <row r="3288" spans="1:5" x14ac:dyDescent="0.2">
@@ -68751,7 +68752,7 @@
         <v>21</v>
       </c>
       <c r="E3347" s="3">
-        <v>945.18</v>
+        <v>947.68</v>
       </c>
     </row>
     <row r="3348" spans="1:5" x14ac:dyDescent="0.2">
@@ -69397,7 +69398,7 @@
         <v>21</v>
       </c>
       <c r="E3385" s="3">
-        <v>235.44</v>
+        <v>236.08</v>
       </c>
     </row>
     <row r="3386" spans="1:5" x14ac:dyDescent="0.2">
@@ -69414,7 +69415,7 @@
         <v>21</v>
       </c>
       <c r="E3386" s="3">
-        <v>605.87</v>
+        <v>607.49</v>
       </c>
     </row>
     <row r="3387" spans="1:5" x14ac:dyDescent="0.2">
@@ -69431,7 +69432,7 @@
         <v>21</v>
       </c>
       <c r="E3387" s="3">
-        <v>973.16</v>
+        <v>975.75</v>
       </c>
     </row>
     <row r="3388" spans="1:5" x14ac:dyDescent="0.2">
@@ -69448,7 +69449,7 @@
         <v>21</v>
       </c>
       <c r="E3388" s="3">
-        <v>1660.65</v>
+        <v>1665.06</v>
       </c>
     </row>
     <row r="3389" spans="1:5" x14ac:dyDescent="0.2">
@@ -69465,7 +69466,7 @@
         <v>21</v>
       </c>
       <c r="E3389" s="3">
-        <v>1660.65</v>
+        <v>1665.06</v>
       </c>
     </row>
     <row r="3390" spans="1:5" x14ac:dyDescent="0.2">
@@ -69482,7 +69483,7 @@
         <v>21</v>
       </c>
       <c r="E3390" s="3">
-        <v>2809.61</v>
+        <v>2817.09</v>
       </c>
     </row>
     <row r="3391" spans="1:5" x14ac:dyDescent="0.2">
@@ -69499,7 +69500,7 @@
         <v>21</v>
       </c>
       <c r="E3391" s="3">
-        <v>2809.61</v>
+        <v>2817.09</v>
       </c>
     </row>
     <row r="3392" spans="1:5" x14ac:dyDescent="0.2">
@@ -69516,7 +69517,7 @@
         <v>21</v>
       </c>
       <c r="E3392" s="3">
-        <v>1242.04</v>
+        <v>1245.3399999999999</v>
       </c>
     </row>
     <row r="3393" spans="1:5" x14ac:dyDescent="0.2">
@@ -69533,7 +69534,7 @@
         <v>21</v>
       </c>
       <c r="E3393" s="3">
-        <v>2076.44</v>
+        <v>2081.96</v>
       </c>
     </row>
     <row r="3394" spans="1:5" x14ac:dyDescent="0.2">
@@ -69550,7 +69551,7 @@
         <v>21</v>
       </c>
       <c r="E3394" s="3">
-        <v>4152.87</v>
+        <v>4163.92</v>
       </c>
     </row>
     <row r="3395" spans="1:5" x14ac:dyDescent="0.2">
@@ -69567,7 +69568,7 @@
         <v>21</v>
       </c>
       <c r="E3395" s="3">
-        <v>3649.69</v>
+        <v>3659.4</v>
       </c>
     </row>
     <row r="3396" spans="1:5" x14ac:dyDescent="0.2">
@@ -69584,7 +69585,7 @@
         <v>21</v>
       </c>
       <c r="E3396" s="3">
-        <v>7293.01</v>
+        <v>7312.41</v>
       </c>
     </row>
     <row r="3397" spans="1:5" x14ac:dyDescent="0.2">
@@ -69601,7 +69602,7 @@
         <v>21</v>
       </c>
       <c r="E3397" s="3">
-        <v>1547.77</v>
+        <v>1551.89</v>
       </c>
     </row>
     <row r="3398" spans="1:5" x14ac:dyDescent="0.2">
@@ -69618,7 +69619,7 @@
         <v>21</v>
       </c>
       <c r="E3398" s="3">
-        <v>2576.44</v>
+        <v>2583.2800000000002</v>
       </c>
     </row>
     <row r="3399" spans="1:5" x14ac:dyDescent="0.2">
@@ -69635,7 +69636,7 @@
         <v>21</v>
       </c>
       <c r="E3399" s="3">
-        <v>5156.0600000000004</v>
+        <v>5169.78</v>
       </c>
     </row>
     <row r="3400" spans="1:5" x14ac:dyDescent="0.2">
@@ -69652,7 +69653,7 @@
         <v>21</v>
       </c>
       <c r="E3400" s="3">
-        <v>4961.79</v>
+        <v>4974.99</v>
       </c>
     </row>
     <row r="3401" spans="1:5" x14ac:dyDescent="0.2">
@@ -69669,7 +69670,7 @@
         <v>21</v>
       </c>
       <c r="E3401" s="3">
-        <v>9920.4</v>
+        <v>9946.7800000000007</v>
       </c>
     </row>
     <row r="3402" spans="1:5" x14ac:dyDescent="0.2">
@@ -69686,7 +69687,7 @@
         <v>21</v>
       </c>
       <c r="E3402" s="3">
-        <v>7343.96</v>
+        <v>7363.5</v>
       </c>
     </row>
     <row r="3403" spans="1:5" x14ac:dyDescent="0.2">
@@ -69703,7 +69704,7 @@
         <v>21</v>
       </c>
       <c r="E3403" s="3">
-        <v>3015.93</v>
+        <v>3023.96</v>
       </c>
     </row>
     <row r="3404" spans="1:5" x14ac:dyDescent="0.2">
@@ -69720,7 +69721,7 @@
         <v>21</v>
       </c>
       <c r="E3404" s="3">
-        <v>6031.86</v>
+        <v>6047.9</v>
       </c>
     </row>
     <row r="3405" spans="1:5" x14ac:dyDescent="0.2">
@@ -69737,7 +69738,7 @@
         <v>21</v>
       </c>
       <c r="E3405" s="3">
-        <v>6127.4</v>
+        <v>6143.7</v>
       </c>
     </row>
     <row r="3406" spans="1:5" x14ac:dyDescent="0.2">
@@ -69754,7 +69755,7 @@
         <v>21</v>
       </c>
       <c r="E3406" s="3">
-        <v>12254.8</v>
+        <v>12287.4</v>
       </c>
     </row>
     <row r="3407" spans="1:5" x14ac:dyDescent="0.2">
@@ -69771,7 +69772,7 @@
         <v>21</v>
       </c>
       <c r="E3407" s="3">
-        <v>5105.1099999999997</v>
+        <v>5118.6899999999996</v>
       </c>
     </row>
     <row r="3408" spans="1:5" x14ac:dyDescent="0.2">
@@ -69788,7 +69789,7 @@
         <v>21</v>
       </c>
       <c r="E3408" s="3">
-        <v>10213.4</v>
+        <v>10240.549999999999</v>
       </c>
     </row>
     <row r="3409" spans="1:5" x14ac:dyDescent="0.2">
@@ -69805,7 +69806,7 @@
         <v>21</v>
       </c>
       <c r="E3409" s="3">
-        <v>9191.1</v>
+        <v>9215.5499999999993</v>
       </c>
     </row>
     <row r="3410" spans="1:5" x14ac:dyDescent="0.2">
@@ -69822,7 +69823,7 @@
         <v>21</v>
       </c>
       <c r="E3410" s="3">
-        <v>18382.2</v>
+        <v>18431.09</v>
       </c>
     </row>
     <row r="3411" spans="1:5" x14ac:dyDescent="0.2">
@@ -69839,7 +69840,7 @@
         <v>21</v>
       </c>
       <c r="E3411" s="3">
-        <v>3404.47</v>
+        <v>3413.53</v>
       </c>
     </row>
     <row r="3412" spans="1:5" x14ac:dyDescent="0.2">
@@ -69856,7 +69857,7 @@
         <v>21</v>
       </c>
       <c r="E3412" s="3">
-        <v>6808.93</v>
+        <v>6827.04</v>
       </c>
     </row>
     <row r="3413" spans="1:5" x14ac:dyDescent="0.2">
@@ -69873,7 +69874,7 @@
         <v>21</v>
       </c>
       <c r="E3413" s="3">
-        <v>6382.18</v>
+        <v>6399.15</v>
       </c>
     </row>
     <row r="3414" spans="1:5" x14ac:dyDescent="0.2">
@@ -69890,7 +69891,7 @@
         <v>21</v>
       </c>
       <c r="E3414" s="3">
-        <v>12764.36</v>
+        <v>12798.31</v>
       </c>
     </row>
     <row r="3415" spans="1:5" x14ac:dyDescent="0.2">
@@ -69907,7 +69908,7 @@
         <v>21</v>
       </c>
       <c r="E3415" s="3">
-        <v>2885.36</v>
+        <v>2893.03</v>
       </c>
     </row>
     <row r="3416" spans="1:5" x14ac:dyDescent="0.2">
@@ -69924,7 +69925,7 @@
         <v>21</v>
       </c>
       <c r="E3416" s="3">
-        <v>3337.59</v>
+        <v>3346.46</v>
       </c>
     </row>
     <row r="3417" spans="1:5" x14ac:dyDescent="0.2">
@@ -69941,7 +69942,7 @@
         <v>21</v>
       </c>
       <c r="E3417" s="3">
-        <v>11436.33</v>
+        <v>11466.74</v>
       </c>
     </row>
     <row r="3418" spans="1:5" x14ac:dyDescent="0.2">
@@ -69992,7 +69993,7 @@
         <v>21</v>
       </c>
       <c r="E3420" s="3">
-        <v>14687.93</v>
+        <v>14726.99</v>
       </c>
     </row>
     <row r="3421" spans="1:5" x14ac:dyDescent="0.2">
@@ -70009,7 +70010,7 @@
         <v>21</v>
       </c>
       <c r="E3421" s="3">
-        <v>5541.41</v>
+        <v>5556.15</v>
       </c>
     </row>
     <row r="3422" spans="1:5" x14ac:dyDescent="0.2">
@@ -71862,7 +71863,7 @@
         <v>21</v>
       </c>
       <c r="E3530" s="3">
-        <v>1675.62</v>
+        <v>1680.07</v>
       </c>
     </row>
     <row r="3531" spans="1:5" x14ac:dyDescent="0.2">

--- a/excel-files/jm.xlsx
+++ b/excel-files/jm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="3585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Historico" sheetId="1" r:id="rId1"/>
@@ -11523,7 +11523,7 @@
     <t xml:space="preserve">ADAPTADOR BROCA PARA MANDRIL 1/2 SDS12 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Precio c/IVA </t>
+    <t xml:space="preserve"> Precio c/IVA</t>
   </si>
 </sst>
 </file>
@@ -11931,13 +11931,14 @@
   <dimension ref="A1:AK3743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="3" width="61" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="5" customWidth="1"/>
     <col min="6" max="7" width="23.140625" customWidth="1"/>
@@ -13502,7 +13503,7 @@
         <v>21</v>
       </c>
       <c r="E90" s="3">
-        <v>1748.21</v>
+        <v>1760.4</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -13519,7 +13520,7 @@
         <v>21</v>
       </c>
       <c r="E91" s="3">
-        <v>1606.17</v>
+        <v>1617.36</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -13536,7 +13537,7 @@
         <v>21</v>
       </c>
       <c r="E92" s="3">
-        <v>2915.89</v>
+        <v>2936.24</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -13553,7 +13554,7 @@
         <v>21</v>
       </c>
       <c r="E93" s="3">
-        <v>2187.86</v>
+        <v>2203.13</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -13570,7 +13571,7 @@
         <v>21</v>
       </c>
       <c r="E94" s="3">
-        <v>1252.3599999999999</v>
+        <v>1261.0999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -13587,7 +13588,7 @@
         <v>21</v>
       </c>
       <c r="E95" s="3">
-        <v>1365.53</v>
+        <v>1375.05</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -13604,7 +13605,7 @@
         <v>21</v>
       </c>
       <c r="E96" s="3">
-        <v>1365.53</v>
+        <v>1375.05</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -13621,7 +13622,7 @@
         <v>21</v>
       </c>
       <c r="E97" s="3">
-        <v>1365.53</v>
+        <v>1375.05</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -13638,7 +13639,7 @@
         <v>21</v>
       </c>
       <c r="E98" s="3">
-        <v>2290.88</v>
+        <v>2306.87</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -13655,7 +13656,7 @@
         <v>21</v>
       </c>
       <c r="E99" s="3">
-        <v>1659.76</v>
+        <v>1671.34</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -13672,7 +13673,7 @@
         <v>21</v>
       </c>
       <c r="E100" s="3">
-        <v>2119.96</v>
+        <v>2134.75</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -13689,7 +13690,7 @@
         <v>21</v>
       </c>
       <c r="E101" s="3">
-        <v>629.95000000000005</v>
+        <v>634.36</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -13706,7 +13707,7 @@
         <v>21</v>
       </c>
       <c r="E102" s="3">
-        <v>882.69</v>
+        <v>888.85</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -13723,7 +13724,7 @@
         <v>21</v>
       </c>
       <c r="E103" s="3">
-        <v>1527.73</v>
+        <v>1538.4</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -13740,7 +13741,7 @@
         <v>21</v>
       </c>
       <c r="E104" s="3">
-        <v>826.11</v>
+        <v>831.86</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -13757,7 +13758,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="3">
-        <v>2372.6999999999998</v>
+        <v>2389.2600000000002</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -14573,7 +14574,7 @@
         <v>21</v>
       </c>
       <c r="E153" s="3">
-        <v>1200.5899999999999</v>
+        <v>1208.98</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -14590,7 +14591,7 @@
         <v>21</v>
       </c>
       <c r="E154" s="3">
-        <v>1200.5899999999999</v>
+        <v>1208.98</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -14607,7 +14608,7 @@
         <v>21</v>
       </c>
       <c r="E155" s="3">
-        <v>1939.42</v>
+        <v>1952.96</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -15610,7 +15611,7 @@
         <v>21</v>
       </c>
       <c r="E214" s="3">
-        <v>1486.76</v>
+        <v>1497.14</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -15627,7 +15628,7 @@
         <v>21</v>
       </c>
       <c r="E215" s="3">
-        <v>1525.78</v>
+        <v>1536.42</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -15644,7 +15645,7 @@
         <v>21</v>
       </c>
       <c r="E216" s="3">
-        <v>1560.9</v>
+        <v>1571.79</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -15661,7 +15662,7 @@
         <v>21</v>
       </c>
       <c r="E217" s="3">
-        <v>1603.82</v>
+        <v>1615.02</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -15678,7 +15679,7 @@
         <v>21</v>
       </c>
       <c r="E218" s="3">
-        <v>1642.85</v>
+        <v>1654.32</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -15695,7 +15696,7 @@
         <v>21</v>
       </c>
       <c r="E219" s="3">
-        <v>1662.36</v>
+        <v>1673.96</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -15712,7 +15713,7 @@
         <v>21</v>
       </c>
       <c r="E220" s="3">
-        <v>1424.32</v>
+        <v>1434.27</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -15729,7 +15730,7 @@
         <v>21</v>
       </c>
       <c r="E221" s="3">
-        <v>1459.44</v>
+        <v>1469.62</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -19809,7 +19810,7 @@
         <v>21</v>
       </c>
       <c r="E461" s="3">
-        <v>2957.39</v>
+        <v>2978.02</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
@@ -19826,7 +19827,7 @@
         <v>21</v>
       </c>
       <c r="E462" s="3">
-        <v>2957.39</v>
+        <v>2978.02</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -19843,7 +19844,7 @@
         <v>21</v>
       </c>
       <c r="E463" s="3">
-        <v>686.54</v>
+        <v>691.33</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -19962,7 +19963,7 @@
         <v>21</v>
       </c>
       <c r="E470" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
@@ -19979,7 +19980,7 @@
         <v>21</v>
       </c>
       <c r="E471" s="3">
-        <v>2321.37</v>
+        <v>2790.87</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
@@ -19996,7 +19997,7 @@
         <v>21</v>
       </c>
       <c r="E472" s="3">
-        <v>5735.88</v>
+        <v>6895.97</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
@@ -20013,7 +20014,7 @@
         <v>21</v>
       </c>
       <c r="E473" s="3">
-        <v>4842.3</v>
+        <v>5821.67</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
@@ -20030,7 +20031,7 @@
         <v>21</v>
       </c>
       <c r="E474" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
@@ -20047,7 +20048,7 @@
         <v>21</v>
       </c>
       <c r="E475" s="3">
-        <v>1389.13</v>
+        <v>1670.09</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
@@ -20064,7 +20065,7 @@
         <v>21</v>
       </c>
       <c r="E476" s="3">
-        <v>12081.08</v>
+        <v>14524.48</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
@@ -20081,7 +20082,7 @@
         <v>21</v>
       </c>
       <c r="E477" s="3">
-        <v>1389.13</v>
+        <v>1670.09</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
@@ -20098,7 +20099,7 @@
         <v>21</v>
       </c>
       <c r="E478" s="3">
-        <v>4863.8</v>
+        <v>5847.49</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
@@ -20115,7 +20116,7 @@
         <v>21</v>
       </c>
       <c r="E479" s="3">
-        <v>12081.08</v>
+        <v>14524.48</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
@@ -20132,7 +20133,7 @@
         <v>21</v>
       </c>
       <c r="E480" s="3">
-        <v>22770.1</v>
+        <v>27375.35</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
@@ -20149,7 +20150,7 @@
         <v>21</v>
       </c>
       <c r="E481" s="3">
-        <v>1389.13</v>
+        <v>1670.09</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
@@ -20166,7 +20167,7 @@
         <v>21</v>
       </c>
       <c r="E482" s="3">
-        <v>4863.8</v>
+        <v>5847.49</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
@@ -20183,7 +20184,7 @@
         <v>21</v>
       </c>
       <c r="E483" s="3">
-        <v>12081.08</v>
+        <v>14524.48</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
@@ -20200,7 +20201,7 @@
         <v>21</v>
       </c>
       <c r="E484" s="3">
-        <v>22770.1</v>
+        <v>27375.35</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
@@ -20217,7 +20218,7 @@
         <v>21</v>
       </c>
       <c r="E485" s="3">
-        <v>3786.23</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
@@ -20234,7 +20235,7 @@
         <v>21</v>
       </c>
       <c r="E486" s="3">
-        <v>5274.07</v>
+        <v>6340.74</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
@@ -20251,7 +20252,7 @@
         <v>21</v>
       </c>
       <c r="E487" s="3">
-        <v>4911.59</v>
+        <v>5904.98</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
@@ -20268,7 +20269,7 @@
         <v>21</v>
       </c>
       <c r="E488" s="3">
-        <v>1115.3599999999999</v>
+        <v>1340.95</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
@@ -20285,7 +20286,7 @@
         <v>21</v>
       </c>
       <c r="E489" s="3">
-        <v>3864.91</v>
+        <v>4646.59</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
@@ -20302,7 +20303,7 @@
         <v>21</v>
       </c>
       <c r="E490" s="3">
-        <v>9308.43</v>
+        <v>11191.06</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
@@ -20319,7 +20320,7 @@
         <v>21</v>
       </c>
       <c r="E491" s="3">
-        <v>8677.41</v>
+        <v>10432.41</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
@@ -20336,7 +20337,7 @@
         <v>21</v>
       </c>
       <c r="E492" s="3">
-        <v>8677.41</v>
+        <v>10432.41</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
@@ -20353,7 +20354,7 @@
         <v>21</v>
       </c>
       <c r="E493" s="3">
-        <v>8677.41</v>
+        <v>10432.41</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
@@ -20370,7 +20371,7 @@
         <v>21</v>
       </c>
       <c r="E494" s="3">
-        <v>8677.41</v>
+        <v>10432.41</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
@@ -20387,7 +20388,7 @@
         <v>21</v>
       </c>
       <c r="E495" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
@@ -20404,7 +20405,7 @@
         <v>21</v>
       </c>
       <c r="E496" s="3">
-        <v>11171.78</v>
+        <v>13431.27</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
@@ -20421,7 +20422,7 @@
         <v>21</v>
       </c>
       <c r="E497" s="3">
-        <v>11171.78</v>
+        <v>13431.27</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
@@ -20438,7 +20439,7 @@
         <v>21</v>
       </c>
       <c r="E498" s="3">
-        <v>11171.78</v>
+        <v>13431.27</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
@@ -20455,7 +20456,7 @@
         <v>21</v>
       </c>
       <c r="E499" s="3">
-        <v>11171.78</v>
+        <v>13431.27</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
@@ -20472,7 +20473,7 @@
         <v>21</v>
       </c>
       <c r="E500" s="3">
-        <v>11171.78</v>
+        <v>13431.27</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
@@ -20489,7 +20490,7 @@
         <v>21</v>
       </c>
       <c r="E501" s="3">
-        <v>1389.13</v>
+        <v>1670.09</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
@@ -20506,7 +20507,7 @@
         <v>21</v>
       </c>
       <c r="E502" s="3">
-        <v>4863.8</v>
+        <v>5847.49</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
@@ -20523,7 +20524,7 @@
         <v>21</v>
       </c>
       <c r="E503" s="3">
-        <v>12081.08</v>
+        <v>14524.48</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
@@ -20540,7 +20541,7 @@
         <v>21</v>
       </c>
       <c r="E504" s="3">
-        <v>22770.1</v>
+        <v>27375.35</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
@@ -20557,7 +20558,7 @@
         <v>21</v>
       </c>
       <c r="E505" s="3">
-        <v>1389.13</v>
+        <v>1670.09</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
@@ -20574,7 +20575,7 @@
         <v>21</v>
       </c>
       <c r="E506" s="3">
-        <v>14118.5</v>
+        <v>16973.97</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
@@ -20591,7 +20592,7 @@
         <v>21</v>
       </c>
       <c r="E507" s="3">
-        <v>5676.34</v>
+        <v>6824.38</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
@@ -20608,7 +20609,7 @@
         <v>21</v>
       </c>
       <c r="E508" s="3">
-        <v>4863.8</v>
+        <v>5847.49</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
@@ -20625,7 +20626,7 @@
         <v>21</v>
       </c>
       <c r="E509" s="3">
-        <v>25774.42</v>
+        <v>30987.3</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
@@ -20642,7 +20643,7 @@
         <v>21</v>
       </c>
       <c r="E510" s="3">
-        <v>1637.34</v>
+        <v>1968.48</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
@@ -20659,7 +20660,7 @@
         <v>21</v>
       </c>
       <c r="E511" s="3">
-        <v>1637.34</v>
+        <v>1968.48</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
@@ -20676,7 +20677,7 @@
         <v>21</v>
       </c>
       <c r="E512" s="3">
-        <v>5893.12</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
@@ -20693,7 +20694,7 @@
         <v>21</v>
       </c>
       <c r="E513" s="3">
-        <v>5893.12</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
@@ -20710,7 +20711,7 @@
         <v>21</v>
       </c>
       <c r="E514" s="3">
-        <v>664.69</v>
+        <v>799.13</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
@@ -20727,7 +20728,7 @@
         <v>21</v>
       </c>
       <c r="E515" s="3">
-        <v>664.69</v>
+        <v>799.13</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
@@ -20744,7 +20745,7 @@
         <v>21</v>
       </c>
       <c r="E516" s="3">
-        <v>664.69</v>
+        <v>799.13</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
@@ -20761,7 +20762,7 @@
         <v>21</v>
       </c>
       <c r="E517" s="3">
-        <v>2012.22</v>
+        <v>2419.17</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
@@ -20778,7 +20779,7 @@
         <v>21</v>
       </c>
       <c r="E518" s="3">
-        <v>2012.22</v>
+        <v>2419.17</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
@@ -20795,7 +20796,7 @@
         <v>21</v>
       </c>
       <c r="E519" s="3">
-        <v>12081.08</v>
+        <v>14524.48</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
@@ -20812,7 +20813,7 @@
         <v>21</v>
       </c>
       <c r="E520" s="3">
-        <v>2012.22</v>
+        <v>2419.17</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
@@ -20829,7 +20830,7 @@
         <v>21</v>
       </c>
       <c r="E521" s="3">
-        <v>22770.1</v>
+        <v>27375.35</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -20846,7 +20847,7 @@
         <v>21</v>
       </c>
       <c r="E522" s="3">
-        <v>1389.13</v>
+        <v>1670.09</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
@@ -20863,7 +20864,7 @@
         <v>21</v>
       </c>
       <c r="E523" s="3">
-        <v>4863.8</v>
+        <v>5847.49</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
@@ -20880,7 +20881,7 @@
         <v>21</v>
       </c>
       <c r="E524" s="3">
-        <v>1464.77</v>
+        <v>1761.01</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
@@ -20897,7 +20898,7 @@
         <v>21</v>
       </c>
       <c r="E525" s="3">
-        <v>12081.08</v>
+        <v>14524.48</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
@@ -20914,7 +20915,7 @@
         <v>21</v>
       </c>
       <c r="E526" s="3">
-        <v>22770.1</v>
+        <v>27375.35</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
@@ -20931,7 +20932,7 @@
         <v>21</v>
       </c>
       <c r="E527" s="3">
-        <v>1389.13</v>
+        <v>1670.09</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
@@ -20948,7 +20949,7 @@
         <v>21</v>
       </c>
       <c r="E528" s="3">
-        <v>574.76</v>
+        <v>691.02</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
@@ -20965,7 +20966,7 @@
         <v>21</v>
       </c>
       <c r="E529" s="3">
-        <v>1702.5</v>
+        <v>2046.84</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
@@ -20982,7 +20983,7 @@
         <v>21</v>
       </c>
       <c r="E530" s="3">
-        <v>554.42999999999995</v>
+        <v>666.57</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
@@ -20999,7 +21000,7 @@
         <v>21</v>
       </c>
       <c r="E531" s="3">
-        <v>1582.5</v>
+        <v>1902.55</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
@@ -21016,7 +21017,7 @@
         <v>21</v>
       </c>
       <c r="E532" s="3">
-        <v>3316.63</v>
+        <v>3987.42</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
@@ -21033,7 +21034,7 @@
         <v>21</v>
       </c>
       <c r="E533" s="3">
-        <v>8224.0300000000007</v>
+        <v>9887.35</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
@@ -21050,7 +21051,7 @@
         <v>21</v>
       </c>
       <c r="E534" s="3">
-        <v>15248.42</v>
+        <v>18332.419999999998</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
@@ -21067,7 +21068,7 @@
         <v>21</v>
       </c>
       <c r="E535" s="3">
-        <v>3979.95</v>
+        <v>4784.8900000000003</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
@@ -21084,7 +21085,7 @@
         <v>21</v>
       </c>
       <c r="E536" s="3">
-        <v>9868.85</v>
+        <v>11864.83</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
@@ -21101,7 +21102,7 @@
         <v>21</v>
       </c>
       <c r="E537" s="3">
-        <v>4863.8</v>
+        <v>5847.49</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
@@ -21118,7 +21119,7 @@
         <v>21</v>
       </c>
       <c r="E538" s="3">
-        <v>18299.21</v>
+        <v>22000.23</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
@@ -21135,7 +21136,7 @@
         <v>21</v>
       </c>
       <c r="E539" s="3">
-        <v>3648.28</v>
+        <v>4386.16</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
@@ -21152,7 +21153,7 @@
         <v>21</v>
       </c>
       <c r="E540" s="3">
-        <v>9046.43</v>
+        <v>10876.07</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
@@ -21169,7 +21170,7 @@
         <v>21</v>
       </c>
       <c r="E541" s="3">
-        <v>16774.28</v>
+        <v>20166.88</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
@@ -21186,7 +21187,7 @@
         <v>21</v>
       </c>
       <c r="E542" s="3">
-        <v>4574.6099999999997</v>
+        <v>5499.84</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
@@ -21203,7 +21204,7 @@
         <v>21</v>
       </c>
       <c r="E543" s="3">
-        <v>11369.03</v>
+        <v>13668.39</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
@@ -21220,7 +21221,7 @@
         <v>21</v>
       </c>
       <c r="E544" s="3">
-        <v>21539.31</v>
+        <v>25895.62</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
@@ -21237,7 +21238,7 @@
         <v>21</v>
       </c>
       <c r="E545" s="3">
-        <v>13642.82</v>
+        <v>16402.09</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
@@ -21254,7 +21255,7 @@
         <v>21</v>
       </c>
       <c r="E546" s="3">
-        <v>25847.17</v>
+        <v>31074.75</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
@@ -21271,7 +21272,7 @@
         <v>21</v>
       </c>
       <c r="E547" s="3">
-        <v>10191.09</v>
+        <v>12252.23</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
@@ -21288,7 +21289,7 @@
         <v>21</v>
       </c>
       <c r="E548" s="3">
-        <v>22770.1</v>
+        <v>27375.35</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
@@ -21305,7 +21306,7 @@
         <v>21</v>
       </c>
       <c r="E549" s="3">
-        <v>1389.13</v>
+        <v>1670.09</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
@@ -21322,7 +21323,7 @@
         <v>21</v>
       </c>
       <c r="E550" s="3">
-        <v>4102.88</v>
+        <v>4932.71</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
@@ -21339,7 +21340,7 @@
         <v>21</v>
       </c>
       <c r="E551" s="3">
-        <v>12081.08</v>
+        <v>14524.48</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
@@ -21356,7 +21357,7 @@
         <v>21</v>
       </c>
       <c r="E552" s="3">
-        <v>3888.71</v>
+        <v>4675.2</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
@@ -21373,7 +21374,7 @@
         <v>21</v>
       </c>
       <c r="E553" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
@@ -21390,7 +21391,7 @@
         <v>21</v>
       </c>
       <c r="E554" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
@@ -21407,7 +21408,7 @@
         <v>21</v>
       </c>
       <c r="E555" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
@@ -21424,7 +21425,7 @@
         <v>21</v>
       </c>
       <c r="E556" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
@@ -21441,7 +21442,7 @@
         <v>21</v>
       </c>
       <c r="E557" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
@@ -21458,7 +21459,7 @@
         <v>21</v>
       </c>
       <c r="E558" s="3">
-        <v>22770.1</v>
+        <v>27375.35</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
@@ -21475,7 +21476,7 @@
         <v>21</v>
       </c>
       <c r="E559" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
@@ -21492,7 +21493,7 @@
         <v>21</v>
       </c>
       <c r="E560" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
@@ -21509,7 +21510,7 @@
         <v>21</v>
       </c>
       <c r="E561" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
@@ -21526,7 +21527,7 @@
         <v>21</v>
       </c>
       <c r="E562" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
@@ -21543,7 +21544,7 @@
         <v>21</v>
       </c>
       <c r="E563" s="3">
-        <v>3497.97</v>
+        <v>4205.4399999999996</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
@@ -21560,7 +21561,7 @@
         <v>21</v>
       </c>
       <c r="E564" s="3">
-        <v>3497.97</v>
+        <v>4205.4399999999996</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
@@ -21577,7 +21578,7 @@
         <v>21</v>
       </c>
       <c r="E565" s="3">
-        <v>3497.97</v>
+        <v>4205.4399999999996</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
@@ -21594,7 +21595,7 @@
         <v>21</v>
       </c>
       <c r="E566" s="3">
-        <v>3497.97</v>
+        <v>4205.4399999999996</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
@@ -21611,7 +21612,7 @@
         <v>21</v>
       </c>
       <c r="E567" s="3">
-        <v>3497.97</v>
+        <v>4205.4399999999996</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
@@ -21628,7 +21629,7 @@
         <v>21</v>
       </c>
       <c r="E568" s="3">
-        <v>15056.42</v>
+        <v>18101.580000000002</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
@@ -21645,7 +21646,7 @@
         <v>21</v>
       </c>
       <c r="E569" s="3">
-        <v>1389.13</v>
+        <v>1670.09</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
@@ -21662,7 +21663,7 @@
         <v>21</v>
       </c>
       <c r="E570" s="3">
-        <v>3497.97</v>
+        <v>4205.4399999999996</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
@@ -21679,7 +21680,7 @@
         <v>21</v>
       </c>
       <c r="E571" s="3">
-        <v>4863.8</v>
+        <v>5847.49</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
@@ -21696,7 +21697,7 @@
         <v>21</v>
       </c>
       <c r="E572" s="3">
-        <v>5512.8</v>
+        <v>6599.81</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
@@ -21713,7 +21714,7 @@
         <v>21</v>
       </c>
       <c r="E573" s="3">
-        <v>5032.08</v>
+        <v>6049.82</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
@@ -21730,7 +21731,7 @@
         <v>21</v>
       </c>
       <c r="E574" s="3">
-        <v>12505.9</v>
+        <v>15035.23</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
@@ -21747,7 +21748,7 @@
         <v>21</v>
       </c>
       <c r="E575" s="3">
-        <v>23693.23</v>
+        <v>28485.19</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
@@ -21764,7 +21765,7 @@
         <v>21</v>
       </c>
       <c r="E576" s="3">
-        <v>5276.28</v>
+        <v>6343.42</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
@@ -21781,7 +21782,7 @@
         <v>21</v>
       </c>
       <c r="E577" s="3">
-        <v>13123.2</v>
+        <v>15777.34</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
@@ -21798,7 +21799,7 @@
         <v>21</v>
       </c>
       <c r="E578" s="3">
-        <v>25047.65</v>
+        <v>30113.54</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
@@ -21815,7 +21816,7 @@
         <v>21</v>
       </c>
       <c r="E579" s="3">
-        <v>6331.55</v>
+        <v>7612.09</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
@@ -21832,7 +21833,7 @@
         <v>21</v>
       </c>
       <c r="E580" s="3">
-        <v>15747.81</v>
+        <v>18932.82</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
@@ -21849,7 +21850,7 @@
         <v>21</v>
       </c>
       <c r="E581" s="3">
-        <v>12081.08</v>
+        <v>14524.48</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
@@ -21866,7 +21867,7 @@
         <v>21</v>
       </c>
       <c r="E582" s="3">
-        <v>30057.18</v>
+        <v>36136.26</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
@@ -21883,7 +21884,7 @@
         <v>21</v>
       </c>
       <c r="E583" s="3">
-        <v>5803.92</v>
+        <v>6977.76</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
@@ -21900,7 +21901,7 @@
         <v>21</v>
       </c>
       <c r="E584" s="3">
-        <v>14435.51</v>
+        <v>17355.080000000002</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
@@ -21917,7 +21918,7 @@
         <v>21</v>
       </c>
       <c r="E585" s="3">
-        <v>27552.42</v>
+        <v>33124.9</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
@@ -21934,7 +21935,7 @@
         <v>21</v>
       </c>
       <c r="E586" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
@@ -21951,7 +21952,7 @@
         <v>21</v>
       </c>
       <c r="E587" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
@@ -21968,7 +21969,7 @@
         <v>21</v>
       </c>
       <c r="E588" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.2">
@@ -21985,7 +21986,7 @@
         <v>21</v>
       </c>
       <c r="E589" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.2">
@@ -22002,7 +22003,7 @@
         <v>21</v>
       </c>
       <c r="E590" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
@@ -22019,7 +22020,7 @@
         <v>21</v>
       </c>
       <c r="E591" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.2">
@@ -22036,7 +22037,7 @@
         <v>21</v>
       </c>
       <c r="E592" s="3">
-        <v>22770.1</v>
+        <v>27375.35</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
@@ -22053,7 +22054,7 @@
         <v>21</v>
       </c>
       <c r="E593" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
@@ -22070,7 +22071,7 @@
         <v>21</v>
       </c>
       <c r="E594" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
@@ -22087,7 +22088,7 @@
         <v>21</v>
       </c>
       <c r="E595" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
@@ -22104,7 +22105,7 @@
         <v>21</v>
       </c>
       <c r="E596" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
@@ -22121,7 +22122,7 @@
         <v>21</v>
       </c>
       <c r="E597" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
@@ -22138,7 +22139,7 @@
         <v>21</v>
       </c>
       <c r="E598" s="3">
-        <v>87.57</v>
+        <v>105.29</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
@@ -22155,7 +22156,7 @@
         <v>21</v>
       </c>
       <c r="E599" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
@@ -22172,7 +22173,7 @@
         <v>21</v>
       </c>
       <c r="E600" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
@@ -22189,7 +22190,7 @@
         <v>21</v>
       </c>
       <c r="E601" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
@@ -22206,7 +22207,7 @@
         <v>21</v>
       </c>
       <c r="E602" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.2">
@@ -22223,7 +22224,7 @@
         <v>21</v>
       </c>
       <c r="E603" s="3">
-        <v>1389.13</v>
+        <v>1670.09</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.2">
@@ -22240,7 +22241,7 @@
         <v>21</v>
       </c>
       <c r="E604" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.2">
@@ -22257,7 +22258,7 @@
         <v>21</v>
       </c>
       <c r="E605" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.2">
@@ -22274,7 +22275,7 @@
         <v>21</v>
       </c>
       <c r="E606" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
@@ -22291,7 +22292,7 @@
         <v>21</v>
       </c>
       <c r="E607" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
@@ -22308,7 +22309,7 @@
         <v>21</v>
       </c>
       <c r="E608" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
@@ -22325,7 +22326,7 @@
         <v>21</v>
       </c>
       <c r="E609" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.2">
@@ -22342,7 +22343,7 @@
         <v>21</v>
       </c>
       <c r="E610" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.2">
@@ -22359,7 +22360,7 @@
         <v>21</v>
       </c>
       <c r="E611" s="3">
-        <v>321.56</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.2">
@@ -22376,7 +22377,7 @@
         <v>21</v>
       </c>
       <c r="E612" s="3">
-        <v>4866.74</v>
+        <v>5851.03</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.2">
@@ -22393,7 +22394,7 @@
         <v>21</v>
       </c>
       <c r="E613" s="3">
-        <v>22770.1</v>
+        <v>27375.35</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.2">
@@ -22410,7 +22411,7 @@
         <v>21</v>
       </c>
       <c r="E614" s="3">
-        <v>4863.8</v>
+        <v>5847.49</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.2">
@@ -22427,7 +22428,7 @@
         <v>21</v>
       </c>
       <c r="E615" s="3">
-        <v>1071.93</v>
+        <v>1288.71</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.2">
@@ -22444,7 +22445,7 @@
         <v>21</v>
       </c>
       <c r="E616" s="3">
-        <v>3691.12</v>
+        <v>4437.67</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.2">
@@ -22461,7 +22462,7 @@
         <v>21</v>
       </c>
       <c r="E617" s="3">
-        <v>12081.08</v>
+        <v>14524.48</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.2">
@@ -22478,7 +22479,7 @@
         <v>21</v>
       </c>
       <c r="E618" s="3">
-        <v>22770.1</v>
+        <v>27375.35</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.2">
@@ -22495,7 +22496,7 @@
         <v>21</v>
       </c>
       <c r="E619" s="3">
-        <v>1468.21</v>
+        <v>1765.15</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.2">
@@ -22512,7 +22513,7 @@
         <v>21</v>
       </c>
       <c r="E620" s="3">
-        <v>1761.84</v>
+        <v>2118.1799999999998</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.2">
@@ -22529,7 +22530,7 @@
         <v>21</v>
       </c>
       <c r="E621" s="3">
-        <v>1615.03</v>
+        <v>1941.68</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.2">
@@ -22546,7 +22547,7 @@
         <v>21</v>
       </c>
       <c r="E622" s="3">
-        <v>1292.79</v>
+        <v>1554.26</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.2">
@@ -22563,7 +22564,7 @@
         <v>21</v>
       </c>
       <c r="E623" s="3">
-        <v>1551.35</v>
+        <v>1865.11</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.2">
@@ -22580,7 +22581,7 @@
         <v>21</v>
       </c>
       <c r="E624" s="3">
-        <v>1422.08</v>
+        <v>1709.69</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
@@ -22597,7 +22598,7 @@
         <v>21</v>
       </c>
       <c r="E625" s="3">
-        <v>9160.31</v>
+        <v>11012.98</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
@@ -22614,7 +22615,7 @@
         <v>21</v>
       </c>
       <c r="E626" s="3">
-        <v>978.3</v>
+        <v>1176.1600000000001</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
@@ -22631,7 +22632,7 @@
         <v>21</v>
       </c>
       <c r="E627" s="3">
-        <v>1173.94</v>
+        <v>1411.39</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
@@ -22648,7 +22649,7 @@
         <v>21</v>
       </c>
       <c r="E628" s="3">
-        <v>1076.1300000000001</v>
+        <v>1293.78</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
@@ -22665,7 +22666,7 @@
         <v>21</v>
       </c>
       <c r="E629" s="3">
-        <v>3077.57</v>
+        <v>3700.03</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
@@ -22682,7 +22683,7 @@
         <v>21</v>
       </c>
       <c r="E630" s="3">
-        <v>7618.16</v>
+        <v>9158.93</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
@@ -22699,7 +22700,7 @@
         <v>21</v>
       </c>
       <c r="E631" s="3">
-        <v>12656.18</v>
+        <v>15215.88</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
@@ -22716,7 +22717,7 @@
         <v>21</v>
       </c>
       <c r="E632" s="3">
-        <v>608.54999999999995</v>
+        <v>731.64</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.2">
@@ -22733,7 +22734,7 @@
         <v>21</v>
       </c>
       <c r="E633" s="3">
-        <v>1837.67</v>
+        <v>2209.35</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
@@ -22750,7 +22751,7 @@
         <v>21</v>
       </c>
       <c r="E634" s="3">
-        <v>5524.03</v>
+        <v>6641.26</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
@@ -22767,7 +22768,7 @@
         <v>21</v>
       </c>
       <c r="E635" s="3">
-        <v>3594.38</v>
+        <v>4321.3599999999997</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
@@ -22784,7 +22785,7 @@
         <v>21</v>
       </c>
       <c r="E636" s="3">
-        <v>4890.37</v>
+        <v>5879.45</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
@@ -22801,7 +22802,7 @@
         <v>21</v>
       </c>
       <c r="E637" s="3">
-        <v>644.36</v>
+        <v>746.7</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
@@ -22818,7 +22819,7 @@
         <v>21</v>
       </c>
       <c r="E638" s="3">
-        <v>1980.93</v>
+        <v>2381.56</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
@@ -22835,7 +22836,7 @@
         <v>21</v>
       </c>
       <c r="E639" s="3">
-        <v>15056.42</v>
+        <v>18101.580000000002</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
@@ -22852,7 +22853,7 @@
         <v>21</v>
       </c>
       <c r="E640" s="3">
-        <v>1100.0899999999999</v>
+        <v>1322.59</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.2">
@@ -22869,7 +22870,7 @@
         <v>21</v>
       </c>
       <c r="E641" s="3">
-        <v>1100.0899999999999</v>
+        <v>1322.59</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.2">
@@ -22886,7 +22887,7 @@
         <v>21</v>
       </c>
       <c r="E642" s="3">
-        <v>1100.0899999999999</v>
+        <v>1322.59</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.2">
@@ -22903,7 +22904,7 @@
         <v>21</v>
       </c>
       <c r="E643" s="3">
-        <v>1100.0899999999999</v>
+        <v>1322.59</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.2">
@@ -22920,7 +22921,7 @@
         <v>21</v>
       </c>
       <c r="E644" s="3">
-        <v>3707.65</v>
+        <v>4457.51</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.2">
@@ -22937,7 +22938,7 @@
         <v>21</v>
       </c>
       <c r="E645" s="3">
-        <v>3707.65</v>
+        <v>4457.51</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.2">
@@ -22954,7 +22955,7 @@
         <v>21</v>
       </c>
       <c r="E646" s="3">
-        <v>3707.65</v>
+        <v>4457.51</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.2">
@@ -22971,7 +22972,7 @@
         <v>21</v>
       </c>
       <c r="E647" s="3">
-        <v>3707.65</v>
+        <v>4457.51</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.2">
@@ -22988,7 +22989,7 @@
         <v>21</v>
       </c>
       <c r="E648" s="3">
-        <v>9190.67</v>
+        <v>11049.48</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.2">
@@ -23005,7 +23006,7 @@
         <v>21</v>
       </c>
       <c r="E649" s="3">
-        <v>9190.67</v>
+        <v>11049.48</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.2">
@@ -23022,7 +23023,7 @@
         <v>21</v>
       </c>
       <c r="E650" s="3">
-        <v>9190.67</v>
+        <v>11049.48</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.2">
@@ -23039,7 +23040,7 @@
         <v>21</v>
       </c>
       <c r="E651" s="3">
-        <v>9190.67</v>
+        <v>11049.48</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.2">
@@ -23056,7 +23057,7 @@
         <v>21</v>
       </c>
       <c r="E652" s="3">
-        <v>16989.27</v>
+        <v>20425.36</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.2">
@@ -23073,7 +23074,7 @@
         <v>21</v>
       </c>
       <c r="E653" s="3">
-        <v>16989.27</v>
+        <v>20425.36</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.2">
@@ -23090,7 +23091,7 @@
         <v>21</v>
       </c>
       <c r="E654" s="3">
-        <v>16989.27</v>
+        <v>20425.36</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.2">
@@ -23107,7 +23108,7 @@
         <v>21</v>
       </c>
       <c r="E655" s="3">
-        <v>16989.27</v>
+        <v>20425.36</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.2">
@@ -23124,7 +23125,7 @@
         <v>21</v>
       </c>
       <c r="E656" s="3">
-        <v>1050.26</v>
+        <v>1262.69</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.2">
@@ -23141,7 +23142,7 @@
         <v>21</v>
       </c>
       <c r="E657" s="3">
-        <v>1801.13</v>
+        <v>2165.41</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.2">
@@ -23158,7 +23159,7 @@
         <v>21</v>
       </c>
       <c r="E658" s="3">
-        <v>6713.78</v>
+        <v>8071.66</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.2">
@@ -23175,7 +23176,7 @@
         <v>21</v>
       </c>
       <c r="E659" s="3">
-        <v>890.04</v>
+        <v>1070.05</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.2">
@@ -23192,7 +23193,7 @@
         <v>21</v>
       </c>
       <c r="E660" s="3">
-        <v>1480.67</v>
+        <v>1780.16</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.2">
@@ -23209,7 +23210,7 @@
         <v>21</v>
       </c>
       <c r="E661" s="3">
-        <v>5432</v>
+        <v>6530.62</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.2">
@@ -23226,7 +23227,7 @@
         <v>21</v>
       </c>
       <c r="E662" s="3">
-        <v>1102.8800000000001</v>
+        <v>1325.95</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.2">
@@ -23243,7 +23244,7 @@
         <v>21</v>
       </c>
       <c r="E663" s="3">
-        <v>4213.9799999999996</v>
+        <v>5066.25</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.2">
@@ -23260,7 +23261,7 @@
         <v>21</v>
       </c>
       <c r="E664" s="3">
-        <v>10179.9</v>
+        <v>12238.8</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.2">
@@ -23277,7 +23278,7 @@
         <v>21</v>
       </c>
       <c r="E665" s="3">
-        <v>4526.66</v>
+        <v>5442.16</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.2">
@@ -23294,7 +23295,7 @@
         <v>21</v>
       </c>
       <c r="E666" s="3">
-        <v>4188.7700000000004</v>
+        <v>5035.92</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.2">
@@ -23311,7 +23312,7 @@
         <v>21</v>
       </c>
       <c r="E667" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.2">
@@ -23328,7 +23329,7 @@
         <v>21</v>
       </c>
       <c r="E668" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.2">
@@ -23345,7 +23346,7 @@
         <v>21</v>
       </c>
       <c r="E669" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.2">
@@ -23362,7 +23363,7 @@
         <v>21</v>
       </c>
       <c r="E670" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.2">
@@ -23379,7 +23380,7 @@
         <v>21</v>
       </c>
       <c r="E671" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
@@ -23396,7 +23397,7 @@
         <v>21</v>
       </c>
       <c r="E672" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.2">
@@ -23413,7 +23414,7 @@
         <v>21</v>
       </c>
       <c r="E673" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.2">
@@ -23430,7 +23431,7 @@
         <v>21</v>
       </c>
       <c r="E674" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.2">
@@ -23447,7 +23448,7 @@
         <v>21</v>
       </c>
       <c r="E675" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.2">
@@ -23464,7 +23465,7 @@
         <v>21</v>
       </c>
       <c r="E676" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.2">
@@ -23481,7 +23482,7 @@
         <v>21</v>
       </c>
       <c r="E677" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.2">
@@ -23498,7 +23499,7 @@
         <v>21</v>
       </c>
       <c r="E678" s="3">
-        <v>1236.55</v>
+        <v>1486.64</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.2">
@@ -23515,7 +23516,7 @@
         <v>21</v>
       </c>
       <c r="E679" s="3">
-        <v>2173.69</v>
+        <v>2613.3200000000002</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.2">
@@ -23532,7 +23533,7 @@
         <v>21</v>
       </c>
       <c r="E680" s="3">
-        <v>1236.55</v>
+        <v>1486.64</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.2">
@@ -23549,7 +23550,7 @@
         <v>21</v>
       </c>
       <c r="E681" s="3">
-        <v>2173.69</v>
+        <v>2613.3200000000002</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.2">
@@ -23566,7 +23567,7 @@
         <v>21</v>
       </c>
       <c r="E682" s="3">
-        <v>1236.55</v>
+        <v>1486.64</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.2">
@@ -23583,7 +23584,7 @@
         <v>21</v>
       </c>
       <c r="E683" s="3">
-        <v>2173.69</v>
+        <v>2613.3200000000002</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.2">
@@ -23600,7 +23601,7 @@
         <v>21</v>
       </c>
       <c r="E684" s="3">
-        <v>1236.55</v>
+        <v>1486.64</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.2">
@@ -23617,7 +23618,7 @@
         <v>21</v>
       </c>
       <c r="E685" s="3">
-        <v>2173.69</v>
+        <v>2613.3200000000002</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.2">
@@ -23634,7 +23635,7 @@
         <v>21</v>
       </c>
       <c r="E686" s="3">
-        <v>1236.55</v>
+        <v>1486.64</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.2">
@@ -23651,7 +23652,7 @@
         <v>21</v>
       </c>
       <c r="E687" s="3">
-        <v>2173.69</v>
+        <v>2613.3200000000002</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.2">
@@ -23668,7 +23669,7 @@
         <v>21</v>
       </c>
       <c r="E688" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.2">
@@ -23685,7 +23686,7 @@
         <v>21</v>
       </c>
       <c r="E689" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.2">
@@ -23702,7 +23703,7 @@
         <v>21</v>
       </c>
       <c r="E690" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.2">
@@ -23719,7 +23720,7 @@
         <v>21</v>
       </c>
       <c r="E691" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.2">
@@ -23736,7 +23737,7 @@
         <v>21</v>
       </c>
       <c r="E692" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.2">
@@ -23753,7 +23754,7 @@
         <v>21</v>
       </c>
       <c r="E693" s="3">
-        <v>1236.55</v>
+        <v>1486.64</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.2">
@@ -23770,7 +23771,7 @@
         <v>21</v>
       </c>
       <c r="E694" s="3">
-        <v>2173.69</v>
+        <v>2613.3200000000002</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.2">
@@ -23787,7 +23788,7 @@
         <v>21</v>
       </c>
       <c r="E695" s="3">
-        <v>6188.37</v>
+        <v>7439.96</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.2">
@@ -23804,7 +23805,7 @@
         <v>21</v>
       </c>
       <c r="E696" s="3">
-        <v>4884.78</v>
+        <v>5872.74</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.2">
@@ -23821,7 +23822,7 @@
         <v>21</v>
       </c>
       <c r="E697" s="3">
-        <v>16022.21</v>
+        <v>19262.71</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.2">
@@ -23838,7 +23839,7 @@
         <v>21</v>
       </c>
       <c r="E698" s="3">
-        <v>8472.3700000000008</v>
+        <v>10185.91</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.2">
@@ -23855,7 +23856,7 @@
         <v>21</v>
       </c>
       <c r="E699" s="3">
-        <v>19701.32</v>
+        <v>23685.91</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.2">
@@ -23872,7 +23873,7 @@
         <v>21</v>
       </c>
       <c r="E700" s="3">
-        <v>36807.1</v>
+        <v>44251.33</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.2">
@@ -23889,7 +23890,7 @@
         <v>21</v>
       </c>
       <c r="E701" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.2">
@@ -23906,7 +23907,7 @@
         <v>21</v>
       </c>
       <c r="E702" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.2">
@@ -23923,7 +23924,7 @@
         <v>21</v>
       </c>
       <c r="E703" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.2">
@@ -23940,7 +23941,7 @@
         <v>21</v>
       </c>
       <c r="E704" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.2">
@@ -23957,7 +23958,7 @@
         <v>21</v>
       </c>
       <c r="E705" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.2">
@@ -23974,7 +23975,7 @@
         <v>21</v>
       </c>
       <c r="E706" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.2">
@@ -23991,7 +23992,7 @@
         <v>21</v>
       </c>
       <c r="E707" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.2">
@@ -24008,7 +24009,7 @@
         <v>21</v>
       </c>
       <c r="E708" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.2">
@@ -24025,7 +24026,7 @@
         <v>21</v>
       </c>
       <c r="E709" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.2">
@@ -24042,7 +24043,7 @@
         <v>21</v>
       </c>
       <c r="E710" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.2">
@@ -24059,7 +24060,7 @@
         <v>21</v>
       </c>
       <c r="E711" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.2">
@@ -24076,7 +24077,7 @@
         <v>21</v>
       </c>
       <c r="E712" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.2">
@@ -24093,7 +24094,7 @@
         <v>21</v>
       </c>
       <c r="E713" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.2">
@@ -24110,7 +24111,7 @@
         <v>21</v>
       </c>
       <c r="E714" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.2">
@@ -24127,7 +24128,7 @@
         <v>21</v>
       </c>
       <c r="E715" s="3">
-        <v>1023.63</v>
+        <v>1230.67</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.2">
@@ -24144,7 +24145,7 @@
         <v>21</v>
       </c>
       <c r="E716" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.2">
@@ -24161,7 +24162,7 @@
         <v>21</v>
       </c>
       <c r="E717" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.2">
@@ -24178,7 +24179,7 @@
         <v>21</v>
       </c>
       <c r="E718" s="3">
-        <v>1023.63</v>
+        <v>1230.67</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.2">
@@ -24195,7 +24196,7 @@
         <v>21</v>
       </c>
       <c r="E719" s="3">
-        <v>1023.63</v>
+        <v>1230.67</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.2">
@@ -24212,7 +24213,7 @@
         <v>21</v>
       </c>
       <c r="E720" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.2">
@@ -24229,7 +24230,7 @@
         <v>21</v>
       </c>
       <c r="E721" s="3">
-        <v>1023.63</v>
+        <v>1230.67</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.2">
@@ -24246,7 +24247,7 @@
         <v>21</v>
       </c>
       <c r="E722" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.2">
@@ -24263,7 +24264,7 @@
         <v>21</v>
       </c>
       <c r="E723" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.2">
@@ -24280,7 +24281,7 @@
         <v>21</v>
       </c>
       <c r="E724" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.2">
@@ -24297,7 +24298,7 @@
         <v>21</v>
       </c>
       <c r="E725" s="3">
-        <v>1023.63</v>
+        <v>1230.67</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.2">
@@ -24314,7 +24315,7 @@
         <v>21</v>
       </c>
       <c r="E726" s="3">
-        <v>1023.63</v>
+        <v>1230.67</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.2">
@@ -24331,7 +24332,7 @@
         <v>21</v>
       </c>
       <c r="E727" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.2">
@@ -24348,7 +24349,7 @@
         <v>21</v>
       </c>
       <c r="E728" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.2">
@@ -24365,7 +24366,7 @@
         <v>21</v>
       </c>
       <c r="E729" s="3">
-        <v>1023.63</v>
+        <v>1230.67</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.2">
@@ -24382,7 +24383,7 @@
         <v>21</v>
       </c>
       <c r="E730" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.2">
@@ -24399,7 +24400,7 @@
         <v>21</v>
       </c>
       <c r="E731" s="3">
-        <v>1023.63</v>
+        <v>1230.67</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.2">
@@ -24416,7 +24417,7 @@
         <v>21</v>
       </c>
       <c r="E732" s="3">
-        <v>1273.07</v>
+        <v>1530.55</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.2">
@@ -24433,7 +24434,7 @@
         <v>21</v>
       </c>
       <c r="E733" s="3">
-        <v>3497.97</v>
+        <v>4205.4399999999996</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.2">
@@ -24467,7 +24468,7 @@
         <v>21</v>
       </c>
       <c r="E735" s="3">
-        <v>18539.61</v>
+        <v>22289.25</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.2">
@@ -24484,7 +24485,7 @@
         <v>21</v>
       </c>
       <c r="E736" s="3">
-        <v>18539.61</v>
+        <v>22289.25</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.2">
@@ -24501,7 +24502,7 @@
         <v>21</v>
       </c>
       <c r="E737" s="3">
-        <v>22843.1</v>
+        <v>27463.11</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.2">
@@ -24518,7 +24519,7 @@
         <v>21</v>
       </c>
       <c r="E738" s="3">
-        <v>12554.52</v>
+        <v>15093.67</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.2">
@@ -24535,7 +24536,7 @@
         <v>21</v>
       </c>
       <c r="E739" s="3">
-        <v>22843.1</v>
+        <v>27463.11</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.2">
@@ -24552,7 +24553,7 @@
         <v>21</v>
       </c>
       <c r="E740" s="3">
-        <v>22843.1</v>
+        <v>27463.11</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.2">
@@ -24569,7 +24570,7 @@
         <v>21</v>
       </c>
       <c r="E741" s="3">
-        <v>22843.1</v>
+        <v>27463.11</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.2">
@@ -24586,7 +24587,7 @@
         <v>21</v>
       </c>
       <c r="E742" s="3">
-        <v>4911.59</v>
+        <v>5904.98</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.2">
@@ -24603,7 +24604,7 @@
         <v>21</v>
       </c>
       <c r="E743" s="3">
-        <v>4911.59</v>
+        <v>5904.98</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.2">
@@ -24620,7 +24621,7 @@
         <v>21</v>
       </c>
       <c r="E744" s="3">
-        <v>4911.59</v>
+        <v>5904.98</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.2">
@@ -24637,7 +24638,7 @@
         <v>21</v>
       </c>
       <c r="E745" s="3">
-        <v>4911.59</v>
+        <v>5904.98</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.2">
@@ -24654,7 +24655,7 @@
         <v>21</v>
       </c>
       <c r="E746" s="3">
-        <v>4911.59</v>
+        <v>5904.98</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.2">
@@ -24671,7 +24672,7 @@
         <v>21</v>
       </c>
       <c r="E747" s="3">
-        <v>5676.34</v>
+        <v>6824.38</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.2">
@@ -24688,7 +24689,7 @@
         <v>21</v>
       </c>
       <c r="E748" s="3">
-        <v>14118.5</v>
+        <v>16973.61</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.2">
@@ -24705,7 +24706,7 @@
         <v>21</v>
       </c>
       <c r="E749" s="3">
-        <v>25774.42</v>
+        <v>30987.3</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.2">
@@ -24722,7 +24723,7 @@
         <v>21</v>
       </c>
       <c r="E750" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.2">
@@ -24739,7 +24740,7 @@
         <v>21</v>
       </c>
       <c r="E751" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.2">
@@ -24756,7 +24757,7 @@
         <v>21</v>
       </c>
       <c r="E752" s="3">
-        <v>8570.86</v>
+        <v>10304.31</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.2">
@@ -24773,7 +24774,7 @@
         <v>21</v>
       </c>
       <c r="E753" s="3">
-        <v>3497.97</v>
+        <v>4205.4399999999996</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.2">
@@ -24790,7 +24791,7 @@
         <v>21</v>
       </c>
       <c r="E754" s="3">
-        <v>8204.01</v>
+        <v>9863.2800000000007</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.2">
@@ -24807,7 +24808,7 @@
         <v>21</v>
       </c>
       <c r="E755" s="3">
-        <v>8204.01</v>
+        <v>9863.2800000000007</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.2">
@@ -24824,7 +24825,7 @@
         <v>21</v>
       </c>
       <c r="E756" s="3">
-        <v>8204.01</v>
+        <v>9863.2800000000007</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.2">
@@ -24841,7 +24842,7 @@
         <v>21</v>
       </c>
       <c r="E757" s="3">
-        <v>4842.3</v>
+        <v>5821.67</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.2">
@@ -24858,7 +24859,7 @@
         <v>21</v>
       </c>
       <c r="E758" s="3">
-        <v>4842.3</v>
+        <v>5821.67</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.2">
@@ -24875,7 +24876,7 @@
         <v>21</v>
       </c>
       <c r="E759" s="3">
-        <v>4842.3</v>
+        <v>5821.67</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.2">
@@ -24892,7 +24893,7 @@
         <v>21</v>
       </c>
       <c r="E760" s="3">
-        <v>4842.3</v>
+        <v>5821.67</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.2">
@@ -24909,7 +24910,7 @@
         <v>21</v>
       </c>
       <c r="E761" s="3">
-        <v>4842.3</v>
+        <v>5821.67</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.2">
@@ -24926,7 +24927,7 @@
         <v>21</v>
       </c>
       <c r="E762" s="3">
-        <v>8204.01</v>
+        <v>9863.2800000000007</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.2">
@@ -24943,7 +24944,7 @@
         <v>21</v>
       </c>
       <c r="E763" s="3">
-        <v>4842.3</v>
+        <v>5821.67</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.2">
@@ -24960,7 +24961,7 @@
         <v>21</v>
       </c>
       <c r="E764" s="3">
-        <v>4842.3</v>
+        <v>5821.67</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.2">
@@ -24977,7 +24978,7 @@
         <v>21</v>
       </c>
       <c r="E765" s="3">
-        <v>4842.3</v>
+        <v>5821.67</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.2">
@@ -24994,7 +24995,7 @@
         <v>21</v>
       </c>
       <c r="E766" s="3">
-        <v>4842.3</v>
+        <v>5821.67</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.2">
@@ -25011,7 +25012,7 @@
         <v>21</v>
       </c>
       <c r="E767" s="3">
-        <v>8204.01</v>
+        <v>9863.2800000000007</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.2">
@@ -25028,7 +25029,7 @@
         <v>21</v>
       </c>
       <c r="E768" s="3">
-        <v>8204.01</v>
+        <v>9863.2800000000007</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.2">
@@ -25045,7 +25046,7 @@
         <v>21</v>
       </c>
       <c r="E769" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.2">
@@ -25062,7 +25063,7 @@
         <v>21</v>
       </c>
       <c r="E770" s="3">
-        <v>509.47</v>
+        <v>612.52</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.2">
@@ -25079,7 +25080,7 @@
         <v>21</v>
       </c>
       <c r="E771" s="3">
-        <v>509.47</v>
+        <v>612.52</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.2">
@@ -25096,7 +25097,7 @@
         <v>21</v>
       </c>
       <c r="E772" s="3">
-        <v>509.47</v>
+        <v>612.52</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.2">
@@ -25113,7 +25114,7 @@
         <v>21</v>
       </c>
       <c r="E773" s="3">
-        <v>509.47</v>
+        <v>612.52</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.2">
@@ -25130,7 +25131,7 @@
         <v>21</v>
       </c>
       <c r="E774" s="3">
-        <v>9173.3700000000008</v>
+        <v>11028.69</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.2">
@@ -25147,7 +25148,7 @@
         <v>21</v>
       </c>
       <c r="E775" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.2">
@@ -25164,7 +25165,7 @@
         <v>21</v>
       </c>
       <c r="E776" s="3">
-        <v>1643.32</v>
+        <v>1975.68</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.2">
@@ -25181,7 +25182,7 @@
         <v>21</v>
       </c>
       <c r="E777" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.2">
@@ -25198,7 +25199,7 @@
         <v>21</v>
       </c>
       <c r="E778" s="3">
-        <v>1637.34</v>
+        <v>1968.48</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.2">
@@ -25215,7 +25216,7 @@
         <v>21</v>
       </c>
       <c r="E779" s="3">
-        <v>5893.12</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
@@ -25232,7 +25233,7 @@
         <v>21</v>
       </c>
       <c r="E780" s="3">
-        <v>1637.34</v>
+        <v>1968.48</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.2">
@@ -25249,7 +25250,7 @@
         <v>21</v>
       </c>
       <c r="E781" s="3">
-        <v>5893.12</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.2">
@@ -25266,7 +25267,7 @@
         <v>21</v>
       </c>
       <c r="E782" s="3">
-        <v>509.47</v>
+        <v>612.52</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.2">
@@ -25283,7 +25284,7 @@
         <v>21</v>
       </c>
       <c r="E783" s="3">
-        <v>816.34</v>
+        <v>981.44</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.2">
@@ -25300,7 +25301,7 @@
         <v>21</v>
       </c>
       <c r="E784" s="3">
-        <v>1240.9100000000001</v>
+        <v>1491.89</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.2">
@@ -25317,7 +25318,7 @@
         <v>21</v>
       </c>
       <c r="E785" s="3">
-        <v>509.47</v>
+        <v>612.52</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.2">
@@ -25334,7 +25335,7 @@
         <v>21</v>
       </c>
       <c r="E786" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.2">
@@ -25351,7 +25352,7 @@
         <v>21</v>
       </c>
       <c r="E787" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.2">
@@ -25368,7 +25369,7 @@
         <v>21</v>
       </c>
       <c r="E788" s="3">
-        <v>4495.72</v>
+        <v>5404.98</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.2">
@@ -25385,7 +25386,7 @@
         <v>21</v>
       </c>
       <c r="E789" s="3">
-        <v>1100.0899999999999</v>
+        <v>1322.59</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.2">
@@ -25402,7 +25403,7 @@
         <v>21</v>
       </c>
       <c r="E790" s="3">
-        <v>3707.65</v>
+        <v>4457.51</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.2">
@@ -25419,7 +25420,7 @@
         <v>21</v>
       </c>
       <c r="E791" s="3">
-        <v>9190.67</v>
+        <v>11049.48</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.2">
@@ -25436,7 +25437,7 @@
         <v>21</v>
       </c>
       <c r="E792" s="3">
-        <v>16989.27</v>
+        <v>20425.36</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.2">
@@ -25453,7 +25454,7 @@
         <v>21</v>
       </c>
       <c r="E793" s="3">
-        <v>1100.0899999999999</v>
+        <v>1322.59</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.2">
@@ -25470,7 +25471,7 @@
         <v>21</v>
       </c>
       <c r="E794" s="3">
-        <v>3707.65</v>
+        <v>4457.51</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.2">
@@ -25487,7 +25488,7 @@
         <v>21</v>
       </c>
       <c r="E795" s="3">
-        <v>9190.67</v>
+        <v>11049.48</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.2">
@@ -25504,7 +25505,7 @@
         <v>21</v>
       </c>
       <c r="E796" s="3">
-        <v>16989.27</v>
+        <v>20425.36</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.2">
@@ -27765,7 +27766,7 @@
         <v>21</v>
       </c>
       <c r="E929" s="3">
-        <v>4000.74</v>
+        <v>4028.66</v>
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
@@ -27782,7 +27783,7 @@
         <v>21</v>
       </c>
       <c r="E930" s="3">
-        <v>280.75</v>
+        <v>282.70999999999998</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
@@ -27799,7 +27800,7 @@
         <v>21</v>
       </c>
       <c r="E931" s="3">
-        <v>424.82</v>
+        <v>427.78</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
@@ -27816,7 +27817,7 @@
         <v>21</v>
       </c>
       <c r="E932" s="3">
-        <v>724.05</v>
+        <v>729.1</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.2">
@@ -27833,7 +27834,7 @@
         <v>21</v>
       </c>
       <c r="E933" s="3">
-        <v>1222.76</v>
+        <v>1231.3</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
@@ -27850,7 +27851,7 @@
         <v>21</v>
       </c>
       <c r="E934" s="3">
-        <v>362.02</v>
+        <v>364.55</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
@@ -27867,7 +27868,7 @@
         <v>21</v>
       </c>
       <c r="E935" s="3">
-        <v>543.04</v>
+        <v>546.82000000000005</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
@@ -27884,7 +27885,7 @@
         <v>21</v>
       </c>
       <c r="E936" s="3">
-        <v>801.63</v>
+        <v>807.23</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
@@ -27901,7 +27902,7 @@
         <v>21</v>
       </c>
       <c r="E937" s="3">
-        <v>1536.76</v>
+        <v>1547.48</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
@@ -27918,7 +27919,7 @@
         <v>21</v>
       </c>
       <c r="E938" s="3">
-        <v>2504.62</v>
+        <v>2522.09</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.2">
@@ -27935,7 +27936,7 @@
         <v>21</v>
       </c>
       <c r="E939" s="3">
-        <v>520.87</v>
+        <v>524.5</v>
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
@@ -27952,7 +27953,7 @@
         <v>21</v>
       </c>
       <c r="E940" s="3">
-        <v>1728.85</v>
+        <v>1740.91</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
@@ -27969,7 +27970,7 @@
         <v>21</v>
       </c>
       <c r="E941" s="3">
-        <v>433.41</v>
+        <v>436.43</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
@@ -27986,7 +27987,7 @@
         <v>21</v>
       </c>
       <c r="E942" s="3">
-        <v>728.42</v>
+        <v>733.5</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.2">
@@ -28003,7 +28004,7 @@
         <v>21</v>
       </c>
       <c r="E943" s="3">
-        <v>1172.76</v>
+        <v>1180.94</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
@@ -33171,7 +33172,7 @@
         <v>21</v>
       </c>
       <c r="E1247" s="3">
-        <v>19434.25</v>
+        <v>19569.830000000002</v>
       </c>
     </row>
     <row r="1248" spans="1:5" x14ac:dyDescent="0.2">
@@ -33188,7 +33189,7 @@
         <v>21</v>
       </c>
       <c r="E1248" s="3">
-        <v>19434.25</v>
+        <v>19569.830000000002</v>
       </c>
     </row>
     <row r="1249" spans="1:5" x14ac:dyDescent="0.2">
@@ -33205,7 +33206,7 @@
         <v>21</v>
       </c>
       <c r="E1249" s="3">
-        <v>19434.25</v>
+        <v>19569.830000000002</v>
       </c>
     </row>
     <row r="1250" spans="1:5" x14ac:dyDescent="0.2">
@@ -33222,7 +33223,7 @@
         <v>21</v>
       </c>
       <c r="E1250" s="3">
-        <v>19434.25</v>
+        <v>19569.830000000002</v>
       </c>
     </row>
     <row r="1251" spans="1:5" x14ac:dyDescent="0.2">
@@ -33239,7 +33240,7 @@
         <v>21</v>
       </c>
       <c r="E1251" s="3">
-        <v>19434.25</v>
+        <v>19569.830000000002</v>
       </c>
     </row>
     <row r="1252" spans="1:5" x14ac:dyDescent="0.2">
@@ -33256,7 +33257,7 @@
         <v>21</v>
       </c>
       <c r="E1252" s="3">
-        <v>19434.25</v>
+        <v>19569.830000000002</v>
       </c>
     </row>
     <row r="1253" spans="1:5" x14ac:dyDescent="0.2">
@@ -33273,7 +33274,7 @@
         <v>21</v>
       </c>
       <c r="E1253" s="3">
-        <v>19434.25</v>
+        <v>19569.830000000002</v>
       </c>
     </row>
     <row r="1254" spans="1:5" x14ac:dyDescent="0.2">
@@ -33290,7 +33291,7 @@
         <v>21</v>
       </c>
       <c r="E1254" s="3">
-        <v>19434.25</v>
+        <v>19569.830000000002</v>
       </c>
     </row>
     <row r="1255" spans="1:5" x14ac:dyDescent="0.2">
@@ -33307,7 +33308,7 @@
         <v>21</v>
       </c>
       <c r="E1255" s="3">
-        <v>19434.25</v>
+        <v>19569.830000000002</v>
       </c>
     </row>
     <row r="1256" spans="1:5" x14ac:dyDescent="0.2">
@@ -33341,7 +33342,7 @@
         <v>21</v>
       </c>
       <c r="E1257" s="3">
-        <v>19266.71</v>
+        <v>19401.13</v>
       </c>
     </row>
     <row r="1258" spans="1:5" x14ac:dyDescent="0.2">
@@ -33358,7 +33359,7 @@
         <v>21</v>
       </c>
       <c r="E1258" s="3">
-        <v>19266.71</v>
+        <v>19401.13</v>
       </c>
     </row>
     <row r="1259" spans="1:5" x14ac:dyDescent="0.2">
@@ -33375,7 +33376,7 @@
         <v>21</v>
       </c>
       <c r="E1259" s="3">
-        <v>19266.71</v>
+        <v>19401.13</v>
       </c>
     </row>
     <row r="1260" spans="1:5" x14ac:dyDescent="0.2">
@@ -33392,7 +33393,7 @@
         <v>21</v>
       </c>
       <c r="E1260" s="3">
-        <v>19266.71</v>
+        <v>19401.13</v>
       </c>
     </row>
     <row r="1261" spans="1:5" x14ac:dyDescent="0.2">
@@ -33409,7 +33410,7 @@
         <v>21</v>
       </c>
       <c r="E1261" s="3">
-        <v>19266.71</v>
+        <v>19401.13</v>
       </c>
     </row>
     <row r="1262" spans="1:5" x14ac:dyDescent="0.2">
@@ -33426,7 +33427,7 @@
         <v>21</v>
       </c>
       <c r="E1262" s="3">
-        <v>19434.25</v>
+        <v>19569.830000000002</v>
       </c>
     </row>
     <row r="1263" spans="1:5" x14ac:dyDescent="0.2">
@@ -33443,7 +33444,7 @@
         <v>21</v>
       </c>
       <c r="E1263" s="3">
-        <v>19266.71</v>
+        <v>19401.13</v>
       </c>
     </row>
     <row r="1264" spans="1:5" x14ac:dyDescent="0.2">
@@ -49848,7 +49849,7 @@
         <v>21</v>
       </c>
       <c r="E2228" s="3">
-        <v>286.69</v>
+        <v>288.69</v>
       </c>
     </row>
     <row r="2229" spans="1:5" x14ac:dyDescent="0.2">
@@ -49865,7 +49866,7 @@
         <v>21</v>
       </c>
       <c r="E2229" s="3">
-        <v>592.23</v>
+        <v>596.35</v>
       </c>
     </row>
     <row r="2230" spans="1:5" x14ac:dyDescent="0.2">
@@ -49882,7 +49883,7 @@
         <v>21</v>
       </c>
       <c r="E2230" s="3">
-        <v>1063.75</v>
+        <v>1071.17</v>
       </c>
     </row>
     <row r="2231" spans="1:5" x14ac:dyDescent="0.2">
@@ -49899,7 +49900,7 @@
         <v>21</v>
       </c>
       <c r="E2231" s="3">
-        <v>1584.31</v>
+        <v>1595.37</v>
       </c>
     </row>
     <row r="2232" spans="1:5" x14ac:dyDescent="0.2">
@@ -49916,7 +49917,7 @@
         <v>21</v>
       </c>
       <c r="E2232" s="3">
-        <v>2372.6999999999998</v>
+        <v>2389.2600000000002</v>
       </c>
     </row>
     <row r="2233" spans="1:5" x14ac:dyDescent="0.2">
@@ -49933,7 +49934,7 @@
         <v>21</v>
       </c>
       <c r="E2233" s="3">
-        <v>286.69</v>
+        <v>288.69</v>
       </c>
     </row>
     <row r="2234" spans="1:5" x14ac:dyDescent="0.2">
@@ -49950,7 +49951,7 @@
         <v>21</v>
       </c>
       <c r="E2234" s="3">
-        <v>592.23</v>
+        <v>596.35</v>
       </c>
     </row>
     <row r="2235" spans="1:5" x14ac:dyDescent="0.2">
@@ -49967,7 +49968,7 @@
         <v>21</v>
       </c>
       <c r="E2235" s="3">
-        <v>1063.75</v>
+        <v>1071.17</v>
       </c>
     </row>
     <row r="2236" spans="1:5" x14ac:dyDescent="0.2">
@@ -49984,7 +49985,7 @@
         <v>21</v>
       </c>
       <c r="E2236" s="3">
-        <v>1584.31</v>
+        <v>1595.37</v>
       </c>
     </row>
     <row r="2237" spans="1:5" x14ac:dyDescent="0.2">
@@ -50001,7 +50002,7 @@
         <v>21</v>
       </c>
       <c r="E2237" s="3">
-        <v>2372.6999999999998</v>
+        <v>2389.2600000000002</v>
       </c>
     </row>
     <row r="2238" spans="1:5" x14ac:dyDescent="0.2">
@@ -50018,7 +50019,7 @@
         <v>21</v>
       </c>
       <c r="E2238" s="3">
-        <v>2036.97</v>
+        <v>2051.19</v>
       </c>
     </row>
     <row r="2239" spans="1:5" x14ac:dyDescent="0.2">
@@ -50035,7 +50036,7 @@
         <v>21</v>
       </c>
       <c r="E2239" s="3">
-        <v>1335.35</v>
+        <v>1344.67</v>
       </c>
     </row>
     <row r="2240" spans="1:5" x14ac:dyDescent="0.2">
@@ -50052,7 +50053,7 @@
         <v>21</v>
       </c>
       <c r="E2240" s="3">
-        <v>1335.35</v>
+        <v>1344.67</v>
       </c>
     </row>
     <row r="2241" spans="1:5" x14ac:dyDescent="0.2">
@@ -54200,7 +54201,7 @@
         <v>21</v>
       </c>
       <c r="E2484" s="3">
-        <v>2580.17</v>
+        <v>2598.17</v>
       </c>
     </row>
     <row r="2485" spans="1:5" x14ac:dyDescent="0.2">
@@ -54217,7 +54218,7 @@
         <v>21</v>
       </c>
       <c r="E2485" s="3">
-        <v>5404.36</v>
+        <v>5442.06</v>
       </c>
     </row>
     <row r="2486" spans="1:5" x14ac:dyDescent="0.2">
@@ -54234,7 +54235,7 @@
         <v>21</v>
       </c>
       <c r="E2486" s="3">
-        <v>3480.55</v>
+        <v>3504.84</v>
       </c>
     </row>
     <row r="2487" spans="1:5" x14ac:dyDescent="0.2">
@@ -54251,7 +54252,7 @@
         <v>21</v>
       </c>
       <c r="E2487" s="3">
-        <v>2402.88</v>
+        <v>2419.65</v>
       </c>
     </row>
     <row r="2488" spans="1:5" x14ac:dyDescent="0.2">
@@ -54268,7 +54269,7 @@
         <v>21</v>
       </c>
       <c r="E2488" s="3">
-        <v>4785.2</v>
+        <v>4818.58</v>
       </c>
     </row>
     <row r="2489" spans="1:5" x14ac:dyDescent="0.2">
@@ -54285,7 +54286,7 @@
         <v>21</v>
       </c>
       <c r="E2489" s="3">
-        <v>603.54999999999995</v>
+        <v>607.76</v>
       </c>
     </row>
     <row r="2490" spans="1:5" x14ac:dyDescent="0.2">
@@ -54302,7 +54303,7 @@
         <v>21</v>
       </c>
       <c r="E2490" s="3">
-        <v>550.74</v>
+        <v>554.58000000000004</v>
       </c>
     </row>
     <row r="2491" spans="1:5" x14ac:dyDescent="0.2">
@@ -54319,7 +54320,7 @@
         <v>21</v>
       </c>
       <c r="E2491" s="3">
-        <v>1037.3499999999999</v>
+        <v>1044.5899999999999</v>
       </c>
     </row>
     <row r="2492" spans="1:5" x14ac:dyDescent="0.2">
@@ -54336,7 +54337,7 @@
         <v>21</v>
       </c>
       <c r="E2492" s="3">
-        <v>1169.3699999999999</v>
+        <v>1177.53</v>
       </c>
     </row>
     <row r="2493" spans="1:5" x14ac:dyDescent="0.2">
@@ -54353,7 +54354,7 @@
         <v>21</v>
       </c>
       <c r="E2493" s="3">
-        <v>169.75</v>
+        <v>170.92</v>
       </c>
     </row>
     <row r="2494" spans="1:5" x14ac:dyDescent="0.2">
@@ -54370,7 +54371,7 @@
         <v>21</v>
       </c>
       <c r="E2494" s="3">
-        <v>603.54999999999995</v>
+        <v>607.76</v>
       </c>
     </row>
     <row r="2495" spans="1:5" x14ac:dyDescent="0.2">
@@ -54387,7 +54388,7 @@
         <v>21</v>
       </c>
       <c r="E2495" s="3">
-        <v>550.74</v>
+        <v>554.58000000000004</v>
       </c>
     </row>
     <row r="2496" spans="1:5" x14ac:dyDescent="0.2">
@@ -54404,7 +54405,7 @@
         <v>21</v>
       </c>
       <c r="E2496" s="3">
-        <v>1169.3699999999999</v>
+        <v>1177.53</v>
       </c>
     </row>
     <row r="2497" spans="1:5" x14ac:dyDescent="0.2">
@@ -54421,7 +54422,7 @@
         <v>21</v>
       </c>
       <c r="E2497" s="3">
-        <v>637.5</v>
+        <v>641.94000000000005</v>
       </c>
     </row>
     <row r="2498" spans="1:5" x14ac:dyDescent="0.2">
@@ -54438,7 +54439,7 @@
         <v>21</v>
       </c>
       <c r="E2498" s="3">
-        <v>1044.8900000000001</v>
+        <v>1052.19</v>
       </c>
     </row>
     <row r="2499" spans="1:5" x14ac:dyDescent="0.2">
@@ -54455,7 +54456,7 @@
         <v>21</v>
       </c>
       <c r="E2499" s="3">
-        <v>12346.33</v>
+        <v>12432.47</v>
       </c>
     </row>
     <row r="2500" spans="1:5" x14ac:dyDescent="0.2">
@@ -54472,7 +54473,7 @@
         <v>21</v>
       </c>
       <c r="E2500" s="3">
-        <v>10252.77</v>
+        <v>10324.299999999999</v>
       </c>
     </row>
     <row r="2501" spans="1:5" x14ac:dyDescent="0.2">
@@ -54557,7 +54558,7 @@
         <v>21</v>
       </c>
       <c r="E2505" s="3">
-        <v>1191.27</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="2506" spans="1:5" x14ac:dyDescent="0.2">
@@ -54574,7 +54575,7 @@
         <v>21</v>
       </c>
       <c r="E2506" s="3">
-        <v>189.64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2507" spans="1:5" x14ac:dyDescent="0.2">
@@ -54591,7 +54592,7 @@
         <v>21</v>
       </c>
       <c r="E2507" s="3">
-        <v>189.64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2508" spans="1:5" x14ac:dyDescent="0.2">
@@ -54608,7 +54609,7 @@
         <v>21</v>
       </c>
       <c r="E2508" s="3">
-        <v>189.64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2509" spans="1:5" x14ac:dyDescent="0.2">
@@ -54625,7 +54626,7 @@
         <v>21</v>
       </c>
       <c r="E2509" s="3">
-        <v>189.64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2510" spans="1:5" x14ac:dyDescent="0.2">
@@ -54642,7 +54643,7 @@
         <v>21</v>
       </c>
       <c r="E2510" s="3">
-        <v>189.64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2511" spans="1:5" x14ac:dyDescent="0.2">
@@ -54659,7 +54660,7 @@
         <v>21</v>
       </c>
       <c r="E2511" s="3">
-        <v>189.64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2512" spans="1:5" x14ac:dyDescent="0.2">
@@ -54676,7 +54677,7 @@
         <v>21</v>
       </c>
       <c r="E2512" s="3">
-        <v>1416.83</v>
+        <v>1703.38</v>
       </c>
     </row>
     <row r="2513" spans="1:5" x14ac:dyDescent="0.2">
@@ -54693,7 +54694,7 @@
         <v>21</v>
       </c>
       <c r="E2513" s="3">
-        <v>5152.01</v>
+        <v>6194.01</v>
       </c>
     </row>
     <row r="2514" spans="1:5" x14ac:dyDescent="0.2">
@@ -54710,7 +54711,7 @@
         <v>21</v>
       </c>
       <c r="E2514" s="3">
-        <v>865.6</v>
+        <v>1040.6600000000001</v>
       </c>
     </row>
     <row r="2515" spans="1:5" x14ac:dyDescent="0.2">
@@ -54727,7 +54728,7 @@
         <v>21</v>
       </c>
       <c r="E2515" s="3">
-        <v>189.64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2516" spans="1:5" x14ac:dyDescent="0.2">
@@ -54744,7 +54745,7 @@
         <v>21</v>
       </c>
       <c r="E2516" s="3">
-        <v>189.64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2517" spans="1:5" x14ac:dyDescent="0.2">
@@ -54761,7 +54762,7 @@
         <v>21</v>
       </c>
       <c r="E2517" s="3">
-        <v>1425.38</v>
+        <v>1713.68</v>
       </c>
     </row>
     <row r="2518" spans="1:5" x14ac:dyDescent="0.2">
@@ -54778,7 +54779,7 @@
         <v>21</v>
       </c>
       <c r="E2518" s="3">
-        <v>1425.38</v>
+        <v>1713.68</v>
       </c>
     </row>
     <row r="2519" spans="1:5" x14ac:dyDescent="0.2">
@@ -54795,7 +54796,7 @@
         <v>21</v>
       </c>
       <c r="E2519" s="3">
-        <v>1425.38</v>
+        <v>1713.68</v>
       </c>
     </row>
     <row r="2520" spans="1:5" x14ac:dyDescent="0.2">
@@ -54812,7 +54813,7 @@
         <v>21</v>
       </c>
       <c r="E2520" s="3">
-        <v>1425.38</v>
+        <v>1713.68</v>
       </c>
     </row>
     <row r="2521" spans="1:5" x14ac:dyDescent="0.2">
@@ -54829,7 +54830,7 @@
         <v>21</v>
       </c>
       <c r="E2521" s="3">
-        <v>1425.38</v>
+        <v>1713.68</v>
       </c>
     </row>
     <row r="2522" spans="1:5" x14ac:dyDescent="0.2">
@@ -54846,7 +54847,7 @@
         <v>21</v>
       </c>
       <c r="E2522" s="3">
-        <v>1425.38</v>
+        <v>1713.68</v>
       </c>
     </row>
     <row r="2523" spans="1:5" x14ac:dyDescent="0.2">
@@ -54863,7 +54864,7 @@
         <v>21</v>
       </c>
       <c r="E2523" s="3">
-        <v>5210.8500000000004</v>
+        <v>6264.73</v>
       </c>
     </row>
     <row r="2524" spans="1:5" x14ac:dyDescent="0.2">
@@ -54880,7 +54881,7 @@
         <v>21</v>
       </c>
       <c r="E2524" s="3">
-        <v>5210.8500000000004</v>
+        <v>6264.73</v>
       </c>
     </row>
     <row r="2525" spans="1:5" x14ac:dyDescent="0.2">
@@ -54897,7 +54898,7 @@
         <v>21</v>
       </c>
       <c r="E2525" s="3">
-        <v>5210.8500000000004</v>
+        <v>6264.73</v>
       </c>
     </row>
     <row r="2526" spans="1:5" x14ac:dyDescent="0.2">
@@ -54914,7 +54915,7 @@
         <v>21</v>
       </c>
       <c r="E2526" s="3">
-        <v>5210.8500000000004</v>
+        <v>6264.73</v>
       </c>
     </row>
     <row r="2527" spans="1:5" x14ac:dyDescent="0.2">
@@ -54931,7 +54932,7 @@
         <v>21</v>
       </c>
       <c r="E2527" s="3">
-        <v>5210.8500000000004</v>
+        <v>6264.73</v>
       </c>
     </row>
     <row r="2528" spans="1:5" x14ac:dyDescent="0.2">
@@ -54948,7 +54949,7 @@
         <v>21</v>
       </c>
       <c r="E2528" s="3">
-        <v>1191.27</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="2529" spans="1:5" x14ac:dyDescent="0.2">
@@ -54965,7 +54966,7 @@
         <v>21</v>
       </c>
       <c r="E2529" s="3">
-        <v>4274.33</v>
+        <v>5138.82</v>
       </c>
     </row>
     <row r="2530" spans="1:5" x14ac:dyDescent="0.2">
@@ -54982,7 +54983,7 @@
         <v>21</v>
       </c>
       <c r="E2530" s="3">
-        <v>1191.27</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="2531" spans="1:5" x14ac:dyDescent="0.2">
@@ -54999,7 +55000,7 @@
         <v>21</v>
       </c>
       <c r="E2531" s="3">
-        <v>4274.33</v>
+        <v>5138.82</v>
       </c>
     </row>
     <row r="2532" spans="1:5" x14ac:dyDescent="0.2">
@@ -55016,7 +55017,7 @@
         <v>21</v>
       </c>
       <c r="E2532" s="3">
-        <v>1191.27</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="2533" spans="1:5" x14ac:dyDescent="0.2">
@@ -55033,7 +55034,7 @@
         <v>21</v>
       </c>
       <c r="E2533" s="3">
-        <v>4274.33</v>
+        <v>5138.82</v>
       </c>
     </row>
     <row r="2534" spans="1:5" x14ac:dyDescent="0.2">
@@ -55050,7 +55051,7 @@
         <v>21</v>
       </c>
       <c r="E2534" s="3">
-        <v>1191.27</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="2535" spans="1:5" x14ac:dyDescent="0.2">
@@ -55067,7 +55068,7 @@
         <v>21</v>
       </c>
       <c r="E2535" s="3">
-        <v>4274.33</v>
+        <v>5138.82</v>
       </c>
     </row>
     <row r="2536" spans="1:5" x14ac:dyDescent="0.2">
@@ -55084,7 +55085,7 @@
         <v>21</v>
       </c>
       <c r="E2536" s="3">
-        <v>1191.27</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.2">
@@ -55101,7 +55102,7 @@
         <v>21</v>
       </c>
       <c r="E2537" s="3">
-        <v>4274.33</v>
+        <v>5138.82</v>
       </c>
     </row>
     <row r="2538" spans="1:5" x14ac:dyDescent="0.2">
@@ -55118,7 +55119,7 @@
         <v>21</v>
       </c>
       <c r="E2538" s="3">
-        <v>1191.27</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="2539" spans="1:5" x14ac:dyDescent="0.2">
@@ -55135,7 +55136,7 @@
         <v>21</v>
       </c>
       <c r="E2539" s="3">
-        <v>4274.33</v>
+        <v>5138.82</v>
       </c>
     </row>
     <row r="2540" spans="1:5" x14ac:dyDescent="0.2">
@@ -55152,7 +55153,7 @@
         <v>21</v>
       </c>
       <c r="E2540" s="3">
-        <v>265.52999999999997</v>
+        <v>319.23</v>
       </c>
     </row>
     <row r="2541" spans="1:5" x14ac:dyDescent="0.2">
@@ -55169,7 +55170,7 @@
         <v>21</v>
       </c>
       <c r="E2541" s="3">
-        <v>265.52999999999997</v>
+        <v>319.23</v>
       </c>
     </row>
     <row r="2542" spans="1:5" x14ac:dyDescent="0.2">
@@ -55186,7 +55187,7 @@
         <v>21</v>
       </c>
       <c r="E2542" s="3">
-        <v>265.52999999999997</v>
+        <v>319.23</v>
       </c>
     </row>
     <row r="2543" spans="1:5" x14ac:dyDescent="0.2">
@@ -55203,7 +55204,7 @@
         <v>21</v>
       </c>
       <c r="E2543" s="3">
-        <v>265.52999999999997</v>
+        <v>319.23</v>
       </c>
     </row>
     <row r="2544" spans="1:5" x14ac:dyDescent="0.2">
@@ -55220,7 +55221,7 @@
         <v>21</v>
       </c>
       <c r="E2544" s="3">
-        <v>265.52999999999997</v>
+        <v>319.23</v>
       </c>
     </row>
     <row r="2545" spans="1:5" x14ac:dyDescent="0.2">
@@ -55237,7 +55238,7 @@
         <v>21</v>
       </c>
       <c r="E2545" s="3">
-        <v>265.52999999999997</v>
+        <v>319.23</v>
       </c>
     </row>
     <row r="2546" spans="1:5" x14ac:dyDescent="0.2">
@@ -55254,7 +55255,7 @@
         <v>21</v>
       </c>
       <c r="E2546" s="3">
-        <v>265.52999999999997</v>
+        <v>319.23</v>
       </c>
     </row>
     <row r="2547" spans="1:5" x14ac:dyDescent="0.2">
@@ -55271,7 +55272,7 @@
         <v>21</v>
       </c>
       <c r="E2547" s="3">
-        <v>265.52999999999997</v>
+        <v>319.23</v>
       </c>
     </row>
     <row r="2548" spans="1:5" x14ac:dyDescent="0.2">
@@ -55288,7 +55289,7 @@
         <v>21</v>
       </c>
       <c r="E2548" s="3">
-        <v>765.98</v>
+        <v>920.89</v>
       </c>
     </row>
     <row r="2549" spans="1:5" x14ac:dyDescent="0.2">
@@ -55305,7 +55306,7 @@
         <v>21</v>
       </c>
       <c r="E2549" s="3">
-        <v>2573.17</v>
+        <v>3093.6</v>
       </c>
     </row>
     <row r="2550" spans="1:5" x14ac:dyDescent="0.2">
@@ -55322,7 +55323,7 @@
         <v>21</v>
       </c>
       <c r="E2550" s="3">
-        <v>1191.27</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="2551" spans="1:5" x14ac:dyDescent="0.2">
@@ -55339,7 +55340,7 @@
         <v>21</v>
       </c>
       <c r="E2551" s="3">
-        <v>4274.33</v>
+        <v>5138.82</v>
       </c>
     </row>
     <row r="2552" spans="1:5" x14ac:dyDescent="0.2">
@@ -55356,7 +55357,7 @@
         <v>21</v>
       </c>
       <c r="E2552" s="3">
-        <v>189.64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2553" spans="1:5" x14ac:dyDescent="0.2">
@@ -55373,7 +55374,7 @@
         <v>21</v>
       </c>
       <c r="E2553" s="3">
-        <v>265.52999999999997</v>
+        <v>319.23</v>
       </c>
     </row>
     <row r="2554" spans="1:5" x14ac:dyDescent="0.2">
@@ -55390,7 +55391,7 @@
         <v>21</v>
       </c>
       <c r="E2554" s="3">
-        <v>353.01</v>
+        <v>424.43</v>
       </c>
     </row>
     <row r="2555" spans="1:5" x14ac:dyDescent="0.2">
@@ -55407,7 +55408,7 @@
         <v>21</v>
       </c>
       <c r="E2555" s="3">
-        <v>1107.3699999999999</v>
+        <v>1331.33</v>
       </c>
     </row>
     <row r="2556" spans="1:5" x14ac:dyDescent="0.2">
@@ -55424,7 +55425,7 @@
         <v>21</v>
       </c>
       <c r="E2556" s="3">
-        <v>6151.54</v>
+        <v>7395.68</v>
       </c>
     </row>
     <row r="2557" spans="1:5" x14ac:dyDescent="0.2">
@@ -55441,7 +55442,7 @@
         <v>21</v>
       </c>
       <c r="E2557" s="3">
-        <v>9930.33</v>
+        <v>11938.74</v>
       </c>
     </row>
     <row r="2558" spans="1:5" x14ac:dyDescent="0.2">
@@ -55458,7 +55459,7 @@
         <v>21</v>
       </c>
       <c r="E2558" s="3">
-        <v>5210.8500000000004</v>
+        <v>6264.73</v>
       </c>
     </row>
     <row r="2559" spans="1:5" x14ac:dyDescent="0.2">
@@ -55475,7 +55476,7 @@
         <v>21</v>
       </c>
       <c r="E2559" s="3">
-        <v>1191.27</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="2560" spans="1:5" x14ac:dyDescent="0.2">
@@ -55492,7 +55493,7 @@
         <v>21</v>
       </c>
       <c r="E2560" s="3">
-        <v>4274.33</v>
+        <v>5138.82</v>
       </c>
     </row>
     <row r="2561" spans="1:5" x14ac:dyDescent="0.2">
@@ -55509,7 +55510,7 @@
         <v>21</v>
       </c>
       <c r="E2561" s="3">
-        <v>824.37</v>
+        <v>991.11</v>
       </c>
     </row>
     <row r="2562" spans="1:5" x14ac:dyDescent="0.2">
@@ -55526,7 +55527,7 @@
         <v>21</v>
       </c>
       <c r="E2562" s="3">
-        <v>1349.36</v>
+        <v>1622.28</v>
       </c>
     </row>
     <row r="2563" spans="1:5" x14ac:dyDescent="0.2">
@@ -55543,7 +55544,7 @@
         <v>21</v>
       </c>
       <c r="E2563" s="3">
-        <v>4906.6899999999996</v>
+        <v>5899.07</v>
       </c>
     </row>
     <row r="2564" spans="1:5" x14ac:dyDescent="0.2">
@@ -55560,7 +55561,7 @@
         <v>21</v>
       </c>
       <c r="E2564" s="3">
-        <v>1191.27</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="2565" spans="1:5" x14ac:dyDescent="0.2">
@@ -55577,7 +55578,7 @@
         <v>21</v>
       </c>
       <c r="E2565" s="3">
-        <v>1191.27</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="2566" spans="1:5" x14ac:dyDescent="0.2">
@@ -55594,7 +55595,7 @@
         <v>21</v>
       </c>
       <c r="E2566" s="3">
-        <v>4274.33</v>
+        <v>5138.82</v>
       </c>
     </row>
     <row r="2567" spans="1:5" x14ac:dyDescent="0.2">
@@ -55611,7 +55612,7 @@
         <v>21</v>
       </c>
       <c r="E2567" s="3">
-        <v>4274.33</v>
+        <v>5138.82</v>
       </c>
     </row>
     <row r="2568" spans="1:5" x14ac:dyDescent="0.2">
@@ -55628,7 +55629,7 @@
         <v>21</v>
       </c>
       <c r="E2568" s="3">
-        <v>10404.450000000001</v>
+        <v>12508.77</v>
       </c>
     </row>
     <row r="2569" spans="1:5" x14ac:dyDescent="0.2">
@@ -55645,7 +55646,7 @@
         <v>21</v>
       </c>
       <c r="E2569" s="3">
-        <v>10404.450000000001</v>
+        <v>12508.77</v>
       </c>
     </row>
     <row r="2570" spans="1:5" x14ac:dyDescent="0.2">
@@ -55662,7 +55663,7 @@
         <v>21</v>
       </c>
       <c r="E2570" s="3">
-        <v>10404.450000000001</v>
+        <v>12508.77</v>
       </c>
     </row>
     <row r="2571" spans="1:5" x14ac:dyDescent="0.2">
@@ -55679,7 +55680,7 @@
         <v>21</v>
       </c>
       <c r="E2571" s="3">
-        <v>10404.450000000001</v>
+        <v>12508.77</v>
       </c>
     </row>
     <row r="2572" spans="1:5" x14ac:dyDescent="0.2">
@@ -55696,7 +55697,7 @@
         <v>21</v>
       </c>
       <c r="E2572" s="3">
-        <v>10404.450000000001</v>
+        <v>12508.77</v>
       </c>
     </row>
     <row r="2573" spans="1:5" x14ac:dyDescent="0.2">
@@ -55713,7 +55714,7 @@
         <v>21</v>
       </c>
       <c r="E2573" s="3">
-        <v>10404.450000000001</v>
+        <v>12508.77</v>
       </c>
     </row>
     <row r="2574" spans="1:5" x14ac:dyDescent="0.2">
@@ -55730,7 +55731,7 @@
         <v>21</v>
       </c>
       <c r="E2574" s="3">
-        <v>10404.450000000001</v>
+        <v>12508.77</v>
       </c>
     </row>
     <row r="2575" spans="1:5" x14ac:dyDescent="0.2">
@@ -55747,7 +55748,7 @@
         <v>21</v>
       </c>
       <c r="E2575" s="3">
-        <v>10404.450000000001</v>
+        <v>12508.77</v>
       </c>
     </row>
     <row r="2576" spans="1:5" x14ac:dyDescent="0.2">
@@ -55764,7 +55765,7 @@
         <v>21</v>
       </c>
       <c r="E2576" s="3">
-        <v>10404.450000000001</v>
+        <v>12508.77</v>
       </c>
     </row>
     <row r="2577" spans="1:5" x14ac:dyDescent="0.2">
@@ -55781,7 +55782,7 @@
         <v>21</v>
       </c>
       <c r="E2577" s="3">
-        <v>19148.7</v>
+        <v>23021.54</v>
       </c>
     </row>
     <row r="2578" spans="1:5" x14ac:dyDescent="0.2">
@@ -55798,7 +55799,7 @@
         <v>21</v>
       </c>
       <c r="E2578" s="3">
-        <v>19148.7</v>
+        <v>23021.54</v>
       </c>
     </row>
     <row r="2579" spans="1:5" x14ac:dyDescent="0.2">
@@ -55815,7 +55816,7 @@
         <v>21</v>
       </c>
       <c r="E2579" s="3">
-        <v>4274.33</v>
+        <v>5138.82</v>
       </c>
     </row>
     <row r="2580" spans="1:5" x14ac:dyDescent="0.2">
@@ -55832,7 +55833,7 @@
         <v>21</v>
       </c>
       <c r="E2580" s="3">
-        <v>19148.7</v>
+        <v>23021.54</v>
       </c>
     </row>
     <row r="2581" spans="1:5" x14ac:dyDescent="0.2">
@@ -55849,7 +55850,7 @@
         <v>21</v>
       </c>
       <c r="E2581" s="3">
-        <v>19148.7</v>
+        <v>23021.54</v>
       </c>
     </row>
     <row r="2582" spans="1:5" x14ac:dyDescent="0.2">
@@ -55866,7 +55867,7 @@
         <v>21</v>
       </c>
       <c r="E2582" s="3">
-        <v>19148.7</v>
+        <v>23021.54</v>
       </c>
     </row>
     <row r="2583" spans="1:5" x14ac:dyDescent="0.2">
@@ -55883,7 +55884,7 @@
         <v>21</v>
       </c>
       <c r="E2583" s="3">
-        <v>19148.7</v>
+        <v>23021.54</v>
       </c>
     </row>
     <row r="2584" spans="1:5" x14ac:dyDescent="0.2">
@@ -55900,7 +55901,7 @@
         <v>21</v>
       </c>
       <c r="E2584" s="3">
-        <v>19148.7</v>
+        <v>23021.54</v>
       </c>
     </row>
     <row r="2585" spans="1:5" x14ac:dyDescent="0.2">
@@ -55917,7 +55918,7 @@
         <v>21</v>
       </c>
       <c r="E2585" s="3">
-        <v>19148.7</v>
+        <v>23021.54</v>
       </c>
     </row>
     <row r="2586" spans="1:5" x14ac:dyDescent="0.2">
@@ -55934,7 +55935,7 @@
         <v>21</v>
       </c>
       <c r="E2586" s="3">
-        <v>19148.7</v>
+        <v>23021.54</v>
       </c>
     </row>
     <row r="2587" spans="1:5" x14ac:dyDescent="0.2">
@@ -55951,7 +55952,7 @@
         <v>21</v>
       </c>
       <c r="E2587" s="3">
-        <v>19148.7</v>
+        <v>23021.54</v>
       </c>
     </row>
     <row r="2588" spans="1:5" x14ac:dyDescent="0.2">
@@ -55968,7 +55969,7 @@
         <v>21</v>
       </c>
       <c r="E2588" s="3">
-        <v>19148.7</v>
+        <v>23021.54</v>
       </c>
     </row>
     <row r="2589" spans="1:5" x14ac:dyDescent="0.2">
@@ -55985,7 +55986,7 @@
         <v>21</v>
       </c>
       <c r="E2589" s="3">
-        <v>2840.45</v>
+        <v>2860.26</v>
       </c>
     </row>
     <row r="2590" spans="1:5" x14ac:dyDescent="0.2">
@@ -56699,7 +56700,7 @@
         <v>21</v>
       </c>
       <c r="E2631" s="3">
-        <v>18682.72</v>
+        <v>18813.07</v>
       </c>
     </row>
     <row r="2632" spans="1:5" x14ac:dyDescent="0.2">
@@ -56716,7 +56717,7 @@
         <v>21</v>
       </c>
       <c r="E2632" s="3">
-        <v>21195.77</v>
+        <v>21343.65</v>
       </c>
     </row>
     <row r="2633" spans="1:5" x14ac:dyDescent="0.2">
@@ -58824,7 +58825,7 @@
         <v>21</v>
       </c>
       <c r="E2756" s="3">
-        <v>784.61</v>
+        <v>790.09</v>
       </c>
     </row>
     <row r="2757" spans="1:5" x14ac:dyDescent="0.2">
@@ -58841,7 +58842,7 @@
         <v>21</v>
       </c>
       <c r="E2757" s="3">
-        <v>784.61</v>
+        <v>790.09</v>
       </c>
     </row>
     <row r="2758" spans="1:5" x14ac:dyDescent="0.2">
@@ -58858,7 +58859,7 @@
         <v>21</v>
       </c>
       <c r="E2758" s="3">
-        <v>837.42</v>
+        <v>843.27</v>
       </c>
     </row>
     <row r="2759" spans="1:5" x14ac:dyDescent="0.2">
@@ -58875,7 +58876,7 @@
         <v>21</v>
       </c>
       <c r="E2759" s="3">
-        <v>324.41000000000003</v>
+        <v>326.67</v>
       </c>
     </row>
     <row r="2760" spans="1:5" x14ac:dyDescent="0.2">
@@ -58892,7 +58893,7 @@
         <v>21</v>
       </c>
       <c r="E2760" s="3">
-        <v>588.46</v>
+        <v>592.55999999999995</v>
       </c>
     </row>
     <row r="2761" spans="1:5" x14ac:dyDescent="0.2">
@@ -58909,7 +58910,7 @@
         <v>21</v>
       </c>
       <c r="E2761" s="3">
-        <v>588.46</v>
+        <v>592.55999999999995</v>
       </c>
     </row>
     <row r="2762" spans="1:5" x14ac:dyDescent="0.2">
@@ -58926,7 +58927,7 @@
         <v>21</v>
       </c>
       <c r="E2762" s="3">
-        <v>441.34</v>
+        <v>444.43</v>
       </c>
     </row>
     <row r="2763" spans="1:5" x14ac:dyDescent="0.2">
@@ -58943,7 +58944,7 @@
         <v>21</v>
       </c>
       <c r="E2763" s="3">
-        <v>441.34</v>
+        <v>444.43</v>
       </c>
     </row>
     <row r="2764" spans="1:5" x14ac:dyDescent="0.2">
@@ -58960,7 +58961,7 @@
         <v>21</v>
       </c>
       <c r="E2764" s="3">
-        <v>441.34</v>
+        <v>444.43</v>
       </c>
     </row>
     <row r="2765" spans="1:5" x14ac:dyDescent="0.2">
@@ -59011,7 +59012,7 @@
         <v>21</v>
       </c>
       <c r="E2767" s="3">
-        <v>218.79</v>
+        <v>220.31</v>
       </c>
     </row>
     <row r="2768" spans="1:5" x14ac:dyDescent="0.2">
@@ -59028,7 +59029,7 @@
         <v>21</v>
       </c>
       <c r="E2768" s="3">
-        <v>316.86</v>
+        <v>319.07</v>
       </c>
     </row>
     <row r="2769" spans="1:5" x14ac:dyDescent="0.2">
@@ -59045,7 +59046,7 @@
         <v>21</v>
       </c>
       <c r="E2769" s="3">
-        <v>316.86</v>
+        <v>319.07</v>
       </c>
     </row>
     <row r="2770" spans="1:5" x14ac:dyDescent="0.2">
@@ -59062,7 +59063,7 @@
         <v>21</v>
       </c>
       <c r="E2770" s="3">
-        <v>152.97</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="2771" spans="1:5" x14ac:dyDescent="0.2">
@@ -59079,7 +59080,7 @@
         <v>21</v>
       </c>
       <c r="E2771" s="3">
-        <v>384.76</v>
+        <v>387.45</v>
       </c>
     </row>
     <row r="2772" spans="1:5" x14ac:dyDescent="0.2">
@@ -59096,7 +59097,7 @@
         <v>21</v>
       </c>
       <c r="E2772" s="3">
-        <v>573.37</v>
+        <v>577.37</v>
       </c>
     </row>
     <row r="2773" spans="1:5" x14ac:dyDescent="0.2">
@@ -59113,7 +59114,7 @@
         <v>21</v>
       </c>
       <c r="E2773" s="3">
-        <v>765.75</v>
+        <v>771.1</v>
       </c>
     </row>
     <row r="2774" spans="1:5" x14ac:dyDescent="0.2">
@@ -59130,7 +59131,7 @@
         <v>21</v>
       </c>
       <c r="E2774" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2775" spans="1:5" x14ac:dyDescent="0.2">
@@ -59147,7 +59148,7 @@
         <v>21</v>
       </c>
       <c r="E2775" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2776" spans="1:5" x14ac:dyDescent="0.2">
@@ -59164,7 +59165,7 @@
         <v>21</v>
       </c>
       <c r="E2776" s="3">
-        <v>131.12</v>
+        <v>132.03</v>
       </c>
     </row>
     <row r="2777" spans="1:5" x14ac:dyDescent="0.2">
@@ -59181,7 +59182,7 @@
         <v>21</v>
       </c>
       <c r="E2777" s="3">
-        <v>131.12</v>
+        <v>132.03</v>
       </c>
     </row>
     <row r="2778" spans="1:5" x14ac:dyDescent="0.2">
@@ -59198,7 +59199,7 @@
         <v>21</v>
       </c>
       <c r="E2778" s="3">
-        <v>131.12</v>
+        <v>132.03</v>
       </c>
     </row>
     <row r="2779" spans="1:5" x14ac:dyDescent="0.2">
@@ -59215,7 +59216,7 @@
         <v>21</v>
       </c>
       <c r="E2779" s="3">
-        <v>131.12</v>
+        <v>132.03</v>
       </c>
     </row>
     <row r="2780" spans="1:5" x14ac:dyDescent="0.2">
@@ -59232,7 +59233,7 @@
         <v>21</v>
       </c>
       <c r="E2780" s="3">
-        <v>1041.1199999999999</v>
+        <v>1048.3800000000001</v>
       </c>
     </row>
     <row r="2781" spans="1:5" x14ac:dyDescent="0.2">
@@ -59249,7 +59250,7 @@
         <v>21</v>
       </c>
       <c r="E2781" s="3">
-        <v>1388.16</v>
+        <v>1397.85</v>
       </c>
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.2">
@@ -59283,7 +59284,7 @@
         <v>21</v>
       </c>
       <c r="E2783" s="3">
-        <v>72.84</v>
+        <v>73.349999999999994</v>
       </c>
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.2">
@@ -59300,7 +59301,7 @@
         <v>21</v>
       </c>
       <c r="E2784" s="3">
-        <v>72.84</v>
+        <v>73.349999999999994</v>
       </c>
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.2">
@@ -59317,7 +59318,7 @@
         <v>21</v>
       </c>
       <c r="E2785" s="3">
-        <v>72.84</v>
+        <v>73.349999999999994</v>
       </c>
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.2">
@@ -59334,7 +59335,7 @@
         <v>21</v>
       </c>
       <c r="E2786" s="3">
-        <v>72.84</v>
+        <v>73.349999999999994</v>
       </c>
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.2">
@@ -59351,7 +59352,7 @@
         <v>21</v>
       </c>
       <c r="E2787" s="3">
-        <v>120.19</v>
+        <v>121.02</v>
       </c>
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.2">
@@ -59368,7 +59369,7 @@
         <v>21</v>
       </c>
       <c r="E2788" s="3">
-        <v>218.53</v>
+        <v>220.05</v>
       </c>
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.2">
@@ -59385,7 +59386,7 @@
         <v>21</v>
       </c>
       <c r="E2789" s="3">
-        <v>116.55</v>
+        <v>117.36</v>
       </c>
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.2">
@@ -59402,7 +59403,7 @@
         <v>21</v>
       </c>
       <c r="E2790" s="3">
-        <v>116.55</v>
+        <v>117.36</v>
       </c>
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.2">
@@ -59419,7 +59420,7 @@
         <v>21</v>
       </c>
       <c r="E2791" s="3">
-        <v>116.55</v>
+        <v>117.36</v>
       </c>
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.2">
@@ -59436,7 +59437,7 @@
         <v>21</v>
       </c>
       <c r="E2792" s="3">
-        <v>116.55</v>
+        <v>117.36</v>
       </c>
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.2">
@@ -59453,7 +59454,7 @@
         <v>21</v>
       </c>
       <c r="E2793" s="3">
-        <v>116.55</v>
+        <v>117.36</v>
       </c>
     </row>
     <row r="2794" spans="1:5" x14ac:dyDescent="0.2">
@@ -59470,7 +59471,7 @@
         <v>21</v>
       </c>
       <c r="E2794" s="3">
-        <v>109.39</v>
+        <v>110.15</v>
       </c>
     </row>
     <row r="2795" spans="1:5" x14ac:dyDescent="0.2">
@@ -59487,7 +59488,7 @@
         <v>21</v>
       </c>
       <c r="E2795" s="3">
-        <v>592.23</v>
+        <v>596.35</v>
       </c>
     </row>
     <row r="2796" spans="1:5" x14ac:dyDescent="0.2">
@@ -59504,7 +59505,7 @@
         <v>21</v>
       </c>
       <c r="E2796" s="3">
-        <v>592.23</v>
+        <v>596.35</v>
       </c>
     </row>
     <row r="2797" spans="1:5" x14ac:dyDescent="0.2">
@@ -59521,7 +59522,7 @@
         <v>21</v>
       </c>
       <c r="E2797" s="3">
-        <v>592.23</v>
+        <v>596.35</v>
       </c>
     </row>
     <row r="2798" spans="1:5" x14ac:dyDescent="0.2">
@@ -59538,7 +59539,7 @@
         <v>21</v>
       </c>
       <c r="E2798" s="3">
-        <v>592.23</v>
+        <v>596.35</v>
       </c>
     </row>
     <row r="2799" spans="1:5" x14ac:dyDescent="0.2">
@@ -59555,7 +59556,7 @@
         <v>21</v>
       </c>
       <c r="E2799" s="3">
-        <v>592.23</v>
+        <v>596.35</v>
       </c>
     </row>
     <row r="2800" spans="1:5" x14ac:dyDescent="0.2">
@@ -59572,7 +59573,7 @@
         <v>21</v>
       </c>
       <c r="E2800" s="3">
-        <v>592.23</v>
+        <v>596.35</v>
       </c>
     </row>
     <row r="2801" spans="1:5" x14ac:dyDescent="0.2">
@@ -59589,7 +59590,7 @@
         <v>21</v>
       </c>
       <c r="E2801" s="3">
-        <v>592.23</v>
+        <v>596.35</v>
       </c>
     </row>
     <row r="2802" spans="1:5" x14ac:dyDescent="0.2">
@@ -59606,7 +59607,7 @@
         <v>21</v>
       </c>
       <c r="E2802" s="3">
-        <v>109.39</v>
+        <v>110.15</v>
       </c>
     </row>
     <row r="2803" spans="1:5" x14ac:dyDescent="0.2">
@@ -59623,7 +59624,7 @@
         <v>21</v>
       </c>
       <c r="E2803" s="3">
-        <v>109.39</v>
+        <v>110.15</v>
       </c>
     </row>
     <row r="2804" spans="1:5" x14ac:dyDescent="0.2">
@@ -59640,7 +59641,7 @@
         <v>21</v>
       </c>
       <c r="E2804" s="3">
-        <v>109.39</v>
+        <v>110.15</v>
       </c>
     </row>
     <row r="2805" spans="1:5" x14ac:dyDescent="0.2">
@@ -59657,7 +59658,7 @@
         <v>21</v>
       </c>
       <c r="E2805" s="3">
-        <v>109.39</v>
+        <v>110.15</v>
       </c>
     </row>
     <row r="2806" spans="1:5" x14ac:dyDescent="0.2">
@@ -59674,7 +59675,7 @@
         <v>21</v>
       </c>
       <c r="E2806" s="3">
-        <v>331.95</v>
+        <v>334.27</v>
       </c>
     </row>
     <row r="2807" spans="1:5" x14ac:dyDescent="0.2">
@@ -59691,7 +59692,7 @@
         <v>21</v>
       </c>
       <c r="E2807" s="3">
-        <v>441.34</v>
+        <v>444.43</v>
       </c>
     </row>
     <row r="2808" spans="1:5" x14ac:dyDescent="0.2">
@@ -59708,7 +59709,7 @@
         <v>21</v>
       </c>
       <c r="E2808" s="3">
-        <v>660.13</v>
+        <v>664.74</v>
       </c>
     </row>
     <row r="2809" spans="1:5" x14ac:dyDescent="0.2">
@@ -59725,7 +59726,7 @@
         <v>21</v>
       </c>
       <c r="E2809" s="3">
-        <v>183.41</v>
+        <v>184.68</v>
       </c>
     </row>
     <row r="2810" spans="1:5" x14ac:dyDescent="0.2">
@@ -59742,7 +59743,7 @@
         <v>21</v>
       </c>
       <c r="E2810" s="3">
-        <v>230.23</v>
+        <v>231.83</v>
       </c>
     </row>
     <row r="2811" spans="1:5" x14ac:dyDescent="0.2">
@@ -59759,7 +59760,7 @@
         <v>21</v>
       </c>
       <c r="E2811" s="3">
-        <v>261.45</v>
+        <v>263.27999999999997</v>
       </c>
     </row>
     <row r="2812" spans="1:5" x14ac:dyDescent="0.2">
@@ -59776,7 +59777,7 @@
         <v>21</v>
       </c>
       <c r="E2812" s="3">
-        <v>429.25</v>
+        <v>432.24</v>
       </c>
     </row>
     <row r="2813" spans="1:5" x14ac:dyDescent="0.2">
@@ -59793,7 +59794,7 @@
         <v>21</v>
       </c>
       <c r="E2813" s="3">
-        <v>72.84</v>
+        <v>73.349999999999994</v>
       </c>
     </row>
     <row r="2814" spans="1:5" x14ac:dyDescent="0.2">
@@ -59810,7 +59811,7 @@
         <v>21</v>
       </c>
       <c r="E2814" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2815" spans="1:5" x14ac:dyDescent="0.2">
@@ -59827,7 +59828,7 @@
         <v>21</v>
       </c>
       <c r="E2815" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2816" spans="1:5" x14ac:dyDescent="0.2">
@@ -59844,7 +59845,7 @@
         <v>21</v>
       </c>
       <c r="E2816" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2817" spans="1:5" x14ac:dyDescent="0.2">
@@ -59861,7 +59862,7 @@
         <v>21</v>
       </c>
       <c r="E2817" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2818" spans="1:5" x14ac:dyDescent="0.2">
@@ -59878,7 +59879,7 @@
         <v>21</v>
       </c>
       <c r="E2818" s="3">
-        <v>622.41</v>
+        <v>626.76</v>
       </c>
     </row>
     <row r="2819" spans="1:5" x14ac:dyDescent="0.2">
@@ -59895,7 +59896,7 @@
         <v>21</v>
       </c>
       <c r="E2819" s="3">
-        <v>1241.05</v>
+        <v>1249.7</v>
       </c>
     </row>
     <row r="2820" spans="1:5" x14ac:dyDescent="0.2">
@@ -59912,7 +59913,7 @@
         <v>21</v>
       </c>
       <c r="E2820" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2821" spans="1:5" x14ac:dyDescent="0.2">
@@ -59929,7 +59930,7 @@
         <v>21</v>
       </c>
       <c r="E2821" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2822" spans="1:5" x14ac:dyDescent="0.2">
@@ -59946,7 +59947,7 @@
         <v>21</v>
       </c>
       <c r="E2822" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2823" spans="1:5" x14ac:dyDescent="0.2">
@@ -59963,7 +59964,7 @@
         <v>21</v>
       </c>
       <c r="E2823" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2824" spans="1:5" x14ac:dyDescent="0.2">
@@ -59980,7 +59981,7 @@
         <v>21</v>
       </c>
       <c r="E2824" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2825" spans="1:5" x14ac:dyDescent="0.2">
@@ -59997,7 +59998,7 @@
         <v>21</v>
       </c>
       <c r="E2825" s="3">
-        <v>105.62</v>
+        <v>106.35</v>
       </c>
     </row>
     <row r="2826" spans="1:5" x14ac:dyDescent="0.2">
@@ -60014,7 +60015,7 @@
         <v>21</v>
       </c>
       <c r="E2826" s="3">
-        <v>72.84</v>
+        <v>73.349999999999994</v>
       </c>
     </row>
     <row r="2827" spans="1:5" x14ac:dyDescent="0.2">
@@ -60031,7 +60032,7 @@
         <v>21</v>
       </c>
       <c r="E2827" s="3">
-        <v>882.69</v>
+        <v>888.85</v>
       </c>
     </row>
     <row r="2828" spans="1:5" x14ac:dyDescent="0.2">
@@ -60048,7 +60049,7 @@
         <v>21</v>
       </c>
       <c r="E2828" s="3">
-        <v>215.01</v>
+        <v>216.52</v>
       </c>
     </row>
     <row r="2829" spans="1:5" x14ac:dyDescent="0.2">
@@ -60065,7 +60066,7 @@
         <v>21</v>
       </c>
       <c r="E2829" s="3">
-        <v>350.81</v>
+        <v>353.25</v>
       </c>
     </row>
     <row r="2830" spans="1:5" x14ac:dyDescent="0.2">
@@ -60082,7 +60083,7 @@
         <v>21</v>
       </c>
       <c r="E2830" s="3">
-        <v>1637.12</v>
+        <v>1648.55</v>
       </c>
     </row>
     <row r="2831" spans="1:5" x14ac:dyDescent="0.2">
@@ -60099,7 +60100,7 @@
         <v>21</v>
       </c>
       <c r="E2831" s="3">
-        <v>969.45</v>
+        <v>976.2</v>
       </c>
     </row>
     <row r="2832" spans="1:5" x14ac:dyDescent="0.2">
@@ -60116,7 +60117,7 @@
         <v>21</v>
       </c>
       <c r="E2832" s="3">
-        <v>152.97</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="2833" spans="1:5" x14ac:dyDescent="0.2">
@@ -60133,7 +60134,7 @@
         <v>21</v>
       </c>
       <c r="E2833" s="3">
-        <v>152.97</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="2834" spans="1:5" x14ac:dyDescent="0.2">
@@ -62275,7 +62276,7 @@
         <v>21</v>
       </c>
       <c r="E2959" s="3">
-        <v>440.68</v>
+        <v>471.49</v>
       </c>
     </row>
     <row r="2960" spans="1:5" x14ac:dyDescent="0.2">
@@ -62292,7 +62293,7 @@
         <v>21</v>
       </c>
       <c r="E2960" s="3">
-        <v>482.33</v>
+        <v>516.04999999999995</v>
       </c>
     </row>
     <row r="2961" spans="1:5" x14ac:dyDescent="0.2">
@@ -62309,7 +62310,7 @@
         <v>21</v>
       </c>
       <c r="E2961" s="3">
-        <v>471.71</v>
+        <v>509.4</v>
       </c>
     </row>
     <row r="2962" spans="1:5" x14ac:dyDescent="0.2">
@@ -62326,7 +62327,7 @@
         <v>21</v>
       </c>
       <c r="E2962" s="3">
-        <v>4763.57</v>
+        <v>5097.03</v>
       </c>
     </row>
     <row r="2963" spans="1:5" x14ac:dyDescent="0.2">
@@ -62343,7 +62344,7 @@
         <v>21</v>
       </c>
       <c r="E2963" s="3">
-        <v>40.21</v>
+        <v>42.62</v>
       </c>
     </row>
     <row r="2964" spans="1:5" x14ac:dyDescent="0.2">
@@ -62360,7 +62361,7 @@
         <v>21</v>
       </c>
       <c r="E2964" s="3">
-        <v>5256.17</v>
+        <v>5519.04</v>
       </c>
     </row>
     <row r="2965" spans="1:5" x14ac:dyDescent="0.2">
@@ -62377,7 +62378,7 @@
         <v>21</v>
       </c>
       <c r="E2965" s="3">
-        <v>11896.93</v>
+        <v>12491.72</v>
       </c>
     </row>
     <row r="2966" spans="1:5" x14ac:dyDescent="0.2">
@@ -62394,7 +62395,7 @@
         <v>21</v>
       </c>
       <c r="E2966" s="3">
-        <v>3477.21</v>
+        <v>3685.8</v>
       </c>
     </row>
     <row r="2967" spans="1:5" x14ac:dyDescent="0.2">
@@ -62411,7 +62412,7 @@
         <v>21</v>
       </c>
       <c r="E2967" s="3">
-        <v>3911.93</v>
+        <v>4146.6000000000004</v>
       </c>
     </row>
     <row r="2968" spans="1:5" x14ac:dyDescent="0.2">
@@ -62428,7 +62429,7 @@
         <v>21</v>
       </c>
       <c r="E2968" s="3">
-        <v>4346.53</v>
+        <v>4607.3</v>
       </c>
     </row>
     <row r="2969" spans="1:5" x14ac:dyDescent="0.2">
@@ -62445,7 +62446,7 @@
         <v>21</v>
       </c>
       <c r="E2969" s="3">
-        <v>4868.07</v>
+        <v>5160.22</v>
       </c>
     </row>
     <row r="2970" spans="1:5" x14ac:dyDescent="0.2">
@@ -62462,7 +62463,7 @@
         <v>21</v>
       </c>
       <c r="E2970" s="3">
-        <v>3933.25</v>
+        <v>4129.93</v>
       </c>
     </row>
     <row r="2971" spans="1:5" x14ac:dyDescent="0.2">
@@ -62479,7 +62480,7 @@
         <v>21</v>
       </c>
       <c r="E2971" s="3">
-        <v>5042.68</v>
+        <v>5294.77</v>
       </c>
     </row>
     <row r="2972" spans="1:5" x14ac:dyDescent="0.2">
@@ -62496,7 +62497,7 @@
         <v>21</v>
       </c>
       <c r="E2972" s="3">
-        <v>5355.72</v>
+        <v>5623.51</v>
       </c>
     </row>
     <row r="2973" spans="1:5" x14ac:dyDescent="0.2">
@@ -62513,7 +62514,7 @@
         <v>21</v>
       </c>
       <c r="E2973" s="3">
-        <v>6866.31</v>
+        <v>7209.65</v>
       </c>
     </row>
     <row r="2974" spans="1:5" x14ac:dyDescent="0.2">
@@ -62530,7 +62531,7 @@
         <v>21</v>
       </c>
       <c r="E2974" s="3">
-        <v>16184.58</v>
+        <v>16993.84</v>
       </c>
     </row>
     <row r="2975" spans="1:5" x14ac:dyDescent="0.2">
@@ -62547,7 +62548,7 @@
         <v>21</v>
       </c>
       <c r="E2975" s="3">
-        <v>6703.4</v>
+        <v>7105.58</v>
       </c>
     </row>
     <row r="2976" spans="1:5" x14ac:dyDescent="0.2">
@@ -62564,7 +62565,7 @@
         <v>21</v>
       </c>
       <c r="E2976" s="3">
-        <v>22.42</v>
+        <v>23.55</v>
       </c>
     </row>
     <row r="2977" spans="1:5" x14ac:dyDescent="0.2">
@@ -67035,7 +67036,7 @@
         <v>21</v>
       </c>
       <c r="E3239" s="3">
-        <v>3768.4</v>
+        <v>3794.7</v>
       </c>
     </row>
     <row r="3240" spans="1:5" x14ac:dyDescent="0.2">
@@ -67052,7 +67053,7 @@
         <v>21</v>
       </c>
       <c r="E3240" s="3">
-        <v>3768.4</v>
+        <v>3794.7</v>
       </c>
     </row>
     <row r="3241" spans="1:5" x14ac:dyDescent="0.2">
@@ -67069,7 +67070,7 @@
         <v>21</v>
       </c>
       <c r="E3241" s="3">
-        <v>2602.8000000000002</v>
+        <v>2620.96</v>
       </c>
     </row>
     <row r="3242" spans="1:5" x14ac:dyDescent="0.2">
@@ -67086,7 +67087,7 @@
         <v>21</v>
       </c>
       <c r="E3242" s="3">
-        <v>2602.8000000000002</v>
+        <v>2620.96</v>
       </c>
     </row>
     <row r="3243" spans="1:5" x14ac:dyDescent="0.2">
@@ -68548,7 +68549,7 @@
         <v>21</v>
       </c>
       <c r="E3328" s="3">
-        <v>1067.53</v>
+        <v>1074.98</v>
       </c>
     </row>
     <row r="3329" spans="1:5" x14ac:dyDescent="0.2">
@@ -68565,7 +68566,7 @@
         <v>21</v>
       </c>
       <c r="E3329" s="3">
-        <v>1173.1500000000001</v>
+        <v>1181.3399999999999</v>
       </c>
     </row>
     <row r="3330" spans="1:5" x14ac:dyDescent="0.2">
@@ -68582,7 +68583,7 @@
         <v>21</v>
       </c>
       <c r="E3330" s="3">
-        <v>841.2</v>
+        <v>847.07</v>
       </c>
     </row>
     <row r="3331" spans="1:5" x14ac:dyDescent="0.2">
@@ -68599,7 +68600,7 @@
         <v>21</v>
       </c>
       <c r="E3331" s="3">
-        <v>795.93</v>
+        <v>801.47</v>
       </c>
     </row>
     <row r="3332" spans="1:5" x14ac:dyDescent="0.2">
@@ -68616,7 +68617,7 @@
         <v>21</v>
       </c>
       <c r="E3332" s="3">
-        <v>773.3</v>
+        <v>778.68</v>
       </c>
     </row>
     <row r="3333" spans="1:5" x14ac:dyDescent="0.2">
@@ -68633,7 +68634,7 @@
         <v>21</v>
       </c>
       <c r="E3333" s="3">
-        <v>995.85</v>
+        <v>1002.8</v>
       </c>
     </row>
     <row r="3334" spans="1:5" x14ac:dyDescent="0.2">
@@ -68650,7 +68651,7 @@
         <v>21</v>
       </c>
       <c r="E3334" s="3">
-        <v>2972.47</v>
+        <v>2993.21</v>
       </c>
     </row>
     <row r="3335" spans="1:5" x14ac:dyDescent="0.2">
@@ -68667,7 +68668,7 @@
         <v>21</v>
       </c>
       <c r="E3335" s="3">
-        <v>2101.1</v>
+        <v>2115.75</v>
       </c>
     </row>
     <row r="3336" spans="1:5" x14ac:dyDescent="0.2">
@@ -68684,7 +68685,7 @@
         <v>21</v>
       </c>
       <c r="E3336" s="3">
-        <v>2516.04</v>
+        <v>2533.6</v>
       </c>
     </row>
     <row r="3337" spans="1:5" x14ac:dyDescent="0.2">
@@ -68701,7 +68702,7 @@
         <v>21</v>
       </c>
       <c r="E3337" s="3">
-        <v>3115.82</v>
+        <v>3137.55</v>
       </c>
     </row>
     <row r="3338" spans="1:5" x14ac:dyDescent="0.2">
@@ -68718,7 +68719,7 @@
         <v>21</v>
       </c>
       <c r="E3338" s="3">
-        <v>2508.5</v>
+        <v>2525.9899999999998</v>
       </c>
     </row>
     <row r="3339" spans="1:5" x14ac:dyDescent="0.2">
@@ -68735,7 +68736,7 @@
         <v>21</v>
       </c>
       <c r="E3339" s="3">
-        <v>2742.37</v>
+        <v>2761.5</v>
       </c>
     </row>
     <row r="3340" spans="1:5" x14ac:dyDescent="0.2">
@@ -68752,7 +68753,7 @@
         <v>21</v>
       </c>
       <c r="E3340" s="3">
-        <v>2368.9299999999998</v>
+        <v>2385.4499999999998</v>
       </c>
     </row>
     <row r="3341" spans="1:5" x14ac:dyDescent="0.2">
@@ -69806,7 +69807,7 @@
         <v>21</v>
       </c>
       <c r="E3402" s="3">
-        <v>1080.92</v>
+        <v>1088.47</v>
       </c>
     </row>
     <row r="3403" spans="1:5" x14ac:dyDescent="0.2">
@@ -70452,7 +70453,7 @@
         <v>21</v>
       </c>
       <c r="E3440" s="3">
-        <v>269.26</v>
+        <v>271.14</v>
       </c>
     </row>
     <row r="3441" spans="1:5" x14ac:dyDescent="0.2">
@@ -70469,7 +70470,7 @@
         <v>21</v>
       </c>
       <c r="E3441" s="3">
-        <v>692.88</v>
+        <v>697.73</v>
       </c>
     </row>
     <row r="3442" spans="1:5" x14ac:dyDescent="0.2">
@@ -70486,7 +70487,7 @@
         <v>21</v>
       </c>
       <c r="E3442" s="3">
-        <v>1112.92</v>
+        <v>1120.69</v>
       </c>
     </row>
     <row r="3443" spans="1:5" x14ac:dyDescent="0.2">
@@ -70503,7 +70504,7 @@
         <v>21</v>
       </c>
       <c r="E3443" s="3">
-        <v>1899.15</v>
+        <v>1912.41</v>
       </c>
     </row>
     <row r="3444" spans="1:5" x14ac:dyDescent="0.2">
@@ -70520,7 +70521,7 @@
         <v>21</v>
       </c>
       <c r="E3444" s="3">
-        <v>1899.15</v>
+        <v>1912.41</v>
       </c>
     </row>
     <row r="3445" spans="1:5" x14ac:dyDescent="0.2">
@@ -70537,7 +70538,7 @@
         <v>21</v>
       </c>
       <c r="E3445" s="3">
-        <v>3213.11</v>
+        <v>3235.52</v>
       </c>
     </row>
     <row r="3446" spans="1:5" x14ac:dyDescent="0.2">
@@ -70554,7 +70555,7 @@
         <v>21</v>
       </c>
       <c r="E3446" s="3">
-        <v>3213.11</v>
+        <v>3235.52</v>
       </c>
     </row>
     <row r="3447" spans="1:5" x14ac:dyDescent="0.2">
@@ -70571,7 +70572,7 @@
         <v>21</v>
       </c>
       <c r="E3447" s="3">
-        <v>1420.42</v>
+        <v>1430.33</v>
       </c>
     </row>
     <row r="3448" spans="1:5" x14ac:dyDescent="0.2">
@@ -70588,7 +70589,7 @@
         <v>21</v>
       </c>
       <c r="E3448" s="3">
-        <v>5277.4</v>
+        <v>5314.23</v>
       </c>
     </row>
     <row r="3449" spans="1:5" x14ac:dyDescent="0.2">
@@ -70605,7 +70606,7 @@
         <v>21</v>
       </c>
       <c r="E3449" s="3">
-        <v>5277.4</v>
+        <v>5314.23</v>
       </c>
     </row>
     <row r="3450" spans="1:5" x14ac:dyDescent="0.2">
@@ -70622,7 +70623,7 @@
         <v>21</v>
       </c>
       <c r="E3450" s="3">
-        <v>571.80999999999995</v>
+        <v>575.79</v>
       </c>
     </row>
     <row r="3451" spans="1:5" x14ac:dyDescent="0.2">
@@ -70639,7 +70640,7 @@
         <v>21</v>
       </c>
       <c r="E3451" s="3">
-        <v>651.94000000000005</v>
+        <v>656.49</v>
       </c>
     </row>
     <row r="3452" spans="1:5" x14ac:dyDescent="0.2">
@@ -70656,7 +70657,7 @@
         <v>21</v>
       </c>
       <c r="E3452" s="3">
-        <v>480.76</v>
+        <v>484.11</v>
       </c>
     </row>
     <row r="3453" spans="1:5" x14ac:dyDescent="0.2">
@@ -70673,7 +70674,7 @@
         <v>21</v>
       </c>
       <c r="E3453" s="3">
-        <v>396.99</v>
+        <v>399.77</v>
       </c>
     </row>
     <row r="3454" spans="1:5" x14ac:dyDescent="0.2">
@@ -70690,7 +70691,7 @@
         <v>21</v>
       </c>
       <c r="E3454" s="3">
-        <v>437.05</v>
+        <v>440.1</v>
       </c>
     </row>
     <row r="3455" spans="1:5" x14ac:dyDescent="0.2">
@@ -70707,7 +70708,7 @@
         <v>21</v>
       </c>
       <c r="E3455" s="3">
-        <v>488.04</v>
+        <v>491.45</v>
       </c>
     </row>
     <row r="3456" spans="1:5" x14ac:dyDescent="0.2">
@@ -70724,7 +70725,7 @@
         <v>21</v>
       </c>
       <c r="E3456" s="3">
-        <v>1112.92</v>
+        <v>1120.69</v>
       </c>
     </row>
     <row r="3457" spans="1:5" x14ac:dyDescent="0.2">
@@ -70741,7 +70742,7 @@
         <v>21</v>
       </c>
       <c r="E3457" s="3">
-        <v>1420.42</v>
+        <v>1430.33</v>
       </c>
     </row>
     <row r="3458" spans="1:5" x14ac:dyDescent="0.2">
@@ -70758,7 +70759,7 @@
         <v>21</v>
       </c>
       <c r="E3458" s="3">
-        <v>2374.65</v>
+        <v>2391.2199999999998</v>
       </c>
     </row>
     <row r="3459" spans="1:5" x14ac:dyDescent="0.2">
@@ -70775,7 +70776,7 @@
         <v>21</v>
       </c>
       <c r="E3459" s="3">
-        <v>4749.3</v>
+        <v>4782.43</v>
       </c>
     </row>
     <row r="3460" spans="1:5" x14ac:dyDescent="0.2">
@@ -70792,7 +70793,7 @@
         <v>21</v>
       </c>
       <c r="E3460" s="3">
-        <v>4173.8500000000004</v>
+        <v>4202.97</v>
       </c>
     </row>
     <row r="3461" spans="1:5" x14ac:dyDescent="0.2">
@@ -70809,7 +70810,7 @@
         <v>21</v>
       </c>
       <c r="E3461" s="3">
-        <v>8340.41</v>
+        <v>8398.6</v>
       </c>
     </row>
     <row r="3462" spans="1:5" x14ac:dyDescent="0.2">
@@ -70826,7 +70827,7 @@
         <v>21</v>
       </c>
       <c r="E3462" s="3">
-        <v>1770.06</v>
+        <v>1782.41</v>
       </c>
     </row>
     <row r="3463" spans="1:5" x14ac:dyDescent="0.2">
@@ -70843,7 +70844,7 @@
         <v>21</v>
       </c>
       <c r="E3463" s="3">
-        <v>2946.46</v>
+        <v>2967.01</v>
       </c>
     </row>
     <row r="3464" spans="1:5" x14ac:dyDescent="0.2">
@@ -70860,7 +70861,7 @@
         <v>21</v>
       </c>
       <c r="E3464" s="3">
-        <v>5896.56</v>
+        <v>5937.71</v>
       </c>
     </row>
     <row r="3465" spans="1:5" x14ac:dyDescent="0.2">
@@ -70877,7 +70878,7 @@
         <v>21</v>
       </c>
       <c r="E3465" s="3">
-        <v>5674.39</v>
+        <v>5713.98</v>
       </c>
     </row>
     <row r="3466" spans="1:5" x14ac:dyDescent="0.2">
@@ -70894,7 +70895,7 @@
         <v>21</v>
       </c>
       <c r="E3466" s="3">
-        <v>11345.14</v>
+        <v>11424.3</v>
       </c>
     </row>
     <row r="3467" spans="1:5" x14ac:dyDescent="0.2">
@@ -70911,7 +70912,7 @@
         <v>21</v>
       </c>
       <c r="E3467" s="3">
-        <v>8398.68</v>
+        <v>8457.2800000000007</v>
       </c>
     </row>
     <row r="3468" spans="1:5" x14ac:dyDescent="0.2">
@@ -70928,7 +70929,7 @@
         <v>21</v>
       </c>
       <c r="E3468" s="3">
-        <v>3449.07</v>
+        <v>3473.14</v>
       </c>
     </row>
     <row r="3469" spans="1:5" x14ac:dyDescent="0.2">
@@ -70945,7 +70946,7 @@
         <v>21</v>
       </c>
       <c r="E3469" s="3">
-        <v>6898.14</v>
+        <v>6946.26</v>
       </c>
     </row>
     <row r="3470" spans="1:5" x14ac:dyDescent="0.2">
@@ -70962,7 +70963,7 @@
         <v>21</v>
       </c>
       <c r="E3470" s="3">
-        <v>7007.4</v>
+        <v>7056.29</v>
       </c>
     </row>
     <row r="3471" spans="1:5" x14ac:dyDescent="0.2">
@@ -70979,7 +70980,7 @@
         <v>21</v>
       </c>
       <c r="E3471" s="3">
-        <v>14014.8</v>
+        <v>14112.58</v>
       </c>
     </row>
     <row r="3472" spans="1:5" x14ac:dyDescent="0.2">
@@ -70996,7 +70997,7 @@
         <v>21</v>
       </c>
       <c r="E3472" s="3">
-        <v>5838.29</v>
+        <v>5879.01</v>
       </c>
     </row>
     <row r="3473" spans="1:5" x14ac:dyDescent="0.2">
@@ -71013,7 +71014,7 @@
         <v>21</v>
       </c>
       <c r="E3473" s="3">
-        <v>11680.21</v>
+        <v>11761.7</v>
       </c>
     </row>
     <row r="3474" spans="1:5" x14ac:dyDescent="0.2">
@@ -71030,7 +71031,7 @@
         <v>21</v>
       </c>
       <c r="E3474" s="3">
-        <v>10511.1</v>
+        <v>10584.43</v>
       </c>
     </row>
     <row r="3475" spans="1:5" x14ac:dyDescent="0.2">
@@ -71047,7 +71048,7 @@
         <v>21</v>
       </c>
       <c r="E3475" s="3">
-        <v>21022.2</v>
+        <v>21168.87</v>
       </c>
     </row>
     <row r="3476" spans="1:5" x14ac:dyDescent="0.2">
@@ -71064,7 +71065,7 @@
         <v>21</v>
       </c>
       <c r="E3476" s="3">
-        <v>3893.4</v>
+        <v>3920.58</v>
       </c>
     </row>
     <row r="3477" spans="1:5" x14ac:dyDescent="0.2">
@@ -71081,7 +71082,7 @@
         <v>21</v>
       </c>
       <c r="E3477" s="3">
-        <v>7786.81</v>
+        <v>7841.14</v>
       </c>
     </row>
     <row r="3478" spans="1:5" x14ac:dyDescent="0.2">
@@ -71098,7 +71099,7 @@
         <v>21</v>
       </c>
       <c r="E3478" s="3">
-        <v>7298.77</v>
+        <v>7349.69</v>
       </c>
     </row>
     <row r="3479" spans="1:5" x14ac:dyDescent="0.2">
@@ -71115,7 +71116,7 @@
         <v>21</v>
       </c>
       <c r="E3479" s="3">
-        <v>14597.54</v>
+        <v>14699.38</v>
       </c>
     </row>
     <row r="3480" spans="1:5" x14ac:dyDescent="0.2">
@@ -71132,7 +71133,7 @@
         <v>21</v>
       </c>
       <c r="E3480" s="3">
-        <v>3299.74</v>
+        <v>3322.76</v>
       </c>
     </row>
     <row r="3481" spans="1:5" x14ac:dyDescent="0.2">
@@ -71149,7 +71150,7 @@
         <v>21</v>
       </c>
       <c r="E3481" s="3">
-        <v>3816.92</v>
+        <v>3843.55</v>
       </c>
     </row>
     <row r="3482" spans="1:5" x14ac:dyDescent="0.2">
@@ -71166,7 +71167,7 @@
         <v>21</v>
       </c>
       <c r="E3482" s="3">
-        <v>13078.78</v>
+        <v>13170.04</v>
       </c>
     </row>
     <row r="3483" spans="1:5" x14ac:dyDescent="0.2">
@@ -71217,7 +71218,7 @@
         <v>21</v>
       </c>
       <c r="E3485" s="3">
-        <v>16797.37</v>
+        <v>16914.560000000001</v>
       </c>
     </row>
     <row r="3486" spans="1:5" x14ac:dyDescent="0.2">
@@ -71234,7 +71235,7 @@
         <v>21</v>
       </c>
       <c r="E3486" s="3">
-        <v>6337.25</v>
+        <v>6381.47</v>
       </c>
     </row>
     <row r="3487" spans="1:5" x14ac:dyDescent="0.2">
@@ -72475,7 +72476,7 @@
         <v>21</v>
       </c>
       <c r="E3559" s="3">
-        <v>1916.26</v>
+        <v>1929.63</v>
       </c>
     </row>
     <row r="3560" spans="1:5" x14ac:dyDescent="0.2">

--- a/excel-files/jm.xlsx
+++ b/excel-files/jm.xlsx
@@ -11658,7 +11658,7 @@
     <t xml:space="preserve">ADAPTADOR BROCA PARA MANDRIL 1/2 SDS12 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Precio c/IVA</t>
+    <t xml:space="preserve"> Precio c/IVA </t>
   </si>
 </sst>
 </file>
@@ -12066,7 +12066,7 @@
   <dimension ref="A1:AK3790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12075,7 +12075,7 @@
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13638,7 +13638,7 @@
         <v>21</v>
       </c>
       <c r="E90" s="3">
-        <v>2008.29</v>
+        <v>2036.68</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -13655,7 +13655,7 @@
         <v>21</v>
       </c>
       <c r="E91" s="3">
-        <v>1844.77</v>
+        <v>1870.85</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -13672,7 +13672,7 @@
         <v>21</v>
       </c>
       <c r="E92" s="3">
-        <v>3691.03</v>
+        <v>3743.23</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -13689,7 +13689,7 @@
         <v>21</v>
       </c>
       <c r="E93" s="3">
-        <v>2770.44</v>
+        <v>2809.62</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -13706,7 +13706,7 @@
         <v>21</v>
       </c>
       <c r="E94" s="3">
-        <v>1584.98</v>
+        <v>1607.39</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -13723,7 +13723,7 @@
         <v>21</v>
       </c>
       <c r="E95" s="3">
-        <v>1637.09</v>
+        <v>1660.23</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -13740,7 +13740,7 @@
         <v>21</v>
       </c>
       <c r="E96" s="3">
-        <v>1637.09</v>
+        <v>1660.23</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -13757,7 +13757,7 @@
         <v>21</v>
       </c>
       <c r="E97" s="3">
-        <v>1637.09</v>
+        <v>1660.23</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -13774,7 +13774,7 @@
         <v>21</v>
       </c>
       <c r="E98" s="3">
-        <v>2901.31</v>
+        <v>2942.34</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -13791,7 +13791,7 @@
         <v>21</v>
       </c>
       <c r="E99" s="3">
-        <v>2101.7199999999998</v>
+        <v>2131.44</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -13808,7 +13808,7 @@
         <v>21</v>
       </c>
       <c r="E100" s="3">
-        <v>2679.26</v>
+        <v>2717.14</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -13825,7 +13825,7 @@
         <v>21</v>
       </c>
       <c r="E101" s="3">
-        <v>799</v>
+        <v>810.3</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -13842,7 +13842,7 @@
         <v>21</v>
       </c>
       <c r="E102" s="3">
-        <v>1116</v>
+        <v>1131.78</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -13859,7 +13859,7 @@
         <v>21</v>
       </c>
       <c r="E103" s="3">
-        <v>1936.7</v>
+        <v>1964.09</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -13876,7 +13876,7 @@
         <v>21</v>
       </c>
       <c r="E104" s="3">
-        <v>1046.52</v>
+        <v>1061.31</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -13893,7 +13893,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="3">
-        <v>3156.92</v>
+        <v>3201.56</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -14709,7 +14709,7 @@
         <v>21</v>
       </c>
       <c r="E153" s="3">
-        <v>1505.4</v>
+        <v>1526.69</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -14726,7 +14726,7 @@
         <v>21</v>
       </c>
       <c r="E154" s="3">
-        <v>1505.4</v>
+        <v>1526.69</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -14743,7 +14743,7 @@
         <v>21</v>
       </c>
       <c r="E155" s="3">
-        <v>2432.46</v>
+        <v>2466.85</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -15746,7 +15746,7 @@
         <v>21</v>
       </c>
       <c r="E214" s="3">
-        <v>1864.24</v>
+        <v>1890.59</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -15763,7 +15763,7 @@
         <v>21</v>
       </c>
       <c r="E215" s="3">
-        <v>1913.65</v>
+        <v>1940.71</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -15780,7 +15780,7 @@
         <v>21</v>
       </c>
       <c r="E216" s="3">
-        <v>1958.57</v>
+        <v>1986.26</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -15797,7 +15797,7 @@
         <v>21</v>
       </c>
       <c r="E217" s="3">
-        <v>2007.99</v>
+        <v>2036.38</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -15814,7 +15814,7 @@
         <v>21</v>
       </c>
       <c r="E218" s="3">
-        <v>2061.89</v>
+        <v>2091.04</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -15831,7 +15831,7 @@
         <v>21</v>
       </c>
       <c r="E219" s="3">
-        <v>2084.35</v>
+        <v>2113.8200000000002</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -15848,7 +15848,7 @@
         <v>21</v>
       </c>
       <c r="E220" s="3">
-        <v>1787.87</v>
+        <v>1813.15</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -15865,7 +15865,7 @@
         <v>21</v>
       </c>
       <c r="E221" s="3">
-        <v>1832.79</v>
+        <v>1858.71</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -15882,7 +15882,7 @@
         <v>10.5</v>
       </c>
       <c r="E222" s="3">
-        <v>1583.35</v>
+        <v>2226.12</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -15899,7 +15899,7 @@
         <v>21</v>
       </c>
       <c r="E223" s="3">
-        <v>1984.93</v>
+        <v>2791.7</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -15916,7 +15916,7 @@
         <v>21</v>
       </c>
       <c r="E224" s="3">
-        <v>514.54999999999995</v>
+        <v>545.42999999999995</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -15933,7 +15933,7 @@
         <v>21</v>
       </c>
       <c r="E225" s="3">
-        <v>265.27999999999997</v>
+        <v>292.72000000000003</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -17446,7 +17446,7 @@
         <v>21</v>
       </c>
       <c r="E314" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -17463,7 +17463,7 @@
         <v>21</v>
       </c>
       <c r="E315" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -17480,7 +17480,7 @@
         <v>21</v>
       </c>
       <c r="E316" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -17497,7 +17497,7 @@
         <v>21</v>
       </c>
       <c r="E317" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -17514,7 +17514,7 @@
         <v>21</v>
       </c>
       <c r="E318" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -17531,7 +17531,7 @@
         <v>21</v>
       </c>
       <c r="E319" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -17548,7 +17548,7 @@
         <v>21</v>
       </c>
       <c r="E320" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -17565,7 +17565,7 @@
         <v>21</v>
       </c>
       <c r="E321" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -17582,7 +17582,7 @@
         <v>21</v>
       </c>
       <c r="E322" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -17599,7 +17599,7 @@
         <v>21</v>
       </c>
       <c r="E323" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -17616,7 +17616,7 @@
         <v>21</v>
       </c>
       <c r="E324" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -17633,7 +17633,7 @@
         <v>21</v>
       </c>
       <c r="E325" s="3">
-        <v>277.64999999999998</v>
+        <v>297.08999999999997</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -17650,7 +17650,7 @@
         <v>21</v>
       </c>
       <c r="E326" s="3">
-        <v>162.41999999999999</v>
+        <v>173.79</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -17667,7 +17667,7 @@
         <v>21</v>
       </c>
       <c r="E327" s="3">
-        <v>162.41999999999999</v>
+        <v>173.79</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -17684,7 +17684,7 @@
         <v>21</v>
       </c>
       <c r="E328" s="3">
-        <v>162.41999999999999</v>
+        <v>173.79</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -17701,7 +17701,7 @@
         <v>21</v>
       </c>
       <c r="E329" s="3">
-        <v>162.41999999999999</v>
+        <v>173.79</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -17718,7 +17718,7 @@
         <v>21</v>
       </c>
       <c r="E330" s="3">
-        <v>162.41999999999999</v>
+        <v>173.79</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -17786,7 +17786,7 @@
         <v>21</v>
       </c>
       <c r="E334" s="3">
-        <v>471.1</v>
+        <v>504.09</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -17803,7 +17803,7 @@
         <v>21</v>
       </c>
       <c r="E335" s="3">
-        <v>471.1</v>
+        <v>504.09</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -17820,7 +17820,7 @@
         <v>21</v>
       </c>
       <c r="E336" s="3">
-        <v>428.33</v>
+        <v>458.32</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -17837,7 +17837,7 @@
         <v>21</v>
       </c>
       <c r="E337" s="3">
-        <v>428.33</v>
+        <v>458.32</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -17854,7 +17854,7 @@
         <v>21</v>
       </c>
       <c r="E338" s="3">
-        <v>407.81</v>
+        <v>458.32</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -17871,7 +17871,7 @@
         <v>21</v>
       </c>
       <c r="E339" s="3">
-        <v>422.69</v>
+        <v>452.28</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -17888,7 +17888,7 @@
         <v>21</v>
       </c>
       <c r="E340" s="3">
-        <v>397.58</v>
+        <v>425.42</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -17905,7 +17905,7 @@
         <v>21</v>
       </c>
       <c r="E341" s="3">
-        <v>397.58</v>
+        <v>425.42</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -17922,7 +17922,7 @@
         <v>21</v>
       </c>
       <c r="E342" s="3">
-        <v>387.79</v>
+        <v>414.94</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
@@ -17939,7 +17939,7 @@
         <v>21</v>
       </c>
       <c r="E343" s="3">
-        <v>387.79</v>
+        <v>414.94</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -18279,7 +18279,7 @@
         <v>21</v>
       </c>
       <c r="E363" s="3">
-        <v>219.71</v>
+        <v>235.11</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -18296,7 +18296,7 @@
         <v>21</v>
       </c>
       <c r="E364" s="3">
-        <v>219.71</v>
+        <v>235.11</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -18313,7 +18313,7 @@
         <v>21</v>
       </c>
       <c r="E365" s="3">
-        <v>219.71</v>
+        <v>235.11</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -18330,7 +18330,7 @@
         <v>21</v>
       </c>
       <c r="E366" s="3">
-        <v>219.71</v>
+        <v>235.11</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
@@ -18347,7 +18347,7 @@
         <v>21</v>
       </c>
       <c r="E367" s="3">
-        <v>219.71</v>
+        <v>235.11</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -18364,7 +18364,7 @@
         <v>21</v>
       </c>
       <c r="E368" s="3">
-        <v>219.71</v>
+        <v>235.11</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -18959,7 +18959,7 @@
         <v>21</v>
       </c>
       <c r="E403" s="3">
-        <v>198.64</v>
+        <v>211.39</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -19027,7 +19027,7 @@
         <v>21</v>
       </c>
       <c r="E407" s="3">
-        <v>198.64</v>
+        <v>211.39</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -19044,7 +19044,7 @@
         <v>21</v>
       </c>
       <c r="E408" s="3">
-        <v>309.87</v>
+        <v>329.77</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -19112,7 +19112,7 @@
         <v>21</v>
       </c>
       <c r="E412" s="3">
-        <v>247.58</v>
+        <v>264.91000000000003</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -19129,7 +19129,7 @@
         <v>21</v>
       </c>
       <c r="E413" s="3">
-        <v>247.58</v>
+        <v>264.91000000000003</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
@@ -19146,7 +19146,7 @@
         <v>21</v>
       </c>
       <c r="E414" s="3">
-        <v>247.58</v>
+        <v>264.91000000000003</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -19163,7 +19163,7 @@
         <v>21</v>
       </c>
       <c r="E415" s="3">
-        <v>247.58</v>
+        <v>264.91000000000003</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
@@ -19214,7 +19214,7 @@
         <v>21</v>
       </c>
       <c r="E418" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
@@ -19231,7 +19231,7 @@
         <v>21</v>
       </c>
       <c r="E419" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
@@ -19248,7 +19248,7 @@
         <v>21</v>
       </c>
       <c r="E420" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
@@ -19265,7 +19265,7 @@
         <v>21</v>
       </c>
       <c r="E421" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
@@ -19282,7 +19282,7 @@
         <v>21</v>
       </c>
       <c r="E422" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -19299,7 +19299,7 @@
         <v>21</v>
       </c>
       <c r="E423" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -19316,7 +19316,7 @@
         <v>21</v>
       </c>
       <c r="E424" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -19333,7 +19333,7 @@
         <v>21</v>
       </c>
       <c r="E425" s="3">
-        <v>1244.07</v>
+        <v>1323.96</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -19350,7 +19350,7 @@
         <v>21</v>
       </c>
       <c r="E426" s="3">
-        <v>1244.07</v>
+        <v>1323.96</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
@@ -19367,7 +19367,7 @@
         <v>21</v>
       </c>
       <c r="E427" s="3">
-        <v>1244.07</v>
+        <v>1323.96</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -19384,7 +19384,7 @@
         <v>21</v>
       </c>
       <c r="E428" s="3">
-        <v>1244.07</v>
+        <v>1323.96</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -19401,7 +19401,7 @@
         <v>21</v>
       </c>
       <c r="E429" s="3">
-        <v>1244.07</v>
+        <v>1323.96</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -19418,7 +19418,7 @@
         <v>21</v>
       </c>
       <c r="E430" s="3">
-        <v>1505.56</v>
+        <v>1602.25</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -19435,7 +19435,7 @@
         <v>21</v>
       </c>
       <c r="E431" s="3">
-        <v>1685.42</v>
+        <v>1793.65</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -19452,7 +19452,7 @@
         <v>21</v>
       </c>
       <c r="E432" s="3">
-        <v>1244.07</v>
+        <v>1323.96</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
@@ -19469,7 +19469,7 @@
         <v>21</v>
       </c>
       <c r="E433" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
@@ -19486,7 +19486,7 @@
         <v>21</v>
       </c>
       <c r="E434" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
@@ -19503,7 +19503,7 @@
         <v>21</v>
       </c>
       <c r="E435" s="3">
-        <v>1244.07</v>
+        <v>1323.96</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
@@ -19520,7 +19520,7 @@
         <v>21</v>
       </c>
       <c r="E436" s="3">
-        <v>1244.07</v>
+        <v>1323.96</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
@@ -19537,7 +19537,7 @@
         <v>21</v>
       </c>
       <c r="E437" s="3">
-        <v>1505.56</v>
+        <v>1602.25</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
@@ -19554,7 +19554,7 @@
         <v>21</v>
       </c>
       <c r="E438" s="3">
-        <v>1505.56</v>
+        <v>1602.25</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -19571,7 +19571,7 @@
         <v>21</v>
       </c>
       <c r="E439" s="3">
-        <v>1685.42</v>
+        <v>1793.65</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -19588,7 +19588,7 @@
         <v>21</v>
       </c>
       <c r="E440" s="3">
-        <v>955.65</v>
+        <v>1017.03</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
@@ -19605,7 +19605,7 @@
         <v>21</v>
       </c>
       <c r="E441" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -19622,7 +19622,7 @@
         <v>21</v>
       </c>
       <c r="E442" s="3">
-        <v>1505.56</v>
+        <v>1602.25</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
@@ -19639,7 +19639,7 @@
         <v>21</v>
       </c>
       <c r="E443" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
@@ -19656,7 +19656,7 @@
         <v>21</v>
       </c>
       <c r="E444" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -19673,7 +19673,7 @@
         <v>21</v>
       </c>
       <c r="E445" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -19690,7 +19690,7 @@
         <v>21</v>
       </c>
       <c r="E446" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -19707,7 +19707,7 @@
         <v>21</v>
       </c>
       <c r="E447" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -19724,7 +19724,7 @@
         <v>21</v>
       </c>
       <c r="E448" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
@@ -19741,7 +19741,7 @@
         <v>21</v>
       </c>
       <c r="E449" s="3">
-        <v>1244.02</v>
+        <v>1323.96</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
@@ -19758,7 +19758,7 @@
         <v>21</v>
       </c>
       <c r="E450" s="3">
-        <v>1244.07</v>
+        <v>1323.96</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
@@ -19775,7 +19775,7 @@
         <v>21</v>
       </c>
       <c r="E451" s="3">
-        <v>955.65</v>
+        <v>1017.03</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
@@ -19792,7 +19792,7 @@
         <v>21</v>
       </c>
       <c r="E452" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
@@ -19809,7 +19809,7 @@
         <v>21</v>
       </c>
       <c r="E453" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -19826,7 +19826,7 @@
         <v>21</v>
       </c>
       <c r="E454" s="3">
-        <v>1146.8</v>
+        <v>1220.43</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -19945,7 +19945,7 @@
         <v>21</v>
       </c>
       <c r="E461" s="3">
-        <v>3712.75</v>
+        <v>3765.24</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
@@ -19962,7 +19962,7 @@
         <v>21</v>
       </c>
       <c r="E462" s="3">
-        <v>3712.75</v>
+        <v>3765.24</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -19979,7 +19979,7 @@
         <v>21</v>
       </c>
       <c r="E463" s="3">
-        <v>859.79</v>
+        <v>871.95</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -27901,7 +27901,7 @@
         <v>21</v>
       </c>
       <c r="E929" s="3">
-        <v>5022.25</v>
+        <v>5093.28</v>
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
@@ -27918,7 +27918,7 @@
         <v>21</v>
       </c>
       <c r="E930" s="3">
-        <v>348.71</v>
+        <v>353.64</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
@@ -27935,7 +27935,7 @@
         <v>21</v>
       </c>
       <c r="E931" s="3">
-        <v>531.58000000000004</v>
+        <v>539.09</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
@@ -27952,7 +27952,7 @@
         <v>21</v>
       </c>
       <c r="E932" s="3">
-        <v>910.04</v>
+        <v>922.91</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.2">
@@ -27969,7 +27969,7 @@
         <v>21</v>
       </c>
       <c r="E933" s="3">
-        <v>1535.18</v>
+        <v>1556.88</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
@@ -27986,7 +27986,7 @@
         <v>21</v>
       </c>
       <c r="E934" s="3">
-        <v>455.01</v>
+        <v>461.46</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
@@ -28003,7 +28003,7 @@
         <v>21</v>
       </c>
       <c r="E935" s="3">
-        <v>680.41</v>
+        <v>690.03</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
@@ -28020,7 +28020,7 @@
         <v>21</v>
       </c>
       <c r="E936" s="3">
-        <v>1007.86</v>
+        <v>1022.11</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
@@ -28037,7 +28037,7 @@
         <v>21</v>
       </c>
       <c r="E937" s="3">
-        <v>1926.39</v>
+        <v>1953.64</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
@@ -28054,7 +28054,7 @@
         <v>21</v>
       </c>
       <c r="E938" s="3">
-        <v>3142.64</v>
+        <v>3187.07</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.2">
@@ -28071,7 +28071,7 @@
         <v>21</v>
       </c>
       <c r="E939" s="3">
-        <v>654.89</v>
+        <v>664.15</v>
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
@@ -28088,7 +28088,7 @@
         <v>21</v>
       </c>
       <c r="E940" s="3">
-        <v>2168.8000000000002</v>
+        <v>2199.4699999999998</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
@@ -28105,7 +28105,7 @@
         <v>21</v>
       </c>
       <c r="E941" s="3">
-        <v>545.04</v>
+        <v>552.75</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
@@ -28122,7 +28122,7 @@
         <v>21</v>
       </c>
       <c r="E942" s="3">
-        <v>918.18</v>
+        <v>931.17</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.2">
@@ -28139,7 +28139,7 @@
         <v>21</v>
       </c>
       <c r="E943" s="3">
-        <v>1471.63</v>
+        <v>1492.43</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
@@ -34463,7 +34463,7 @@
         <v>21</v>
       </c>
       <c r="E1315" s="3">
-        <v>24384.45</v>
+        <v>24729.279999999999</v>
       </c>
     </row>
     <row r="1316" spans="1:5" x14ac:dyDescent="0.2">
@@ -34480,7 +34480,7 @@
         <v>21</v>
       </c>
       <c r="E1316" s="3">
-        <v>24384.45</v>
+        <v>24729.279999999999</v>
       </c>
     </row>
     <row r="1317" spans="1:5" x14ac:dyDescent="0.2">
@@ -34497,7 +34497,7 @@
         <v>21</v>
       </c>
       <c r="E1317" s="3">
-        <v>24384.45</v>
+        <v>24729.279999999999</v>
       </c>
     </row>
     <row r="1318" spans="1:5" x14ac:dyDescent="0.2">
@@ -34514,7 +34514,7 @@
         <v>21</v>
       </c>
       <c r="E1318" s="3">
-        <v>24384.45</v>
+        <v>24729.279999999999</v>
       </c>
     </row>
     <row r="1319" spans="1:5" x14ac:dyDescent="0.2">
@@ -34531,7 +34531,7 @@
         <v>21</v>
       </c>
       <c r="E1319" s="3">
-        <v>24384.45</v>
+        <v>24729.279999999999</v>
       </c>
     </row>
     <row r="1320" spans="1:5" x14ac:dyDescent="0.2">
@@ -34548,7 +34548,7 @@
         <v>21</v>
       </c>
       <c r="E1320" s="3">
-        <v>24384.45</v>
+        <v>24729.279999999999</v>
       </c>
     </row>
     <row r="1321" spans="1:5" x14ac:dyDescent="0.2">
@@ -34565,7 +34565,7 @@
         <v>21</v>
       </c>
       <c r="E1321" s="3">
-        <v>24384.45</v>
+        <v>24729.279999999999</v>
       </c>
     </row>
     <row r="1322" spans="1:5" x14ac:dyDescent="0.2">
@@ -34582,7 +34582,7 @@
         <v>21</v>
       </c>
       <c r="E1322" s="3">
-        <v>24384.45</v>
+        <v>24729.279999999999</v>
       </c>
     </row>
     <row r="1323" spans="1:5" x14ac:dyDescent="0.2">
@@ -34599,7 +34599,7 @@
         <v>21</v>
       </c>
       <c r="E1323" s="3">
-        <v>24384.45</v>
+        <v>24729.279999999999</v>
       </c>
     </row>
     <row r="1324" spans="1:5" x14ac:dyDescent="0.2">
@@ -34633,7 +34633,7 @@
         <v>21</v>
       </c>
       <c r="E1325" s="3">
-        <v>24174.82</v>
+        <v>24516.69</v>
       </c>
     </row>
     <row r="1326" spans="1:5" x14ac:dyDescent="0.2">
@@ -34650,7 +34650,7 @@
         <v>21</v>
       </c>
       <c r="E1326" s="3">
-        <v>24174.82</v>
+        <v>24516.69</v>
       </c>
     </row>
     <row r="1327" spans="1:5" x14ac:dyDescent="0.2">
@@ -34667,7 +34667,7 @@
         <v>21</v>
       </c>
       <c r="E1327" s="3">
-        <v>24174.82</v>
+        <v>24516.69</v>
       </c>
     </row>
     <row r="1328" spans="1:5" x14ac:dyDescent="0.2">
@@ -34684,7 +34684,7 @@
         <v>21</v>
       </c>
       <c r="E1328" s="3">
-        <v>24174.82</v>
+        <v>24516.69</v>
       </c>
     </row>
     <row r="1329" spans="1:5" x14ac:dyDescent="0.2">
@@ -34701,7 +34701,7 @@
         <v>21</v>
       </c>
       <c r="E1329" s="3">
-        <v>24174.82</v>
+        <v>24516.69</v>
       </c>
     </row>
     <row r="1330" spans="1:5" x14ac:dyDescent="0.2">
@@ -34718,7 +34718,7 @@
         <v>21</v>
       </c>
       <c r="E1330" s="3">
-        <v>24384.45</v>
+        <v>24729.279999999999</v>
       </c>
     </row>
     <row r="1331" spans="1:5" x14ac:dyDescent="0.2">
@@ -34735,7 +34735,7 @@
         <v>21</v>
       </c>
       <c r="E1331" s="3">
-        <v>24174.82</v>
+        <v>24516.69</v>
       </c>
     </row>
     <row r="1332" spans="1:5" x14ac:dyDescent="0.2">
@@ -35109,7 +35109,7 @@
         <v>21</v>
       </c>
       <c r="E1353" s="3">
-        <v>11561.79</v>
+        <v>8393.69</v>
       </c>
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.2">
@@ -37965,7 +37965,7 @@
         <v>21</v>
       </c>
       <c r="E1521" s="3">
-        <v>17922.89</v>
+        <v>19714.400000000001</v>
       </c>
     </row>
     <row r="1522" spans="1:5" x14ac:dyDescent="0.2">
@@ -41501,7 +41501,7 @@
         <v>21</v>
       </c>
       <c r="E1729" s="3">
-        <v>215.22</v>
+        <v>167.88</v>
       </c>
     </row>
     <row r="1730" spans="1:5" x14ac:dyDescent="0.2">
@@ -41518,7 +41518,7 @@
         <v>21</v>
       </c>
       <c r="E1730" s="3">
-        <v>215.22</v>
+        <v>167.88</v>
       </c>
     </row>
     <row r="1731" spans="1:5" x14ac:dyDescent="0.2">
@@ -41535,7 +41535,7 @@
         <v>21</v>
       </c>
       <c r="E1731" s="3">
-        <v>538.04999999999995</v>
+        <v>507.93</v>
       </c>
     </row>
     <row r="1732" spans="1:5" x14ac:dyDescent="0.2">
@@ -41552,7 +41552,7 @@
         <v>21</v>
       </c>
       <c r="E1732" s="3">
-        <v>913.32</v>
+        <v>865.19</v>
       </c>
     </row>
     <row r="1733" spans="1:5" x14ac:dyDescent="0.2">
@@ -41569,7 +41569,7 @@
         <v>21</v>
       </c>
       <c r="E1733" s="3">
-        <v>486.4</v>
+        <v>460.58</v>
       </c>
     </row>
     <row r="1734" spans="1:5" x14ac:dyDescent="0.2">
@@ -41586,7 +41586,7 @@
         <v>21</v>
       </c>
       <c r="E1734" s="3">
-        <v>1094.43</v>
+        <v>1037.3699999999999</v>
       </c>
     </row>
     <row r="1735" spans="1:5" x14ac:dyDescent="0.2">
@@ -41603,7 +41603,7 @@
         <v>21</v>
       </c>
       <c r="E1735" s="3">
-        <v>4741.78</v>
+        <v>4502.47</v>
       </c>
     </row>
     <row r="1736" spans="1:5" x14ac:dyDescent="0.2">
@@ -41620,7 +41620,7 @@
         <v>21</v>
       </c>
       <c r="E1736" s="3">
-        <v>1097.6400000000001</v>
+        <v>1041.67</v>
       </c>
     </row>
     <row r="1737" spans="1:5" x14ac:dyDescent="0.2">
@@ -41637,7 +41637,7 @@
         <v>21</v>
       </c>
       <c r="E1737" s="3">
-        <v>2741.94</v>
+        <v>2604.1999999999998</v>
       </c>
     </row>
     <row r="1738" spans="1:5" x14ac:dyDescent="0.2">
@@ -41654,7 +41654,7 @@
         <v>21</v>
       </c>
       <c r="E1738" s="3">
-        <v>4846.82</v>
+        <v>4601.46</v>
       </c>
     </row>
     <row r="1739" spans="1:5" x14ac:dyDescent="0.2">
@@ -41671,7 +41671,7 @@
         <v>21</v>
       </c>
       <c r="E1739" s="3">
-        <v>1299.94</v>
+        <v>1231.08</v>
       </c>
     </row>
     <row r="1740" spans="1:5" x14ac:dyDescent="0.2">
@@ -41688,7 +41688,7 @@
         <v>21</v>
       </c>
       <c r="E1740" s="3">
-        <v>3253.53</v>
+        <v>3090.6</v>
       </c>
     </row>
     <row r="1741" spans="1:5" x14ac:dyDescent="0.2">
@@ -41705,7 +41705,7 @@
         <v>21</v>
       </c>
       <c r="E1741" s="3">
-        <v>5901.4</v>
+        <v>5604.4</v>
       </c>
     </row>
     <row r="1742" spans="1:5" x14ac:dyDescent="0.2">
@@ -41722,7 +41722,7 @@
         <v>21</v>
       </c>
       <c r="E1742" s="3">
-        <v>1299.94</v>
+        <v>1235.3800000000001</v>
       </c>
     </row>
     <row r="1743" spans="1:5" x14ac:dyDescent="0.2">
@@ -41739,7 +41739,7 @@
         <v>21</v>
       </c>
       <c r="E1743" s="3">
-        <v>3254.17</v>
+        <v>3090.6</v>
       </c>
     </row>
     <row r="1744" spans="1:5" x14ac:dyDescent="0.2">
@@ -41756,7 +41756,7 @@
         <v>21</v>
       </c>
       <c r="E1744" s="3">
-        <v>5900.3</v>
+        <v>5604.4</v>
       </c>
     </row>
     <row r="1745" spans="1:5" x14ac:dyDescent="0.2">
@@ -41773,7 +41773,7 @@
         <v>21</v>
       </c>
       <c r="E1745" s="3">
-        <v>2767.76</v>
+        <v>2625.72</v>
       </c>
     </row>
     <row r="1746" spans="1:5" x14ac:dyDescent="0.2">
@@ -41790,7 +41790,7 @@
         <v>21</v>
       </c>
       <c r="E1746" s="3">
-        <v>1235.3800000000001</v>
+        <v>1170.81</v>
       </c>
     </row>
     <row r="1747" spans="1:5" x14ac:dyDescent="0.2">
@@ -41807,7 +41807,7 @@
         <v>21</v>
       </c>
       <c r="E1747" s="3">
-        <v>3253.53</v>
+        <v>3090.6</v>
       </c>
     </row>
     <row r="1748" spans="1:5" x14ac:dyDescent="0.2">
@@ -41824,7 +41824,7 @@
         <v>21</v>
       </c>
       <c r="E1748" s="3">
-        <v>5696.53</v>
+        <v>5406.4</v>
       </c>
     </row>
     <row r="1749" spans="1:5" x14ac:dyDescent="0.2">
@@ -41875,7 +41875,7 @@
         <v>21</v>
       </c>
       <c r="E1751" s="3">
-        <v>1355.91</v>
+        <v>1287.03</v>
       </c>
     </row>
     <row r="1752" spans="1:5" x14ac:dyDescent="0.2">
@@ -41892,7 +41892,7 @@
         <v>21</v>
       </c>
       <c r="E1752" s="3">
-        <v>493.19</v>
+        <v>464.88</v>
       </c>
     </row>
     <row r="1753" spans="1:5" x14ac:dyDescent="0.2">
@@ -41909,7 +41909,7 @@
         <v>21</v>
       </c>
       <c r="E1753" s="3">
-        <v>493.19</v>
+        <v>464.88</v>
       </c>
     </row>
     <row r="1754" spans="1:5" x14ac:dyDescent="0.2">
@@ -41926,7 +41926,7 @@
         <v>21</v>
       </c>
       <c r="E1754" s="3">
-        <v>493.19</v>
+        <v>464.88</v>
       </c>
     </row>
     <row r="1755" spans="1:5" x14ac:dyDescent="0.2">
@@ -41943,7 +41943,7 @@
         <v>21</v>
       </c>
       <c r="E1755" s="3">
-        <v>493.19</v>
+        <v>464.88</v>
       </c>
     </row>
     <row r="1756" spans="1:5" x14ac:dyDescent="0.2">
@@ -41960,7 +41960,7 @@
         <v>21</v>
       </c>
       <c r="E1756" s="3">
-        <v>1355.91</v>
+        <v>1287.03</v>
       </c>
     </row>
     <row r="1757" spans="1:5" x14ac:dyDescent="0.2">
@@ -41977,7 +41977,7 @@
         <v>21</v>
       </c>
       <c r="E1757" s="3">
-        <v>1355.91</v>
+        <v>1287.03</v>
       </c>
     </row>
     <row r="1758" spans="1:5" x14ac:dyDescent="0.2">
@@ -41994,7 +41994,7 @@
         <v>21</v>
       </c>
       <c r="E1758" s="3">
-        <v>1355.91</v>
+        <v>1287.03</v>
       </c>
     </row>
     <row r="1759" spans="1:5" x14ac:dyDescent="0.2">
@@ -43303,7 +43303,7 @@
         <v>21</v>
       </c>
       <c r="E1835" s="3">
-        <v>1995.55</v>
+        <v>2393.2800000000002</v>
       </c>
     </row>
     <row r="1836" spans="1:5" x14ac:dyDescent="0.2">
@@ -43320,7 +43320,7 @@
         <v>21</v>
       </c>
       <c r="E1836" s="3">
-        <v>1995.55</v>
+        <v>2393.2800000000002</v>
       </c>
     </row>
     <row r="1837" spans="1:5" x14ac:dyDescent="0.2">
@@ -43337,7 +43337,7 @@
         <v>21</v>
       </c>
       <c r="E1837" s="3">
-        <v>2083.35</v>
+        <v>2496.58</v>
       </c>
     </row>
     <row r="1838" spans="1:5" x14ac:dyDescent="0.2">
@@ -43354,7 +43354,7 @@
         <v>21</v>
       </c>
       <c r="E1838" s="3">
-        <v>2128.12</v>
+        <v>2548.23</v>
       </c>
     </row>
     <row r="1839" spans="1:5" x14ac:dyDescent="0.2">
@@ -43371,7 +43371,7 @@
         <v>21</v>
       </c>
       <c r="E1839" s="3">
-        <v>2172.89</v>
+        <v>2608.5100000000002</v>
       </c>
     </row>
     <row r="1840" spans="1:5" x14ac:dyDescent="0.2">
@@ -43388,7 +43388,7 @@
         <v>21</v>
       </c>
       <c r="E1840" s="3">
-        <v>2216.8000000000002</v>
+        <v>2660.16</v>
       </c>
     </row>
     <row r="1841" spans="1:5" x14ac:dyDescent="0.2">
@@ -43405,7 +43405,7 @@
         <v>21</v>
       </c>
       <c r="E1841" s="3">
-        <v>2261.56</v>
+        <v>2711.81</v>
       </c>
     </row>
     <row r="1842" spans="1:5" x14ac:dyDescent="0.2">
@@ -43898,7 +43898,7 @@
         <v>21</v>
       </c>
       <c r="E1870" s="3">
-        <v>3374.69</v>
+        <v>3034.63</v>
       </c>
     </row>
     <row r="1871" spans="1:5" x14ac:dyDescent="0.2">
@@ -43915,7 +43915,7 @@
         <v>21</v>
       </c>
       <c r="E1871" s="3">
-        <v>2765.18</v>
+        <v>2487.98</v>
       </c>
     </row>
     <row r="1872" spans="1:5" x14ac:dyDescent="0.2">
@@ -43932,7 +43932,7 @@
         <v>21</v>
       </c>
       <c r="E1872" s="3">
-        <v>3400.52</v>
+        <v>3254.17</v>
       </c>
     </row>
     <row r="1873" spans="1:5" x14ac:dyDescent="0.2">
@@ -43949,7 +43949,7 @@
         <v>21</v>
       </c>
       <c r="E1873" s="3">
-        <v>3038.95</v>
+        <v>2733.34</v>
       </c>
     </row>
     <row r="1874" spans="1:5" x14ac:dyDescent="0.2">
@@ -43966,7 +43966,7 @@
         <v>21</v>
       </c>
       <c r="E1874" s="3">
-        <v>3615.74</v>
+        <v>3254.17</v>
       </c>
     </row>
     <row r="1875" spans="1:5" x14ac:dyDescent="0.2">
@@ -44000,7 +44000,7 @@
         <v>21</v>
       </c>
       <c r="E1876" s="3">
-        <v>3813.75</v>
+        <v>3430.65</v>
       </c>
     </row>
     <row r="1877" spans="1:5" x14ac:dyDescent="0.2">
@@ -44017,7 +44017,7 @@
         <v>21</v>
       </c>
       <c r="E1877" s="3">
-        <v>3245.55</v>
+        <v>2918.42</v>
       </c>
     </row>
     <row r="1878" spans="1:5" x14ac:dyDescent="0.2">
@@ -44034,7 +44034,7 @@
         <v>21</v>
       </c>
       <c r="E1878" s="3">
-        <v>4127.97</v>
+        <v>3714.74</v>
       </c>
     </row>
     <row r="1879" spans="1:5" x14ac:dyDescent="0.2">
@@ -44068,7 +44068,7 @@
         <v>21</v>
       </c>
       <c r="E1880" s="3">
-        <v>4472.33</v>
+        <v>4024.67</v>
       </c>
     </row>
     <row r="1881" spans="1:5" x14ac:dyDescent="0.2">
@@ -44085,7 +44085,7 @@
         <v>21</v>
       </c>
       <c r="E1881" s="3">
-        <v>3951.49</v>
+        <v>3555.49</v>
       </c>
     </row>
     <row r="1882" spans="1:5" x14ac:dyDescent="0.2">
@@ -44102,7 +44102,7 @@
         <v>21</v>
       </c>
       <c r="E1882" s="3">
-        <v>4846.82</v>
+        <v>4364.71</v>
       </c>
     </row>
     <row r="1883" spans="1:5" x14ac:dyDescent="0.2">
@@ -44119,7 +44119,7 @@
         <v>21</v>
       </c>
       <c r="E1883" s="3">
-        <v>3950.63</v>
+        <v>3555.49</v>
       </c>
     </row>
     <row r="1884" spans="1:5" x14ac:dyDescent="0.2">
@@ -44136,7 +44136,7 @@
         <v>21</v>
       </c>
       <c r="E1884" s="3">
-        <v>5216.99</v>
+        <v>4691.8500000000004</v>
       </c>
     </row>
     <row r="1885" spans="1:5" x14ac:dyDescent="0.2">
@@ -44153,7 +44153,7 @@
         <v>21</v>
       </c>
       <c r="E1885" s="3">
-        <v>4752.1099999999997</v>
+        <v>4278.62</v>
       </c>
     </row>
     <row r="1886" spans="1:5" x14ac:dyDescent="0.2">
@@ -44170,7 +44170,7 @@
         <v>21</v>
       </c>
       <c r="E1886" s="3">
-        <v>5600.09</v>
+        <v>5036.21</v>
       </c>
     </row>
     <row r="1887" spans="1:5" x14ac:dyDescent="0.2">
@@ -44187,7 +44187,7 @@
         <v>21</v>
       </c>
       <c r="E1887" s="3">
-        <v>4608.34</v>
+        <v>4149.49</v>
       </c>
     </row>
     <row r="1888" spans="1:5" x14ac:dyDescent="0.2">
@@ -44204,7 +44204,7 @@
         <v>21</v>
       </c>
       <c r="E1888" s="3">
-        <v>5953.05</v>
+        <v>5359.05</v>
       </c>
     </row>
     <row r="1889" spans="1:5" x14ac:dyDescent="0.2">
@@ -44221,7 +44221,7 @@
         <v>21</v>
       </c>
       <c r="E1889" s="3">
-        <v>5267.8</v>
+        <v>4739.2</v>
       </c>
     </row>
     <row r="1890" spans="1:5" x14ac:dyDescent="0.2">
@@ -44238,7 +44238,7 @@
         <v>21</v>
       </c>
       <c r="E1890" s="3">
-        <v>6542.77</v>
+        <v>5888.5</v>
       </c>
     </row>
     <row r="1891" spans="1:5" x14ac:dyDescent="0.2">
@@ -44255,7 +44255,7 @@
         <v>21</v>
       </c>
       <c r="E1891" s="3">
-        <v>5705.98</v>
+        <v>5135.21</v>
       </c>
     </row>
     <row r="1892" spans="1:5" x14ac:dyDescent="0.2">
@@ -44272,7 +44272,7 @@
         <v>21</v>
       </c>
       <c r="E1892" s="3">
-        <v>6917.26</v>
+        <v>6224.25</v>
       </c>
     </row>
     <row r="1893" spans="1:5" x14ac:dyDescent="0.2">
@@ -44306,7 +44306,7 @@
         <v>21</v>
       </c>
       <c r="E1894" s="3">
-        <v>1265.5</v>
+        <v>1140.69</v>
       </c>
     </row>
     <row r="1895" spans="1:5" x14ac:dyDescent="0.2">
@@ -44323,7 +44323,7 @@
         <v>21</v>
       </c>
       <c r="E1895" s="3">
-        <v>1265.5</v>
+        <v>1140.69</v>
       </c>
     </row>
     <row r="1896" spans="1:5" x14ac:dyDescent="0.2">
@@ -44340,7 +44340,7 @@
         <v>21</v>
       </c>
       <c r="E1896" s="3">
-        <v>1321.47</v>
+        <v>1188.04</v>
       </c>
     </row>
     <row r="1897" spans="1:5" x14ac:dyDescent="0.2">
@@ -44357,7 +44357,7 @@
         <v>21</v>
       </c>
       <c r="E1897" s="3">
-        <v>1377.43</v>
+        <v>1239.69</v>
       </c>
     </row>
     <row r="1898" spans="1:5" x14ac:dyDescent="0.2">
@@ -44374,7 +44374,7 @@
         <v>21</v>
       </c>
       <c r="E1898" s="3">
-        <v>1420.47</v>
+        <v>1278.43</v>
       </c>
     </row>
     <row r="1899" spans="1:5" x14ac:dyDescent="0.2">
@@ -44391,7 +44391,7 @@
         <v>21</v>
       </c>
       <c r="E1899" s="3">
-        <v>1588.35</v>
+        <v>1429.08</v>
       </c>
     </row>
     <row r="1900" spans="1:5" x14ac:dyDescent="0.2">
@@ -44408,7 +44408,7 @@
         <v>21</v>
       </c>
       <c r="E1900" s="3">
-        <v>1687.34</v>
+        <v>1519.47</v>
       </c>
     </row>
     <row r="1901" spans="1:5" x14ac:dyDescent="0.2">
@@ -44425,7 +44425,7 @@
         <v>21</v>
       </c>
       <c r="E1901" s="3">
-        <v>1794.96</v>
+        <v>1614.18</v>
       </c>
     </row>
     <row r="1902" spans="1:5" x14ac:dyDescent="0.2">
@@ -44442,7 +44442,7 @@
         <v>21</v>
       </c>
       <c r="E1902" s="3">
-        <v>2061.84</v>
+        <v>1855.22</v>
       </c>
     </row>
     <row r="1903" spans="1:5" x14ac:dyDescent="0.2">
@@ -44459,7 +44459,7 @@
         <v>21</v>
       </c>
       <c r="E1903" s="3">
-        <v>2320.1</v>
+        <v>2087.65</v>
       </c>
     </row>
     <row r="1904" spans="1:5" x14ac:dyDescent="0.2">
@@ -44476,7 +44476,7 @@
         <v>21</v>
       </c>
       <c r="E1904" s="3">
-        <v>2535.33</v>
+        <v>2281.36</v>
       </c>
     </row>
     <row r="1905" spans="1:5" x14ac:dyDescent="0.2">
@@ -44493,7 +44493,7 @@
         <v>21</v>
       </c>
       <c r="E1905" s="3">
-        <v>2690.28</v>
+        <v>2419.1</v>
       </c>
     </row>
     <row r="1906" spans="1:5" x14ac:dyDescent="0.2">
@@ -44510,7 +44510,7 @@
         <v>21</v>
       </c>
       <c r="E1906" s="3">
-        <v>3060.47</v>
+        <v>2754.85</v>
       </c>
     </row>
     <row r="1907" spans="1:5" x14ac:dyDescent="0.2">
@@ -44544,7 +44544,7 @@
         <v>21</v>
       </c>
       <c r="E1908" s="3">
-        <v>3426.35</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="1909" spans="1:5" x14ac:dyDescent="0.2">
@@ -44561,7 +44561,7 @@
         <v>21</v>
       </c>
       <c r="E1909" s="3">
-        <v>4489.54</v>
+        <v>4041.88</v>
       </c>
     </row>
     <row r="1910" spans="1:5" x14ac:dyDescent="0.2">
@@ -44595,7 +44595,7 @@
         <v>21</v>
       </c>
       <c r="E1911" s="3">
-        <v>5806.71</v>
+        <v>5229.92</v>
       </c>
     </row>
     <row r="1912" spans="1:5" x14ac:dyDescent="0.2">
@@ -44612,7 +44612,7 @@
         <v>21</v>
       </c>
       <c r="E1912" s="3">
-        <v>6331.85</v>
+        <v>5699.09</v>
       </c>
     </row>
     <row r="1913" spans="1:5" x14ac:dyDescent="0.2">
@@ -44629,7 +44629,7 @@
         <v>21</v>
       </c>
       <c r="E1913" s="3">
-        <v>7425.17</v>
+        <v>6680.51</v>
       </c>
     </row>
     <row r="1914" spans="1:5" x14ac:dyDescent="0.2">
@@ -44646,7 +44646,7 @@
         <v>21</v>
       </c>
       <c r="E1914" s="3">
-        <v>7571.54</v>
+        <v>6813.95</v>
       </c>
     </row>
     <row r="1915" spans="1:5" x14ac:dyDescent="0.2">
@@ -44663,7 +44663,7 @@
         <v>21</v>
       </c>
       <c r="E1915" s="3">
-        <v>8412.6200000000008</v>
+        <v>7567.23</v>
       </c>
     </row>
     <row r="1916" spans="1:5" x14ac:dyDescent="0.2">
@@ -44680,7 +44680,7 @@
         <v>21</v>
       </c>
       <c r="E1916" s="3">
-        <v>8973.93</v>
+        <v>8075.16</v>
       </c>
     </row>
     <row r="1917" spans="1:5" x14ac:dyDescent="0.2">
@@ -44697,7 +44697,7 @@
         <v>21</v>
       </c>
       <c r="E1917" s="3">
-        <v>9534.3700000000008</v>
+        <v>8583.07</v>
       </c>
     </row>
     <row r="1918" spans="1:5" x14ac:dyDescent="0.2">
@@ -44714,7 +44714,7 @@
         <v>21</v>
       </c>
       <c r="E1918" s="3">
-        <v>10095.66</v>
+        <v>9082.4</v>
       </c>
     </row>
     <row r="1919" spans="1:5" x14ac:dyDescent="0.2">
@@ -44731,7 +44731,7 @@
         <v>21</v>
       </c>
       <c r="E1919" s="3">
-        <v>10656.11</v>
+        <v>9590.33</v>
       </c>
     </row>
     <row r="1920" spans="1:5" x14ac:dyDescent="0.2">
@@ -44748,7 +44748,7 @@
         <v>21</v>
       </c>
       <c r="E1920" s="3">
-        <v>1265.5</v>
+        <v>1140.69</v>
       </c>
     </row>
     <row r="1921" spans="1:5" x14ac:dyDescent="0.2">
@@ -44765,7 +44765,7 @@
         <v>21</v>
       </c>
       <c r="E1921" s="3">
-        <v>1265.5</v>
+        <v>1140.69</v>
       </c>
     </row>
     <row r="1922" spans="1:5" x14ac:dyDescent="0.2">
@@ -44782,7 +44782,7 @@
         <v>21</v>
       </c>
       <c r="E1922" s="3">
-        <v>1420.47</v>
+        <v>1278.43</v>
       </c>
     </row>
     <row r="1923" spans="1:5" x14ac:dyDescent="0.2">
@@ -44799,7 +44799,7 @@
         <v>21</v>
       </c>
       <c r="E1923" s="3">
-        <v>1579.74</v>
+        <v>1420.47</v>
       </c>
     </row>
     <row r="1924" spans="1:5" x14ac:dyDescent="0.2">
@@ -44816,7 +44816,7 @@
         <v>21</v>
       </c>
       <c r="E1924" s="3">
-        <v>1794.96</v>
+        <v>1614.18</v>
       </c>
     </row>
     <row r="1925" spans="1:5" x14ac:dyDescent="0.2">
@@ -44833,7 +44833,7 @@
         <v>21</v>
       </c>
       <c r="E1925" s="3">
-        <v>2061.84</v>
+        <v>1855.22</v>
       </c>
     </row>
     <row r="1926" spans="1:5" x14ac:dyDescent="0.2">
@@ -44850,7 +44850,7 @@
         <v>21</v>
       </c>
       <c r="E1926" s="3">
-        <v>2479.37</v>
+        <v>2229.71</v>
       </c>
     </row>
     <row r="1927" spans="1:5" x14ac:dyDescent="0.2">
@@ -44867,7 +44867,7 @@
         <v>21</v>
       </c>
       <c r="E1927" s="3">
-        <v>2690.28</v>
+        <v>2419.1</v>
       </c>
     </row>
     <row r="1928" spans="1:5" x14ac:dyDescent="0.2">
@@ -44884,7 +44884,7 @@
         <v>21</v>
       </c>
       <c r="E1928" s="3">
-        <v>3323.04</v>
+        <v>2991.59</v>
       </c>
     </row>
     <row r="1929" spans="1:5" x14ac:dyDescent="0.2">
@@ -44901,7 +44901,7 @@
         <v>21</v>
       </c>
       <c r="E1929" s="3">
-        <v>4489.54</v>
+        <v>4041.88</v>
       </c>
     </row>
     <row r="1930" spans="1:5" x14ac:dyDescent="0.2">
@@ -44918,7 +44918,7 @@
         <v>21</v>
       </c>
       <c r="E1930" s="3">
-        <v>4640.2</v>
+        <v>4175.32</v>
       </c>
     </row>
     <row r="1931" spans="1:5" x14ac:dyDescent="0.2">
@@ -44935,7 +44935,7 @@
         <v>21</v>
       </c>
       <c r="E1931" s="3">
-        <v>6331.85</v>
+        <v>5699.09</v>
       </c>
     </row>
     <row r="1932" spans="1:5" x14ac:dyDescent="0.2">
@@ -44952,7 +44952,7 @@
         <v>21</v>
       </c>
       <c r="E1932" s="3">
-        <v>6856.99</v>
+        <v>6172.58</v>
       </c>
     </row>
     <row r="1933" spans="1:5" x14ac:dyDescent="0.2">
@@ -44969,7 +44969,7 @@
         <v>21</v>
       </c>
       <c r="E1933" s="3">
-        <v>9250.27</v>
+        <v>8324.81</v>
       </c>
     </row>
     <row r="1934" spans="1:5" x14ac:dyDescent="0.2">
@@ -44986,7 +44986,7 @@
         <v>21</v>
       </c>
       <c r="E1934" s="3">
-        <v>10489.96</v>
+        <v>9439.66</v>
       </c>
     </row>
     <row r="1935" spans="1:5" x14ac:dyDescent="0.2">
@@ -45003,7 +45003,7 @@
         <v>21</v>
       </c>
       <c r="E1935" s="3">
-        <v>11105.49</v>
+        <v>9994.94</v>
       </c>
     </row>
     <row r="1936" spans="1:5" x14ac:dyDescent="0.2">
@@ -45037,7 +45037,7 @@
         <v>21</v>
       </c>
       <c r="E1937" s="3">
-        <v>7067.05</v>
+        <v>8126.81</v>
       </c>
     </row>
     <row r="1938" spans="1:5" x14ac:dyDescent="0.2">
@@ -45071,7 +45071,7 @@
         <v>21</v>
       </c>
       <c r="E1939" s="3">
-        <v>7067.05</v>
+        <v>8126.81</v>
       </c>
     </row>
     <row r="1940" spans="1:5" x14ac:dyDescent="0.2">
@@ -45530,7 +45530,7 @@
         <v>21</v>
       </c>
       <c r="E1966" s="3">
-        <v>4734.8999999999996</v>
+        <v>4261.41</v>
       </c>
     </row>
     <row r="1967" spans="1:5" x14ac:dyDescent="0.2">
@@ -45547,7 +45547,7 @@
         <v>21</v>
       </c>
       <c r="E1967" s="3">
-        <v>3529.65</v>
+        <v>3176.69</v>
       </c>
     </row>
     <row r="1968" spans="1:5" x14ac:dyDescent="0.2">
@@ -45564,7 +45564,7 @@
         <v>21</v>
       </c>
       <c r="E1968" s="3">
-        <v>4304.45</v>
+        <v>3874.01</v>
       </c>
     </row>
     <row r="1969" spans="1:5" x14ac:dyDescent="0.2">
@@ -49015,7 +49015,7 @@
         <v>21</v>
       </c>
       <c r="E2171" s="3">
-        <v>2926.16</v>
+        <v>2634.32</v>
       </c>
     </row>
     <row r="2172" spans="1:5" x14ac:dyDescent="0.2">
@@ -49032,7 +49032,7 @@
         <v>21</v>
       </c>
       <c r="E2172" s="3">
-        <v>3658.79</v>
+        <v>3292.92</v>
       </c>
     </row>
     <row r="2173" spans="1:5" x14ac:dyDescent="0.2">
@@ -49049,7 +49049,7 @@
         <v>21</v>
       </c>
       <c r="E2173" s="3">
-        <v>3874.01</v>
+        <v>3486.61</v>
       </c>
     </row>
     <row r="2174" spans="1:5" x14ac:dyDescent="0.2">
@@ -49236,7 +49236,7 @@
         <v>21</v>
       </c>
       <c r="E2184" s="3">
-        <v>742</v>
+        <v>851.37</v>
       </c>
     </row>
     <row r="2185" spans="1:5" x14ac:dyDescent="0.2">
@@ -49440,7 +49440,7 @@
         <v>21</v>
       </c>
       <c r="E2196" s="3">
-        <v>1583.18</v>
+        <v>1743.31</v>
       </c>
     </row>
     <row r="2197" spans="1:5" x14ac:dyDescent="0.2">
@@ -49576,7 +49576,7 @@
         <v>21</v>
       </c>
       <c r="E2204" s="3">
-        <v>23112.38</v>
+        <v>20787.28</v>
       </c>
     </row>
     <row r="2205" spans="1:5" x14ac:dyDescent="0.2">
@@ -49593,7 +49593,7 @@
         <v>21</v>
       </c>
       <c r="E2205" s="3">
-        <v>28221.85</v>
+        <v>25399.66</v>
       </c>
     </row>
     <row r="2206" spans="1:5" x14ac:dyDescent="0.2">
@@ -49780,7 +49780,7 @@
         <v>21</v>
       </c>
       <c r="E2216" s="3">
-        <v>24119.15</v>
+        <v>21705.54</v>
       </c>
     </row>
     <row r="2217" spans="1:5" x14ac:dyDescent="0.2">
@@ -49916,7 +49916,7 @@
         <v>21</v>
       </c>
       <c r="E2224" s="3">
-        <v>11642.69</v>
+        <v>11058.14</v>
       </c>
     </row>
     <row r="2225" spans="1:5" x14ac:dyDescent="0.2">
@@ -50171,7 +50171,7 @@
         <v>21</v>
       </c>
       <c r="E2239" s="3">
-        <v>73291.710000000006</v>
+        <v>65963.25</v>
       </c>
     </row>
     <row r="2240" spans="1:5" x14ac:dyDescent="0.2">
@@ -50256,7 +50256,7 @@
         <v>21</v>
       </c>
       <c r="E2244" s="3">
-        <v>27737.43</v>
+        <v>24961.599999999999</v>
       </c>
     </row>
     <row r="2245" spans="1:5" x14ac:dyDescent="0.2">
@@ -50307,7 +50307,7 @@
         <v>21</v>
       </c>
       <c r="E2247" s="3">
-        <v>41482.03</v>
+        <v>37332.44</v>
       </c>
     </row>
     <row r="2248" spans="1:5" x14ac:dyDescent="0.2">
@@ -50426,7 +50426,7 @@
         <v>21</v>
       </c>
       <c r="E2254" s="3">
-        <v>4389.68</v>
+        <v>3951.49</v>
       </c>
     </row>
     <row r="2255" spans="1:5" x14ac:dyDescent="0.2">
@@ -51276,7 +51276,7 @@
         <v>21</v>
       </c>
       <c r="E2304" s="3">
-        <v>2582.67</v>
+        <v>2453.54</v>
       </c>
     </row>
     <row r="2305" spans="1:5" x14ac:dyDescent="0.2">
@@ -56376,7 +56376,7 @@
         <v>21</v>
       </c>
       <c r="E2604" s="3">
-        <v>3239.42</v>
+        <v>3285.23</v>
       </c>
     </row>
     <row r="2605" spans="1:5" x14ac:dyDescent="0.2">
@@ -56393,7 +56393,7 @@
         <v>21</v>
       </c>
       <c r="E2605" s="3">
-        <v>6781.31</v>
+        <v>6877.21</v>
       </c>
     </row>
     <row r="2606" spans="1:5" x14ac:dyDescent="0.2">
@@ -56410,7 +56410,7 @@
         <v>21</v>
       </c>
       <c r="E2606" s="3">
-        <v>4368.1400000000003</v>
+        <v>4429.91</v>
       </c>
     </row>
     <row r="2607" spans="1:5" x14ac:dyDescent="0.2">
@@ -56427,7 +56427,7 @@
         <v>21</v>
       </c>
       <c r="E2607" s="3">
-        <v>3013.62</v>
+        <v>3056.23</v>
       </c>
     </row>
     <row r="2608" spans="1:5" x14ac:dyDescent="0.2">
@@ -56444,7 +56444,7 @@
         <v>21</v>
       </c>
       <c r="E2608" s="3">
-        <v>5391.46</v>
+        <v>5467.69</v>
       </c>
     </row>
     <row r="2609" spans="1:5" x14ac:dyDescent="0.2">
@@ -56461,7 +56461,7 @@
         <v>21</v>
       </c>
       <c r="E2609" s="3">
-        <v>755.58</v>
+        <v>766.26</v>
       </c>
     </row>
     <row r="2610" spans="1:5" x14ac:dyDescent="0.2">
@@ -56478,7 +56478,7 @@
         <v>21</v>
       </c>
       <c r="E2610" s="3">
-        <v>690.43</v>
+        <v>700.2</v>
       </c>
     </row>
     <row r="2611" spans="1:5" x14ac:dyDescent="0.2">
@@ -56495,7 +56495,7 @@
         <v>21</v>
       </c>
       <c r="E2611" s="3">
-        <v>1302.72</v>
+        <v>1321.14</v>
       </c>
     </row>
     <row r="2612" spans="1:5" x14ac:dyDescent="0.2">
@@ -56512,7 +56512,7 @@
         <v>21</v>
       </c>
       <c r="E2612" s="3">
-        <v>1467.73</v>
+        <v>1488.48</v>
       </c>
     </row>
     <row r="2613" spans="1:5" x14ac:dyDescent="0.2">
@@ -56529,7 +56529,7 @@
         <v>21</v>
       </c>
       <c r="E2613" s="3">
-        <v>195.42</v>
+        <v>198.17</v>
       </c>
     </row>
     <row r="2614" spans="1:5" x14ac:dyDescent="0.2">
@@ -56546,7 +56546,7 @@
         <v>21</v>
       </c>
       <c r="E2614" s="3">
-        <v>755.58</v>
+        <v>766.26</v>
       </c>
     </row>
     <row r="2615" spans="1:5" x14ac:dyDescent="0.2">
@@ -56563,7 +56563,7 @@
         <v>21</v>
       </c>
       <c r="E2615" s="3">
-        <v>690.43</v>
+        <v>700.2</v>
       </c>
     </row>
     <row r="2616" spans="1:5" x14ac:dyDescent="0.2">
@@ -56580,7 +56580,7 @@
         <v>21</v>
       </c>
       <c r="E2616" s="3">
-        <v>1467.73</v>
+        <v>1488.48</v>
       </c>
     </row>
     <row r="2617" spans="1:5" x14ac:dyDescent="0.2">
@@ -56597,7 +56597,7 @@
         <v>21</v>
       </c>
       <c r="E2617" s="3">
-        <v>799</v>
+        <v>810.3</v>
       </c>
     </row>
     <row r="2618" spans="1:5" x14ac:dyDescent="0.2">
@@ -56614,7 +56614,7 @@
         <v>21</v>
       </c>
       <c r="E2618" s="3">
-        <v>1311.4</v>
+        <v>1329.95</v>
       </c>
     </row>
     <row r="2619" spans="1:5" x14ac:dyDescent="0.2">
@@ -56631,7 +56631,7 @@
         <v>21</v>
       </c>
       <c r="E2619" s="3">
-        <v>10834.27</v>
+        <v>10987.47</v>
       </c>
     </row>
     <row r="2620" spans="1:5" x14ac:dyDescent="0.2">
@@ -56648,7 +56648,7 @@
         <v>21</v>
       </c>
       <c r="E2620" s="3">
-        <v>11568.12</v>
+        <v>11731.71</v>
       </c>
     </row>
     <row r="2621" spans="1:5" x14ac:dyDescent="0.2">
@@ -58161,7 +58161,7 @@
         <v>21</v>
       </c>
       <c r="E2709" s="3">
-        <v>3565.09</v>
+        <v>3615.52</v>
       </c>
     </row>
     <row r="2710" spans="1:5" x14ac:dyDescent="0.2">
@@ -58875,7 +58875,7 @@
         <v>21</v>
       </c>
       <c r="E2751" s="3">
-        <v>23440.99</v>
+        <v>23772.48</v>
       </c>
     </row>
     <row r="2752" spans="1:5" x14ac:dyDescent="0.2">
@@ -58892,7 +58892,7 @@
         <v>21</v>
       </c>
       <c r="E2752" s="3">
-        <v>26594.29</v>
+        <v>26970.36</v>
       </c>
     </row>
     <row r="2753" spans="1:5" x14ac:dyDescent="0.2">
@@ -59011,7 +59011,7 @@
         <v>21</v>
       </c>
       <c r="E2759" s="3">
-        <v>480.76</v>
+        <v>519.21</v>
       </c>
     </row>
     <row r="2760" spans="1:5" x14ac:dyDescent="0.2">
@@ -59028,7 +59028,7 @@
         <v>21</v>
       </c>
       <c r="E2760" s="3">
-        <v>3220.58</v>
+        <v>3478.22</v>
       </c>
     </row>
     <row r="2761" spans="1:5" x14ac:dyDescent="0.2">
@@ -59045,7 +59045,7 @@
         <v>21</v>
       </c>
       <c r="E2761" s="3">
-        <v>480.76</v>
+        <v>519.21</v>
       </c>
     </row>
     <row r="2762" spans="1:5" x14ac:dyDescent="0.2">
@@ -59062,7 +59062,7 @@
         <v>21</v>
       </c>
       <c r="E2762" s="3">
-        <v>3220.58</v>
+        <v>3478.22</v>
       </c>
     </row>
     <row r="2763" spans="1:5" x14ac:dyDescent="0.2">
@@ -59079,7 +59079,7 @@
         <v>21</v>
       </c>
       <c r="E2763" s="3">
-        <v>2767.53</v>
+        <v>2910.28</v>
       </c>
     </row>
     <row r="2764" spans="1:5" x14ac:dyDescent="0.2">
@@ -59096,7 +59096,7 @@
         <v>21</v>
       </c>
       <c r="E2764" s="3">
-        <v>3398.73</v>
+        <v>4194.99</v>
       </c>
     </row>
     <row r="2765" spans="1:5" x14ac:dyDescent="0.2">
@@ -59113,7 +59113,7 @@
         <v>21</v>
       </c>
       <c r="E2765" s="3">
-        <v>4855.33</v>
+        <v>5243.74</v>
       </c>
     </row>
     <row r="2766" spans="1:5" x14ac:dyDescent="0.2">
@@ -59130,7 +59130,7 @@
         <v>21</v>
       </c>
       <c r="E2766" s="3">
-        <v>4248.43</v>
+        <v>5505.92</v>
       </c>
     </row>
     <row r="2767" spans="1:5" x14ac:dyDescent="0.2">
@@ -59147,7 +59147,7 @@
         <v>21</v>
       </c>
       <c r="E2767" s="3">
-        <v>4515.45</v>
+        <v>4719.3599999999997</v>
       </c>
     </row>
     <row r="2768" spans="1:5" x14ac:dyDescent="0.2">
@@ -59164,7 +59164,7 @@
         <v>21</v>
       </c>
       <c r="E2768" s="3">
-        <v>7525.77</v>
+        <v>8389.98</v>
       </c>
     </row>
     <row r="2769" spans="1:5" x14ac:dyDescent="0.2">
@@ -59181,7 +59181,7 @@
         <v>21</v>
       </c>
       <c r="E2769" s="3">
-        <v>11604.25</v>
+        <v>12322.78</v>
       </c>
     </row>
     <row r="2770" spans="1:5" x14ac:dyDescent="0.2">
@@ -59198,7 +59198,7 @@
         <v>21</v>
       </c>
       <c r="E2770" s="3">
-        <v>17333.55</v>
+        <v>16255.6</v>
       </c>
     </row>
     <row r="2771" spans="1:5" x14ac:dyDescent="0.2">
@@ -59215,7 +59215,7 @@
         <v>21</v>
       </c>
       <c r="E2771" s="3">
-        <v>12251.81</v>
+        <v>13501.9</v>
       </c>
     </row>
     <row r="2772" spans="1:5" x14ac:dyDescent="0.2">
@@ -59232,7 +59232,7 @@
         <v>21</v>
       </c>
       <c r="E2772" s="3">
-        <v>12251.81</v>
+        <v>13502</v>
       </c>
     </row>
     <row r="2773" spans="1:5" x14ac:dyDescent="0.2">
@@ -59249,7 +59249,7 @@
         <v>21</v>
       </c>
       <c r="E2773" s="3">
-        <v>13564.51</v>
+        <v>14402.13</v>
       </c>
     </row>
     <row r="2774" spans="1:5" x14ac:dyDescent="0.2">
@@ -59266,7 +59266,7 @@
         <v>21</v>
       </c>
       <c r="E2774" s="3">
-        <v>18774.38</v>
+        <v>20276.34</v>
       </c>
     </row>
     <row r="2775" spans="1:5" x14ac:dyDescent="0.2">
@@ -59283,7 +59283,7 @@
         <v>21</v>
       </c>
       <c r="E2775" s="3">
-        <v>72.91</v>
+        <v>79.62</v>
       </c>
     </row>
     <row r="2776" spans="1:5" x14ac:dyDescent="0.2">
@@ -59300,7 +59300,7 @@
         <v>21</v>
       </c>
       <c r="E2776" s="3">
-        <v>360.57</v>
+        <v>389.41</v>
       </c>
     </row>
     <row r="2777" spans="1:5" x14ac:dyDescent="0.2">
@@ -59317,7 +59317,7 @@
         <v>21</v>
       </c>
       <c r="E2777" s="3">
-        <v>488.19</v>
+        <v>527.26</v>
       </c>
     </row>
     <row r="2778" spans="1:5" x14ac:dyDescent="0.2">
@@ -59334,7 +59334,7 @@
         <v>21</v>
       </c>
       <c r="E2778" s="3">
-        <v>61.93</v>
+        <v>68.97</v>
       </c>
     </row>
     <row r="2779" spans="1:5" x14ac:dyDescent="0.2">
@@ -59351,7 +59351,7 @@
         <v>21</v>
       </c>
       <c r="E2779" s="3">
-        <v>20295.3</v>
+        <v>22810.25</v>
       </c>
     </row>
     <row r="2780" spans="1:5" x14ac:dyDescent="0.2">
@@ -59368,7 +59368,7 @@
         <v>21</v>
       </c>
       <c r="E2780" s="3">
-        <v>30977.05</v>
+        <v>33297.760000000002</v>
       </c>
     </row>
     <row r="2781" spans="1:5" x14ac:dyDescent="0.2">
@@ -59385,7 +59385,7 @@
         <v>21</v>
       </c>
       <c r="E2781" s="3">
-        <v>37871.620000000003</v>
+        <v>42474.32</v>
       </c>
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.2">
@@ -59402,7 +59402,7 @@
         <v>21</v>
       </c>
       <c r="E2782" s="3">
-        <v>51466.57</v>
+        <v>49815.57</v>
       </c>
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.2">
@@ -59470,7 +59470,7 @@
         <v>21</v>
       </c>
       <c r="E2786" s="3">
-        <v>5195.2</v>
+        <v>5768.11</v>
       </c>
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.2">
@@ -59861,7 +59861,7 @@
         <v>21</v>
       </c>
       <c r="E2809" s="3">
-        <v>209.54</v>
+        <v>222.12</v>
       </c>
     </row>
     <row r="2810" spans="1:5" x14ac:dyDescent="0.2">
@@ -61000,7 +61000,7 @@
         <v>21</v>
       </c>
       <c r="E2876" s="3">
-        <v>985.73</v>
+        <v>999.66</v>
       </c>
     </row>
     <row r="2877" spans="1:5" x14ac:dyDescent="0.2">
@@ -61017,7 +61017,7 @@
         <v>21</v>
       </c>
       <c r="E2877" s="3">
-        <v>985.73</v>
+        <v>999.66</v>
       </c>
     </row>
     <row r="2878" spans="1:5" x14ac:dyDescent="0.2">
@@ -61034,7 +61034,7 @@
         <v>21</v>
       </c>
       <c r="E2878" s="3">
-        <v>1050.8599999999999</v>
+        <v>1065.72</v>
       </c>
     </row>
     <row r="2879" spans="1:5" x14ac:dyDescent="0.2">
@@ -61051,7 +61051,7 @@
         <v>21</v>
       </c>
       <c r="E2879" s="3">
-        <v>408.18</v>
+        <v>413.96</v>
       </c>
     </row>
     <row r="2880" spans="1:5" x14ac:dyDescent="0.2">
@@ -61068,7 +61068,7 @@
         <v>21</v>
       </c>
       <c r="E2880" s="3">
-        <v>738.21</v>
+        <v>748.65</v>
       </c>
     </row>
     <row r="2881" spans="1:5" x14ac:dyDescent="0.2">
@@ -61085,7 +61085,7 @@
         <v>21</v>
       </c>
       <c r="E2881" s="3">
-        <v>738.21</v>
+        <v>748.65</v>
       </c>
     </row>
     <row r="2882" spans="1:5" x14ac:dyDescent="0.2">
@@ -61102,7 +61102,7 @@
         <v>21</v>
       </c>
       <c r="E2882" s="3">
-        <v>555.83000000000004</v>
+        <v>563.69000000000005</v>
       </c>
     </row>
     <row r="2883" spans="1:5" x14ac:dyDescent="0.2">
@@ -61119,7 +61119,7 @@
         <v>21</v>
       </c>
       <c r="E2883" s="3">
-        <v>555.83000000000004</v>
+        <v>563.69000000000005</v>
       </c>
     </row>
     <row r="2884" spans="1:5" x14ac:dyDescent="0.2">
@@ -61136,7 +61136,7 @@
         <v>21</v>
       </c>
       <c r="E2884" s="3">
-        <v>555.83000000000004</v>
+        <v>563.69000000000005</v>
       </c>
     </row>
     <row r="2885" spans="1:5" x14ac:dyDescent="0.2">
@@ -61187,7 +61187,7 @@
         <v>21</v>
       </c>
       <c r="E2887" s="3">
-        <v>277.91000000000003</v>
+        <v>281.83999999999997</v>
       </c>
     </row>
     <row r="2888" spans="1:5" x14ac:dyDescent="0.2">
@@ -61204,7 +61204,7 @@
         <v>21</v>
       </c>
       <c r="E2888" s="3">
-        <v>399.5</v>
+        <v>405.15</v>
       </c>
     </row>
     <row r="2889" spans="1:5" x14ac:dyDescent="0.2">
@@ -61221,7 +61221,7 @@
         <v>21</v>
       </c>
       <c r="E2889" s="3">
-        <v>399.5</v>
+        <v>405.15</v>
       </c>
     </row>
     <row r="2890" spans="1:5" x14ac:dyDescent="0.2">
@@ -61238,7 +61238,7 @@
         <v>21</v>
       </c>
       <c r="E2890" s="3">
-        <v>188.68</v>
+        <v>191.34</v>
       </c>
     </row>
     <row r="2891" spans="1:5" x14ac:dyDescent="0.2">
@@ -61255,7 +61255,7 @@
         <v>21</v>
       </c>
       <c r="E2891" s="3">
-        <v>482.01</v>
+        <v>488.82</v>
       </c>
     </row>
     <row r="2892" spans="1:5" x14ac:dyDescent="0.2">
@@ -61272,7 +61272,7 @@
         <v>21</v>
       </c>
       <c r="E2892" s="3">
-        <v>716.5</v>
+        <v>726.63</v>
       </c>
     </row>
     <row r="2893" spans="1:5" x14ac:dyDescent="0.2">
@@ -61289,7 +61289,7 @@
         <v>21</v>
       </c>
       <c r="E2893" s="3">
-        <v>959.68</v>
+        <v>973.24</v>
       </c>
     </row>
     <row r="2894" spans="1:5" x14ac:dyDescent="0.2">
@@ -61306,7 +61306,7 @@
         <v>21</v>
       </c>
       <c r="E2894" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2895" spans="1:5" x14ac:dyDescent="0.2">
@@ -61323,7 +61323,7 @@
         <v>21</v>
       </c>
       <c r="E2895" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2896" spans="1:5" x14ac:dyDescent="0.2">
@@ -61340,7 +61340,7 @@
         <v>21</v>
       </c>
       <c r="E2896" s="3">
-        <v>163.52000000000001</v>
+        <v>165.83</v>
       </c>
     </row>
     <row r="2897" spans="1:5" x14ac:dyDescent="0.2">
@@ -61357,7 +61357,7 @@
         <v>21</v>
       </c>
       <c r="E2897" s="3">
-        <v>163.52000000000001</v>
+        <v>165.83</v>
       </c>
     </row>
     <row r="2898" spans="1:5" x14ac:dyDescent="0.2">
@@ -61374,7 +61374,7 @@
         <v>21</v>
       </c>
       <c r="E2898" s="3">
-        <v>163.52000000000001</v>
+        <v>165.83</v>
       </c>
     </row>
     <row r="2899" spans="1:5" x14ac:dyDescent="0.2">
@@ -61391,7 +61391,7 @@
         <v>21</v>
       </c>
       <c r="E2899" s="3">
-        <v>163.52000000000001</v>
+        <v>165.83</v>
       </c>
     </row>
     <row r="2900" spans="1:5" x14ac:dyDescent="0.2">
@@ -61408,7 +61408,7 @@
         <v>21</v>
       </c>
       <c r="E2900" s="3">
-        <v>1307.07</v>
+        <v>1325.54</v>
       </c>
     </row>
     <row r="2901" spans="1:5" x14ac:dyDescent="0.2">
@@ -61425,7 +61425,7 @@
         <v>21</v>
       </c>
       <c r="E2901" s="3">
-        <v>1745.64</v>
+        <v>1770.33</v>
       </c>
     </row>
     <row r="2902" spans="1:5" x14ac:dyDescent="0.2">
@@ -61459,7 +61459,7 @@
         <v>21</v>
       </c>
       <c r="E2903" s="3">
-        <v>88.05</v>
+        <v>89.29</v>
       </c>
     </row>
     <row r="2904" spans="1:5" x14ac:dyDescent="0.2">
@@ -61476,7 +61476,7 @@
         <v>21</v>
       </c>
       <c r="E2904" s="3">
-        <v>88.05</v>
+        <v>89.29</v>
       </c>
     </row>
     <row r="2905" spans="1:5" x14ac:dyDescent="0.2">
@@ -61493,7 +61493,7 @@
         <v>21</v>
       </c>
       <c r="E2905" s="3">
-        <v>88.05</v>
+        <v>89.29</v>
       </c>
     </row>
     <row r="2906" spans="1:5" x14ac:dyDescent="0.2">
@@ -61510,7 +61510,7 @@
         <v>21</v>
       </c>
       <c r="E2906" s="3">
-        <v>88.05</v>
+        <v>89.29</v>
       </c>
     </row>
     <row r="2907" spans="1:5" x14ac:dyDescent="0.2">
@@ -61527,7 +61527,7 @@
         <v>21</v>
       </c>
       <c r="E2907" s="3">
-        <v>150.94</v>
+        <v>153.07</v>
       </c>
     </row>
     <row r="2908" spans="1:5" x14ac:dyDescent="0.2">
@@ -61544,7 +61544,7 @@
         <v>21</v>
       </c>
       <c r="E2908" s="3">
-        <v>272.52999999999997</v>
+        <v>276.38</v>
       </c>
     </row>
     <row r="2909" spans="1:5" x14ac:dyDescent="0.2">
@@ -61561,7 +61561,7 @@
         <v>21</v>
       </c>
       <c r="E2909" s="3">
-        <v>146.75</v>
+        <v>148.82</v>
       </c>
     </row>
     <row r="2910" spans="1:5" x14ac:dyDescent="0.2">
@@ -61578,7 +61578,7 @@
         <v>21</v>
       </c>
       <c r="E2910" s="3">
-        <v>146.75</v>
+        <v>148.82</v>
       </c>
     </row>
     <row r="2911" spans="1:5" x14ac:dyDescent="0.2">
@@ -61595,7 +61595,7 @@
         <v>21</v>
       </c>
       <c r="E2911" s="3">
-        <v>146.75</v>
+        <v>148.82</v>
       </c>
     </row>
     <row r="2912" spans="1:5" x14ac:dyDescent="0.2">
@@ -61612,7 +61612,7 @@
         <v>21</v>
       </c>
       <c r="E2912" s="3">
-        <v>146.75</v>
+        <v>148.82</v>
       </c>
     </row>
     <row r="2913" spans="1:5" x14ac:dyDescent="0.2">
@@ -61629,7 +61629,7 @@
         <v>21</v>
       </c>
       <c r="E2913" s="3">
-        <v>146.75</v>
+        <v>148.82</v>
       </c>
     </row>
     <row r="2914" spans="1:5" x14ac:dyDescent="0.2">
@@ -61646,7 +61646,7 @@
         <v>21</v>
       </c>
       <c r="E2914" s="3">
-        <v>134.61000000000001</v>
+        <v>136.52000000000001</v>
       </c>
     </row>
     <row r="2915" spans="1:5" x14ac:dyDescent="0.2">
@@ -61663,7 +61663,7 @@
         <v>21</v>
       </c>
       <c r="E2915" s="3">
-        <v>742.56</v>
+        <v>753.05</v>
       </c>
     </row>
     <row r="2916" spans="1:5" x14ac:dyDescent="0.2">
@@ -61680,7 +61680,7 @@
         <v>21</v>
       </c>
       <c r="E2916" s="3">
-        <v>742.56</v>
+        <v>753.05</v>
       </c>
     </row>
     <row r="2917" spans="1:5" x14ac:dyDescent="0.2">
@@ -61697,7 +61697,7 @@
         <v>21</v>
       </c>
       <c r="E2917" s="3">
-        <v>742.56</v>
+        <v>753.05</v>
       </c>
     </row>
     <row r="2918" spans="1:5" x14ac:dyDescent="0.2">
@@ -61714,7 +61714,7 @@
         <v>21</v>
       </c>
       <c r="E2918" s="3">
-        <v>742.56</v>
+        <v>753.05</v>
       </c>
     </row>
     <row r="2919" spans="1:5" x14ac:dyDescent="0.2">
@@ -61731,7 +61731,7 @@
         <v>21</v>
       </c>
       <c r="E2919" s="3">
-        <v>742.56</v>
+        <v>753.05</v>
       </c>
     </row>
     <row r="2920" spans="1:5" x14ac:dyDescent="0.2">
@@ -61748,7 +61748,7 @@
         <v>21</v>
       </c>
       <c r="E2920" s="3">
-        <v>742.56</v>
+        <v>753.05</v>
       </c>
     </row>
     <row r="2921" spans="1:5" x14ac:dyDescent="0.2">
@@ -61765,7 +61765,7 @@
         <v>21</v>
       </c>
       <c r="E2921" s="3">
-        <v>742.56</v>
+        <v>753.05</v>
       </c>
     </row>
     <row r="2922" spans="1:5" x14ac:dyDescent="0.2">
@@ -61782,7 +61782,7 @@
         <v>21</v>
       </c>
       <c r="E2922" s="3">
-        <v>134.61000000000001</v>
+        <v>136.52000000000001</v>
       </c>
     </row>
     <row r="2923" spans="1:5" x14ac:dyDescent="0.2">
@@ -61799,7 +61799,7 @@
         <v>21</v>
       </c>
       <c r="E2923" s="3">
-        <v>134.61000000000001</v>
+        <v>136.52000000000001</v>
       </c>
     </row>
     <row r="2924" spans="1:5" x14ac:dyDescent="0.2">
@@ -61816,7 +61816,7 @@
         <v>21</v>
       </c>
       <c r="E2924" s="3">
-        <v>134.61000000000001</v>
+        <v>136.52000000000001</v>
       </c>
     </row>
     <row r="2925" spans="1:5" x14ac:dyDescent="0.2">
@@ -61833,7 +61833,7 @@
         <v>21</v>
       </c>
       <c r="E2925" s="3">
-        <v>134.61000000000001</v>
+        <v>136.52000000000001</v>
       </c>
     </row>
     <row r="2926" spans="1:5" x14ac:dyDescent="0.2">
@@ -61850,7 +61850,7 @@
         <v>21</v>
       </c>
       <c r="E2926" s="3">
-        <v>416.87</v>
+        <v>422.76</v>
       </c>
     </row>
     <row r="2927" spans="1:5" x14ac:dyDescent="0.2">
@@ -61867,7 +61867,7 @@
         <v>21</v>
       </c>
       <c r="E2927" s="3">
-        <v>555.83000000000004</v>
+        <v>563.69000000000005</v>
       </c>
     </row>
     <row r="2928" spans="1:5" x14ac:dyDescent="0.2">
@@ -61884,7 +61884,7 @@
         <v>21</v>
       </c>
       <c r="E2928" s="3">
-        <v>829.4</v>
+        <v>841.12</v>
       </c>
     </row>
     <row r="2929" spans="1:5" x14ac:dyDescent="0.2">
@@ -61901,7 +61901,7 @@
         <v>21</v>
       </c>
       <c r="E2929" s="3">
-        <v>229.09</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="2930" spans="1:5" x14ac:dyDescent="0.2">
@@ -61918,7 +61918,7 @@
         <v>21</v>
       </c>
       <c r="E2930" s="3">
-        <v>287.5</v>
+        <v>291.56</v>
       </c>
     </row>
     <row r="2931" spans="1:5" x14ac:dyDescent="0.2">
@@ -61935,7 +61935,7 @@
         <v>21</v>
       </c>
       <c r="E2931" s="3">
-        <v>327.93</v>
+        <v>332.56</v>
       </c>
     </row>
     <row r="2932" spans="1:5" x14ac:dyDescent="0.2">
@@ -61952,7 +61952,7 @@
         <v>21</v>
       </c>
       <c r="E2932" s="3">
-        <v>539.05999999999995</v>
+        <v>546.67999999999995</v>
       </c>
     </row>
     <row r="2933" spans="1:5" x14ac:dyDescent="0.2">
@@ -61969,7 +61969,7 @@
         <v>21</v>
       </c>
       <c r="E2933" s="3">
-        <v>88.05</v>
+        <v>89.29</v>
       </c>
     </row>
     <row r="2934" spans="1:5" x14ac:dyDescent="0.2">
@@ -61986,7 +61986,7 @@
         <v>21</v>
       </c>
       <c r="E2934" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2935" spans="1:5" x14ac:dyDescent="0.2">
@@ -62003,7 +62003,7 @@
         <v>21</v>
       </c>
       <c r="E2935" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2936" spans="1:5" x14ac:dyDescent="0.2">
@@ -62020,7 +62020,7 @@
         <v>21</v>
       </c>
       <c r="E2936" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2937" spans="1:5" x14ac:dyDescent="0.2">
@@ -62037,7 +62037,7 @@
         <v>21</v>
       </c>
       <c r="E2937" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2938" spans="1:5" x14ac:dyDescent="0.2">
@@ -62054,7 +62054,7 @@
         <v>21</v>
       </c>
       <c r="E2938" s="3">
-        <v>781.63</v>
+        <v>792.68</v>
       </c>
     </row>
     <row r="2939" spans="1:5" x14ac:dyDescent="0.2">
@@ -62071,7 +62071,7 @@
         <v>21</v>
       </c>
       <c r="E2939" s="3">
-        <v>1558.91</v>
+        <v>1580.96</v>
       </c>
     </row>
     <row r="2940" spans="1:5" x14ac:dyDescent="0.2">
@@ -62088,7 +62088,7 @@
         <v>21</v>
       </c>
       <c r="E2940" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2941" spans="1:5" x14ac:dyDescent="0.2">
@@ -62105,7 +62105,7 @@
         <v>21</v>
       </c>
       <c r="E2941" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2942" spans="1:5" x14ac:dyDescent="0.2">
@@ -62122,7 +62122,7 @@
         <v>21</v>
       </c>
       <c r="E2942" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2943" spans="1:5" x14ac:dyDescent="0.2">
@@ -62139,7 +62139,7 @@
         <v>21</v>
       </c>
       <c r="E2943" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2944" spans="1:5" x14ac:dyDescent="0.2">
@@ -62156,7 +62156,7 @@
         <v>21</v>
       </c>
       <c r="E2944" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2945" spans="1:5" x14ac:dyDescent="0.2">
@@ -62173,7 +62173,7 @@
         <v>21</v>
       </c>
       <c r="E2945" s="3">
-        <v>129.96</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="2946" spans="1:5" x14ac:dyDescent="0.2">
@@ -62190,7 +62190,7 @@
         <v>21</v>
       </c>
       <c r="E2946" s="3">
-        <v>88.05</v>
+        <v>89.29</v>
       </c>
     </row>
     <row r="2947" spans="1:5" x14ac:dyDescent="0.2">
@@ -62207,7 +62207,7 @@
         <v>21</v>
       </c>
       <c r="E2947" s="3">
-        <v>1111.6500000000001</v>
+        <v>1127.3699999999999</v>
       </c>
     </row>
     <row r="2948" spans="1:5" x14ac:dyDescent="0.2">
@@ -62224,7 +62224,7 @@
         <v>21</v>
       </c>
       <c r="E2948" s="3">
-        <v>269.23</v>
+        <v>273.04000000000002</v>
       </c>
     </row>
     <row r="2949" spans="1:5" x14ac:dyDescent="0.2">
@@ -62241,7 +62241,7 @@
         <v>21</v>
       </c>
       <c r="E2949" s="3">
-        <v>442.92</v>
+        <v>449.19</v>
       </c>
     </row>
     <row r="2950" spans="1:5" x14ac:dyDescent="0.2">
@@ -62258,7 +62258,7 @@
         <v>21</v>
       </c>
       <c r="E2950" s="3">
-        <v>2053.94</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="2951" spans="1:5" x14ac:dyDescent="0.2">
@@ -62275,7 +62275,7 @@
         <v>21</v>
       </c>
       <c r="E2951" s="3">
-        <v>1215.8699999999999</v>
+        <v>1233.06</v>
       </c>
     </row>
     <row r="2952" spans="1:5" x14ac:dyDescent="0.2">
@@ -62292,7 +62292,7 @@
         <v>21</v>
       </c>
       <c r="E2952" s="3">
-        <v>188.68</v>
+        <v>191.34</v>
       </c>
     </row>
     <row r="2953" spans="1:5" x14ac:dyDescent="0.2">
@@ -62309,7 +62309,7 @@
         <v>21</v>
       </c>
       <c r="E2953" s="3">
-        <v>188.68</v>
+        <v>191.34</v>
       </c>
     </row>
     <row r="2954" spans="1:5" x14ac:dyDescent="0.2">
@@ -62870,7 +62870,7 @@
         <v>21</v>
       </c>
       <c r="E2986" s="3">
-        <v>0</v>
+        <v>1318.63</v>
       </c>
     </row>
     <row r="2987" spans="1:5" x14ac:dyDescent="0.2">
@@ -64774,7 +64774,7 @@
         <v>21</v>
       </c>
       <c r="E3098" s="3">
-        <v>4388.07</v>
+        <v>4826.88</v>
       </c>
     </row>
     <row r="3099" spans="1:5" x14ac:dyDescent="0.2">
@@ -64791,7 +64791,7 @@
         <v>21</v>
       </c>
       <c r="E3099" s="3">
-        <v>5034.82</v>
+        <v>5538.31</v>
       </c>
     </row>
     <row r="3100" spans="1:5" x14ac:dyDescent="0.2">
@@ -64808,7 +64808,7 @@
         <v>21</v>
       </c>
       <c r="E3100" s="3">
-        <v>4388.07</v>
+        <v>4826.88</v>
       </c>
     </row>
     <row r="3101" spans="1:5" x14ac:dyDescent="0.2">
@@ -64825,7 +64825,7 @@
         <v>21</v>
       </c>
       <c r="E3101" s="3">
-        <v>5034.82</v>
+        <v>5538.31</v>
       </c>
     </row>
     <row r="3102" spans="1:5" x14ac:dyDescent="0.2">
@@ -64842,7 +64842,7 @@
         <v>21</v>
       </c>
       <c r="E3102" s="3">
-        <v>4388.07</v>
+        <v>4826.88</v>
       </c>
     </row>
     <row r="3103" spans="1:5" x14ac:dyDescent="0.2">
@@ -64859,7 +64859,7 @@
         <v>21</v>
       </c>
       <c r="E3103" s="3">
-        <v>5034.82</v>
+        <v>5538.31</v>
       </c>
     </row>
     <row r="3104" spans="1:5" x14ac:dyDescent="0.2">
@@ -64876,7 +64876,7 @@
         <v>21</v>
       </c>
       <c r="E3104" s="3">
-        <v>534.86</v>
+        <v>599.05999999999995</v>
       </c>
     </row>
     <row r="3105" spans="1:5" x14ac:dyDescent="0.2">
@@ -64893,7 +64893,7 @@
         <v>21</v>
       </c>
       <c r="E3105" s="3">
-        <v>583.6</v>
+        <v>653.64</v>
       </c>
     </row>
     <row r="3106" spans="1:5" x14ac:dyDescent="0.2">
@@ -64910,7 +64910,7 @@
         <v>21</v>
       </c>
       <c r="E3106" s="3">
-        <v>640.41</v>
+        <v>717.26</v>
       </c>
     </row>
     <row r="3107" spans="1:5" x14ac:dyDescent="0.2">
@@ -64927,7 +64927,7 @@
         <v>21</v>
       </c>
       <c r="E3107" s="3">
-        <v>660.43</v>
+        <v>739.68</v>
       </c>
     </row>
     <row r="3108" spans="1:5" x14ac:dyDescent="0.2">
@@ -64944,7 +64944,7 @@
         <v>21</v>
       </c>
       <c r="E3108" s="3">
-        <v>714.34</v>
+        <v>800.07</v>
       </c>
     </row>
     <row r="3109" spans="1:5" x14ac:dyDescent="0.2">
@@ -64961,7 +64961,7 @@
         <v>21</v>
       </c>
       <c r="E3109" s="3">
-        <v>764.58</v>
+        <v>856.32</v>
       </c>
     </row>
     <row r="3110" spans="1:5" x14ac:dyDescent="0.2">
@@ -64978,7 +64978,7 @@
         <v>21</v>
       </c>
       <c r="E3110" s="3">
-        <v>685.62</v>
+        <v>767.91</v>
       </c>
     </row>
     <row r="3111" spans="1:5" x14ac:dyDescent="0.2">
@@ -64995,7 +64995,7 @@
         <v>21</v>
       </c>
       <c r="E3111" s="3">
-        <v>721.38</v>
+        <v>807.93</v>
       </c>
     </row>
     <row r="3112" spans="1:5" x14ac:dyDescent="0.2">
@@ -65012,7 +65012,7 @@
         <v>21</v>
       </c>
       <c r="E3112" s="3">
-        <v>815</v>
+        <v>912.8</v>
       </c>
     </row>
     <row r="3113" spans="1:5" x14ac:dyDescent="0.2">
@@ -65029,7 +65029,7 @@
         <v>21</v>
       </c>
       <c r="E3113" s="3">
-        <v>2417.9499999999998</v>
+        <v>2659.73</v>
       </c>
     </row>
     <row r="3114" spans="1:5" x14ac:dyDescent="0.2">
@@ -65046,7 +65046,7 @@
         <v>21</v>
       </c>
       <c r="E3114" s="3">
-        <v>268.7</v>
+        <v>295.56</v>
       </c>
     </row>
     <row r="3115" spans="1:5" x14ac:dyDescent="0.2">
@@ -65063,7 +65063,7 @@
         <v>21</v>
       </c>
       <c r="E3115" s="3">
-        <v>268.7</v>
+        <v>295.56</v>
       </c>
     </row>
     <row r="3116" spans="1:5" x14ac:dyDescent="0.2">
@@ -65080,7 +65080,7 @@
         <v>21</v>
       </c>
       <c r="E3116" s="3">
-        <v>387.2</v>
+        <v>425.92</v>
       </c>
     </row>
     <row r="3117" spans="1:5" x14ac:dyDescent="0.2">
@@ -65097,7 +65097,7 @@
         <v>21</v>
       </c>
       <c r="E3117" s="3">
-        <v>387.2</v>
+        <v>425.92</v>
       </c>
     </row>
     <row r="3118" spans="1:5" x14ac:dyDescent="0.2">
@@ -65114,7 +65114,7 @@
         <v>21</v>
       </c>
       <c r="E3118" s="3">
-        <v>477.36</v>
+        <v>525.1</v>
       </c>
     </row>
     <row r="3119" spans="1:5" x14ac:dyDescent="0.2">
@@ -65131,7 +65131,7 @@
         <v>21</v>
       </c>
       <c r="E3119" s="3">
-        <v>477.36</v>
+        <v>525.1</v>
       </c>
     </row>
     <row r="3120" spans="1:5" x14ac:dyDescent="0.2">
@@ -65148,7 +65148,7 @@
         <v>21</v>
       </c>
       <c r="E3120" s="3">
-        <v>561.92999999999995</v>
+        <v>618.13</v>
       </c>
     </row>
     <row r="3121" spans="1:5" x14ac:dyDescent="0.2">
@@ -65165,7 +65165,7 @@
         <v>21</v>
       </c>
       <c r="E3121" s="3">
-        <v>561.92999999999995</v>
+        <v>618.13</v>
       </c>
     </row>
     <row r="3122" spans="1:5" x14ac:dyDescent="0.2">
@@ -65182,7 +65182,7 @@
         <v>21</v>
       </c>
       <c r="E3122" s="3">
-        <v>609.02</v>
+        <v>669.92</v>
       </c>
     </row>
     <row r="3123" spans="1:5" x14ac:dyDescent="0.2">
@@ -65199,7 +65199,7 @@
         <v>21</v>
       </c>
       <c r="E3123" s="3">
-        <v>609.02</v>
+        <v>669.92</v>
       </c>
     </row>
     <row r="3124" spans="1:5" x14ac:dyDescent="0.2">
@@ -65216,7 +65216,7 @@
         <v>21</v>
       </c>
       <c r="E3124" s="3">
-        <v>329.51</v>
+        <v>365.74</v>
       </c>
     </row>
     <row r="3125" spans="1:5" x14ac:dyDescent="0.2">
@@ -65233,7 +65233,7 @@
         <v>21</v>
       </c>
       <c r="E3125" s="3">
-        <v>329.51</v>
+        <v>365.74</v>
       </c>
     </row>
     <row r="3126" spans="1:5" x14ac:dyDescent="0.2">
@@ -65250,7 +65250,7 @@
         <v>21</v>
       </c>
       <c r="E3126" s="3">
-        <v>483.68</v>
+        <v>536.89</v>
       </c>
     </row>
     <row r="3127" spans="1:5" x14ac:dyDescent="0.2">
@@ -65267,7 +65267,7 @@
         <v>21</v>
       </c>
       <c r="E3127" s="3">
-        <v>483.68</v>
+        <v>536.89</v>
       </c>
     </row>
     <row r="3128" spans="1:5" x14ac:dyDescent="0.2">
@@ -65284,7 +65284,7 @@
         <v>21</v>
       </c>
       <c r="E3128" s="3">
-        <v>673.68</v>
+        <v>747.79</v>
       </c>
     </row>
     <row r="3129" spans="1:5" x14ac:dyDescent="0.2">
@@ -65301,7 +65301,7 @@
         <v>21</v>
       </c>
       <c r="E3129" s="3">
-        <v>673.68</v>
+        <v>747.79</v>
       </c>
     </row>
     <row r="3130" spans="1:5" x14ac:dyDescent="0.2">
@@ -65318,7 +65318,7 @@
         <v>21</v>
       </c>
       <c r="E3130" s="3">
-        <v>922.39</v>
+        <v>1023.86</v>
       </c>
     </row>
     <row r="3131" spans="1:5" x14ac:dyDescent="0.2">
@@ -65335,7 +65335,7 @@
         <v>21</v>
       </c>
       <c r="E3131" s="3">
-        <v>922.39</v>
+        <v>1023.86</v>
       </c>
     </row>
     <row r="3132" spans="1:5" x14ac:dyDescent="0.2">
@@ -65352,7 +65352,7 @@
         <v>21</v>
       </c>
       <c r="E3132" s="3">
-        <v>320.32</v>
+        <v>358.76</v>
       </c>
     </row>
     <row r="3133" spans="1:5" x14ac:dyDescent="0.2">
@@ -65369,7 +65369,7 @@
         <v>21</v>
       </c>
       <c r="E3133" s="3">
-        <v>402.94</v>
+        <v>451.27</v>
       </c>
     </row>
     <row r="3134" spans="1:5" x14ac:dyDescent="0.2">
@@ -65386,7 +65386,7 @@
         <v>21</v>
       </c>
       <c r="E3134" s="3">
-        <v>500.94</v>
+        <v>561.04999999999995</v>
       </c>
     </row>
     <row r="3135" spans="1:5" x14ac:dyDescent="0.2">
@@ -65403,7 +65403,7 @@
         <v>21</v>
       </c>
       <c r="E3135" s="3">
-        <v>688.2</v>
+        <v>770.79</v>
       </c>
     </row>
     <row r="3136" spans="1:5" x14ac:dyDescent="0.2">
@@ -65420,7 +65420,7 @@
         <v>21</v>
       </c>
       <c r="E3136" s="3">
-        <v>848.06</v>
+        <v>949.82</v>
       </c>
     </row>
     <row r="3137" spans="1:5" x14ac:dyDescent="0.2">
@@ -65437,7 +65437,7 @@
         <v>21</v>
       </c>
       <c r="E3137" s="3">
-        <v>1201.55</v>
+        <v>1345.74</v>
       </c>
     </row>
     <row r="3138" spans="1:5" x14ac:dyDescent="0.2">
@@ -65454,7 +65454,7 @@
         <v>21</v>
       </c>
       <c r="E3138" s="3">
-        <v>1522.87</v>
+        <v>1705.6</v>
       </c>
     </row>
     <row r="3139" spans="1:5" x14ac:dyDescent="0.2">
@@ -65471,7 +65471,7 @@
         <v>21</v>
       </c>
       <c r="E3139" s="3">
-        <v>2385.84</v>
+        <v>2672.14</v>
       </c>
     </row>
     <row r="3140" spans="1:5" x14ac:dyDescent="0.2">
@@ -65488,7 +65488,7 @@
         <v>21</v>
       </c>
       <c r="E3140" s="3">
-        <v>2777.15</v>
+        <v>3110.41</v>
       </c>
     </row>
     <row r="3141" spans="1:5" x14ac:dyDescent="0.2">
@@ -65505,7 +65505,7 @@
         <v>21</v>
       </c>
       <c r="E3141" s="3">
-        <v>278.58</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3142" spans="1:5" x14ac:dyDescent="0.2">
@@ -65522,7 +65522,7 @@
         <v>21</v>
       </c>
       <c r="E3142" s="3">
-        <v>453.5</v>
+        <v>507.91</v>
       </c>
     </row>
     <row r="3143" spans="1:5" x14ac:dyDescent="0.2">
@@ -65539,7 +65539,7 @@
         <v>21</v>
       </c>
       <c r="E3143" s="3">
-        <v>730.01</v>
+        <v>817.61</v>
       </c>
     </row>
     <row r="3144" spans="1:5" x14ac:dyDescent="0.2">
@@ -65556,7 +65556,7 @@
         <v>21</v>
       </c>
       <c r="E3144" s="3">
-        <v>959.33</v>
+        <v>1074.44</v>
       </c>
     </row>
     <row r="3145" spans="1:5" x14ac:dyDescent="0.2">
@@ -65573,7 +65573,7 @@
         <v>21</v>
       </c>
       <c r="E3145" s="3">
-        <v>1501.61</v>
+        <v>1681.79</v>
       </c>
     </row>
     <row r="3146" spans="1:5" x14ac:dyDescent="0.2">
@@ -65590,7 +65590,7 @@
         <v>21</v>
       </c>
       <c r="E3146" s="3">
-        <v>1912.83</v>
+        <v>2142.37</v>
       </c>
     </row>
     <row r="3147" spans="1:5" x14ac:dyDescent="0.2">
@@ -65607,7 +65607,7 @@
         <v>21</v>
       </c>
       <c r="E3147" s="3">
-        <v>2196.25</v>
+        <v>2459.79</v>
       </c>
     </row>
     <row r="3148" spans="1:5" x14ac:dyDescent="0.2">
@@ -65624,7 +65624,7 @@
         <v>21</v>
       </c>
       <c r="E3148" s="3">
-        <v>3401.12</v>
+        <v>3809.25</v>
       </c>
     </row>
     <row r="3149" spans="1:5" x14ac:dyDescent="0.2">
@@ -65641,7 +65641,7 @@
         <v>21</v>
       </c>
       <c r="E3149" s="3">
-        <v>4017.07</v>
+        <v>4499.12</v>
       </c>
     </row>
     <row r="3150" spans="1:5" x14ac:dyDescent="0.2">
@@ -65658,7 +65658,7 @@
         <v>21</v>
       </c>
       <c r="E3150" s="3">
-        <v>1753.94</v>
+        <v>1946.86</v>
       </c>
     </row>
     <row r="3151" spans="1:5" x14ac:dyDescent="0.2">
@@ -65675,7 +65675,7 @@
         <v>21</v>
       </c>
       <c r="E3151" s="3">
-        <v>2789.09</v>
+        <v>3095.89</v>
       </c>
     </row>
     <row r="3152" spans="1:5" x14ac:dyDescent="0.2">
@@ -65692,7 +65692,7 @@
         <v>21</v>
       </c>
       <c r="E3152" s="3">
-        <v>2300.73</v>
+        <v>2553.8200000000002</v>
       </c>
     </row>
     <row r="3153" spans="1:5" x14ac:dyDescent="0.2">
@@ -65709,7 +65709,7 @@
         <v>21</v>
       </c>
       <c r="E3153" s="3">
-        <v>1955.76</v>
+        <v>2190.44</v>
       </c>
     </row>
     <row r="3154" spans="1:5" x14ac:dyDescent="0.2">
@@ -65726,7 +65726,7 @@
         <v>21</v>
       </c>
       <c r="E3154" s="3">
-        <v>2821.78</v>
+        <v>3160.38</v>
       </c>
     </row>
     <row r="3155" spans="1:5" x14ac:dyDescent="0.2">
@@ -65743,7 +65743,7 @@
         <v>21</v>
       </c>
       <c r="E3155" s="3">
-        <v>952.78</v>
+        <v>1067.1400000000001</v>
       </c>
     </row>
     <row r="3156" spans="1:5" x14ac:dyDescent="0.2">
@@ -65760,7 +65760,7 @@
         <v>21</v>
       </c>
       <c r="E3156" s="3">
-        <v>430.92</v>
+        <v>482.63</v>
       </c>
     </row>
     <row r="3157" spans="1:5" x14ac:dyDescent="0.2">
@@ -65777,7 +65777,7 @@
         <v>21</v>
       </c>
       <c r="E3157" s="3">
-        <v>483.96</v>
+        <v>542.04</v>
       </c>
     </row>
     <row r="3158" spans="1:5" x14ac:dyDescent="0.2">
@@ -65794,7 +65794,7 @@
         <v>21</v>
       </c>
       <c r="E3158" s="3">
-        <v>401.69</v>
+        <v>449.89</v>
       </c>
     </row>
     <row r="3159" spans="1:5" x14ac:dyDescent="0.2">
@@ -65811,7 +65811,7 @@
         <v>21</v>
       </c>
       <c r="E3159" s="3">
-        <v>412.04</v>
+        <v>461.5</v>
       </c>
     </row>
     <row r="3160" spans="1:5" x14ac:dyDescent="0.2">
@@ -65828,7 +65828,7 @@
         <v>21</v>
       </c>
       <c r="E3160" s="3">
-        <v>785.42</v>
+        <v>879.69</v>
       </c>
     </row>
     <row r="3161" spans="1:5" x14ac:dyDescent="0.2">
@@ -65845,7 +65845,7 @@
         <v>21</v>
       </c>
       <c r="E3161" s="3">
-        <v>1325.84</v>
+        <v>1484.92</v>
       </c>
     </row>
     <row r="3162" spans="1:5" x14ac:dyDescent="0.2">
@@ -65862,7 +65862,7 @@
         <v>21</v>
       </c>
       <c r="E3162" s="3">
-        <v>783.02</v>
+        <v>876.97</v>
       </c>
     </row>
     <row r="3163" spans="1:5" x14ac:dyDescent="0.2">
@@ -65879,7 +65879,7 @@
         <v>21</v>
       </c>
       <c r="E3163" s="3">
-        <v>1277.98</v>
+        <v>1431.34</v>
       </c>
     </row>
     <row r="3164" spans="1:5" x14ac:dyDescent="0.2">
@@ -65896,7 +65896,7 @@
         <v>21</v>
       </c>
       <c r="E3164" s="3">
-        <v>1853.59</v>
+        <v>2076.0100000000002</v>
       </c>
     </row>
     <row r="3165" spans="1:5" x14ac:dyDescent="0.2">
@@ -65913,7 +65913,7 @@
         <v>21</v>
       </c>
       <c r="E3165" s="3">
-        <v>1116.8800000000001</v>
+        <v>1250.9100000000001</v>
       </c>
     </row>
     <row r="3166" spans="1:5" x14ac:dyDescent="0.2">
@@ -65930,7 +65930,7 @@
         <v>21</v>
       </c>
       <c r="E3166" s="3">
-        <v>1673.34</v>
+        <v>1874.12</v>
       </c>
     </row>
     <row r="3167" spans="1:5" x14ac:dyDescent="0.2">
@@ -65947,7 +65947,7 @@
         <v>21</v>
       </c>
       <c r="E3167" s="3">
-        <v>2359.35</v>
+        <v>2642.47</v>
       </c>
     </row>
     <row r="3168" spans="1:5" x14ac:dyDescent="0.2">
@@ -65964,7 +65964,7 @@
         <v>21</v>
       </c>
       <c r="E3168" s="3">
-        <v>432.99</v>
+        <v>484.94</v>
       </c>
     </row>
     <row r="3169" spans="1:5" x14ac:dyDescent="0.2">
@@ -65981,7 +65981,7 @@
         <v>21</v>
       </c>
       <c r="E3169" s="3">
-        <v>765.65</v>
+        <v>857.53</v>
       </c>
     </row>
     <row r="3170" spans="1:5" x14ac:dyDescent="0.2">
@@ -65998,7 +65998,7 @@
         <v>21</v>
       </c>
       <c r="E3170" s="3">
-        <v>1325.67</v>
+        <v>1484.75</v>
       </c>
     </row>
     <row r="3171" spans="1:5" x14ac:dyDescent="0.2">
@@ -66015,7 +66015,7 @@
         <v>21</v>
       </c>
       <c r="E3171" s="3">
-        <v>302.52999999999997</v>
+        <v>347.9</v>
       </c>
     </row>
     <row r="3172" spans="1:5" x14ac:dyDescent="0.2">
@@ -66032,7 +66032,7 @@
         <v>21</v>
       </c>
       <c r="E3172" s="3">
-        <v>335.44</v>
+        <v>385.76</v>
       </c>
     </row>
     <row r="3173" spans="1:5" x14ac:dyDescent="0.2">
@@ -66049,7 +66049,7 @@
         <v>21</v>
       </c>
       <c r="E3173" s="3">
-        <v>356.02</v>
+        <v>409.45</v>
       </c>
     </row>
     <row r="3174" spans="1:5" x14ac:dyDescent="0.2">
@@ -66066,7 +66066,7 @@
         <v>21</v>
       </c>
       <c r="E3174" s="3">
-        <v>339.78</v>
+        <v>390.73</v>
       </c>
     </row>
     <row r="3175" spans="1:5" x14ac:dyDescent="0.2">
@@ -66083,7 +66083,7 @@
         <v>21</v>
       </c>
       <c r="E3175" s="3">
-        <v>364.25</v>
+        <v>418.89</v>
       </c>
     </row>
     <row r="3176" spans="1:5" x14ac:dyDescent="0.2">
@@ -66100,7 +66100,7 @@
         <v>21</v>
       </c>
       <c r="E3176" s="3">
-        <v>387.64</v>
+        <v>445.78</v>
       </c>
     </row>
     <row r="3177" spans="1:5" x14ac:dyDescent="0.2">
@@ -66117,7 +66117,7 @@
         <v>21</v>
       </c>
       <c r="E3177" s="3">
-        <v>429.01</v>
+        <v>493.37</v>
       </c>
     </row>
     <row r="3178" spans="1:5" x14ac:dyDescent="0.2">
@@ -66134,7 +66134,7 @@
         <v>21</v>
       </c>
       <c r="E3178" s="3">
-        <v>447.34</v>
+        <v>514.45000000000005</v>
       </c>
     </row>
     <row r="3179" spans="1:5" x14ac:dyDescent="0.2">
@@ -66151,7 +66151,7 @@
         <v>21</v>
       </c>
       <c r="E3179" s="3">
-        <v>468.54</v>
+        <v>538.82000000000005</v>
       </c>
     </row>
     <row r="3180" spans="1:5" x14ac:dyDescent="0.2">
@@ -66168,7 +66168,7 @@
         <v>21</v>
       </c>
       <c r="E3180" s="3">
-        <v>3134.78</v>
+        <v>3510.95</v>
       </c>
     </row>
     <row r="3181" spans="1:5" x14ac:dyDescent="0.2">
@@ -66185,7 +66185,7 @@
         <v>21</v>
       </c>
       <c r="E3181" s="3">
-        <v>2627.43</v>
+        <v>2942.74</v>
       </c>
     </row>
     <row r="3182" spans="1:5" x14ac:dyDescent="0.2">
@@ -66202,7 +66202,7 @@
         <v>21</v>
       </c>
       <c r="E3182" s="3">
-        <v>4600.93</v>
+        <v>5153.05</v>
       </c>
     </row>
     <row r="3183" spans="1:5" x14ac:dyDescent="0.2">
@@ -66219,7 +66219,7 @@
         <v>21</v>
       </c>
       <c r="E3183" s="3">
-        <v>885.83</v>
+        <v>992.13</v>
       </c>
     </row>
     <row r="3184" spans="1:5" x14ac:dyDescent="0.2">
@@ -66236,7 +66236,7 @@
         <v>21</v>
       </c>
       <c r="E3184" s="3">
-        <v>1256.68</v>
+        <v>1407.49</v>
       </c>
     </row>
     <row r="3185" spans="1:5" x14ac:dyDescent="0.2">
@@ -66253,7 +66253,7 @@
         <v>21</v>
       </c>
       <c r="E3185" s="3">
-        <v>1608.16</v>
+        <v>1801.12</v>
       </c>
     </row>
     <row r="3186" spans="1:5" x14ac:dyDescent="0.2">
@@ -66270,7 +66270,7 @@
         <v>21</v>
       </c>
       <c r="E3186" s="3">
-        <v>33896.01</v>
+        <v>37285.599999999999</v>
       </c>
     </row>
     <row r="3187" spans="1:5" x14ac:dyDescent="0.2">
@@ -66287,7 +66287,7 @@
         <v>21</v>
       </c>
       <c r="E3187" s="3">
-        <v>290</v>
+        <v>324.79000000000002</v>
       </c>
     </row>
     <row r="3188" spans="1:5" x14ac:dyDescent="0.2">
@@ -66304,7 +66304,7 @@
         <v>21</v>
       </c>
       <c r="E3188" s="3">
-        <v>453.98</v>
+        <v>508.47</v>
       </c>
     </row>
     <row r="3189" spans="1:5" x14ac:dyDescent="0.2">
@@ -66321,7 +66321,7 @@
         <v>21</v>
       </c>
       <c r="E3189" s="3">
-        <v>750.61</v>
+        <v>840.69</v>
       </c>
     </row>
     <row r="3190" spans="1:5" x14ac:dyDescent="0.2">
@@ -66338,7 +66338,7 @@
         <v>21</v>
       </c>
       <c r="E3190" s="3">
-        <v>908.45</v>
+        <v>1017.47</v>
       </c>
     </row>
     <row r="3191" spans="1:5" x14ac:dyDescent="0.2">
@@ -66355,7 +66355,7 @@
         <v>21</v>
       </c>
       <c r="E3191" s="3">
-        <v>1399.63</v>
+        <v>1567.59</v>
       </c>
     </row>
     <row r="3192" spans="1:5" x14ac:dyDescent="0.2">
@@ -66372,7 +66372,7 @@
         <v>21</v>
       </c>
       <c r="E3192" s="3">
-        <v>1869.63</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="3193" spans="1:5" x14ac:dyDescent="0.2">
@@ -66389,7 +66389,7 @@
         <v>21</v>
       </c>
       <c r="E3193" s="3">
-        <v>2106.2600000000002</v>
+        <v>2359.0300000000002</v>
       </c>
     </row>
     <row r="3194" spans="1:5" x14ac:dyDescent="0.2">
@@ -66406,7 +66406,7 @@
         <v>21</v>
       </c>
       <c r="E3194" s="3">
-        <v>3297.51</v>
+        <v>3693.22</v>
       </c>
     </row>
     <row r="3195" spans="1:5" x14ac:dyDescent="0.2">
@@ -66423,7 +66423,7 @@
         <v>21</v>
       </c>
       <c r="E3195" s="3">
-        <v>3984.07</v>
+        <v>4462.1499999999996</v>
       </c>
     </row>
     <row r="3196" spans="1:5" x14ac:dyDescent="0.2">
@@ -66440,7 +66440,7 @@
         <v>21</v>
       </c>
       <c r="E3196" s="3">
-        <v>349.3</v>
+        <v>384.24</v>
       </c>
     </row>
     <row r="3197" spans="1:5" x14ac:dyDescent="0.2">
@@ -66457,7 +66457,7 @@
         <v>21</v>
       </c>
       <c r="E3197" s="3">
-        <v>349.3</v>
+        <v>384.24</v>
       </c>
     </row>
     <row r="3198" spans="1:5" x14ac:dyDescent="0.2">
@@ -66474,7 +66474,7 @@
         <v>21</v>
       </c>
       <c r="E3198" s="3">
-        <v>512.82000000000005</v>
+        <v>564.11</v>
       </c>
     </row>
     <row r="3199" spans="1:5" x14ac:dyDescent="0.2">
@@ -66491,7 +66491,7 @@
         <v>21</v>
       </c>
       <c r="E3199" s="3">
-        <v>512.82000000000005</v>
+        <v>564.11</v>
       </c>
     </row>
     <row r="3200" spans="1:5" x14ac:dyDescent="0.2">
@@ -66508,7 +66508,7 @@
         <v>21</v>
       </c>
       <c r="E3200" s="3">
-        <v>722.64</v>
+        <v>794.91</v>
       </c>
     </row>
     <row r="3201" spans="1:5" x14ac:dyDescent="0.2">
@@ -66525,7 +66525,7 @@
         <v>21</v>
       </c>
       <c r="E3201" s="3">
-        <v>720.4</v>
+        <v>794.91</v>
       </c>
     </row>
     <row r="3202" spans="1:5" x14ac:dyDescent="0.2">
@@ -66542,7 +66542,7 @@
         <v>21</v>
       </c>
       <c r="E3202" s="3">
-        <v>3631.15</v>
+        <v>3994.26</v>
       </c>
     </row>
     <row r="3203" spans="1:5" x14ac:dyDescent="0.2">
@@ -66559,7 +66559,7 @@
         <v>21</v>
       </c>
       <c r="E3203" s="3">
-        <v>4392.2299999999996</v>
+        <v>4831.47</v>
       </c>
     </row>
     <row r="3204" spans="1:5" x14ac:dyDescent="0.2">
@@ -66576,7 +66576,7 @@
         <v>21</v>
       </c>
       <c r="E3204" s="3">
-        <v>250.21</v>
+        <v>280.23</v>
       </c>
     </row>
     <row r="3205" spans="1:5" x14ac:dyDescent="0.2">
@@ -66593,7 +66593,7 @@
         <v>21</v>
       </c>
       <c r="E3205" s="3">
-        <v>411.03</v>
+        <v>460.35</v>
       </c>
     </row>
     <row r="3206" spans="1:5" x14ac:dyDescent="0.2">
@@ -66610,7 +66610,7 @@
         <v>21</v>
       </c>
       <c r="E3206" s="3">
-        <v>297.55</v>
+        <v>333.25</v>
       </c>
     </row>
     <row r="3207" spans="1:5" x14ac:dyDescent="0.2">
@@ -66627,7 +66627,7 @@
         <v>21</v>
       </c>
       <c r="E3207" s="3">
-        <v>426.54</v>
+        <v>477.72</v>
       </c>
     </row>
     <row r="3208" spans="1:5" x14ac:dyDescent="0.2">
@@ -66644,7 +66644,7 @@
         <v>21</v>
       </c>
       <c r="E3208" s="3">
-        <v>297.55</v>
+        <v>333.25</v>
       </c>
     </row>
     <row r="3209" spans="1:5" x14ac:dyDescent="0.2">
@@ -66661,7 +66661,7 @@
         <v>21</v>
       </c>
       <c r="E3209" s="3">
-        <v>426.54</v>
+        <v>477.72</v>
       </c>
     </row>
     <row r="3210" spans="1:5" x14ac:dyDescent="0.2">
@@ -66678,7 +66678,7 @@
         <v>21</v>
       </c>
       <c r="E3210" s="3">
-        <v>177.59</v>
+        <v>186.47</v>
       </c>
     </row>
     <row r="3211" spans="1:5" x14ac:dyDescent="0.2">
@@ -66695,7 +66695,7 @@
         <v>21</v>
       </c>
       <c r="E3211" s="3">
-        <v>229.31</v>
+        <v>240.79</v>
       </c>
     </row>
     <row r="3212" spans="1:5" x14ac:dyDescent="0.2">
@@ -66712,7 +66712,7 @@
         <v>21</v>
       </c>
       <c r="E3212" s="3">
-        <v>296.3</v>
+        <v>311.11</v>
       </c>
     </row>
     <row r="3213" spans="1:5" x14ac:dyDescent="0.2">
@@ -66729,7 +66729,7 @@
         <v>21</v>
       </c>
       <c r="E3213" s="3">
-        <v>435.31</v>
+        <v>457.06</v>
       </c>
     </row>
     <row r="3214" spans="1:5" x14ac:dyDescent="0.2">
@@ -66746,7 +66746,7 @@
         <v>21</v>
       </c>
       <c r="E3214" s="3">
-        <v>177.59</v>
+        <v>186.47</v>
       </c>
     </row>
     <row r="3215" spans="1:5" x14ac:dyDescent="0.2">
@@ -66763,7 +66763,7 @@
         <v>21</v>
       </c>
       <c r="E3215" s="3">
-        <v>229.31</v>
+        <v>240.79</v>
       </c>
     </row>
     <row r="3216" spans="1:5" x14ac:dyDescent="0.2">
@@ -66780,7 +66780,7 @@
         <v>21</v>
       </c>
       <c r="E3216" s="3">
-        <v>296.3</v>
+        <v>311.11</v>
       </c>
     </row>
     <row r="3217" spans="1:5" x14ac:dyDescent="0.2">
@@ -66797,7 +66797,7 @@
         <v>21</v>
       </c>
       <c r="E3217" s="3">
-        <v>435.31</v>
+        <v>457.06</v>
       </c>
     </row>
     <row r="3218" spans="1:5" x14ac:dyDescent="0.2">
@@ -66814,7 +66814,7 @@
         <v>21</v>
       </c>
       <c r="E3218" s="3">
-        <v>1234.8499999999999</v>
+        <v>1383.04</v>
       </c>
     </row>
     <row r="3219" spans="1:5" x14ac:dyDescent="0.2">
@@ -66831,7 +66831,7 @@
         <v>21</v>
       </c>
       <c r="E3219" s="3">
-        <v>1234.8499999999999</v>
+        <v>1383.04</v>
       </c>
     </row>
     <row r="3220" spans="1:5" x14ac:dyDescent="0.2">
@@ -66848,7 +66848,7 @@
         <v>21</v>
       </c>
       <c r="E3220" s="3">
-        <v>1852.42</v>
+        <v>2074.71</v>
       </c>
     </row>
     <row r="3221" spans="1:5" x14ac:dyDescent="0.2">
@@ -66865,7 +66865,7 @@
         <v>21</v>
       </c>
       <c r="E3221" s="3">
-        <v>1852.42</v>
+        <v>2074.71</v>
       </c>
     </row>
     <row r="3222" spans="1:5" x14ac:dyDescent="0.2">
@@ -66882,7 +66882,7 @@
         <v>21</v>
       </c>
       <c r="E3222" s="3">
-        <v>2448.7600000000002</v>
+        <v>2742.6</v>
       </c>
     </row>
     <row r="3223" spans="1:5" x14ac:dyDescent="0.2">
@@ -66899,7 +66899,7 @@
         <v>21</v>
       </c>
       <c r="E3223" s="3">
-        <v>2448.7600000000002</v>
+        <v>2742.6</v>
       </c>
     </row>
     <row r="3224" spans="1:5" x14ac:dyDescent="0.2">
@@ -66916,7 +66916,7 @@
         <v>21</v>
       </c>
       <c r="E3224" s="3">
-        <v>401.89</v>
+        <v>450.12</v>
       </c>
     </row>
     <row r="3225" spans="1:5" x14ac:dyDescent="0.2">
@@ -66933,7 +66933,7 @@
         <v>21</v>
       </c>
       <c r="E3225" s="3">
-        <v>401.89</v>
+        <v>450.12</v>
       </c>
     </row>
     <row r="3226" spans="1:5" x14ac:dyDescent="0.2">
@@ -66950,7 +66950,7 @@
         <v>21</v>
       </c>
       <c r="E3226" s="3">
-        <v>548.07000000000005</v>
+        <v>613.83000000000004</v>
       </c>
     </row>
     <row r="3227" spans="1:5" x14ac:dyDescent="0.2">
@@ -66967,7 +66967,7 @@
         <v>21</v>
       </c>
       <c r="E3227" s="3">
-        <v>548.07000000000005</v>
+        <v>613.83000000000004</v>
       </c>
     </row>
     <row r="3228" spans="1:5" x14ac:dyDescent="0.2">
@@ -66984,7 +66984,7 @@
         <v>21</v>
       </c>
       <c r="E3228" s="3">
-        <v>694.64</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3229" spans="1:5" x14ac:dyDescent="0.2">
@@ -67001,7 +67001,7 @@
         <v>21</v>
       </c>
       <c r="E3229" s="3">
-        <v>694.64</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3230" spans="1:5" x14ac:dyDescent="0.2">
@@ -67018,7 +67018,7 @@
         <v>21</v>
       </c>
       <c r="E3230" s="3">
-        <v>211.24</v>
+        <v>236.59</v>
       </c>
     </row>
     <row r="3231" spans="1:5" x14ac:dyDescent="0.2">
@@ -67035,7 +67035,7 @@
         <v>21</v>
       </c>
       <c r="E3231" s="3">
-        <v>396.04</v>
+        <v>443.57</v>
       </c>
     </row>
     <row r="3232" spans="1:5" x14ac:dyDescent="0.2">
@@ -67052,7 +67052,7 @@
         <v>21</v>
       </c>
       <c r="E3232" s="3">
-        <v>581.62</v>
+        <v>651.41</v>
       </c>
     </row>
     <row r="3233" spans="1:5" x14ac:dyDescent="0.2">
@@ -67069,7 +67069,7 @@
         <v>21</v>
       </c>
       <c r="E3233" s="3">
-        <v>896.46</v>
+        <v>1004.03</v>
       </c>
     </row>
     <row r="3234" spans="1:5" x14ac:dyDescent="0.2">
@@ -67086,7 +67086,7 @@
         <v>21</v>
       </c>
       <c r="E3234" s="3">
-        <v>227.33</v>
+        <v>254.61</v>
       </c>
     </row>
     <row r="3235" spans="1:5" x14ac:dyDescent="0.2">
@@ -67103,7 +67103,7 @@
         <v>21</v>
       </c>
       <c r="E3235" s="3">
-        <v>331.46</v>
+        <v>371.23</v>
       </c>
     </row>
     <row r="3236" spans="1:5" x14ac:dyDescent="0.2">
@@ -67120,7 +67120,7 @@
         <v>21</v>
       </c>
       <c r="E3236" s="3">
-        <v>424.71</v>
+        <v>475.68</v>
       </c>
     </row>
     <row r="3237" spans="1:5" x14ac:dyDescent="0.2">
@@ -67137,7 +67137,7 @@
         <v>21</v>
       </c>
       <c r="E3237" s="3">
-        <v>711.06</v>
+        <v>796.39</v>
       </c>
     </row>
     <row r="3238" spans="1:5" x14ac:dyDescent="0.2">
@@ -67154,7 +67154,7 @@
         <v>21</v>
       </c>
       <c r="E3238" s="3">
-        <v>224.93</v>
+        <v>251.91</v>
       </c>
     </row>
     <row r="3239" spans="1:5" x14ac:dyDescent="0.2">
@@ -67171,7 +67171,7 @@
         <v>21</v>
       </c>
       <c r="E3239" s="3">
-        <v>378.57</v>
+        <v>423.97</v>
       </c>
     </row>
     <row r="3240" spans="1:5" x14ac:dyDescent="0.2">
@@ -67188,7 +67188,7 @@
         <v>21</v>
       </c>
       <c r="E3240" s="3">
-        <v>593.64</v>
+        <v>664.89</v>
       </c>
     </row>
     <row r="3241" spans="1:5" x14ac:dyDescent="0.2">
@@ -67205,7 +67205,7 @@
         <v>21</v>
       </c>
       <c r="E3241" s="3">
-        <v>809.77</v>
+        <v>906.94</v>
       </c>
     </row>
     <row r="3242" spans="1:5" x14ac:dyDescent="0.2">
@@ -67222,7 +67222,7 @@
         <v>21</v>
       </c>
       <c r="E3242" s="3">
-        <v>533.28</v>
+        <v>597.27</v>
       </c>
     </row>
     <row r="3243" spans="1:5" x14ac:dyDescent="0.2">
@@ -67239,7 +67239,7 @@
         <v>21</v>
       </c>
       <c r="E3243" s="3">
-        <v>624.16</v>
+        <v>699.06</v>
       </c>
     </row>
     <row r="3244" spans="1:5" x14ac:dyDescent="0.2">
@@ -67256,7 +67256,7 @@
         <v>21</v>
       </c>
       <c r="E3244" s="3">
-        <v>722.49</v>
+        <v>809.16</v>
       </c>
     </row>
     <row r="3245" spans="1:5" x14ac:dyDescent="0.2">
@@ -67273,7 +67273,7 @@
         <v>21</v>
       </c>
       <c r="E3245" s="3">
-        <v>533.28</v>
+        <v>597.27</v>
       </c>
     </row>
     <row r="3246" spans="1:5" x14ac:dyDescent="0.2">
@@ -67290,7 +67290,7 @@
         <v>21</v>
       </c>
       <c r="E3246" s="3">
-        <v>624.16</v>
+        <v>699.06</v>
       </c>
     </row>
     <row r="3247" spans="1:5" x14ac:dyDescent="0.2">
@@ -67307,7 +67307,7 @@
         <v>21</v>
       </c>
       <c r="E3247" s="3">
-        <v>722.49</v>
+        <v>809.16</v>
       </c>
     </row>
     <row r="3248" spans="1:5" x14ac:dyDescent="0.2">
@@ -67324,7 +67324,7 @@
         <v>21</v>
       </c>
       <c r="E3248" s="3">
-        <v>144.15</v>
+        <v>161.44999999999999</v>
       </c>
     </row>
     <row r="3249" spans="1:5" x14ac:dyDescent="0.2">
@@ -67341,7 +67341,7 @@
         <v>21</v>
       </c>
       <c r="E3249" s="3">
-        <v>166.71</v>
+        <v>186.71</v>
       </c>
     </row>
     <row r="3250" spans="1:5" x14ac:dyDescent="0.2">
@@ -67358,7 +67358,7 @@
         <v>21</v>
       </c>
       <c r="E3250" s="3">
-        <v>220.17</v>
+        <v>246.59</v>
       </c>
     </row>
     <row r="3251" spans="1:5" x14ac:dyDescent="0.2">
@@ -67375,7 +67375,7 @@
         <v>21</v>
       </c>
       <c r="E3251" s="3">
-        <v>255.95</v>
+        <v>286.64999999999998</v>
       </c>
     </row>
     <row r="3252" spans="1:5" x14ac:dyDescent="0.2">
@@ -67392,7 +67392,7 @@
         <v>21</v>
       </c>
       <c r="E3252" s="3">
-        <v>311.56</v>
+        <v>348.95</v>
       </c>
     </row>
     <row r="3253" spans="1:5" x14ac:dyDescent="0.2">
@@ -67409,7 +67409,7 @@
         <v>21</v>
       </c>
       <c r="E3253" s="3">
-        <v>356.72</v>
+        <v>399.53</v>
       </c>
     </row>
     <row r="3254" spans="1:5" x14ac:dyDescent="0.2">
@@ -67426,7 +67426,7 @@
         <v>21</v>
       </c>
       <c r="E3254" s="3">
-        <v>399.25</v>
+        <v>447.19</v>
       </c>
     </row>
     <row r="3255" spans="1:5" x14ac:dyDescent="0.2">
@@ -67443,7 +67443,7 @@
         <v>21</v>
       </c>
       <c r="E3255" s="3">
-        <v>530.58000000000004</v>
+        <v>594.25</v>
       </c>
     </row>
     <row r="3256" spans="1:5" x14ac:dyDescent="0.2">
@@ -67460,7 +67460,7 @@
         <v>21</v>
       </c>
       <c r="E3256" s="3">
-        <v>563.55999999999995</v>
+        <v>631.17999999999995</v>
       </c>
     </row>
     <row r="3257" spans="1:5" x14ac:dyDescent="0.2">
@@ -67477,7 +67477,7 @@
         <v>21</v>
       </c>
       <c r="E3257" s="3">
-        <v>665.92</v>
+        <v>745.84</v>
       </c>
     </row>
     <row r="3258" spans="1:5" x14ac:dyDescent="0.2">
@@ -67494,7 +67494,7 @@
         <v>21</v>
       </c>
       <c r="E3258" s="3">
-        <v>536.09</v>
+        <v>589.70000000000005</v>
       </c>
     </row>
     <row r="3259" spans="1:5" x14ac:dyDescent="0.2">
@@ -67511,7 +67511,7 @@
         <v>21</v>
       </c>
       <c r="E3259" s="3">
-        <v>688.34</v>
+        <v>757.17</v>
       </c>
     </row>
     <row r="3260" spans="1:5" x14ac:dyDescent="0.2">
@@ -67528,7 +67528,7 @@
         <v>21</v>
       </c>
       <c r="E3260" s="3">
-        <v>688.34</v>
+        <v>757.17</v>
       </c>
     </row>
     <row r="3261" spans="1:5" x14ac:dyDescent="0.2">
@@ -67545,7 +67545,7 @@
         <v>21</v>
       </c>
       <c r="E3261" s="3">
-        <v>536.09</v>
+        <v>589.70000000000005</v>
       </c>
     </row>
     <row r="3262" spans="1:5" x14ac:dyDescent="0.2">
@@ -67562,7 +67562,7 @@
         <v>21</v>
       </c>
       <c r="E3262" s="3">
-        <v>832.25</v>
+        <v>915.46</v>
       </c>
     </row>
     <row r="3263" spans="1:5" x14ac:dyDescent="0.2">
@@ -67579,7 +67579,7 @@
         <v>21</v>
       </c>
       <c r="E3263" s="3">
-        <v>832.25</v>
+        <v>915.46</v>
       </c>
     </row>
     <row r="3264" spans="1:5" x14ac:dyDescent="0.2">
@@ -67596,7 +67596,7 @@
         <v>21</v>
       </c>
       <c r="E3264" s="3">
-        <v>785.74</v>
+        <v>864.3</v>
       </c>
     </row>
     <row r="3265" spans="1:5" x14ac:dyDescent="0.2">
@@ -67613,7 +67613,7 @@
         <v>21</v>
       </c>
       <c r="E3265" s="3">
-        <v>579.83000000000004</v>
+        <v>666.8</v>
       </c>
     </row>
     <row r="3266" spans="1:5" x14ac:dyDescent="0.2">
@@ -67630,7 +67630,7 @@
         <v>21</v>
       </c>
       <c r="E3266" s="3">
-        <v>576.95000000000005</v>
+        <v>663.48</v>
       </c>
     </row>
     <row r="3267" spans="1:5" x14ac:dyDescent="0.2">
@@ -67647,7 +67647,7 @@
         <v>21</v>
       </c>
       <c r="E3267" s="3">
-        <v>604.69000000000005</v>
+        <v>695.38</v>
       </c>
     </row>
     <row r="3268" spans="1:5" x14ac:dyDescent="0.2">
@@ -67664,7 +67664,7 @@
         <v>21</v>
       </c>
       <c r="E3268" s="3">
-        <v>4980.6400000000003</v>
+        <v>5478.72</v>
       </c>
     </row>
     <row r="3269" spans="1:5" x14ac:dyDescent="0.2">
@@ -67681,7 +67681,7 @@
         <v>21</v>
       </c>
       <c r="E3269" s="3">
-        <v>553.55999999999995</v>
+        <v>619.99</v>
       </c>
     </row>
     <row r="3270" spans="1:5" x14ac:dyDescent="0.2">
@@ -67698,7 +67698,7 @@
         <v>21</v>
       </c>
       <c r="E3270" s="3">
-        <v>633.78</v>
+        <v>709.82</v>
       </c>
     </row>
     <row r="3271" spans="1:5" x14ac:dyDescent="0.2">
@@ -67715,7 +67715,7 @@
         <v>21</v>
       </c>
       <c r="E3271" s="3">
-        <v>729.24</v>
+        <v>816.75</v>
       </c>
     </row>
     <row r="3272" spans="1:5" x14ac:dyDescent="0.2">
@@ -67732,7 +67732,7 @@
         <v>21</v>
       </c>
       <c r="E3272" s="3">
-        <v>553.66999999999996</v>
+        <v>620.09</v>
       </c>
     </row>
     <row r="3273" spans="1:5" x14ac:dyDescent="0.2">
@@ -67749,7 +67749,7 @@
         <v>21</v>
       </c>
       <c r="E3273" s="3">
-        <v>633.83000000000004</v>
+        <v>709.89</v>
       </c>
     </row>
     <row r="3274" spans="1:5" x14ac:dyDescent="0.2">
@@ -67766,7 +67766,7 @@
         <v>21</v>
       </c>
       <c r="E3274" s="3">
-        <v>729.24</v>
+        <v>816.75</v>
       </c>
     </row>
     <row r="3275" spans="1:5" x14ac:dyDescent="0.2">
@@ -67783,7 +67783,7 @@
         <v>21</v>
       </c>
       <c r="E3275" s="3">
-        <v>35.229999999999997</v>
+        <v>39.130000000000003</v>
       </c>
     </row>
     <row r="3276" spans="1:5" x14ac:dyDescent="0.2">
@@ -67800,7 +67800,7 @@
         <v>21</v>
       </c>
       <c r="E3276" s="3">
-        <v>39.46</v>
+        <v>43.79</v>
       </c>
     </row>
     <row r="3277" spans="1:5" x14ac:dyDescent="0.2">
@@ -67817,7 +67817,7 @@
         <v>21</v>
       </c>
       <c r="E3277" s="3">
-        <v>49.34</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="3278" spans="1:5" x14ac:dyDescent="0.2">
@@ -67834,7 +67834,7 @@
         <v>21</v>
       </c>
       <c r="E3278" s="3">
-        <v>52.32</v>
+        <v>58.07</v>
       </c>
     </row>
     <row r="3279" spans="1:5" x14ac:dyDescent="0.2">
@@ -67851,7 +67851,7 @@
         <v>21</v>
       </c>
       <c r="E3279" s="3">
-        <v>62.23</v>
+        <v>69.069999999999993</v>
       </c>
     </row>
     <row r="3280" spans="1:5" x14ac:dyDescent="0.2">
@@ -67868,7 +67868,7 @@
         <v>21</v>
       </c>
       <c r="E3280" s="3">
-        <v>77.569999999999993</v>
+        <v>86.09</v>
       </c>
     </row>
     <row r="3281" spans="1:5" x14ac:dyDescent="0.2">
@@ -67885,7 +67885,7 @@
         <v>21</v>
       </c>
       <c r="E3281" s="3">
-        <v>85.85</v>
+        <v>97.87</v>
       </c>
     </row>
     <row r="3282" spans="1:5" x14ac:dyDescent="0.2">
@@ -67902,7 +67902,7 @@
         <v>21</v>
       </c>
       <c r="E3282" s="3">
-        <v>102.78</v>
+        <v>113.97</v>
       </c>
     </row>
     <row r="3283" spans="1:5" x14ac:dyDescent="0.2">
@@ -67919,7 +67919,7 @@
         <v>21</v>
       </c>
       <c r="E3283" s="3">
-        <v>128.94</v>
+        <v>146.97</v>
       </c>
     </row>
     <row r="3284" spans="1:5" x14ac:dyDescent="0.2">
@@ -67936,7 +67936,7 @@
         <v>21</v>
       </c>
       <c r="E3284" s="3">
-        <v>24.77</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="3285" spans="1:5" x14ac:dyDescent="0.2">
@@ -67953,7 +67953,7 @@
         <v>21</v>
       </c>
       <c r="E3285" s="3">
-        <v>30.97</v>
+        <v>34.39</v>
       </c>
     </row>
     <row r="3286" spans="1:5" x14ac:dyDescent="0.2">
@@ -67970,7 +67970,7 @@
         <v>21</v>
       </c>
       <c r="E3286" s="3">
-        <v>26.12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3287" spans="1:5" x14ac:dyDescent="0.2">
@@ -67987,7 +67987,7 @@
         <v>21</v>
       </c>
       <c r="E3287" s="3">
-        <v>43.58</v>
+        <v>48.37</v>
       </c>
     </row>
     <row r="3288" spans="1:5" x14ac:dyDescent="0.2">
@@ -68004,7 +68004,7 @@
         <v>21</v>
       </c>
       <c r="E3288" s="3">
-        <v>53.3</v>
+        <v>59.16</v>
       </c>
     </row>
     <row r="3289" spans="1:5" x14ac:dyDescent="0.2">
@@ -68021,7 +68021,7 @@
         <v>21</v>
       </c>
       <c r="E3289" s="3">
-        <v>64.86</v>
+        <v>71.989999999999995</v>
       </c>
     </row>
     <row r="3290" spans="1:5" x14ac:dyDescent="0.2">
@@ -68038,7 +68038,7 @@
         <v>21</v>
       </c>
       <c r="E3290" s="3">
-        <v>785.74</v>
+        <v>864.3</v>
       </c>
     </row>
     <row r="3291" spans="1:5" x14ac:dyDescent="0.2">
@@ -68055,7 +68055,7 @@
         <v>21</v>
       </c>
       <c r="E3291" s="3">
-        <v>1973.39</v>
+        <v>2170.7199999999998</v>
       </c>
     </row>
     <row r="3292" spans="1:5" x14ac:dyDescent="0.2">
@@ -68072,7 +68072,7 @@
         <v>21</v>
       </c>
       <c r="E3292" s="3">
-        <v>6893.94</v>
+        <v>7859.09</v>
       </c>
     </row>
     <row r="3293" spans="1:5" x14ac:dyDescent="0.2">
@@ -68089,7 +68089,7 @@
         <v>21</v>
       </c>
       <c r="E3293" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3294" spans="1:5" x14ac:dyDescent="0.2">
@@ -68106,7 +68106,7 @@
         <v>21</v>
       </c>
       <c r="E3294" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3295" spans="1:5" x14ac:dyDescent="0.2">
@@ -68123,7 +68123,7 @@
         <v>21</v>
       </c>
       <c r="E3295" s="3">
-        <v>3629.83</v>
+        <v>3992.82</v>
       </c>
     </row>
     <row r="3296" spans="1:5" x14ac:dyDescent="0.2">
@@ -68140,7 +68140,7 @@
         <v>21</v>
       </c>
       <c r="E3296" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3297" spans="1:5" x14ac:dyDescent="0.2">
@@ -68157,7 +68157,7 @@
         <v>21</v>
       </c>
       <c r="E3297" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3298" spans="1:5" x14ac:dyDescent="0.2">
@@ -68174,7 +68174,7 @@
         <v>21</v>
       </c>
       <c r="E3298" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3299" spans="1:5" x14ac:dyDescent="0.2">
@@ -68191,7 +68191,7 @@
         <v>21</v>
       </c>
       <c r="E3299" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3300" spans="1:5" x14ac:dyDescent="0.2">
@@ -68208,7 +68208,7 @@
         <v>21</v>
       </c>
       <c r="E3300" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3301" spans="1:5" x14ac:dyDescent="0.2">
@@ -68225,7 +68225,7 @@
         <v>21</v>
       </c>
       <c r="E3301" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3302" spans="1:5" x14ac:dyDescent="0.2">
@@ -68242,7 +68242,7 @@
         <v>21</v>
       </c>
       <c r="E3302" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3303" spans="1:5" x14ac:dyDescent="0.2">
@@ -68259,7 +68259,7 @@
         <v>21</v>
       </c>
       <c r="E3303" s="3">
-        <v>335.44</v>
+        <v>385.76</v>
       </c>
     </row>
     <row r="3304" spans="1:5" x14ac:dyDescent="0.2">
@@ -68276,7 +68276,7 @@
         <v>21</v>
       </c>
       <c r="E3304" s="3">
-        <v>364.25</v>
+        <v>418.89</v>
       </c>
     </row>
     <row r="3305" spans="1:5" x14ac:dyDescent="0.2">
@@ -68293,7 +68293,7 @@
         <v>21</v>
       </c>
       <c r="E3305" s="3">
-        <v>4025.67</v>
+        <v>4428.24</v>
       </c>
     </row>
     <row r="3306" spans="1:5" x14ac:dyDescent="0.2">
@@ -68310,7 +68310,7 @@
         <v>21</v>
       </c>
       <c r="E3306" s="3">
-        <v>447.34</v>
+        <v>514.45000000000005</v>
       </c>
     </row>
     <row r="3307" spans="1:5" x14ac:dyDescent="0.2">
@@ -68327,7 +68327,7 @@
         <v>21</v>
       </c>
       <c r="E3307" s="3">
-        <v>576.95000000000005</v>
+        <v>663.48</v>
       </c>
     </row>
     <row r="3308" spans="1:5" x14ac:dyDescent="0.2">
@@ -68344,7 +68344,7 @@
         <v>21</v>
       </c>
       <c r="E3308" s="3">
-        <v>833.79</v>
+        <v>917.18</v>
       </c>
     </row>
     <row r="3309" spans="1:5" x14ac:dyDescent="0.2">
@@ -68361,7 +68361,7 @@
         <v>21</v>
       </c>
       <c r="E3309" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3310" spans="1:5" x14ac:dyDescent="0.2">
@@ -68378,7 +68378,7 @@
         <v>21</v>
       </c>
       <c r="E3310" s="3">
-        <v>1207.92</v>
+        <v>1328.7</v>
       </c>
     </row>
     <row r="3311" spans="1:5" x14ac:dyDescent="0.2">
@@ -68395,7 +68395,7 @@
         <v>21</v>
       </c>
       <c r="E3311" s="3">
-        <v>894.64</v>
+        <v>1002.01</v>
       </c>
     </row>
     <row r="3312" spans="1:5" x14ac:dyDescent="0.2">
@@ -68412,7 +68412,7 @@
         <v>21</v>
       </c>
       <c r="E3312" s="3">
-        <v>1934.55</v>
+        <v>2166.6799999999998</v>
       </c>
     </row>
     <row r="3313" spans="1:5" x14ac:dyDescent="0.2">
@@ -68429,7 +68429,7 @@
         <v>21</v>
       </c>
       <c r="E3313" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3314" spans="1:5" x14ac:dyDescent="0.2">
@@ -68446,7 +68446,7 @@
         <v>21</v>
       </c>
       <c r="E3314" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3315" spans="1:5" x14ac:dyDescent="0.2">
@@ -68463,7 +68463,7 @@
         <v>21</v>
       </c>
       <c r="E3315" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3316" spans="1:5" x14ac:dyDescent="0.2">
@@ -68480,7 +68480,7 @@
         <v>21</v>
       </c>
       <c r="E3316" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3317" spans="1:5" x14ac:dyDescent="0.2">
@@ -68497,7 +68497,7 @@
         <v>21</v>
       </c>
       <c r="E3317" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3318" spans="1:5" x14ac:dyDescent="0.2">
@@ -68514,7 +68514,7 @@
         <v>21</v>
       </c>
       <c r="E3318" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3319" spans="1:5" x14ac:dyDescent="0.2">
@@ -68531,7 +68531,7 @@
         <v>21</v>
       </c>
       <c r="E3319" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3320" spans="1:5" x14ac:dyDescent="0.2">
@@ -68548,7 +68548,7 @@
         <v>21</v>
       </c>
       <c r="E3320" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3321" spans="1:5" x14ac:dyDescent="0.2">
@@ -68565,7 +68565,7 @@
         <v>21</v>
       </c>
       <c r="E3321" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3322" spans="1:5" x14ac:dyDescent="0.2">
@@ -68582,7 +68582,7 @@
         <v>21</v>
       </c>
       <c r="E3322" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3323" spans="1:5" x14ac:dyDescent="0.2">
@@ -68599,7 +68599,7 @@
         <v>21</v>
       </c>
       <c r="E3323" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3324" spans="1:5" x14ac:dyDescent="0.2">
@@ -68616,7 +68616,7 @@
         <v>21</v>
       </c>
       <c r="E3324" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3325" spans="1:5" x14ac:dyDescent="0.2">
@@ -68633,7 +68633,7 @@
         <v>21</v>
       </c>
       <c r="E3325" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3326" spans="1:5" x14ac:dyDescent="0.2">
@@ -68650,7 +68650,7 @@
         <v>21</v>
       </c>
       <c r="E3326" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3327" spans="1:5" x14ac:dyDescent="0.2">
@@ -68667,7 +68667,7 @@
         <v>21</v>
       </c>
       <c r="E3327" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3328" spans="1:5" x14ac:dyDescent="0.2">
@@ -68684,7 +68684,7 @@
         <v>21</v>
       </c>
       <c r="E3328" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3329" spans="1:5" x14ac:dyDescent="0.2">
@@ -68701,7 +68701,7 @@
         <v>21</v>
       </c>
       <c r="E3329" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3330" spans="1:5" x14ac:dyDescent="0.2">
@@ -68718,7 +68718,7 @@
         <v>21</v>
       </c>
       <c r="E3330" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3331" spans="1:5" x14ac:dyDescent="0.2">
@@ -68735,7 +68735,7 @@
         <v>21</v>
       </c>
       <c r="E3331" s="3">
-        <v>146.13</v>
+        <v>160.75</v>
       </c>
     </row>
     <row r="3332" spans="1:5" x14ac:dyDescent="0.2">
@@ -68752,7 +68752,7 @@
         <v>21</v>
       </c>
       <c r="E3332" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3333" spans="1:5" x14ac:dyDescent="0.2">
@@ -68769,7 +68769,7 @@
         <v>21</v>
       </c>
       <c r="E3333" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3334" spans="1:5" x14ac:dyDescent="0.2">
@@ -68786,7 +68786,7 @@
         <v>21</v>
       </c>
       <c r="E3334" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3335" spans="1:5" x14ac:dyDescent="0.2">
@@ -68803,7 +68803,7 @@
         <v>21</v>
       </c>
       <c r="E3335" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3336" spans="1:5" x14ac:dyDescent="0.2">
@@ -68820,7 +68820,7 @@
         <v>21</v>
       </c>
       <c r="E3336" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3337" spans="1:5" x14ac:dyDescent="0.2">
@@ -68939,7 +68939,7 @@
         <v>21</v>
       </c>
       <c r="E3343" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3344" spans="1:5" x14ac:dyDescent="0.2">
@@ -68956,7 +68956,7 @@
         <v>21</v>
       </c>
       <c r="E3344" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3345" spans="1:5" x14ac:dyDescent="0.2">
@@ -68973,7 +68973,7 @@
         <v>21</v>
       </c>
       <c r="E3345" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3346" spans="1:5" x14ac:dyDescent="0.2">
@@ -68990,7 +68990,7 @@
         <v>21</v>
       </c>
       <c r="E3346" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3347" spans="1:5" x14ac:dyDescent="0.2">
@@ -69007,7 +69007,7 @@
         <v>21</v>
       </c>
       <c r="E3347" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3348" spans="1:5" x14ac:dyDescent="0.2">
@@ -69024,7 +69024,7 @@
         <v>21</v>
       </c>
       <c r="E3348" s="3">
-        <v>164.18</v>
+        <v>180.59</v>
       </c>
     </row>
     <row r="3349" spans="1:5" x14ac:dyDescent="0.2">
@@ -69041,7 +69041,7 @@
         <v>21</v>
       </c>
       <c r="E3349" s="3">
-        <v>571.04999999999995</v>
+        <v>639.57000000000005</v>
       </c>
     </row>
     <row r="3350" spans="1:5" x14ac:dyDescent="0.2">
@@ -69058,7 +69058,7 @@
         <v>21</v>
       </c>
       <c r="E3350" s="3">
-        <v>806.98</v>
+        <v>903.81</v>
       </c>
     </row>
     <row r="3351" spans="1:5" x14ac:dyDescent="0.2">
@@ -69075,7 +69075,7 @@
         <v>21</v>
       </c>
       <c r="E3351" s="3">
-        <v>907.15</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3352" spans="1:5" x14ac:dyDescent="0.2">
@@ -69092,7 +69092,7 @@
         <v>21</v>
       </c>
       <c r="E3352" s="3">
-        <v>711.7</v>
+        <v>797.09</v>
       </c>
     </row>
     <row r="3353" spans="1:5" x14ac:dyDescent="0.2">
@@ -69109,7 +69109,7 @@
         <v>21</v>
       </c>
       <c r="E3353" s="3">
-        <v>851.95</v>
+        <v>954.18</v>
       </c>
     </row>
     <row r="3354" spans="1:5" x14ac:dyDescent="0.2">
@@ -69126,7 +69126,7 @@
         <v>21</v>
       </c>
       <c r="E3354" s="3">
-        <v>991.15</v>
+        <v>1110.07</v>
       </c>
     </row>
     <row r="3355" spans="1:5" x14ac:dyDescent="0.2">
@@ -69143,7 +69143,7 @@
         <v>21</v>
       </c>
       <c r="E3355" s="3">
-        <v>1283.97</v>
+        <v>1438.04</v>
       </c>
     </row>
     <row r="3356" spans="1:5" x14ac:dyDescent="0.2">
@@ -69160,7 +69160,7 @@
         <v>21</v>
       </c>
       <c r="E3356" s="3">
-        <v>736.24</v>
+        <v>824.57</v>
       </c>
     </row>
     <row r="3357" spans="1:5" x14ac:dyDescent="0.2">
@@ -69177,7 +69177,7 @@
         <v>21</v>
       </c>
       <c r="E3357" s="3">
-        <v>851.95</v>
+        <v>954.18</v>
       </c>
     </row>
     <row r="3358" spans="1:5" x14ac:dyDescent="0.2">
@@ -69194,7 +69194,7 @@
         <v>21</v>
       </c>
       <c r="E3358" s="3">
-        <v>991.15</v>
+        <v>1110.07</v>
       </c>
     </row>
     <row r="3359" spans="1:5" x14ac:dyDescent="0.2">
@@ -69211,7 +69211,7 @@
         <v>21</v>
       </c>
       <c r="E3359" s="3">
-        <v>1241.17</v>
+        <v>1390.11</v>
       </c>
     </row>
     <row r="3360" spans="1:5" x14ac:dyDescent="0.2">
@@ -69228,7 +69228,7 @@
         <v>21</v>
       </c>
       <c r="E3360" s="3">
-        <v>4728.87</v>
+        <v>4795.7299999999996</v>
       </c>
     </row>
     <row r="3361" spans="1:5" x14ac:dyDescent="0.2">
@@ -69245,7 +69245,7 @@
         <v>21</v>
       </c>
       <c r="E3361" s="3">
-        <v>4728.87</v>
+        <v>4795.7299999999996</v>
       </c>
     </row>
     <row r="3362" spans="1:5" x14ac:dyDescent="0.2">
@@ -69262,7 +69262,7 @@
         <v>21</v>
       </c>
       <c r="E3362" s="3">
-        <v>3265.48</v>
+        <v>3311.65</v>
       </c>
     </row>
     <row r="3363" spans="1:5" x14ac:dyDescent="0.2">
@@ -69279,7 +69279,7 @@
         <v>21</v>
       </c>
       <c r="E3363" s="3">
-        <v>3265.48</v>
+        <v>3311.65</v>
       </c>
     </row>
     <row r="3364" spans="1:5" x14ac:dyDescent="0.2">
@@ -69296,7 +69296,7 @@
         <v>21</v>
       </c>
       <c r="E3364" s="3">
-        <v>618.33000000000004</v>
+        <v>667.77</v>
       </c>
     </row>
     <row r="3365" spans="1:5" x14ac:dyDescent="0.2">
@@ -69313,7 +69313,7 @@
         <v>21</v>
       </c>
       <c r="E3365" s="3">
-        <v>618.33000000000004</v>
+        <v>667.77</v>
       </c>
     </row>
     <row r="3366" spans="1:5" x14ac:dyDescent="0.2">
@@ -69330,7 +69330,7 @@
         <v>21</v>
       </c>
       <c r="E3366" s="3">
-        <v>618.33000000000004</v>
+        <v>667.77</v>
       </c>
     </row>
     <row r="3367" spans="1:5" x14ac:dyDescent="0.2">
@@ -69347,7 +69347,7 @@
         <v>21</v>
       </c>
       <c r="E3367" s="3">
-        <v>564.51</v>
+        <v>609.66999999999996</v>
       </c>
     </row>
     <row r="3368" spans="1:5" x14ac:dyDescent="0.2">
@@ -69364,7 +69364,7 @@
         <v>21</v>
       </c>
       <c r="E3368" s="3">
-        <v>564.51</v>
+        <v>609.66999999999996</v>
       </c>
     </row>
     <row r="3369" spans="1:5" x14ac:dyDescent="0.2">
@@ -69381,7 +69381,7 @@
         <v>21</v>
       </c>
       <c r="E3369" s="3">
-        <v>564.51</v>
+        <v>609.66999999999996</v>
       </c>
     </row>
     <row r="3370" spans="1:5" x14ac:dyDescent="0.2">
@@ -69398,7 +69398,7 @@
         <v>21</v>
       </c>
       <c r="E3370" s="3">
-        <v>195.53</v>
+        <v>211.16</v>
       </c>
     </row>
     <row r="3371" spans="1:5" x14ac:dyDescent="0.2">
@@ -69415,7 +69415,7 @@
         <v>21</v>
       </c>
       <c r="E3371" s="3">
-        <v>2721.65</v>
+        <v>2939.38</v>
       </c>
     </row>
     <row r="3372" spans="1:5" x14ac:dyDescent="0.2">
@@ -69432,7 +69432,7 @@
         <v>21</v>
       </c>
       <c r="E3372" s="3">
-        <v>4142.8500000000004</v>
+        <v>4474.2700000000004</v>
       </c>
     </row>
     <row r="3373" spans="1:5" x14ac:dyDescent="0.2">
@@ -69449,7 +69449,7 @@
         <v>21</v>
       </c>
       <c r="E3373" s="3">
-        <v>2721.65</v>
+        <v>2939.38</v>
       </c>
     </row>
     <row r="3374" spans="1:5" x14ac:dyDescent="0.2">
@@ -69466,7 +69466,7 @@
         <v>21</v>
       </c>
       <c r="E3374" s="3">
-        <v>4142.8500000000004</v>
+        <v>4474.2700000000004</v>
       </c>
     </row>
     <row r="3375" spans="1:5" x14ac:dyDescent="0.2">
@@ -69483,7 +69483,7 @@
         <v>21</v>
       </c>
       <c r="E3375" s="3">
-        <v>2721.65</v>
+        <v>2939.38</v>
       </c>
     </row>
     <row r="3376" spans="1:5" x14ac:dyDescent="0.2">
@@ -69500,7 +69500,7 @@
         <v>21</v>
       </c>
       <c r="E3376" s="3">
-        <v>4717.46</v>
+        <v>5094.88</v>
       </c>
     </row>
     <row r="3377" spans="1:5" x14ac:dyDescent="0.2">
@@ -69517,7 +69517,7 @@
         <v>21</v>
       </c>
       <c r="E3377" s="3">
-        <v>3886.52</v>
+        <v>4197.45</v>
       </c>
     </row>
     <row r="3378" spans="1:5" x14ac:dyDescent="0.2">
@@ -69534,7 +69534,7 @@
         <v>21</v>
       </c>
       <c r="E3378" s="3">
-        <v>1334.14</v>
+        <v>1440.88</v>
       </c>
     </row>
     <row r="3379" spans="1:5" x14ac:dyDescent="0.2">
@@ -69551,7 +69551,7 @@
         <v>21</v>
       </c>
       <c r="E3379" s="3">
-        <v>1453.22</v>
+        <v>1569.47</v>
       </c>
     </row>
     <row r="3380" spans="1:5" x14ac:dyDescent="0.2">
@@ -69568,7 +69568,7 @@
         <v>21</v>
       </c>
       <c r="E3380" s="3">
-        <v>1453.22</v>
+        <v>1569.47</v>
       </c>
     </row>
     <row r="3381" spans="1:5" x14ac:dyDescent="0.2">
@@ -69585,7 +69585,7 @@
         <v>21</v>
       </c>
       <c r="E3381" s="3">
-        <v>1466.17</v>
+        <v>1583.47</v>
       </c>
     </row>
     <row r="3382" spans="1:5" x14ac:dyDescent="0.2">
@@ -69602,7 +69602,7 @@
         <v>21</v>
       </c>
       <c r="E3382" s="3">
-        <v>1479.36</v>
+        <v>1597.7</v>
       </c>
     </row>
     <row r="3383" spans="1:5" x14ac:dyDescent="0.2">
@@ -69619,7 +69619,7 @@
         <v>21</v>
       </c>
       <c r="E3383" s="3">
-        <v>1598.05</v>
+        <v>1725.9</v>
       </c>
     </row>
     <row r="3384" spans="1:5" x14ac:dyDescent="0.2">
@@ -69636,7 +69636,7 @@
         <v>21</v>
       </c>
       <c r="E3384" s="3">
-        <v>1598.05</v>
+        <v>1725.9</v>
       </c>
     </row>
     <row r="3385" spans="1:5" x14ac:dyDescent="0.2">
@@ -69653,7 +69653,7 @@
         <v>21</v>
       </c>
       <c r="E3385" s="3">
-        <v>1611.53</v>
+        <v>1740.45</v>
       </c>
     </row>
     <row r="3386" spans="1:5" x14ac:dyDescent="0.2">
@@ -69670,7 +69670,7 @@
         <v>21</v>
       </c>
       <c r="E3386" s="3">
-        <v>1743.62</v>
+        <v>1883.1</v>
       </c>
     </row>
     <row r="3387" spans="1:5" x14ac:dyDescent="0.2">
@@ -69687,7 +69687,7 @@
         <v>21</v>
       </c>
       <c r="E3387" s="3">
-        <v>1796.42</v>
+        <v>1940.13</v>
       </c>
     </row>
     <row r="3388" spans="1:5" x14ac:dyDescent="0.2">
@@ -69704,7 +69704,7 @@
         <v>21</v>
       </c>
       <c r="E3388" s="3">
-        <v>1875.72</v>
+        <v>2025.76</v>
       </c>
     </row>
     <row r="3389" spans="1:5" x14ac:dyDescent="0.2">
@@ -69721,7 +69721,7 @@
         <v>21</v>
       </c>
       <c r="E3389" s="3">
-        <v>1915.56</v>
+        <v>2068.8000000000002</v>
       </c>
     </row>
     <row r="3390" spans="1:5" x14ac:dyDescent="0.2">
@@ -69738,7 +69738,7 @@
         <v>21</v>
       </c>
       <c r="E3390" s="3">
-        <v>2047.41</v>
+        <v>2211.21</v>
       </c>
     </row>
     <row r="3391" spans="1:5" x14ac:dyDescent="0.2">
@@ -69755,7 +69755,7 @@
         <v>21</v>
       </c>
       <c r="E3391" s="3">
-        <v>2456.91</v>
+        <v>2653.45</v>
       </c>
     </row>
     <row r="3392" spans="1:5" x14ac:dyDescent="0.2">
@@ -69772,7 +69772,7 @@
         <v>21</v>
       </c>
       <c r="E3392" s="3">
-        <v>2126.61</v>
+        <v>2296.75</v>
       </c>
     </row>
     <row r="3393" spans="1:5" x14ac:dyDescent="0.2">
@@ -69789,7 +69789,7 @@
         <v>21</v>
       </c>
       <c r="E3393" s="3">
-        <v>2218.9</v>
+        <v>2396.4</v>
       </c>
     </row>
     <row r="3394" spans="1:5" x14ac:dyDescent="0.2">
@@ -69806,7 +69806,7 @@
         <v>21</v>
       </c>
       <c r="E3394" s="3">
-        <v>2232.36</v>
+        <v>2410.9299999999998</v>
       </c>
     </row>
     <row r="3395" spans="1:5" x14ac:dyDescent="0.2">
@@ -69823,7 +69823,7 @@
         <v>21</v>
       </c>
       <c r="E3395" s="3">
-        <v>2338.0300000000002</v>
+        <v>2525.08</v>
       </c>
     </row>
     <row r="3396" spans="1:5" x14ac:dyDescent="0.2">
@@ -69840,7 +69840,7 @@
         <v>21</v>
       </c>
       <c r="E3396" s="3">
-        <v>2350.96</v>
+        <v>2539.04</v>
       </c>
     </row>
     <row r="3397" spans="1:5" x14ac:dyDescent="0.2">
@@ -69857,7 +69857,7 @@
         <v>21</v>
       </c>
       <c r="E3397" s="3">
-        <v>2483.3000000000002</v>
+        <v>2681.95</v>
       </c>
     </row>
     <row r="3398" spans="1:5" x14ac:dyDescent="0.2">
@@ -69874,7 +69874,7 @@
         <v>21</v>
       </c>
       <c r="E3398" s="3">
-        <v>3043.3</v>
+        <v>3286.78</v>
       </c>
     </row>
     <row r="3399" spans="1:5" x14ac:dyDescent="0.2">
@@ -69891,7 +69891,7 @@
         <v>21</v>
       </c>
       <c r="E3399" s="3">
-        <v>2536.08</v>
+        <v>2738.97</v>
       </c>
     </row>
     <row r="3400" spans="1:5" x14ac:dyDescent="0.2">
@@ -69908,7 +69908,7 @@
         <v>21</v>
       </c>
       <c r="E3400" s="3">
-        <v>2536.08</v>
+        <v>2738.97</v>
       </c>
     </row>
     <row r="3401" spans="1:5" x14ac:dyDescent="0.2">
@@ -69925,7 +69925,7 @@
         <v>21</v>
       </c>
       <c r="E3401" s="3">
-        <v>2681.21</v>
+        <v>2895.7</v>
       </c>
     </row>
     <row r="3402" spans="1:5" x14ac:dyDescent="0.2">
@@ -69942,7 +69942,7 @@
         <v>21</v>
       </c>
       <c r="E3402" s="3">
-        <v>2694.67</v>
+        <v>2910.24</v>
       </c>
     </row>
     <row r="3403" spans="1:5" x14ac:dyDescent="0.2">
@@ -69959,7 +69959,7 @@
         <v>21</v>
       </c>
       <c r="E3403" s="3">
-        <v>2694.67</v>
+        <v>2910.24</v>
       </c>
     </row>
     <row r="3404" spans="1:5" x14ac:dyDescent="0.2">
@@ -69976,7 +69976,7 @@
         <v>21</v>
       </c>
       <c r="E3404" s="3">
-        <v>2905.98</v>
+        <v>3138.47</v>
       </c>
     </row>
     <row r="3405" spans="1:5" x14ac:dyDescent="0.2">
@@ -69993,7 +69993,7 @@
         <v>21</v>
       </c>
       <c r="E3405" s="3">
-        <v>3024.85</v>
+        <v>3266.84</v>
       </c>
     </row>
     <row r="3406" spans="1:5" x14ac:dyDescent="0.2">
@@ -70010,7 +70010,7 @@
         <v>21</v>
       </c>
       <c r="E3406" s="3">
-        <v>3051.27</v>
+        <v>3295.37</v>
       </c>
     </row>
     <row r="3407" spans="1:5" x14ac:dyDescent="0.2">
@@ -70027,7 +70027,7 @@
         <v>21</v>
       </c>
       <c r="E3407" s="3">
-        <v>3209.75</v>
+        <v>3466.54</v>
       </c>
     </row>
     <row r="3408" spans="1:5" x14ac:dyDescent="0.2">
@@ -70044,7 +70044,7 @@
         <v>21</v>
       </c>
       <c r="E3408" s="3">
-        <v>3209.75</v>
+        <v>3466.54</v>
       </c>
     </row>
     <row r="3409" spans="1:5" x14ac:dyDescent="0.2">
@@ -70061,7 +70061,7 @@
         <v>21</v>
       </c>
       <c r="E3409" s="3">
-        <v>3368.06</v>
+        <v>3637.5</v>
       </c>
     </row>
     <row r="3410" spans="1:5" x14ac:dyDescent="0.2">
@@ -70078,7 +70078,7 @@
         <v>21</v>
       </c>
       <c r="E3410" s="3">
-        <v>3513.61</v>
+        <v>3794.7</v>
       </c>
     </row>
     <row r="3411" spans="1:5" x14ac:dyDescent="0.2">
@@ -70095,7 +70095,7 @@
         <v>21</v>
       </c>
       <c r="E3411" s="3">
-        <v>3566.46</v>
+        <v>3851.78</v>
       </c>
     </row>
     <row r="3412" spans="1:5" x14ac:dyDescent="0.2">
@@ -70112,7 +70112,7 @@
         <v>21</v>
       </c>
       <c r="E3412" s="3">
-        <v>3712.03</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="3413" spans="1:5" x14ac:dyDescent="0.2">
@@ -70129,7 +70129,7 @@
         <v>21</v>
       </c>
       <c r="E3413" s="3">
-        <v>3751.37</v>
+        <v>4051.47</v>
       </c>
     </row>
     <row r="3414" spans="1:5" x14ac:dyDescent="0.2">
@@ -70146,7 +70146,7 @@
         <v>21</v>
       </c>
       <c r="E3414" s="3">
-        <v>3923.11</v>
+        <v>4236.96</v>
       </c>
     </row>
     <row r="3415" spans="1:5" x14ac:dyDescent="0.2">
@@ -70163,7 +70163,7 @@
         <v>21</v>
       </c>
       <c r="E3415" s="3">
-        <v>4081.53</v>
+        <v>4408.04</v>
       </c>
     </row>
     <row r="3416" spans="1:5" x14ac:dyDescent="0.2">
@@ -70180,7 +70180,7 @@
         <v>21</v>
       </c>
       <c r="E3416" s="3">
-        <v>4081.53</v>
+        <v>4408.04</v>
       </c>
     </row>
     <row r="3417" spans="1:5" x14ac:dyDescent="0.2">
@@ -70197,7 +70197,7 @@
         <v>21</v>
       </c>
       <c r="E3417" s="3">
-        <v>4662.78</v>
+        <v>5035.78</v>
       </c>
     </row>
     <row r="3418" spans="1:5" x14ac:dyDescent="0.2">
@@ -70214,7 +70214,7 @@
         <v>21</v>
       </c>
       <c r="E3418" s="3">
-        <v>4821.26</v>
+        <v>5206.97</v>
       </c>
     </row>
     <row r="3419" spans="1:5" x14ac:dyDescent="0.2">
@@ -70231,7 +70231,7 @@
         <v>21</v>
       </c>
       <c r="E3419" s="3">
-        <v>5006.1899999999996</v>
+        <v>5406.68</v>
       </c>
     </row>
     <row r="3420" spans="1:5" x14ac:dyDescent="0.2">
@@ -70248,7 +70248,7 @@
         <v>21</v>
       </c>
       <c r="E3420" s="3">
-        <v>5177.8599999999997</v>
+        <v>5592.1</v>
       </c>
     </row>
     <row r="3421" spans="1:5" x14ac:dyDescent="0.2">
@@ -70265,7 +70265,7 @@
         <v>21</v>
       </c>
       <c r="E3421" s="3">
-        <v>5574.22</v>
+        <v>6020.16</v>
       </c>
     </row>
     <row r="3422" spans="1:5" x14ac:dyDescent="0.2">
@@ -70282,7 +70282,7 @@
         <v>21</v>
       </c>
       <c r="E3422" s="3">
-        <v>5640.21</v>
+        <v>6091.43</v>
       </c>
     </row>
     <row r="3423" spans="1:5" x14ac:dyDescent="0.2">
@@ -70299,7 +70299,7 @@
         <v>21</v>
       </c>
       <c r="E3423" s="3">
-        <v>5864.77</v>
+        <v>6333.96</v>
       </c>
     </row>
     <row r="3424" spans="1:5" x14ac:dyDescent="0.2">
@@ -70316,7 +70316,7 @@
         <v>21</v>
       </c>
       <c r="E3424" s="3">
-        <v>5864.77</v>
+        <v>6333.96</v>
       </c>
     </row>
     <row r="3425" spans="1:5" x14ac:dyDescent="0.2">
@@ -70333,7 +70333,7 @@
         <v>21</v>
       </c>
       <c r="E3425" s="3">
-        <v>6076.08</v>
+        <v>6562.18</v>
       </c>
     </row>
     <row r="3426" spans="1:5" x14ac:dyDescent="0.2">
@@ -70350,7 +70350,7 @@
         <v>21</v>
       </c>
       <c r="E3426" s="3">
-        <v>6432.82</v>
+        <v>6947.45</v>
       </c>
     </row>
     <row r="3427" spans="1:5" x14ac:dyDescent="0.2">
@@ -70367,7 +70367,7 @@
         <v>21</v>
       </c>
       <c r="E3427" s="3">
-        <v>6630.92</v>
+        <v>7161.4</v>
       </c>
     </row>
     <row r="3428" spans="1:5" x14ac:dyDescent="0.2">
@@ -70384,7 +70384,7 @@
         <v>21</v>
       </c>
       <c r="E3428" s="3">
-        <v>6842.02</v>
+        <v>7389.39</v>
       </c>
     </row>
     <row r="3429" spans="1:5" x14ac:dyDescent="0.2">
@@ -70401,7 +70401,7 @@
         <v>21</v>
       </c>
       <c r="E3429" s="3">
-        <v>7080</v>
+        <v>7646.41</v>
       </c>
     </row>
     <row r="3430" spans="1:5" x14ac:dyDescent="0.2">
@@ -70418,7 +70418,7 @@
         <v>21</v>
       </c>
       <c r="E3430" s="3">
-        <v>7317.79</v>
+        <v>7903.22</v>
       </c>
     </row>
     <row r="3431" spans="1:5" x14ac:dyDescent="0.2">
@@ -70435,7 +70435,7 @@
         <v>21</v>
       </c>
       <c r="E3431" s="3">
-        <v>7898.92</v>
+        <v>8530.84</v>
       </c>
     </row>
     <row r="3432" spans="1:5" x14ac:dyDescent="0.2">
@@ -70452,7 +70452,7 @@
         <v>21</v>
       </c>
       <c r="E3432" s="3">
-        <v>8691.58</v>
+        <v>9386.91</v>
       </c>
     </row>
     <row r="3433" spans="1:5" x14ac:dyDescent="0.2">
@@ -70469,7 +70469,7 @@
         <v>21</v>
       </c>
       <c r="E3433" s="3">
-        <v>4342.12</v>
+        <v>4689.5</v>
       </c>
     </row>
     <row r="3434" spans="1:5" x14ac:dyDescent="0.2">
@@ -70486,7 +70486,7 @@
         <v>21</v>
       </c>
       <c r="E3434" s="3">
-        <v>10001.540000000001</v>
+        <v>10801.67</v>
       </c>
     </row>
     <row r="3435" spans="1:5" x14ac:dyDescent="0.2">
@@ -70503,7 +70503,7 @@
         <v>21</v>
       </c>
       <c r="E3435" s="3">
-        <v>2764.13</v>
+        <v>2985.26</v>
       </c>
     </row>
     <row r="3436" spans="1:5" x14ac:dyDescent="0.2">
@@ -70520,7 +70520,7 @@
         <v>21</v>
       </c>
       <c r="E3436" s="3">
-        <v>11048.93</v>
+        <v>11932.85</v>
       </c>
     </row>
     <row r="3437" spans="1:5" x14ac:dyDescent="0.2">
@@ -70741,7 +70741,7 @@
         <v>21</v>
       </c>
       <c r="E3449" s="3">
-        <v>1628.4</v>
+        <v>1651.42</v>
       </c>
     </row>
     <row r="3450" spans="1:5" x14ac:dyDescent="0.2">
@@ -70758,7 +70758,7 @@
         <v>21</v>
       </c>
       <c r="E3450" s="3">
-        <v>1793.4</v>
+        <v>1818.77</v>
       </c>
     </row>
     <row r="3451" spans="1:5" x14ac:dyDescent="0.2">
@@ -70775,7 +70775,7 @@
         <v>21</v>
       </c>
       <c r="E3451" s="3">
-        <v>1285.3499999999999</v>
+        <v>1303.52</v>
       </c>
     </row>
     <row r="3452" spans="1:5" x14ac:dyDescent="0.2">
@@ -70792,7 +70792,7 @@
         <v>21</v>
       </c>
       <c r="E3452" s="3">
-        <v>1220.22</v>
+        <v>1237.47</v>
       </c>
     </row>
     <row r="3453" spans="1:5" x14ac:dyDescent="0.2">
@@ -70809,7 +70809,7 @@
         <v>21</v>
       </c>
       <c r="E3453" s="3">
-        <v>1181.1300000000001</v>
+        <v>1197.83</v>
       </c>
     </row>
     <row r="3454" spans="1:5" x14ac:dyDescent="0.2">
@@ -70826,7 +70826,7 @@
         <v>21</v>
       </c>
       <c r="E3454" s="3">
-        <v>1524.19</v>
+        <v>1545.73</v>
       </c>
     </row>
     <row r="3455" spans="1:5" x14ac:dyDescent="0.2">
@@ -70843,7 +70843,7 @@
         <v>21</v>
       </c>
       <c r="E3455" s="3">
-        <v>4546.47</v>
+        <v>4610.7700000000004</v>
       </c>
     </row>
     <row r="3456" spans="1:5" x14ac:dyDescent="0.2">
@@ -70860,7 +70860,7 @@
         <v>21</v>
       </c>
       <c r="E3456" s="3">
-        <v>3217.7</v>
+        <v>3263.21</v>
       </c>
     </row>
     <row r="3457" spans="1:5" x14ac:dyDescent="0.2">
@@ -70877,7 +70877,7 @@
         <v>21</v>
       </c>
       <c r="E3457" s="3">
-        <v>3847.36</v>
+        <v>3901.76</v>
       </c>
     </row>
     <row r="3458" spans="1:5" x14ac:dyDescent="0.2">
@@ -70894,7 +70894,7 @@
         <v>21</v>
       </c>
       <c r="E3458" s="3">
-        <v>4767.9399999999996</v>
+        <v>4835.37</v>
       </c>
     </row>
     <row r="3459" spans="1:5" x14ac:dyDescent="0.2">
@@ -70911,7 +70911,7 @@
         <v>21</v>
       </c>
       <c r="E3459" s="3">
-        <v>3838.67</v>
+        <v>3892.95</v>
       </c>
     </row>
     <row r="3460" spans="1:5" x14ac:dyDescent="0.2">
@@ -70928,7 +70928,7 @@
         <v>21</v>
       </c>
       <c r="E3460" s="3">
-        <v>4194.75</v>
+        <v>4254.07</v>
       </c>
     </row>
     <row r="3461" spans="1:5" x14ac:dyDescent="0.2">
@@ -70945,7 +70945,7 @@
         <v>21</v>
       </c>
       <c r="E3461" s="3">
-        <v>3621.55</v>
+        <v>3672.77</v>
       </c>
     </row>
     <row r="3462" spans="1:5" x14ac:dyDescent="0.2">
@@ -71047,7 +71047,7 @@
         <v>21</v>
       </c>
       <c r="E3467" s="3">
-        <v>195.22</v>
+        <v>320.63</v>
       </c>
     </row>
     <row r="3468" spans="1:5" x14ac:dyDescent="0.2">
@@ -71064,7 +71064,7 @@
         <v>21</v>
       </c>
       <c r="E3468" s="3">
-        <v>244.03</v>
+        <v>376.41</v>
       </c>
     </row>
     <row r="3469" spans="1:5" x14ac:dyDescent="0.2">
@@ -71081,7 +71081,7 @@
         <v>21</v>
       </c>
       <c r="E3469" s="3">
-        <v>1545.47</v>
+        <v>3104.94</v>
       </c>
     </row>
     <row r="3470" spans="1:5" x14ac:dyDescent="0.2">
@@ -71098,7 +71098,7 @@
         <v>21</v>
       </c>
       <c r="E3470" s="3">
-        <v>1664.21</v>
+        <v>3779.18</v>
       </c>
     </row>
     <row r="3471" spans="1:5" x14ac:dyDescent="0.2">
@@ -71115,7 +71115,7 @@
         <v>21</v>
       </c>
       <c r="E3471" s="3">
-        <v>2105.08</v>
+        <v>4894.53</v>
       </c>
     </row>
     <row r="3472" spans="1:5" x14ac:dyDescent="0.2">
@@ -71132,7 +71132,7 @@
         <v>21</v>
       </c>
       <c r="E3472" s="3">
-        <v>634.46</v>
+        <v>2783.41</v>
       </c>
     </row>
     <row r="3473" spans="1:5" x14ac:dyDescent="0.2">
@@ -71149,7 +71149,7 @@
         <v>21</v>
       </c>
       <c r="E3473" s="3">
-        <v>984.22</v>
+        <v>1640.46</v>
       </c>
     </row>
     <row r="3474" spans="1:5" x14ac:dyDescent="0.2">
@@ -71166,7 +71166,7 @@
         <v>21</v>
       </c>
       <c r="E3474" s="3">
-        <v>155.34</v>
+        <v>337.79</v>
       </c>
     </row>
     <row r="3475" spans="1:5" x14ac:dyDescent="0.2">
@@ -71183,7 +71183,7 @@
         <v>21</v>
       </c>
       <c r="E3475" s="3">
-        <v>139.91999999999999</v>
+        <v>216.54</v>
       </c>
     </row>
     <row r="3476" spans="1:5" x14ac:dyDescent="0.2">
@@ -71200,7 +71200,7 @@
         <v>21</v>
       </c>
       <c r="E3476" s="3">
-        <v>139.91999999999999</v>
+        <v>216.54</v>
       </c>
     </row>
     <row r="3477" spans="1:5" x14ac:dyDescent="0.2">
@@ -71217,7 +71217,7 @@
         <v>21</v>
       </c>
       <c r="E3477" s="3">
-        <v>208.68</v>
+        <v>321.92</v>
       </c>
     </row>
     <row r="3478" spans="1:5" x14ac:dyDescent="0.2">
@@ -71268,7 +71268,7 @@
         <v>21</v>
       </c>
       <c r="E3480" s="3">
-        <v>111.45</v>
+        <v>172.1</v>
       </c>
     </row>
     <row r="3481" spans="1:5" x14ac:dyDescent="0.2">
@@ -71285,7 +71285,7 @@
         <v>21</v>
       </c>
       <c r="E3481" s="3">
-        <v>111.45</v>
+        <v>172.1</v>
       </c>
     </row>
     <row r="3482" spans="1:5" x14ac:dyDescent="0.2">
@@ -71302,7 +71302,7 @@
         <v>21</v>
       </c>
       <c r="E3482" s="3">
-        <v>126.06</v>
+        <v>194.61</v>
       </c>
     </row>
     <row r="3483" spans="1:5" x14ac:dyDescent="0.2">
@@ -71319,7 +71319,7 @@
         <v>21</v>
       </c>
       <c r="E3483" s="3">
-        <v>126.06</v>
+        <v>194.61</v>
       </c>
     </row>
     <row r="3484" spans="1:5" x14ac:dyDescent="0.2">
@@ -71336,7 +71336,7 @@
         <v>21</v>
       </c>
       <c r="E3484" s="3">
-        <v>312.33999999999997</v>
+        <v>482.45</v>
       </c>
     </row>
     <row r="3485" spans="1:5" x14ac:dyDescent="0.2">
@@ -71353,7 +71353,7 @@
         <v>21</v>
       </c>
       <c r="E3485" s="3">
-        <v>312.33999999999997</v>
+        <v>482.45</v>
       </c>
     </row>
     <row r="3486" spans="1:5" x14ac:dyDescent="0.2">
@@ -71370,7 +71370,7 @@
         <v>21</v>
       </c>
       <c r="E3486" s="3">
-        <v>144.80000000000001</v>
+        <v>272.18</v>
       </c>
     </row>
     <row r="3487" spans="1:5" x14ac:dyDescent="0.2">
@@ -71387,7 +71387,7 @@
         <v>21</v>
       </c>
       <c r="E3487" s="3">
-        <v>143.16999999999999</v>
+        <v>219.98</v>
       </c>
     </row>
     <row r="3488" spans="1:5" x14ac:dyDescent="0.2">
@@ -71404,7 +71404,7 @@
         <v>21</v>
       </c>
       <c r="E3488" s="3">
-        <v>113.88</v>
+        <v>175.98</v>
       </c>
     </row>
     <row r="3489" spans="1:5" x14ac:dyDescent="0.2">
@@ -71421,7 +71421,7 @@
         <v>21</v>
       </c>
       <c r="E3489" s="3">
-        <v>113.88</v>
+        <v>175.98</v>
       </c>
     </row>
     <row r="3490" spans="1:5" x14ac:dyDescent="0.2">
@@ -71438,7 +71438,7 @@
         <v>21</v>
       </c>
       <c r="E3490" s="3">
-        <v>1426.71</v>
+        <v>2236.9899999999998</v>
       </c>
     </row>
     <row r="3491" spans="1:5" x14ac:dyDescent="0.2">
@@ -71455,7 +71455,7 @@
         <v>21</v>
       </c>
       <c r="E3491" s="3">
-        <v>2534.5500000000002</v>
+        <v>4026.58</v>
       </c>
     </row>
     <row r="3492" spans="1:5" x14ac:dyDescent="0.2">
@@ -71557,7 +71557,7 @@
         <v>21</v>
       </c>
       <c r="E3497" s="3">
-        <v>1350.25</v>
+        <v>3104.94</v>
       </c>
     </row>
     <row r="3498" spans="1:5" x14ac:dyDescent="0.2">
@@ -71574,7 +71574,7 @@
         <v>21</v>
       </c>
       <c r="E3498" s="3">
-        <v>1301.45</v>
+        <v>2430.12</v>
       </c>
     </row>
     <row r="3499" spans="1:5" x14ac:dyDescent="0.2">
@@ -71591,7 +71591,7 @@
         <v>21</v>
       </c>
       <c r="E3499" s="3">
-        <v>1301.45</v>
+        <v>2632.35</v>
       </c>
     </row>
     <row r="3500" spans="1:5" x14ac:dyDescent="0.2">
@@ -71608,7 +71608,7 @@
         <v>21</v>
       </c>
       <c r="E3500" s="3">
-        <v>650.73</v>
+        <v>1269.8499999999999</v>
       </c>
     </row>
     <row r="3501" spans="1:5" x14ac:dyDescent="0.2">
@@ -71625,7 +71625,7 @@
         <v>21</v>
       </c>
       <c r="E3501" s="3">
-        <v>650.73</v>
+        <v>1269.8499999999999</v>
       </c>
     </row>
     <row r="3502" spans="1:5" x14ac:dyDescent="0.2">
@@ -71710,7 +71710,7 @@
         <v>21</v>
       </c>
       <c r="E3506" s="3">
-        <v>1138.76</v>
+        <v>1761.71</v>
       </c>
     </row>
     <row r="3507" spans="1:5" x14ac:dyDescent="0.2">
@@ -71727,7 +71727,7 @@
         <v>21</v>
       </c>
       <c r="E3507" s="3">
-        <v>1138.76</v>
+        <v>1761.71</v>
       </c>
     </row>
     <row r="3508" spans="1:5" x14ac:dyDescent="0.2">
@@ -71744,7 +71744,7 @@
         <v>21</v>
       </c>
       <c r="E3508" s="3">
-        <v>151.29</v>
+        <v>259.49</v>
       </c>
     </row>
     <row r="3509" spans="1:5" x14ac:dyDescent="0.2">
@@ -71761,7 +71761,7 @@
         <v>21</v>
       </c>
       <c r="E3509" s="3">
-        <v>151.29</v>
+        <v>259.49</v>
       </c>
     </row>
     <row r="3510" spans="1:5" x14ac:dyDescent="0.2">
@@ -71778,7 +71778,7 @@
         <v>21</v>
       </c>
       <c r="E3510" s="3">
-        <v>244.03</v>
+        <v>376.41</v>
       </c>
     </row>
     <row r="3511" spans="1:5" x14ac:dyDescent="0.2">
@@ -71795,7 +71795,7 @@
         <v>21</v>
       </c>
       <c r="E3511" s="3">
-        <v>1301.45</v>
+        <v>2632.35</v>
       </c>
     </row>
     <row r="3512" spans="1:5" x14ac:dyDescent="0.2">
@@ -71812,7 +71812,7 @@
         <v>21</v>
       </c>
       <c r="E3512" s="3">
-        <v>1301.45</v>
+        <v>2430.12</v>
       </c>
     </row>
     <row r="3513" spans="1:5" x14ac:dyDescent="0.2">
@@ -71829,7 +71829,7 @@
         <v>21</v>
       </c>
       <c r="E3513" s="3">
-        <v>235.87</v>
+        <v>395.04</v>
       </c>
     </row>
     <row r="3514" spans="1:5" x14ac:dyDescent="0.2">
@@ -71846,7 +71846,7 @@
         <v>21</v>
       </c>
       <c r="E3514" s="3">
-        <v>235.87</v>
+        <v>395.04</v>
       </c>
     </row>
     <row r="3515" spans="1:5" x14ac:dyDescent="0.2">
@@ -71863,7 +71863,7 @@
         <v>21</v>
       </c>
       <c r="E3515" s="3">
-        <v>2422.42</v>
+        <v>3371.06</v>
       </c>
     </row>
     <row r="3516" spans="1:5" x14ac:dyDescent="0.2">
@@ -71880,7 +71880,7 @@
         <v>21</v>
       </c>
       <c r="E3516" s="3">
-        <v>169.19</v>
+        <v>287.23</v>
       </c>
     </row>
     <row r="3517" spans="1:5" x14ac:dyDescent="0.2">
@@ -71897,7 +71897,7 @@
         <v>21</v>
       </c>
       <c r="E3517" s="3">
-        <v>184.63</v>
+        <v>327.33999999999997</v>
       </c>
     </row>
     <row r="3518" spans="1:5" x14ac:dyDescent="0.2">
@@ -71914,7 +71914,7 @@
         <v>21</v>
       </c>
       <c r="E3518" s="3">
-        <v>239.14</v>
+        <v>350.3</v>
       </c>
     </row>
     <row r="3519" spans="1:5" x14ac:dyDescent="0.2">
@@ -71931,7 +71931,7 @@
         <v>21</v>
       </c>
       <c r="E3519" s="3">
-        <v>348.13</v>
+        <v>501.82</v>
       </c>
     </row>
     <row r="3520" spans="1:5" x14ac:dyDescent="0.2">
@@ -71948,7 +71948,7 @@
         <v>21</v>
       </c>
       <c r="E3520" s="3">
-        <v>156.19</v>
+        <v>266.95</v>
       </c>
     </row>
     <row r="3521" spans="1:5" x14ac:dyDescent="0.2">
@@ -71965,7 +71965,7 @@
         <v>21</v>
       </c>
       <c r="E3521" s="3">
-        <v>244.03</v>
+        <v>425.03</v>
       </c>
     </row>
     <row r="3522" spans="1:5" x14ac:dyDescent="0.2">
@@ -71999,7 +71999,7 @@
         <v>21</v>
       </c>
       <c r="E3523" s="3">
-        <v>1356.62</v>
+        <v>1375.81</v>
       </c>
     </row>
     <row r="3524" spans="1:5" x14ac:dyDescent="0.2">
@@ -72424,7 +72424,7 @@
         <v>21</v>
       </c>
       <c r="E3548" s="3">
-        <v>353</v>
+        <v>404.83</v>
       </c>
     </row>
     <row r="3549" spans="1:5" x14ac:dyDescent="0.2">
@@ -72441,7 +72441,7 @@
         <v>21</v>
       </c>
       <c r="E3549" s="3">
-        <v>467.49</v>
+        <v>536.11</v>
       </c>
     </row>
     <row r="3550" spans="1:5" x14ac:dyDescent="0.2">
@@ -72458,7 +72458,7 @@
         <v>21</v>
       </c>
       <c r="E3550" s="3">
-        <v>653.53</v>
+        <v>749.47</v>
       </c>
     </row>
     <row r="3551" spans="1:5" x14ac:dyDescent="0.2">
@@ -72475,7 +72475,7 @@
         <v>21</v>
       </c>
       <c r="E3551" s="3">
-        <v>1059</v>
+        <v>1214.46</v>
       </c>
     </row>
     <row r="3552" spans="1:5" x14ac:dyDescent="0.2">
@@ -72492,7 +72492,7 @@
         <v>21</v>
       </c>
       <c r="E3552" s="3">
-        <v>2164.16</v>
+        <v>2283.2800000000002</v>
       </c>
     </row>
     <row r="3553" spans="1:5" x14ac:dyDescent="0.2">
@@ -72509,7 +72509,7 @@
         <v>21</v>
       </c>
       <c r="E3553" s="3">
-        <v>317.70999999999998</v>
+        <v>335.2</v>
       </c>
     </row>
     <row r="3554" spans="1:5" x14ac:dyDescent="0.2">
@@ -72526,7 +72526,7 @@
         <v>21</v>
       </c>
       <c r="E3554" s="3">
-        <v>429.32</v>
+        <v>452.97</v>
       </c>
     </row>
     <row r="3555" spans="1:5" x14ac:dyDescent="0.2">
@@ -72543,7 +72543,7 @@
         <v>21</v>
       </c>
       <c r="E3555" s="3">
-        <v>429.32</v>
+        <v>452.97</v>
       </c>
     </row>
     <row r="3556" spans="1:5" x14ac:dyDescent="0.2">
@@ -72560,7 +72560,7 @@
         <v>21</v>
       </c>
       <c r="E3556" s="3">
-        <v>738.44</v>
+        <v>779.1</v>
       </c>
     </row>
     <row r="3557" spans="1:5" x14ac:dyDescent="0.2">
@@ -72577,7 +72577,7 @@
         <v>21</v>
       </c>
       <c r="E3557" s="3">
-        <v>1090.5</v>
+        <v>1150.53</v>
       </c>
     </row>
     <row r="3558" spans="1:5" x14ac:dyDescent="0.2">
@@ -72594,7 +72594,7 @@
         <v>21</v>
       </c>
       <c r="E3558" s="3">
-        <v>1110.53</v>
+        <v>1171.6500000000001</v>
       </c>
     </row>
     <row r="3559" spans="1:5" x14ac:dyDescent="0.2">
@@ -72611,7 +72611,7 @@
         <v>21</v>
       </c>
       <c r="E3559" s="3">
-        <v>185.46</v>
+        <v>187.17</v>
       </c>
     </row>
     <row r="3560" spans="1:5" x14ac:dyDescent="0.2">
@@ -72628,7 +72628,7 @@
         <v>21</v>
       </c>
       <c r="E3560" s="3">
-        <v>252.44</v>
+        <v>254.76</v>
       </c>
     </row>
     <row r="3561" spans="1:5" x14ac:dyDescent="0.2">
@@ -72645,7 +72645,7 @@
         <v>21</v>
       </c>
       <c r="E3561" s="3">
-        <v>310.26</v>
+        <v>314.64</v>
       </c>
     </row>
     <row r="3562" spans="1:5" x14ac:dyDescent="0.2">
@@ -72662,7 +72662,7 @@
         <v>21</v>
       </c>
       <c r="E3562" s="3">
-        <v>804.99</v>
+        <v>816.37</v>
       </c>
     </row>
     <row r="3563" spans="1:5" x14ac:dyDescent="0.2">
@@ -72679,7 +72679,7 @@
         <v>21</v>
       </c>
       <c r="E3563" s="3">
-        <v>1291.3399999999999</v>
+        <v>1309.5999999999999</v>
       </c>
     </row>
     <row r="3564" spans="1:5" x14ac:dyDescent="0.2">
@@ -72696,7 +72696,7 @@
         <v>21</v>
       </c>
       <c r="E3564" s="3">
-        <v>2201.15</v>
+        <v>2232.27</v>
       </c>
     </row>
     <row r="3565" spans="1:5" x14ac:dyDescent="0.2">
@@ -72713,7 +72713,7 @@
         <v>21</v>
       </c>
       <c r="E3565" s="3">
-        <v>2201.15</v>
+        <v>2232.27</v>
       </c>
     </row>
     <row r="3566" spans="1:5" x14ac:dyDescent="0.2">
@@ -72730,7 +72730,7 @@
         <v>21</v>
       </c>
       <c r="E3566" s="3">
-        <v>3727.27</v>
+        <v>3779.97</v>
       </c>
     </row>
     <row r="3567" spans="1:5" x14ac:dyDescent="0.2">
@@ -72747,7 +72747,7 @@
         <v>21</v>
       </c>
       <c r="E3567" s="3">
-        <v>3727.27</v>
+        <v>3779.97</v>
       </c>
     </row>
     <row r="3568" spans="1:5" x14ac:dyDescent="0.2">
@@ -72764,7 +72764,7 @@
         <v>21</v>
       </c>
       <c r="E3568" s="3">
-        <v>1626.75</v>
+        <v>1649.75</v>
       </c>
     </row>
     <row r="3569" spans="1:5" x14ac:dyDescent="0.2">
@@ -72781,7 +72781,7 @@
         <v>21</v>
       </c>
       <c r="E3569" s="3">
-        <v>6037.42</v>
+        <v>6122.79</v>
       </c>
     </row>
     <row r="3570" spans="1:5" x14ac:dyDescent="0.2">
@@ -72798,7 +72798,7 @@
         <v>21</v>
       </c>
       <c r="E3570" s="3">
-        <v>6037.42</v>
+        <v>6122.79</v>
       </c>
     </row>
     <row r="3571" spans="1:5" x14ac:dyDescent="0.2">
@@ -72815,7 +72815,7 @@
         <v>21</v>
       </c>
       <c r="E3571" s="3">
-        <v>700.16</v>
+        <v>710.07</v>
       </c>
     </row>
     <row r="3572" spans="1:5" x14ac:dyDescent="0.2">
@@ -72832,7 +72832,7 @@
         <v>21</v>
       </c>
       <c r="E3572" s="3">
-        <v>796.6</v>
+        <v>807.87</v>
       </c>
     </row>
     <row r="3573" spans="1:5" x14ac:dyDescent="0.2">
@@ -72849,7 +72849,7 @@
         <v>21</v>
       </c>
       <c r="E3573" s="3">
-        <v>586.97</v>
+        <v>595.27</v>
       </c>
     </row>
     <row r="3574" spans="1:5" x14ac:dyDescent="0.2">
@@ -72866,7 +72866,7 @@
         <v>21</v>
       </c>
       <c r="E3574" s="3">
-        <v>482.16</v>
+        <v>488.97</v>
       </c>
     </row>
     <row r="3575" spans="1:5" x14ac:dyDescent="0.2">
@@ -72883,7 +72883,7 @@
         <v>21</v>
       </c>
       <c r="E3575" s="3">
-        <v>532.46</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3576" spans="1:5" x14ac:dyDescent="0.2">
@@ -72900,7 +72900,7 @@
         <v>21</v>
       </c>
       <c r="E3576" s="3">
-        <v>595.36</v>
+        <v>603.78</v>
       </c>
     </row>
     <row r="3577" spans="1:5" x14ac:dyDescent="0.2">
@@ -72917,7 +72917,7 @@
         <v>21</v>
       </c>
       <c r="E3577" s="3">
-        <v>1291.3399999999999</v>
+        <v>1309.5999999999999</v>
       </c>
     </row>
     <row r="3578" spans="1:5" x14ac:dyDescent="0.2">
@@ -72934,7 +72934,7 @@
         <v>21</v>
       </c>
       <c r="E3578" s="3">
-        <v>310.26</v>
+        <v>314.64</v>
       </c>
     </row>
     <row r="3579" spans="1:5" x14ac:dyDescent="0.2">
@@ -72951,7 +72951,7 @@
         <v>21</v>
       </c>
       <c r="E3579" s="3">
-        <v>804.99</v>
+        <v>816.37</v>
       </c>
     </row>
     <row r="3580" spans="1:5" x14ac:dyDescent="0.2">
@@ -72968,7 +72968,7 @@
         <v>21</v>
       </c>
       <c r="E3580" s="3">
-        <v>1626.75</v>
+        <v>1649.75</v>
       </c>
     </row>
     <row r="3581" spans="1:5" x14ac:dyDescent="0.2">
@@ -72985,7 +72985,7 @@
         <v>21</v>
       </c>
       <c r="E3581" s="3">
-        <v>1777.68</v>
+        <v>1802.82</v>
       </c>
     </row>
     <row r="3582" spans="1:5" x14ac:dyDescent="0.2">
@@ -73002,7 +73002,7 @@
         <v>21</v>
       </c>
       <c r="E3582" s="3">
-        <v>2976.78</v>
+        <v>3018.88</v>
       </c>
     </row>
     <row r="3583" spans="1:5" x14ac:dyDescent="0.2">
@@ -73019,7 +73019,7 @@
         <v>21</v>
       </c>
       <c r="E3583" s="3">
-        <v>5957.75</v>
+        <v>6042.01</v>
       </c>
     </row>
     <row r="3584" spans="1:5" x14ac:dyDescent="0.2">
@@ -73036,7 +73036,7 @@
         <v>21</v>
       </c>
       <c r="E3584" s="3">
-        <v>5236.63</v>
+        <v>5310.67</v>
       </c>
     </row>
     <row r="3585" spans="1:5" x14ac:dyDescent="0.2">
@@ -73053,7 +73053,7 @@
         <v>21</v>
       </c>
       <c r="E3585" s="3">
-        <v>10464.85</v>
+        <v>10612.84</v>
       </c>
     </row>
     <row r="3586" spans="1:5" x14ac:dyDescent="0.2">
@@ -73070,7 +73070,7 @@
         <v>21</v>
       </c>
       <c r="E3586" s="3">
-        <v>2222.1</v>
+        <v>2253.5300000000002</v>
       </c>
     </row>
     <row r="3587" spans="1:5" x14ac:dyDescent="0.2">
@@ -73087,7 +73087,7 @@
         <v>21</v>
       </c>
       <c r="E3587" s="3">
-        <v>3697.92</v>
+        <v>3750.21</v>
       </c>
     </row>
     <row r="3588" spans="1:5" x14ac:dyDescent="0.2">
@@ -73104,7 +73104,7 @@
         <v>21</v>
       </c>
       <c r="E3588" s="3">
-        <v>7395.83</v>
+        <v>7500.42</v>
       </c>
     </row>
     <row r="3589" spans="1:5" x14ac:dyDescent="0.2">
@@ -73121,7 +73121,7 @@
         <v>21</v>
       </c>
       <c r="E3589" s="3">
-        <v>7119.12</v>
+        <v>7219.79</v>
       </c>
     </row>
     <row r="3590" spans="1:5" x14ac:dyDescent="0.2">
@@ -73138,7 +73138,7 @@
         <v>21</v>
       </c>
       <c r="E3590" s="3">
-        <v>14234.06</v>
+        <v>14435.34</v>
       </c>
     </row>
     <row r="3591" spans="1:5" x14ac:dyDescent="0.2">
@@ -73155,7 +73155,7 @@
         <v>21</v>
       </c>
       <c r="E3591" s="3">
-        <v>10536.14</v>
+        <v>10685.13</v>
       </c>
     </row>
     <row r="3592" spans="1:5" x14ac:dyDescent="0.2">
@@ -73172,7 +73172,7 @@
         <v>21</v>
       </c>
       <c r="E3592" s="3">
-        <v>4326.8100000000004</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="3593" spans="1:5" x14ac:dyDescent="0.2">
@@ -73189,7 +73189,7 @@
         <v>21</v>
       </c>
       <c r="E3593" s="3">
-        <v>8653.6299999999992</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="3594" spans="1:5" x14ac:dyDescent="0.2">
@@ -73206,7 +73206,7 @@
         <v>21</v>
       </c>
       <c r="E3594" s="3">
-        <v>8791.98</v>
+        <v>8916.32</v>
       </c>
     </row>
     <row r="3595" spans="1:5" x14ac:dyDescent="0.2">
@@ -73223,7 +73223,7 @@
         <v>21</v>
       </c>
       <c r="E3595" s="3">
-        <v>17583.97</v>
+        <v>17832.64</v>
       </c>
     </row>
     <row r="3596" spans="1:5" x14ac:dyDescent="0.2">
@@ -73240,7 +73240,7 @@
         <v>21</v>
       </c>
       <c r="E3596" s="3">
-        <v>7328.75</v>
+        <v>7432.39</v>
       </c>
     </row>
     <row r="3597" spans="1:5" x14ac:dyDescent="0.2">
@@ -73257,7 +73257,7 @@
         <v>21</v>
       </c>
       <c r="E3597" s="3">
-        <v>14653.32</v>
+        <v>14860.53</v>
       </c>
     </row>
     <row r="3598" spans="1:5" x14ac:dyDescent="0.2">
@@ -73274,7 +73274,7 @@
         <v>21</v>
       </c>
       <c r="E3598" s="3">
-        <v>13190.08</v>
+        <v>13376.6</v>
       </c>
     </row>
     <row r="3599" spans="1:5" x14ac:dyDescent="0.2">
@@ -73291,7 +73291,7 @@
         <v>21</v>
       </c>
       <c r="E3599" s="3">
-        <v>26375.97</v>
+        <v>26748.95</v>
       </c>
     </row>
     <row r="3600" spans="1:5" x14ac:dyDescent="0.2">
@@ -73308,7 +73308,7 @@
         <v>21</v>
       </c>
       <c r="E3600" s="3">
-        <v>4884.45</v>
+        <v>4953.51</v>
       </c>
     </row>
     <row r="3601" spans="1:5" x14ac:dyDescent="0.2">
@@ -73325,7 +73325,7 @@
         <v>21</v>
       </c>
       <c r="E3601" s="3">
-        <v>9768.8700000000008</v>
+        <v>9907.02</v>
       </c>
     </row>
     <row r="3602" spans="1:5" x14ac:dyDescent="0.2">
@@ -73342,7 +73342,7 @@
         <v>21</v>
       </c>
       <c r="E3602" s="3">
-        <v>9156.75</v>
+        <v>9286.24</v>
       </c>
     </row>
     <row r="3603" spans="1:5" x14ac:dyDescent="0.2">
@@ -73359,7 +73359,7 @@
         <v>21</v>
       </c>
       <c r="E3603" s="3">
-        <v>18317.68</v>
+        <v>18576.73</v>
       </c>
     </row>
     <row r="3604" spans="1:5" x14ac:dyDescent="0.2">
@@ -73376,7 +73376,7 @@
         <v>21</v>
       </c>
       <c r="E3604" s="3">
-        <v>3052.73</v>
+        <v>5166.51</v>
       </c>
     </row>
     <row r="3605" spans="1:5" x14ac:dyDescent="0.2">
@@ -73393,7 +73393,7 @@
         <v>21</v>
       </c>
       <c r="E3605" s="3">
-        <v>16414.23</v>
+        <v>16646.349999999999</v>
       </c>
     </row>
     <row r="3606" spans="1:5" x14ac:dyDescent="0.2">
@@ -73444,7 +73444,7 @@
         <v>21</v>
       </c>
       <c r="E3608" s="3">
-        <v>21076.46</v>
+        <v>21374.5</v>
       </c>
     </row>
     <row r="3609" spans="1:5" x14ac:dyDescent="0.2">
@@ -73461,7 +73461,7 @@
         <v>21</v>
       </c>
       <c r="E3609" s="3">
-        <v>7953.45</v>
+        <v>8065.93</v>
       </c>
     </row>
     <row r="3610" spans="1:5" x14ac:dyDescent="0.2">
@@ -73631,7 +73631,7 @@
         <v>21</v>
       </c>
       <c r="E3619" s="3">
-        <v>2405.6799999999998</v>
+        <v>2439.6999999999998</v>
       </c>
     </row>
     <row r="3620" spans="1:5" x14ac:dyDescent="0.2">
@@ -73648,7 +73648,7 @@
         <v>21</v>
       </c>
       <c r="E3620" s="3">
-        <v>508.64</v>
+        <v>554.39</v>
       </c>
     </row>
     <row r="3621" spans="1:5" x14ac:dyDescent="0.2">
@@ -73665,7 +73665,7 @@
         <v>21</v>
       </c>
       <c r="E3621" s="3">
-        <v>444.67</v>
+        <v>484.71</v>
       </c>
     </row>
     <row r="3622" spans="1:5" x14ac:dyDescent="0.2">
@@ -73682,7 +73682,7 @@
         <v>21</v>
       </c>
       <c r="E3622" s="3">
-        <v>584.48</v>
+        <v>637.1</v>
       </c>
     </row>
     <row r="3623" spans="1:5" x14ac:dyDescent="0.2">
@@ -73699,7 +73699,7 @@
         <v>21</v>
       </c>
       <c r="E3623" s="3">
-        <v>718.76</v>
+        <v>783.46</v>
       </c>
     </row>
     <row r="3624" spans="1:5" x14ac:dyDescent="0.2">
@@ -73716,7 +73716,7 @@
         <v>21</v>
       </c>
       <c r="E3624" s="3">
-        <v>1006.46</v>
+        <v>1097.03</v>
       </c>
     </row>
     <row r="3625" spans="1:5" x14ac:dyDescent="0.2">
@@ -73733,7 +73733,7 @@
         <v>21</v>
       </c>
       <c r="E3625" s="3">
-        <v>1147.6500000000001</v>
+        <v>1250.93</v>
       </c>
     </row>
     <row r="3626" spans="1:5" x14ac:dyDescent="0.2">
@@ -73750,7 +73750,7 @@
         <v>21</v>
       </c>
       <c r="E3626" s="3">
-        <v>320.22000000000003</v>
+        <v>349.03</v>
       </c>
     </row>
     <row r="3627" spans="1:5" x14ac:dyDescent="0.2">
@@ -73767,7 +73767,7 @@
         <v>21</v>
       </c>
       <c r="E3627" s="3">
-        <v>2271.13</v>
+        <v>2475.5300000000002</v>
       </c>
     </row>
     <row r="3628" spans="1:5" x14ac:dyDescent="0.2">
@@ -73784,7 +73784,7 @@
         <v>21</v>
       </c>
       <c r="E3628" s="3">
-        <v>1553.7</v>
+        <v>1693.54</v>
       </c>
     </row>
     <row r="3629" spans="1:5" x14ac:dyDescent="0.2">
@@ -73801,7 +73801,7 @@
         <v>21</v>
       </c>
       <c r="E3629" s="3">
-        <v>1717.19</v>
+        <v>1871.72</v>
       </c>
     </row>
     <row r="3630" spans="1:5" x14ac:dyDescent="0.2">
@@ -73818,7 +73818,7 @@
         <v>21</v>
       </c>
       <c r="E3630" s="3">
-        <v>1774.87</v>
+        <v>1934.6</v>
       </c>
     </row>
     <row r="3631" spans="1:5" x14ac:dyDescent="0.2">
@@ -73835,7 +73835,7 @@
         <v>21</v>
       </c>
       <c r="E3631" s="3">
-        <v>1233.01</v>
+        <v>1343.99</v>
       </c>
     </row>
     <row r="3632" spans="1:5" x14ac:dyDescent="0.2">
@@ -73852,7 +73852,7 @@
         <v>21</v>
       </c>
       <c r="E3632" s="3">
-        <v>2215.9699999999998</v>
+        <v>2415.42</v>
       </c>
     </row>
     <row r="3633" spans="1:5" x14ac:dyDescent="0.2">
@@ -73869,7 +73869,7 @@
         <v>21</v>
       </c>
       <c r="E3633" s="3">
-        <v>3929.17</v>
+        <v>4282.8</v>
       </c>
     </row>
     <row r="3634" spans="1:5" x14ac:dyDescent="0.2">
@@ -73886,7 +73886,7 @@
         <v>21</v>
       </c>
       <c r="E3634" s="3">
-        <v>4170.2700000000004</v>
+        <v>4545.59</v>
       </c>
     </row>
     <row r="3635" spans="1:5" x14ac:dyDescent="0.2">
@@ -73903,7 +73903,7 @@
         <v>21</v>
       </c>
       <c r="E3635" s="3">
-        <v>3204.01</v>
+        <v>3492.38</v>
       </c>
     </row>
     <row r="3636" spans="1:5" x14ac:dyDescent="0.2">
@@ -73920,7 +73920,7 @@
         <v>21</v>
       </c>
       <c r="E3636" s="3">
-        <v>5320.14</v>
+        <v>5798.95</v>
       </c>
     </row>
     <row r="3637" spans="1:5" x14ac:dyDescent="0.2">
@@ -73937,7 +73937,7 @@
         <v>21</v>
       </c>
       <c r="E3637" s="3">
-        <v>6292.16</v>
+        <v>6858.46</v>
       </c>
     </row>
     <row r="3638" spans="1:5" x14ac:dyDescent="0.2">
@@ -73954,7 +73954,7 @@
         <v>21</v>
       </c>
       <c r="E3638" s="3">
-        <v>6533.37</v>
+        <v>7121.37</v>
       </c>
     </row>
     <row r="3639" spans="1:5" x14ac:dyDescent="0.2">
@@ -73971,7 +73971,7 @@
         <v>21</v>
       </c>
       <c r="E3639" s="3">
-        <v>710.24</v>
+        <v>774.17</v>
       </c>
     </row>
     <row r="3640" spans="1:5" x14ac:dyDescent="0.2">
@@ -73988,7 +73988,7 @@
         <v>21</v>
       </c>
       <c r="E3640" s="3">
-        <v>710.24</v>
+        <v>774.17</v>
       </c>
     </row>
     <row r="3641" spans="1:5" x14ac:dyDescent="0.2">
@@ -74005,7 +74005,7 @@
         <v>21</v>
       </c>
       <c r="E3641" s="3">
-        <v>710.24</v>
+        <v>774.17</v>
       </c>
     </row>
     <row r="3642" spans="1:5" x14ac:dyDescent="0.2">
@@ -74022,7 +74022,7 @@
         <v>21</v>
       </c>
       <c r="E3642" s="3">
-        <v>710.24</v>
+        <v>774.17</v>
       </c>
     </row>
     <row r="3643" spans="1:5" x14ac:dyDescent="0.2">
@@ -74039,7 +74039,7 @@
         <v>21</v>
       </c>
       <c r="E3643" s="3">
-        <v>721.68</v>
+        <v>786.64</v>
       </c>
     </row>
     <row r="3644" spans="1:5" x14ac:dyDescent="0.2">
@@ -74056,7 +74056,7 @@
         <v>21</v>
       </c>
       <c r="E3644" s="3">
-        <v>721.68</v>
+        <v>786.64</v>
       </c>
     </row>
     <row r="3645" spans="1:5" x14ac:dyDescent="0.2">
@@ -74073,7 +74073,7 @@
         <v>21</v>
       </c>
       <c r="E3645" s="3">
-        <v>721.68</v>
+        <v>786.64</v>
       </c>
     </row>
     <row r="3646" spans="1:5" x14ac:dyDescent="0.2">
@@ -74090,7 +74090,7 @@
         <v>21</v>
       </c>
       <c r="E3646" s="3">
-        <v>3680.66</v>
+        <v>4011.92</v>
       </c>
     </row>
     <row r="3647" spans="1:5" x14ac:dyDescent="0.2">
@@ -74107,7 +74107,7 @@
         <v>21</v>
       </c>
       <c r="E3647" s="3">
-        <v>3680.66</v>
+        <v>4011.92</v>
       </c>
     </row>
     <row r="3648" spans="1:5" x14ac:dyDescent="0.2">
@@ -74124,7 +74124,7 @@
         <v>21</v>
       </c>
       <c r="E3648" s="3">
-        <v>4182.84</v>
+        <v>4559.3</v>
       </c>
     </row>
     <row r="3649" spans="1:5" x14ac:dyDescent="0.2">
@@ -74141,7 +74141,7 @@
         <v>21</v>
       </c>
       <c r="E3649" s="3">
-        <v>4182.84</v>
+        <v>4559.3</v>
       </c>
     </row>
     <row r="3650" spans="1:5" x14ac:dyDescent="0.2">
@@ -74158,7 +74158,7 @@
         <v>21</v>
       </c>
       <c r="E3650" s="3">
-        <v>4481.66</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="3651" spans="1:5" x14ac:dyDescent="0.2">
@@ -74175,7 +74175,7 @@
         <v>21</v>
       </c>
       <c r="E3651" s="3">
-        <v>4481.66</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="3652" spans="1:5" x14ac:dyDescent="0.2">
@@ -74192,7 +74192,7 @@
         <v>21</v>
       </c>
       <c r="E3652" s="3">
-        <v>5216.49</v>
+        <v>5685.96</v>
       </c>
     </row>
     <row r="3653" spans="1:5" x14ac:dyDescent="0.2">
@@ -74209,7 +74209,7 @@
         <v>21</v>
       </c>
       <c r="E3653" s="3">
-        <v>5216.49</v>
+        <v>5685.96</v>
       </c>
     </row>
     <row r="3654" spans="1:5" x14ac:dyDescent="0.2">
@@ -74226,7 +74226,7 @@
         <v>21</v>
       </c>
       <c r="E3654" s="3">
-        <v>256.10000000000002</v>
+        <v>279.14999999999998</v>
       </c>
     </row>
     <row r="3655" spans="1:5" x14ac:dyDescent="0.2">
@@ -74243,7 +74243,7 @@
         <v>21</v>
       </c>
       <c r="E3655" s="3">
-        <v>414.01</v>
+        <v>451.26</v>
       </c>
     </row>
     <row r="3656" spans="1:5" x14ac:dyDescent="0.2">
@@ -74260,7 +74260,7 @@
         <v>21</v>
       </c>
       <c r="E3656" s="3">
-        <v>5945.53</v>
+        <v>6480.63</v>
       </c>
     </row>
     <row r="3657" spans="1:5" x14ac:dyDescent="0.2">
@@ -74277,7 +74277,7 @@
         <v>21</v>
       </c>
       <c r="E3657" s="3">
-        <v>9909.5400000000009</v>
+        <v>10801.4</v>
       </c>
     </row>
     <row r="3658" spans="1:5" x14ac:dyDescent="0.2">
@@ -74294,7 +74294,7 @@
         <v>21</v>
       </c>
       <c r="E3658" s="3">
-        <v>1540.52</v>
+        <v>1679.18</v>
       </c>
     </row>
     <row r="3659" spans="1:5" x14ac:dyDescent="0.2">
@@ -74328,7 +74328,7 @@
         <v>21</v>
       </c>
       <c r="E3660" s="3">
-        <v>7817.65</v>
+        <v>11264.98</v>
       </c>
     </row>
     <row r="3661" spans="1:5" x14ac:dyDescent="0.2">
@@ -74345,7 +74345,7 @@
         <v>21</v>
       </c>
       <c r="E3661" s="3">
-        <v>9463.8799999999992</v>
+        <v>13637.15</v>
       </c>
     </row>
     <row r="3662" spans="1:5" x14ac:dyDescent="0.2">
@@ -74362,7 +74362,7 @@
         <v>21</v>
       </c>
       <c r="E3662" s="3">
-        <v>8474.7999999999993</v>
+        <v>12211.9</v>
       </c>
     </row>
     <row r="3663" spans="1:5" x14ac:dyDescent="0.2">
@@ -74379,7 +74379,7 @@
         <v>21</v>
       </c>
       <c r="E3663" s="3">
-        <v>6328.22</v>
+        <v>9118.77</v>
       </c>
     </row>
     <row r="3664" spans="1:5" x14ac:dyDescent="0.2">
@@ -74396,7 +74396,7 @@
         <v>21</v>
       </c>
       <c r="E3664" s="3">
-        <v>862.37</v>
+        <v>1242.82</v>
       </c>
     </row>
     <row r="3665" spans="1:5" x14ac:dyDescent="0.2">
@@ -74413,7 +74413,7 @@
         <v>21</v>
       </c>
       <c r="E3665" s="3">
-        <v>957.17</v>
+        <v>1379.42</v>
       </c>
     </row>
     <row r="3666" spans="1:5" x14ac:dyDescent="0.2">
@@ -74430,7 +74430,7 @@
         <v>21</v>
       </c>
       <c r="E3666" s="3">
-        <v>1099.81</v>
+        <v>1584.98</v>
       </c>
     </row>
     <row r="3667" spans="1:5" x14ac:dyDescent="0.2">
@@ -74447,7 +74447,7 @@
         <v>21</v>
       </c>
       <c r="E3667" s="3">
-        <v>1310.68</v>
+        <v>1888.89</v>
       </c>
     </row>
     <row r="3668" spans="1:5" x14ac:dyDescent="0.2">
@@ -74464,7 +74464,7 @@
         <v>21</v>
       </c>
       <c r="E3668" s="3">
-        <v>1527.82</v>
+        <v>2201.83</v>
       </c>
     </row>
     <row r="3669" spans="1:5" x14ac:dyDescent="0.2">
@@ -74481,7 +74481,7 @@
         <v>21</v>
       </c>
       <c r="E3669" s="3">
-        <v>1559.38</v>
+        <v>2247.3000000000002</v>
       </c>
     </row>
     <row r="3670" spans="1:5" x14ac:dyDescent="0.2">
@@ -74498,7 +74498,7 @@
         <v>21</v>
       </c>
       <c r="E3670" s="3">
-        <v>4857.6000000000004</v>
+        <v>7000.53</v>
       </c>
     </row>
     <row r="3671" spans="1:5" x14ac:dyDescent="0.2">
@@ -74515,7 +74515,7 @@
         <v>21</v>
       </c>
       <c r="E3671" s="3">
-        <v>1707.22</v>
+        <v>2460.35</v>
       </c>
     </row>
     <row r="3672" spans="1:5" x14ac:dyDescent="0.2">
@@ -74532,7 +74532,7 @@
         <v>21</v>
       </c>
       <c r="E3672" s="3">
-        <v>1870.02</v>
+        <v>2694.96</v>
       </c>
     </row>
     <row r="3673" spans="1:5" x14ac:dyDescent="0.2">
@@ -74549,7 +74549,7 @@
         <v>21</v>
       </c>
       <c r="E3673" s="3">
-        <v>2071.9899999999998</v>
+        <v>2986.07</v>
       </c>
     </row>
     <row r="3674" spans="1:5" x14ac:dyDescent="0.2">
@@ -74566,7 +74566,7 @@
         <v>21</v>
       </c>
       <c r="E3674" s="3">
-        <v>2240.06</v>
+        <v>3228.26</v>
       </c>
     </row>
     <row r="3675" spans="1:5" x14ac:dyDescent="0.2">
@@ -74583,7 +74583,7 @@
         <v>21</v>
       </c>
       <c r="E3675" s="3">
-        <v>1046.77</v>
+        <v>1508.55</v>
       </c>
     </row>
     <row r="3676" spans="1:5" x14ac:dyDescent="0.2">
@@ -74600,7 +74600,7 @@
         <v>21</v>
       </c>
       <c r="E3676" s="3">
-        <v>1297.96</v>
+        <v>1870.56</v>
       </c>
     </row>
     <row r="3677" spans="1:5" x14ac:dyDescent="0.2">
@@ -74617,7 +74617,7 @@
         <v>21</v>
       </c>
       <c r="E3677" s="3">
-        <v>1463.46</v>
+        <v>2109.0700000000002</v>
       </c>
     </row>
     <row r="3678" spans="1:5" x14ac:dyDescent="0.2">
@@ -74634,7 +74634,7 @@
         <v>21</v>
       </c>
       <c r="E3678" s="3">
-        <v>1697.08</v>
+        <v>2445.7399999999998</v>
       </c>
     </row>
     <row r="3679" spans="1:5" x14ac:dyDescent="0.2">
@@ -74651,7 +74651,7 @@
         <v>21</v>
       </c>
       <c r="E3679" s="3">
-        <v>2073.31</v>
+        <v>2987.95</v>
       </c>
     </row>
     <row r="3680" spans="1:5" x14ac:dyDescent="0.2">
@@ -74668,7 +74668,7 @@
         <v>21</v>
       </c>
       <c r="E3680" s="3">
-        <v>2198.35</v>
+        <v>3168.15</v>
       </c>
     </row>
     <row r="3681" spans="1:5" x14ac:dyDescent="0.2">
@@ -74685,7 +74685,7 @@
         <v>21</v>
       </c>
       <c r="E3681" s="3">
-        <v>2341.0500000000002</v>
+        <v>3373.8</v>
       </c>
     </row>
     <row r="3682" spans="1:5" x14ac:dyDescent="0.2">
@@ -74702,7 +74702,7 @@
         <v>21</v>
       </c>
       <c r="E3682" s="3">
-        <v>2596.06</v>
+        <v>3741.33</v>
       </c>
     </row>
     <row r="3683" spans="1:5" x14ac:dyDescent="0.2">
@@ -74719,7 +74719,7 @@
         <v>21</v>
       </c>
       <c r="E3683" s="3">
-        <v>3096.1</v>
+        <v>4461.96</v>
       </c>
     </row>
     <row r="3684" spans="1:5" x14ac:dyDescent="0.2">
@@ -74736,7 +74736,7 @@
         <v>21</v>
       </c>
       <c r="E3684" s="3">
-        <v>3237.54</v>
+        <v>4665.78</v>
       </c>
     </row>
     <row r="3685" spans="1:5" x14ac:dyDescent="0.2">
@@ -74753,7 +74753,7 @@
         <v>21</v>
       </c>
       <c r="E3685" s="3">
-        <v>3824.72</v>
+        <v>5512.01</v>
       </c>
     </row>
     <row r="3686" spans="1:5" x14ac:dyDescent="0.2">
@@ -74770,7 +74770,7 @@
         <v>21</v>
       </c>
       <c r="E3686" s="3">
-        <v>2102.36</v>
+        <v>3029.81</v>
       </c>
     </row>
     <row r="3687" spans="1:5" x14ac:dyDescent="0.2">
@@ -74787,7 +74787,7 @@
         <v>21</v>
       </c>
       <c r="E3687" s="3">
-        <v>2572.1</v>
+        <v>3706.77</v>
       </c>
     </row>
     <row r="3688" spans="1:5" x14ac:dyDescent="0.2">
@@ -74804,7 +74804,7 @@
         <v>21</v>
       </c>
       <c r="E3688" s="3">
-        <v>2968.49</v>
+        <v>4278.05</v>
       </c>
     </row>
     <row r="3689" spans="1:5" x14ac:dyDescent="0.2">
@@ -74821,7 +74821,7 @@
         <v>21</v>
       </c>
       <c r="E3689" s="3">
-        <v>3382.82</v>
+        <v>4875.1400000000003</v>
       </c>
     </row>
     <row r="3690" spans="1:5" x14ac:dyDescent="0.2">
@@ -74838,7 +74838,7 @@
         <v>21</v>
       </c>
       <c r="E3690" s="3">
-        <v>3464.77</v>
+        <v>4993.25</v>
       </c>
     </row>
     <row r="3691" spans="1:5" x14ac:dyDescent="0.2">
@@ -74855,7 +74855,7 @@
         <v>21</v>
       </c>
       <c r="E3691" s="3">
-        <v>3955.96</v>
+        <v>5701.14</v>
       </c>
     </row>
     <row r="3692" spans="1:5" x14ac:dyDescent="0.2">
@@ -74872,7 +74872,7 @@
         <v>21</v>
       </c>
       <c r="E3692" s="3">
-        <v>5967.41</v>
+        <v>8599.94</v>
       </c>
     </row>
     <row r="3693" spans="1:5" x14ac:dyDescent="0.2">
@@ -74889,7 +74889,7 @@
         <v>21</v>
       </c>
       <c r="E3693" s="3">
-        <v>6957.4</v>
+        <v>10026.65</v>
       </c>
     </row>
     <row r="3694" spans="1:5" x14ac:dyDescent="0.2">
@@ -74906,7 +74906,7 @@
         <v>21</v>
       </c>
       <c r="E3694" s="3">
-        <v>1176.81</v>
+        <v>1695.97</v>
       </c>
     </row>
     <row r="3695" spans="1:5" x14ac:dyDescent="0.2">
@@ -74923,7 +74923,7 @@
         <v>21</v>
       </c>
       <c r="E3695" s="3">
-        <v>1397.85</v>
+        <v>2014.5</v>
       </c>
     </row>
     <row r="3696" spans="1:5" x14ac:dyDescent="0.2">
@@ -74940,7 +74940,7 @@
         <v>21</v>
       </c>
       <c r="E3696" s="3">
-        <v>1623.81</v>
+        <v>2340.17</v>
       </c>
     </row>
     <row r="3697" spans="1:5" x14ac:dyDescent="0.2">
@@ -74957,7 +74957,7 @@
         <v>21</v>
       </c>
       <c r="E3697" s="3">
-        <v>1992.41</v>
+        <v>2871.36</v>
       </c>
     </row>
     <row r="3698" spans="1:5" x14ac:dyDescent="0.2">
@@ -74974,7 +74974,7 @@
         <v>21</v>
       </c>
       <c r="E3698" s="3">
-        <v>1468.46</v>
+        <v>2116.3000000000002</v>
       </c>
     </row>
     <row r="3699" spans="1:5" x14ac:dyDescent="0.2">
@@ -74991,7 +74991,7 @@
         <v>21</v>
       </c>
       <c r="E3699" s="3">
-        <v>1468.46</v>
+        <v>2116.3000000000002</v>
       </c>
     </row>
     <row r="3700" spans="1:5" x14ac:dyDescent="0.2">
@@ -75008,7 +75008,7 @@
         <v>21</v>
       </c>
       <c r="E3700" s="3">
-        <v>1540.54</v>
+        <v>2220.14</v>
       </c>
     </row>
     <row r="3701" spans="1:5" x14ac:dyDescent="0.2">
@@ -75025,7 +75025,7 @@
         <v>21</v>
       </c>
       <c r="E3701" s="3">
-        <v>1832.07</v>
+        <v>2640.28</v>
       </c>
     </row>
     <row r="3702" spans="1:5" x14ac:dyDescent="0.2">
@@ -75042,7 +75042,7 @@
         <v>21</v>
       </c>
       <c r="E3702" s="3">
-        <v>2443.23</v>
+        <v>3521.05</v>
       </c>
     </row>
     <row r="3703" spans="1:5" x14ac:dyDescent="0.2">
@@ -75059,7 +75059,7 @@
         <v>21</v>
       </c>
       <c r="E3703" s="3">
-        <v>1848.59</v>
+        <v>2664.1</v>
       </c>
     </row>
     <row r="3704" spans="1:5" x14ac:dyDescent="0.2">
@@ -75076,7 +75076,7 @@
         <v>21</v>
       </c>
       <c r="E3704" s="3">
-        <v>1865.07</v>
+        <v>2687.84</v>
       </c>
     </row>
     <row r="3705" spans="1:5" x14ac:dyDescent="0.2">
@@ -75093,7 +75093,7 @@
         <v>21</v>
       </c>
       <c r="E3705" s="3">
-        <v>2068.29</v>
+        <v>2980.74</v>
       </c>
     </row>
     <row r="3706" spans="1:5" x14ac:dyDescent="0.2">
@@ -75110,7 +75110,7 @@
         <v>21</v>
       </c>
       <c r="E3706" s="3">
-        <v>2362.4499999999998</v>
+        <v>3404.66</v>
       </c>
     </row>
     <row r="3707" spans="1:5" x14ac:dyDescent="0.2">
@@ -75127,7 +75127,7 @@
         <v>21</v>
       </c>
       <c r="E3707" s="3">
-        <v>2694.56</v>
+        <v>3883.27</v>
       </c>
     </row>
     <row r="3708" spans="1:5" x14ac:dyDescent="0.2">
@@ -75144,7 +75144,7 @@
         <v>21</v>
       </c>
       <c r="E3708" s="3">
-        <v>3144.12</v>
+        <v>4531.1499999999996</v>
       </c>
     </row>
     <row r="3709" spans="1:5" x14ac:dyDescent="0.2">
@@ -75161,7 +75161,7 @@
         <v>21</v>
       </c>
       <c r="E3709" s="3">
-        <v>2732.51</v>
+        <v>3937.96</v>
       </c>
     </row>
     <row r="3710" spans="1:5" x14ac:dyDescent="0.2">
@@ -75178,7 +75178,7 @@
         <v>21</v>
       </c>
       <c r="E3710" s="3">
-        <v>1188.22</v>
+        <v>1712.39</v>
       </c>
     </row>
     <row r="3711" spans="1:5" x14ac:dyDescent="0.2">
@@ -75195,7 +75195,7 @@
         <v>21</v>
       </c>
       <c r="E3711" s="3">
-        <v>1469.78</v>
+        <v>2118.17</v>
       </c>
     </row>
     <row r="3712" spans="1:5" x14ac:dyDescent="0.2">
@@ -75212,7 +75212,7 @@
         <v>21</v>
       </c>
       <c r="E3712" s="3">
-        <v>1765.2</v>
+        <v>2543.92</v>
       </c>
     </row>
     <row r="3713" spans="1:5" x14ac:dyDescent="0.2">
@@ -75229,7 +75229,7 @@
         <v>21</v>
       </c>
       <c r="E3713" s="3">
-        <v>2063.2199999999998</v>
+        <v>2973.42</v>
       </c>
     </row>
     <row r="3714" spans="1:5" x14ac:dyDescent="0.2">
@@ -75246,7 +75246,7 @@
         <v>21</v>
       </c>
       <c r="E3714" s="3">
-        <v>2497.5100000000002</v>
+        <v>3599.29</v>
       </c>
     </row>
     <row r="3715" spans="1:5" x14ac:dyDescent="0.2">
@@ -75263,7 +75263,7 @@
         <v>21</v>
       </c>
       <c r="E3715" s="3">
-        <v>2897.87</v>
+        <v>4176.25</v>
       </c>
     </row>
     <row r="3716" spans="1:5" x14ac:dyDescent="0.2">
@@ -75280,7 +75280,7 @@
         <v>21</v>
       </c>
       <c r="E3716" s="3">
-        <v>5349.87</v>
+        <v>7709.01</v>
       </c>
     </row>
     <row r="3717" spans="1:5" x14ac:dyDescent="0.2">
@@ -75297,7 +75297,7 @@
         <v>21</v>
       </c>
       <c r="E3717" s="3">
-        <v>4203.8500000000004</v>
+        <v>6057.62</v>
       </c>
     </row>
     <row r="3718" spans="1:5" x14ac:dyDescent="0.2">
@@ -75314,7 +75314,7 @@
         <v>21</v>
       </c>
       <c r="E3718" s="3">
-        <v>5406.05</v>
+        <v>7789.94</v>
       </c>
     </row>
     <row r="3719" spans="1:5" x14ac:dyDescent="0.2">
@@ -75331,7 +75331,7 @@
         <v>21</v>
       </c>
       <c r="E3719" s="3">
-        <v>6172.96</v>
+        <v>8895.0300000000007</v>
       </c>
     </row>
     <row r="3720" spans="1:5" x14ac:dyDescent="0.2">
@@ -75348,7 +75348,7 @@
         <v>21</v>
       </c>
       <c r="E3720" s="3">
-        <v>7817.65</v>
+        <v>11264.98</v>
       </c>
     </row>
     <row r="3721" spans="1:5" x14ac:dyDescent="0.2">
@@ -75365,7 +75365,7 @@
         <v>21</v>
       </c>
       <c r="E3721" s="3">
-        <v>9463.8799999999992</v>
+        <v>13637.15</v>
       </c>
     </row>
     <row r="3722" spans="1:5" x14ac:dyDescent="0.2">
@@ -75382,7 +75382,7 @@
         <v>21</v>
       </c>
       <c r="E3722" s="3">
-        <v>8474.7999999999993</v>
+        <v>12211.9</v>
       </c>
     </row>
     <row r="3723" spans="1:5" x14ac:dyDescent="0.2">
@@ -75399,7 +75399,7 @@
         <v>21</v>
       </c>
       <c r="E3723" s="3">
-        <v>6328.22</v>
+        <v>9118.77</v>
       </c>
     </row>
     <row r="3724" spans="1:5" x14ac:dyDescent="0.2">
@@ -75416,7 +75416,7 @@
         <v>21</v>
       </c>
       <c r="E3724" s="3">
-        <v>755.85</v>
+        <v>1089.29</v>
       </c>
     </row>
     <row r="3725" spans="1:5" x14ac:dyDescent="0.2">
@@ -75433,7 +75433,7 @@
         <v>21</v>
       </c>
       <c r="E3725" s="3">
-        <v>1594.82</v>
+        <v>2298.38</v>
       </c>
     </row>
     <row r="3726" spans="1:5" x14ac:dyDescent="0.2">
@@ -75450,7 +75450,7 @@
         <v>21</v>
       </c>
       <c r="E3726" s="3">
-        <v>534.09</v>
+        <v>769.7</v>
       </c>
     </row>
     <row r="3727" spans="1:5" x14ac:dyDescent="0.2">
@@ -75467,7 +75467,7 @@
         <v>21</v>
       </c>
       <c r="E3727" s="3">
-        <v>650.30999999999995</v>
+        <v>937.18</v>
       </c>
     </row>
     <row r="3728" spans="1:5" x14ac:dyDescent="0.2">
@@ -75484,7 +75484,7 @@
         <v>21</v>
       </c>
       <c r="E3728" s="3">
-        <v>570.79</v>
+        <v>822.58</v>
       </c>
     </row>
     <row r="3729" spans="1:5" x14ac:dyDescent="0.2">
@@ -75501,7 +75501,7 @@
         <v>21</v>
       </c>
       <c r="E3729" s="3">
-        <v>674.34</v>
+        <v>971.84</v>
       </c>
     </row>
     <row r="3730" spans="1:5" x14ac:dyDescent="0.2">
@@ -75518,7 +75518,7 @@
         <v>21</v>
       </c>
       <c r="E3730" s="3">
-        <v>743.72</v>
+        <v>1071.81</v>
       </c>
     </row>
     <row r="3731" spans="1:5" x14ac:dyDescent="0.2">
@@ -75535,7 +75535,7 @@
         <v>21</v>
       </c>
       <c r="E3731" s="3">
-        <v>840.9</v>
+        <v>27.39</v>
       </c>
     </row>
     <row r="3732" spans="1:5" x14ac:dyDescent="0.2">
@@ -75552,7 +75552,7 @@
         <v>21</v>
       </c>
       <c r="E3732" s="3">
-        <v>986.15</v>
+        <v>1421.2</v>
       </c>
     </row>
     <row r="3733" spans="1:5" x14ac:dyDescent="0.2">
@@ -75569,7 +75569,7 @@
         <v>21</v>
       </c>
       <c r="E3733" s="3">
-        <v>718.43</v>
+        <v>1035.3699999999999</v>
       </c>
     </row>
     <row r="3734" spans="1:5" x14ac:dyDescent="0.2">
@@ -75586,7 +75586,7 @@
         <v>21</v>
       </c>
       <c r="E3734" s="3">
-        <v>816.98</v>
+        <v>1177.3900000000001</v>
       </c>
     </row>
     <row r="3735" spans="1:5" x14ac:dyDescent="0.2">
@@ -75603,7 +75603,7 @@
         <v>21</v>
       </c>
       <c r="E3735" s="3">
-        <v>920.53</v>
+        <v>1326.63</v>
       </c>
     </row>
     <row r="3736" spans="1:5" x14ac:dyDescent="0.2">
@@ -75620,7 +75620,7 @@
         <v>21</v>
       </c>
       <c r="E3736" s="3">
-        <v>1022.72</v>
+        <v>1473.9</v>
       </c>
     </row>
     <row r="3737" spans="1:5" x14ac:dyDescent="0.2">
@@ -75637,7 +75637,7 @@
         <v>21</v>
       </c>
       <c r="E3737" s="3">
-        <v>1205.8699999999999</v>
+        <v>1737.83</v>
       </c>
     </row>
     <row r="3738" spans="1:5" x14ac:dyDescent="0.2">
@@ -75654,7 +75654,7 @@
         <v>21</v>
       </c>
       <c r="E3738" s="3">
-        <v>1333.42</v>
+        <v>1921.65</v>
       </c>
     </row>
     <row r="3739" spans="1:5" x14ac:dyDescent="0.2">
@@ -75671,7 +75671,7 @@
         <v>21</v>
       </c>
       <c r="E3739" s="3">
-        <v>1458.32</v>
+        <v>2101.65</v>
       </c>
     </row>
     <row r="3740" spans="1:5" x14ac:dyDescent="0.2">
@@ -75688,7 +75688,7 @@
         <v>21</v>
       </c>
       <c r="E3740" s="3">
-        <v>950.78</v>
+        <v>1370.23</v>
       </c>
     </row>
     <row r="3741" spans="1:5" x14ac:dyDescent="0.2">
@@ -75705,7 +75705,7 @@
         <v>21</v>
       </c>
       <c r="E3741" s="3">
-        <v>1115.98</v>
+        <v>1608.3</v>
       </c>
     </row>
     <row r="3742" spans="1:5" x14ac:dyDescent="0.2">
@@ -75722,7 +75722,7 @@
         <v>21</v>
       </c>
       <c r="E3742" s="3">
-        <v>1256.4000000000001</v>
+        <v>1810.66</v>
       </c>
     </row>
     <row r="3743" spans="1:5" x14ac:dyDescent="0.2">
@@ -75739,7 +75739,7 @@
         <v>21</v>
       </c>
       <c r="E3743" s="3">
-        <v>1426.83</v>
+        <v>2056.27</v>
       </c>
     </row>
     <row r="3744" spans="1:5" x14ac:dyDescent="0.2">
@@ -75756,7 +75756,7 @@
         <v>21</v>
       </c>
       <c r="E3744" s="3">
-        <v>1654.11</v>
+        <v>2383.8200000000002</v>
       </c>
     </row>
     <row r="3745" spans="1:5" x14ac:dyDescent="0.2">
@@ -75773,7 +75773,7 @@
         <v>21</v>
       </c>
       <c r="E3745" s="3">
-        <v>1846.01</v>
+        <v>2660.38</v>
       </c>
     </row>
     <row r="3746" spans="1:5" x14ac:dyDescent="0.2">
@@ -75790,7 +75790,7 @@
         <v>21</v>
       </c>
       <c r="E3746" s="3">
-        <v>1977.39</v>
+        <v>2849.71</v>
       </c>
     </row>
     <row r="3747" spans="1:5" x14ac:dyDescent="0.2">
@@ -75807,7 +75807,7 @@
         <v>21</v>
       </c>
       <c r="E3747" s="3">
-        <v>2166.7399999999998</v>
+        <v>3122.59</v>
       </c>
     </row>
     <row r="3748" spans="1:5" x14ac:dyDescent="0.2">
@@ -75824,7 +75824,7 @@
         <v>21</v>
       </c>
       <c r="E3748" s="3">
-        <v>2498.9</v>
+        <v>3601.3</v>
       </c>
     </row>
     <row r="3749" spans="1:5" x14ac:dyDescent="0.2">
@@ -75841,7 +75841,7 @@
         <v>21</v>
       </c>
       <c r="E3749" s="3">
-        <v>1604.77</v>
+        <v>2312.73</v>
       </c>
     </row>
     <row r="3750" spans="1:5" x14ac:dyDescent="0.2">
@@ -75858,7 +75858,7 @@
         <v>21</v>
       </c>
       <c r="E3750" s="3">
-        <v>1780.34</v>
+        <v>2565.75</v>
       </c>
     </row>
     <row r="3751" spans="1:5" x14ac:dyDescent="0.2">
@@ -75875,7 +75875,7 @@
         <v>21</v>
       </c>
       <c r="E3751" s="3">
-        <v>1939.44</v>
+        <v>2795.02</v>
       </c>
     </row>
     <row r="3752" spans="1:5" x14ac:dyDescent="0.2">
@@ -75892,7 +75892,7 @@
         <v>21</v>
       </c>
       <c r="E3752" s="3">
-        <v>2248.81</v>
+        <v>3240.88</v>
       </c>
     </row>
     <row r="3753" spans="1:5" x14ac:dyDescent="0.2">
@@ -75909,7 +75909,7 @@
         <v>21</v>
       </c>
       <c r="E3753" s="3">
-        <v>2409.23</v>
+        <v>3472.07</v>
       </c>
     </row>
     <row r="3754" spans="1:5" x14ac:dyDescent="0.2">
@@ -75926,7 +75926,7 @@
         <v>21</v>
       </c>
       <c r="E3754" s="3">
-        <v>2584.8000000000002</v>
+        <v>3725.08</v>
       </c>
     </row>
     <row r="3755" spans="1:5" x14ac:dyDescent="0.2">
@@ -75943,7 +75943,7 @@
         <v>21</v>
       </c>
       <c r="E3755" s="3">
-        <v>3319.64</v>
+        <v>4784.08</v>
       </c>
     </row>
     <row r="3756" spans="1:5" x14ac:dyDescent="0.2">
@@ -75960,7 +75960,7 @@
         <v>21</v>
       </c>
       <c r="E3756" s="3">
-        <v>2978.7</v>
+        <v>4292.7700000000004</v>
       </c>
     </row>
     <row r="3757" spans="1:5" x14ac:dyDescent="0.2">
@@ -75977,7 +75977,7 @@
         <v>21</v>
       </c>
       <c r="E3757" s="3">
-        <v>3174.36</v>
+        <v>4574.74</v>
       </c>
     </row>
     <row r="3758" spans="1:5" x14ac:dyDescent="0.2">
@@ -75994,7 +75994,7 @@
         <v>21</v>
       </c>
       <c r="E3758" s="3">
-        <v>3445.93</v>
+        <v>4966.09</v>
       </c>
     </row>
     <row r="3759" spans="1:5" x14ac:dyDescent="0.2">
@@ -76011,7 +76011,7 @@
         <v>21</v>
       </c>
       <c r="E3759" s="3">
-        <v>4115.07</v>
+        <v>5930.44</v>
       </c>
     </row>
     <row r="3760" spans="1:5" x14ac:dyDescent="0.2">
@@ -76028,7 +76028,7 @@
         <v>21</v>
       </c>
       <c r="E3760" s="3">
-        <v>4692.1099999999997</v>
+        <v>6762.04</v>
       </c>
     </row>
     <row r="3761" spans="1:5" x14ac:dyDescent="0.2">
@@ -76045,7 +76045,7 @@
         <v>21</v>
       </c>
       <c r="E3761" s="3">
-        <v>5892.96</v>
+        <v>8492.66</v>
       </c>
     </row>
     <row r="3762" spans="1:5" x14ac:dyDescent="0.2">
@@ -76062,7 +76062,7 @@
         <v>21</v>
       </c>
       <c r="E3762" s="3">
-        <v>6778.07</v>
+        <v>9768.2099999999991</v>
       </c>
     </row>
     <row r="3763" spans="1:5" x14ac:dyDescent="0.2">
@@ -76079,7 +76079,7 @@
         <v>21</v>
       </c>
       <c r="E3763" s="3">
-        <v>5897.98</v>
+        <v>8499.8700000000008</v>
       </c>
     </row>
     <row r="3764" spans="1:5" x14ac:dyDescent="0.2">
@@ -76096,7 +76096,7 @@
         <v>21</v>
       </c>
       <c r="E3764" s="3">
-        <v>6764.18</v>
+        <v>9748.19</v>
       </c>
     </row>
     <row r="3765" spans="1:5" x14ac:dyDescent="0.2">
@@ -76113,7 +76113,7 @@
         <v>21</v>
       </c>
       <c r="E3765" s="3">
-        <v>8269.4</v>
+        <v>11917.46</v>
       </c>
     </row>
     <row r="3766" spans="1:5" x14ac:dyDescent="0.2">
@@ -76130,7 +76130,7 @@
         <v>21</v>
       </c>
       <c r="E3766" s="3">
-        <v>9367.89</v>
+        <v>13500.53</v>
       </c>
     </row>
     <row r="3767" spans="1:5" x14ac:dyDescent="0.2">
@@ -76147,7 +76147,7 @@
         <v>21</v>
       </c>
       <c r="E3767" s="3">
-        <v>4996.4799999999996</v>
+        <v>7200.68</v>
       </c>
     </row>
     <row r="3768" spans="1:5" x14ac:dyDescent="0.2">

--- a/excel-files/jm.xlsx
+++ b/excel-files/jm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="3585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Historico" sheetId="1" r:id="rId1"/>
@@ -11838,7 +11838,7 @@
   <dimension ref="A1:AK3716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12713,7 +12713,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="3">
-        <v>2215.19</v>
+        <v>2255.7600000000002</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -12730,7 +12730,7 @@
         <v>21</v>
       </c>
       <c r="E50" s="3">
-        <v>2034.83</v>
+        <v>2072.1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -12747,7 +12747,7 @@
         <v>21</v>
       </c>
       <c r="E51" s="3">
-        <v>4071.32</v>
+        <v>4145.88</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -12764,7 +12764,7 @@
         <v>21</v>
       </c>
       <c r="E52" s="3">
-        <v>3055.88</v>
+        <v>3111.85</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -12781,7 +12781,7 @@
         <v>21</v>
       </c>
       <c r="E53" s="3">
-        <v>1748.27</v>
+        <v>1780.29</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -12798,7 +12798,7 @@
         <v>21</v>
       </c>
       <c r="E54" s="3">
-        <v>1805.75</v>
+        <v>1838.82</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -12815,7 +12815,7 @@
         <v>21</v>
       </c>
       <c r="E55" s="3">
-        <v>1805.75</v>
+        <v>1838.82</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -12832,7 +12832,7 @@
         <v>21</v>
       </c>
       <c r="E56" s="3">
-        <v>1805.75</v>
+        <v>1838.82</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -12849,7 +12849,7 @@
         <v>21</v>
       </c>
       <c r="E57" s="3">
-        <v>3200.24</v>
+        <v>3258.85</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -12866,7 +12866,7 @@
         <v>21</v>
       </c>
       <c r="E58" s="3">
-        <v>2318.2600000000002</v>
+        <v>2360.71</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -12883,7 +12883,7 @@
         <v>21</v>
       </c>
       <c r="E59" s="3">
-        <v>2955.3</v>
+        <v>3009.42</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -12900,7 +12900,7 @@
         <v>21</v>
       </c>
       <c r="E60" s="3">
-        <v>881.32</v>
+        <v>897.46</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -12917,7 +12917,7 @@
         <v>21</v>
       </c>
       <c r="E61" s="3">
-        <v>1230.97</v>
+        <v>1253.52</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -12934,7 +12934,7 @@
         <v>21</v>
       </c>
       <c r="E62" s="3">
-        <v>2136.2399999999998</v>
+        <v>2175.37</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -12951,7 +12951,7 @@
         <v>21</v>
       </c>
       <c r="E63" s="3">
-        <v>1154.3399999999999</v>
+        <v>1175.48</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -12968,7 +12968,7 @@
         <v>21</v>
       </c>
       <c r="E64" s="3">
-        <v>3482.17</v>
+        <v>3545.95</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -12985,7 +12985,7 @@
         <v>21</v>
       </c>
       <c r="E65" s="3">
-        <v>343.53</v>
+        <v>377.88</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -13002,7 +13002,7 @@
         <v>21</v>
       </c>
       <c r="E66" s="3">
-        <v>401.68</v>
+        <v>441.84</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -13019,7 +13019,7 @@
         <v>21</v>
       </c>
       <c r="E67" s="3">
-        <v>494.77</v>
+        <v>544.25</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -13036,7 +13036,7 @@
         <v>21</v>
       </c>
       <c r="E68" s="3">
-        <v>112.71</v>
+        <v>121.73</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -13053,7 +13053,7 @@
         <v>21</v>
       </c>
       <c r="E69" s="3">
-        <v>112.71</v>
+        <v>121.73</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -13070,7 +13070,7 @@
         <v>21</v>
       </c>
       <c r="E70" s="3">
-        <v>112.71</v>
+        <v>121.73</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -13087,7 +13087,7 @@
         <v>21</v>
       </c>
       <c r="E71" s="3">
-        <v>112.71</v>
+        <v>121.73</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -13104,7 +13104,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="3">
-        <v>112.71</v>
+        <v>121.73</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -13121,7 +13121,7 @@
         <v>21</v>
       </c>
       <c r="E73" s="3">
-        <v>112.71</v>
+        <v>121.73</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -13138,7 +13138,7 @@
         <v>21</v>
       </c>
       <c r="E74" s="3">
-        <v>122.17</v>
+        <v>131.94999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -13155,7 +13155,7 @@
         <v>21</v>
       </c>
       <c r="E75" s="3">
-        <v>122.17</v>
+        <v>131.94999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -13172,7 +13172,7 @@
         <v>21</v>
       </c>
       <c r="E76" s="3">
-        <v>122.17</v>
+        <v>131.94999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -13189,7 +13189,7 @@
         <v>21</v>
       </c>
       <c r="E77" s="3">
-        <v>122.17</v>
+        <v>131.94999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -13206,7 +13206,7 @@
         <v>21</v>
       </c>
       <c r="E78" s="3">
-        <v>147.41</v>
+        <v>159.19</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -13223,7 +13223,7 @@
         <v>21</v>
       </c>
       <c r="E79" s="3">
-        <v>147.41</v>
+        <v>159.19</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -13240,7 +13240,7 @@
         <v>21</v>
       </c>
       <c r="E80" s="3">
-        <v>147.41</v>
+        <v>159.19</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -13257,7 +13257,7 @@
         <v>21</v>
       </c>
       <c r="E81" s="3">
-        <v>147.41</v>
+        <v>159.19</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -13308,7 +13308,7 @@
         <v>21</v>
       </c>
       <c r="E84" s="3">
-        <v>133.97</v>
+        <v>143.35</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -13325,7 +13325,7 @@
         <v>21</v>
       </c>
       <c r="E85" s="3">
-        <v>119.17</v>
+        <v>127.52</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -13342,7 +13342,7 @@
         <v>21</v>
       </c>
       <c r="E86" s="3">
-        <v>1240.8499999999999</v>
+        <v>1362.47</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -13359,7 +13359,7 @@
         <v>21</v>
       </c>
       <c r="E87" s="3">
-        <v>1615.65</v>
+        <v>1752.99</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -13376,7 +13376,7 @@
         <v>21</v>
       </c>
       <c r="E88" s="3">
-        <v>2347.0300000000002</v>
+        <v>2527.7600000000002</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -13393,7 +13393,7 @@
         <v>21</v>
       </c>
       <c r="E89" s="3">
-        <v>822.61</v>
+        <v>896.27</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -13410,7 +13410,7 @@
         <v>21</v>
       </c>
       <c r="E90" s="3">
-        <v>930.46</v>
+        <v>1013.77</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -13427,7 +13427,7 @@
         <v>21</v>
       </c>
       <c r="E91" s="3">
-        <v>1163.8499999999999</v>
+        <v>1268.05</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -13444,7 +13444,7 @@
         <v>21</v>
       </c>
       <c r="E92" s="3">
-        <v>1932.88</v>
+        <v>2105.96</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -13461,7 +13461,7 @@
         <v>21</v>
       </c>
       <c r="E93" s="3">
-        <v>2508.1799999999998</v>
+        <v>2732.75</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -13478,7 +13478,7 @@
         <v>21</v>
       </c>
       <c r="E94" s="3">
-        <v>3199.12</v>
+        <v>3485.58</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -13495,7 +13495,7 @@
         <v>21</v>
       </c>
       <c r="E95" s="3">
-        <v>4497.93</v>
+        <v>4900.66</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -13512,7 +13512,7 @@
         <v>21</v>
       </c>
       <c r="E96" s="3">
-        <v>6872.93</v>
+        <v>7488.33</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -13529,7 +13529,7 @@
         <v>21</v>
       </c>
       <c r="E97" s="3">
-        <v>1429.93</v>
+        <v>1544.33</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -13546,7 +13546,7 @@
         <v>21</v>
       </c>
       <c r="E98" s="3">
-        <v>1663.27</v>
+        <v>1796.34</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -13563,7 +13563,7 @@
         <v>21</v>
       </c>
       <c r="E99" s="3">
-        <v>940.08</v>
+        <v>1015.27</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -13580,7 +13580,7 @@
         <v>21</v>
       </c>
       <c r="E100" s="3">
-        <v>2537.9</v>
+        <v>2765.14</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -13597,7 +13597,7 @@
         <v>21</v>
       </c>
       <c r="E101" s="3">
-        <v>2844.15</v>
+        <v>3098.8</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -13614,7 +13614,7 @@
         <v>21</v>
       </c>
       <c r="E102" s="3">
-        <v>3081.88</v>
+        <v>3357.81</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -13631,7 +13631,7 @@
         <v>21</v>
       </c>
       <c r="E103" s="3">
-        <v>2332.86</v>
+        <v>2519.4899999999998</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -13648,7 +13648,7 @@
         <v>21</v>
       </c>
       <c r="E104" s="3">
-        <v>273.3</v>
+        <v>341.64</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -13665,7 +13665,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="3">
-        <v>153.26</v>
+        <v>166.98</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -13682,7 +13682,7 @@
         <v>21</v>
       </c>
       <c r="E106" s="3">
-        <v>199.67</v>
+        <v>217.55</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -13699,7 +13699,7 @@
         <v>21</v>
       </c>
       <c r="E107" s="3">
-        <v>1660.5</v>
+        <v>1690.91</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -13716,7 +13716,7 @@
         <v>21</v>
       </c>
       <c r="E108" s="3">
-        <v>1660.5</v>
+        <v>1690.91</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -13733,7 +13733,7 @@
         <v>21</v>
       </c>
       <c r="E109" s="3">
-        <v>2683.07</v>
+        <v>2732.21</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -14124,7 +14124,7 @@
         <v>10.5</v>
       </c>
       <c r="E132" s="3">
-        <v>681.65</v>
+        <v>765.97</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -14719,7 +14719,7 @@
         <v>21</v>
       </c>
       <c r="E167" s="3">
-        <v>2214.86</v>
+        <v>2255.4299999999998</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -14736,7 +14736,7 @@
         <v>21</v>
       </c>
       <c r="E168" s="3">
-        <v>2274.3200000000002</v>
+        <v>2315.98</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -14753,7 +14753,7 @@
         <v>21</v>
       </c>
       <c r="E169" s="3">
-        <v>2299.1</v>
+        <v>2341.1999999999998</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -14770,7 +14770,7 @@
         <v>21</v>
       </c>
       <c r="E170" s="3">
-        <v>1972.07</v>
+        <v>2008.19</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -18748,7 +18748,7 @@
         <v>21</v>
       </c>
       <c r="E404" s="3">
-        <v>2482.27</v>
+        <v>2523.64</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -18765,7 +18765,7 @@
         <v>21</v>
       </c>
       <c r="E405" s="3">
-        <v>2620.17</v>
+        <v>2647.75</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -18782,7 +18782,7 @@
         <v>21</v>
       </c>
       <c r="E406" s="3">
-        <v>3750.4</v>
+        <v>4004.44</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -18799,7 +18799,7 @@
         <v>21</v>
       </c>
       <c r="E407" s="3">
-        <v>3750.4</v>
+        <v>4004.44</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -18816,7 +18816,7 @@
         <v>21</v>
       </c>
       <c r="E408" s="3">
-        <v>1207.03</v>
+        <v>1331.56</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -26262,7 +26262,7 @@
         <v>21</v>
       </c>
       <c r="E846" s="3">
-        <v>5539.7</v>
+        <v>5641.16</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
@@ -26279,7 +26279,7 @@
         <v>21</v>
       </c>
       <c r="E847" s="3">
-        <v>384.64</v>
+        <v>391.68</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
@@ -26296,7 +26296,7 @@
         <v>21</v>
       </c>
       <c r="E848" s="3">
-        <v>586.34</v>
+        <v>597.07000000000005</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.2">
@@ -26313,7 +26313,7 @@
         <v>21</v>
       </c>
       <c r="E849" s="3">
-        <v>1003.81</v>
+        <v>1022.19</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.2">
@@ -26330,7 +26330,7 @@
         <v>21</v>
       </c>
       <c r="E850" s="3">
-        <v>1693.34</v>
+        <v>1724.35</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.2">
@@ -26347,7 +26347,7 @@
         <v>21</v>
       </c>
       <c r="E851" s="3">
-        <v>501.9</v>
+        <v>511.1</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.2">
@@ -26364,7 +26364,7 @@
         <v>21</v>
       </c>
       <c r="E852" s="3">
-        <v>750.51</v>
+        <v>764.26</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.2">
@@ -26381,7 +26381,7 @@
         <v>21</v>
       </c>
       <c r="E853" s="3">
-        <v>1111.69</v>
+        <v>1132.05</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.2">
@@ -26398,7 +26398,7 @@
         <v>21</v>
       </c>
       <c r="E854" s="3">
-        <v>2124.88</v>
+        <v>2163.8000000000002</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.2">
@@ -26415,7 +26415,7 @@
         <v>21</v>
       </c>
       <c r="E855" s="3">
-        <v>3466.42</v>
+        <v>3529.9</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.2">
@@ -26432,7 +26432,7 @@
         <v>21</v>
       </c>
       <c r="E856" s="3">
-        <v>722.37</v>
+        <v>735.6</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.2">
@@ -26449,7 +26449,7 @@
         <v>21</v>
       </c>
       <c r="E857" s="3">
-        <v>2392.25</v>
+        <v>2436.06</v>
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.2">
@@ -26466,7 +26466,7 @@
         <v>21</v>
       </c>
       <c r="E858" s="3">
-        <v>601.20000000000005</v>
+        <v>612.21</v>
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.2">
@@ -26483,7 +26483,7 @@
         <v>21</v>
       </c>
       <c r="E859" s="3">
-        <v>1012.79</v>
+        <v>1031.3399999999999</v>
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.2">
@@ -26500,7 +26500,7 @@
         <v>21</v>
       </c>
       <c r="E860" s="3">
-        <v>1623.24</v>
+        <v>1652.97</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.2">
@@ -30580,7 +30580,7 @@
         <v>21</v>
       </c>
       <c r="E1100" s="3">
-        <v>21256.91</v>
+        <v>22319.75</v>
       </c>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.2">
@@ -30597,7 +30597,7 @@
         <v>21</v>
       </c>
       <c r="E1101" s="3">
-        <v>19840.32</v>
+        <v>20832.349999999999</v>
       </c>
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.2">
@@ -30614,7 +30614,7 @@
         <v>21</v>
       </c>
       <c r="E1102" s="3">
-        <v>7176.73</v>
+        <v>7535.58</v>
       </c>
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.2">
@@ -30631,7 +30631,7 @@
         <v>21</v>
       </c>
       <c r="E1103" s="3">
-        <v>7176.73</v>
+        <v>7535.58</v>
       </c>
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.2">
@@ -30665,7 +30665,7 @@
         <v>21</v>
       </c>
       <c r="E1105" s="3">
-        <v>17545.46</v>
+        <v>18422.72</v>
       </c>
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.2">
@@ -30682,7 +30682,7 @@
         <v>21</v>
       </c>
       <c r="E1106" s="3">
-        <v>6988.96</v>
+        <v>7338.42</v>
       </c>
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.2">
@@ -30699,7 +30699,7 @@
         <v>21</v>
       </c>
       <c r="E1107" s="3">
-        <v>7500.1</v>
+        <v>7875.11</v>
       </c>
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.2">
@@ -30716,7 +30716,7 @@
         <v>21</v>
       </c>
       <c r="E1108" s="3">
-        <v>9291.85</v>
+        <v>9756.44</v>
       </c>
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.2">
@@ -30733,7 +30733,7 @@
         <v>21</v>
       </c>
       <c r="E1109" s="3">
-        <v>7146.75</v>
+        <v>7504.08</v>
       </c>
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.2">
@@ -30750,7 +30750,7 @@
         <v>21</v>
       </c>
       <c r="E1110" s="3">
-        <v>3496.72</v>
+        <v>3671.55</v>
       </c>
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.2">
@@ -30767,7 +30767,7 @@
         <v>21</v>
       </c>
       <c r="E1111" s="3">
-        <v>13685.87</v>
+        <v>14370.16</v>
       </c>
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.2">
@@ -30784,7 +30784,7 @@
         <v>21</v>
       </c>
       <c r="E1112" s="3">
-        <v>12048.15</v>
+        <v>12650.58</v>
       </c>
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.2">
@@ -30801,7 +30801,7 @@
         <v>21</v>
       </c>
       <c r="E1113" s="3">
-        <v>1013.54</v>
+        <v>1125.02</v>
       </c>
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.2">
@@ -30818,7 +30818,7 @@
         <v>21</v>
       </c>
       <c r="E1114" s="3">
-        <v>1034.32</v>
+        <v>1148.0899999999999</v>
       </c>
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.2">
@@ -30835,7 +30835,7 @@
         <v>21</v>
       </c>
       <c r="E1115" s="3">
-        <v>722.54</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.2">
@@ -30852,7 +30852,7 @@
         <v>21</v>
       </c>
       <c r="E1116" s="3">
-        <v>1484.05</v>
+        <v>1647.29</v>
       </c>
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.2">
@@ -30869,7 +30869,7 @@
         <v>21</v>
       </c>
       <c r="E1117" s="3">
-        <v>765.6</v>
+        <v>849.81</v>
       </c>
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.2">
@@ -30886,7 +30886,7 @@
         <v>21</v>
       </c>
       <c r="E1118" s="3">
-        <v>722.54</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.2">
@@ -30903,7 +30903,7 @@
         <v>21</v>
       </c>
       <c r="E1119" s="3">
-        <v>859</v>
+        <v>953.49</v>
       </c>
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.2">
@@ -30920,7 +30920,7 @@
         <v>21</v>
       </c>
       <c r="E1120" s="3">
-        <v>1082.95</v>
+        <v>1202.06</v>
       </c>
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
@@ -30937,7 +30937,7 @@
         <v>21</v>
       </c>
       <c r="E1121" s="3">
-        <v>1846.9</v>
+        <v>2050.0700000000002</v>
       </c>
     </row>
     <row r="1122" spans="1:5" x14ac:dyDescent="0.2">
@@ -30954,7 +30954,7 @@
         <v>21</v>
       </c>
       <c r="E1122" s="3">
-        <v>1887.8</v>
+        <v>2095.46</v>
       </c>
     </row>
     <row r="1123" spans="1:5" x14ac:dyDescent="0.2">
@@ -30971,7 +30971,7 @@
         <v>21</v>
       </c>
       <c r="E1123" s="3">
-        <v>2924.09</v>
+        <v>3245.74</v>
       </c>
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.2">
@@ -30988,7 +30988,7 @@
         <v>21</v>
       </c>
       <c r="E1124" s="3">
-        <v>5876.56</v>
+        <v>6522.99</v>
       </c>
     </row>
     <row r="1125" spans="1:5" x14ac:dyDescent="0.2">
@@ -31005,7 +31005,7 @@
         <v>21</v>
       </c>
       <c r="E1125" s="3">
-        <v>6063.38</v>
+        <v>6730.34</v>
       </c>
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.2">
@@ -31022,7 +31022,7 @@
         <v>21</v>
       </c>
       <c r="E1126" s="3">
-        <v>5543.64</v>
+        <v>6153.46</v>
       </c>
     </row>
     <row r="1127" spans="1:5" x14ac:dyDescent="0.2">
@@ -31039,7 +31039,7 @@
         <v>21</v>
       </c>
       <c r="E1127" s="3">
-        <v>2560.4899999999998</v>
+        <v>2842.13</v>
       </c>
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
@@ -31056,7 +31056,7 @@
         <v>21</v>
       </c>
       <c r="E1128" s="3">
-        <v>4004.36</v>
+        <v>4444.84</v>
       </c>
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.2">
@@ -31073,7 +31073,7 @@
         <v>21</v>
       </c>
       <c r="E1129" s="3">
-        <v>1384.68</v>
+        <v>1536.99</v>
       </c>
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.2">
@@ -31090,7 +31090,7 @@
         <v>21</v>
       </c>
       <c r="E1130" s="3">
-        <v>1102.68</v>
+        <v>1223.97</v>
       </c>
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.2">
@@ -31107,7 +31107,7 @@
         <v>21</v>
       </c>
       <c r="E1131" s="3">
-        <v>979.93</v>
+        <v>1087.71</v>
       </c>
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
@@ -31124,7 +31124,7 @@
         <v>21</v>
       </c>
       <c r="E1132" s="3">
-        <v>1292.01</v>
+        <v>1434.14</v>
       </c>
     </row>
     <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
@@ -31141,7 +31141,7 @@
         <v>21</v>
       </c>
       <c r="E1133" s="3">
-        <v>12186.64</v>
+        <v>13527.18</v>
       </c>
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
@@ -31158,7 +31158,7 @@
         <v>21</v>
       </c>
       <c r="E1134" s="3">
-        <v>9373.36</v>
+        <v>10404.43</v>
       </c>
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
@@ -31175,7 +31175,7 @@
         <v>21</v>
       </c>
       <c r="E1135" s="3">
-        <v>8330.84</v>
+        <v>9247.23</v>
       </c>
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
@@ -31192,7 +31192,7 @@
         <v>21</v>
       </c>
       <c r="E1136" s="3">
-        <v>5331.62</v>
+        <v>5918.08</v>
       </c>
     </row>
     <row r="1137" spans="1:5" x14ac:dyDescent="0.2">
@@ -31209,7 +31209,7 @@
         <v>21</v>
       </c>
       <c r="E1137" s="3">
-        <v>1249.08</v>
+        <v>1386.48</v>
       </c>
     </row>
     <row r="1138" spans="1:5" x14ac:dyDescent="0.2">
@@ -31226,7 +31226,7 @@
         <v>21</v>
       </c>
       <c r="E1138" s="3">
-        <v>1093.77</v>
+        <v>1214.0899999999999</v>
       </c>
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.2">
@@ -31243,7 +31243,7 @@
         <v>21</v>
       </c>
       <c r="E1139" s="3">
-        <v>485.49</v>
+        <v>538.89</v>
       </c>
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
@@ -31260,7 +31260,7 @@
         <v>21</v>
       </c>
       <c r="E1140" s="3">
-        <v>10615.84</v>
+        <v>11783.58</v>
       </c>
     </row>
     <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
@@ -31277,7 +31277,7 @@
         <v>21</v>
       </c>
       <c r="E1141" s="3">
-        <v>9315.33</v>
+        <v>10340.01</v>
       </c>
     </row>
     <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
@@ -31294,7 +31294,7 @@
         <v>21</v>
       </c>
       <c r="E1142" s="3">
-        <v>8736.7900000000009</v>
+        <v>9697.84</v>
       </c>
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.2">
@@ -31311,7 +31311,7 @@
         <v>21</v>
       </c>
       <c r="E1143" s="3">
-        <v>289.02999999999997</v>
+        <v>320.82</v>
       </c>
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.2">
@@ -31328,7 +31328,7 @@
         <v>21</v>
       </c>
       <c r="E1144" s="3">
-        <v>440.5</v>
+        <v>488.96</v>
       </c>
     </row>
     <row r="1145" spans="1:5" x14ac:dyDescent="0.2">
@@ -31345,7 +31345,7 @@
         <v>21</v>
       </c>
       <c r="E1145" s="3">
-        <v>409.27</v>
+        <v>454.3</v>
       </c>
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
@@ -31362,7 +31362,7 @@
         <v>21</v>
       </c>
       <c r="E1146" s="3">
-        <v>429.06</v>
+        <v>476.25</v>
       </c>
     </row>
     <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
@@ -31379,7 +31379,7 @@
         <v>21</v>
       </c>
       <c r="E1147" s="3">
-        <v>647.70000000000005</v>
+        <v>718.95</v>
       </c>
     </row>
     <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
@@ -31396,7 +31396,7 @@
         <v>21</v>
       </c>
       <c r="E1148" s="3">
-        <v>962.69</v>
+        <v>1068.5999999999999</v>
       </c>
     </row>
     <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
@@ -31413,7 +31413,7 @@
         <v>21</v>
       </c>
       <c r="E1149" s="3">
-        <v>2332.88</v>
+        <v>2589.5</v>
       </c>
     </row>
     <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
@@ -31430,7 +31430,7 @@
         <v>21</v>
       </c>
       <c r="E1150" s="3">
-        <v>2407.4699999999998</v>
+        <v>2672.29</v>
       </c>
     </row>
     <row r="1151" spans="1:5" x14ac:dyDescent="0.2">
@@ -31447,7 +31447,7 @@
         <v>21</v>
       </c>
       <c r="E1151" s="3">
-        <v>3734.05</v>
+        <v>4144.78</v>
       </c>
     </row>
     <row r="1152" spans="1:5" x14ac:dyDescent="0.2">
@@ -31464,7 +31464,7 @@
         <v>21</v>
       </c>
       <c r="E1152" s="3">
-        <v>3829.02</v>
+        <v>4250.2</v>
       </c>
     </row>
     <row r="1153" spans="1:5" x14ac:dyDescent="0.2">
@@ -31481,7 +31481,7 @@
         <v>21</v>
       </c>
       <c r="E1153" s="3">
-        <v>7007.3</v>
+        <v>7778.11</v>
       </c>
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.2">
@@ -31498,7 +31498,7 @@
         <v>21</v>
       </c>
       <c r="E1154" s="3">
-        <v>3243.15</v>
+        <v>3599.89</v>
       </c>
     </row>
     <row r="1155" spans="1:5" x14ac:dyDescent="0.2">
@@ -31515,7 +31515,7 @@
         <v>21</v>
       </c>
       <c r="E1155" s="3">
-        <v>1595.81</v>
+        <v>1771.33</v>
       </c>
     </row>
     <row r="1156" spans="1:5" x14ac:dyDescent="0.2">
@@ -31532,7 +31532,7 @@
         <v>21</v>
       </c>
       <c r="E1156" s="3">
-        <v>7195.79</v>
+        <v>7987.3</v>
       </c>
     </row>
     <row r="1157" spans="1:5" x14ac:dyDescent="0.2">
@@ -31549,7 +31549,7 @@
         <v>21</v>
       </c>
       <c r="E1157" s="3">
-        <v>703.22</v>
+        <v>780.56</v>
       </c>
     </row>
     <row r="1158" spans="1:5" x14ac:dyDescent="0.2">
@@ -31566,7 +31566,7 @@
         <v>21</v>
       </c>
       <c r="E1158" s="3">
-        <v>1076.0899999999999</v>
+        <v>1194.45</v>
       </c>
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.2">
@@ -31583,7 +31583,7 @@
         <v>21</v>
       </c>
       <c r="E1159" s="3">
-        <v>1292.58</v>
+        <v>1434.78</v>
       </c>
     </row>
     <row r="1160" spans="1:5" x14ac:dyDescent="0.2">
@@ -31600,7 +31600,7 @@
         <v>21</v>
       </c>
       <c r="E1160" s="3">
-        <v>1397.06</v>
+        <v>1550.74</v>
       </c>
     </row>
     <row r="1161" spans="1:5" x14ac:dyDescent="0.2">
@@ -31617,7 +31617,7 @@
         <v>21</v>
       </c>
       <c r="E1161" s="3">
-        <v>1254.1500000000001</v>
+        <v>1392.11</v>
       </c>
     </row>
     <row r="1162" spans="1:5" x14ac:dyDescent="0.2">
@@ -31634,7 +31634,7 @@
         <v>21</v>
       </c>
       <c r="E1162" s="3">
-        <v>1677.97</v>
+        <v>1862.56</v>
       </c>
     </row>
     <row r="1163" spans="1:5" x14ac:dyDescent="0.2">
@@ -31651,7 +31651,7 @@
         <v>21</v>
       </c>
       <c r="E1163" s="3">
-        <v>3786.11</v>
+        <v>4202.58</v>
       </c>
     </row>
     <row r="1164" spans="1:5" x14ac:dyDescent="0.2">
@@ -31668,7 +31668,7 @@
         <v>21</v>
       </c>
       <c r="E1164" s="3">
-        <v>3332.01</v>
+        <v>3698.54</v>
       </c>
     </row>
     <row r="1165" spans="1:5" x14ac:dyDescent="0.2">
@@ -31685,7 +31685,7 @@
         <v>21</v>
       </c>
       <c r="E1165" s="3">
-        <v>5192.08</v>
+        <v>5763.21</v>
       </c>
     </row>
     <row r="1166" spans="1:5" x14ac:dyDescent="0.2">
@@ -31702,7 +31702,7 @@
         <v>21</v>
       </c>
       <c r="E1166" s="3">
-        <v>5291.03</v>
+        <v>5873.03</v>
       </c>
     </row>
     <row r="1167" spans="1:5" x14ac:dyDescent="0.2">
@@ -31719,7 +31719,7 @@
         <v>21</v>
       </c>
       <c r="E1167" s="3">
-        <v>3924.28</v>
+        <v>4355.96</v>
       </c>
     </row>
     <row r="1168" spans="1:5" x14ac:dyDescent="0.2">
@@ -31736,7 +31736,7 @@
         <v>21</v>
       </c>
       <c r="E1168" s="3">
-        <v>3518.96</v>
+        <v>3906.05</v>
       </c>
     </row>
     <row r="1169" spans="1:5" x14ac:dyDescent="0.2">
@@ -31753,7 +31753,7 @@
         <v>21</v>
       </c>
       <c r="E1169" s="3">
-        <v>710.48</v>
+        <v>788.63</v>
       </c>
     </row>
     <row r="1170" spans="1:5" x14ac:dyDescent="0.2">
@@ -31770,7 +31770,7 @@
         <v>21</v>
       </c>
       <c r="E1170" s="3">
-        <v>1458.07</v>
+        <v>1618.46</v>
       </c>
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.2">
@@ -31787,7 +31787,7 @@
         <v>21</v>
       </c>
       <c r="E1171" s="3">
-        <v>6024.39</v>
+        <v>6687.08</v>
       </c>
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.2">
@@ -31804,7 +31804,7 @@
         <v>21</v>
       </c>
       <c r="E1172" s="3">
-        <v>6303.57</v>
+        <v>6996.97</v>
       </c>
     </row>
     <row r="1173" spans="1:5" x14ac:dyDescent="0.2">
@@ -31821,7 +31821,7 @@
         <v>21</v>
       </c>
       <c r="E1173" s="3">
-        <v>6754.37</v>
+        <v>7497.37</v>
       </c>
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.2">
@@ -31838,7 +31838,7 @@
         <v>21</v>
       </c>
       <c r="E1174" s="3">
-        <v>6860.58</v>
+        <v>7615.22</v>
       </c>
     </row>
     <row r="1175" spans="1:5" x14ac:dyDescent="0.2">
@@ -31855,7 +31855,7 @@
         <v>21</v>
       </c>
       <c r="E1175" s="3">
-        <v>7163.58</v>
+        <v>7951.58</v>
       </c>
     </row>
     <row r="1176" spans="1:5" x14ac:dyDescent="0.2">
@@ -31872,7 +31872,7 @@
         <v>21</v>
       </c>
       <c r="E1176" s="3">
-        <v>7536.36</v>
+        <v>8365.3700000000008</v>
       </c>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.2">
@@ -31889,7 +31889,7 @@
         <v>21</v>
       </c>
       <c r="E1177" s="3">
-        <v>412.65</v>
+        <v>458.03</v>
       </c>
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.2">
@@ -31906,7 +31906,7 @@
         <v>21</v>
       </c>
       <c r="E1178" s="3">
-        <v>431.2</v>
+        <v>478.63</v>
       </c>
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.2">
@@ -31923,7 +31923,7 @@
         <v>21</v>
       </c>
       <c r="E1179" s="3">
-        <v>500.83</v>
+        <v>555.94000000000005</v>
       </c>
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.2">
@@ -31940,7 +31940,7 @@
         <v>21</v>
       </c>
       <c r="E1180" s="3">
-        <v>336.88</v>
+        <v>373.94</v>
       </c>
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.2">
@@ -31957,7 +31957,7 @@
         <v>21</v>
       </c>
       <c r="E1181" s="3">
-        <v>500.83</v>
+        <v>555.94000000000005</v>
       </c>
     </row>
     <row r="1182" spans="1:5" x14ac:dyDescent="0.2">
@@ -31974,7 +31974,7 @@
         <v>21</v>
       </c>
       <c r="E1182" s="3">
-        <v>515.76</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="1183" spans="1:5" x14ac:dyDescent="0.2">
@@ -31991,7 +31991,7 @@
         <v>21</v>
       </c>
       <c r="E1183" s="3">
-        <v>553.37</v>
+        <v>614.23</v>
       </c>
     </row>
     <row r="1184" spans="1:5" x14ac:dyDescent="0.2">
@@ -32008,7 +32008,7 @@
         <v>21</v>
       </c>
       <c r="E1184" s="3">
-        <v>553.37</v>
+        <v>614.23</v>
       </c>
     </row>
     <row r="1185" spans="1:5" x14ac:dyDescent="0.2">
@@ -32025,7 +32025,7 @@
         <v>21</v>
       </c>
       <c r="E1185" s="3">
-        <v>754.55</v>
+        <v>837.56</v>
       </c>
     </row>
     <row r="1186" spans="1:5" x14ac:dyDescent="0.2">
@@ -32042,7 +32042,7 @@
         <v>21</v>
       </c>
       <c r="E1186" s="3">
-        <v>906.79</v>
+        <v>1006.52</v>
       </c>
     </row>
     <row r="1187" spans="1:5" x14ac:dyDescent="0.2">
@@ -32059,7 +32059,7 @@
         <v>21</v>
       </c>
       <c r="E1187" s="3">
-        <v>1063.9000000000001</v>
+        <v>1180.93</v>
       </c>
     </row>
     <row r="1188" spans="1:5" x14ac:dyDescent="0.2">
@@ -32076,7 +32076,7 @@
         <v>21</v>
       </c>
       <c r="E1188" s="3">
-        <v>1124.0999999999999</v>
+        <v>1247.75</v>
       </c>
     </row>
     <row r="1189" spans="1:5" x14ac:dyDescent="0.2">
@@ -32093,7 +32093,7 @@
         <v>21</v>
       </c>
       <c r="E1189" s="3">
-        <v>1188.49</v>
+        <v>1319.23</v>
       </c>
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.2">
@@ -32110,7 +32110,7 @@
         <v>21</v>
       </c>
       <c r="E1190" s="3">
-        <v>1408.58</v>
+        <v>1563.53</v>
       </c>
     </row>
     <row r="1191" spans="1:5" x14ac:dyDescent="0.2">
@@ -32127,7 +32127,7 @@
         <v>21</v>
       </c>
       <c r="E1191" s="3">
-        <v>1685.44</v>
+        <v>1870.83</v>
       </c>
     </row>
     <row r="1192" spans="1:5" x14ac:dyDescent="0.2">
@@ -32144,7 +32144,7 @@
         <v>21</v>
       </c>
       <c r="E1192" s="3">
-        <v>1346.27</v>
+        <v>1494.36</v>
       </c>
     </row>
     <row r="1193" spans="1:5" x14ac:dyDescent="0.2">
@@ -32161,7 +32161,7 @@
         <v>21</v>
       </c>
       <c r="E1193" s="3">
-        <v>1408.58</v>
+        <v>1563.53</v>
       </c>
     </row>
     <row r="1194" spans="1:5" x14ac:dyDescent="0.2">
@@ -32178,7 +32178,7 @@
         <v>21</v>
       </c>
       <c r="E1194" s="3">
-        <v>1685.44</v>
+        <v>1870.83</v>
       </c>
     </row>
     <row r="1195" spans="1:5" x14ac:dyDescent="0.2">
@@ -32195,7 +32195,7 @@
         <v>21</v>
       </c>
       <c r="E1195" s="3">
-        <v>1875.78</v>
+        <v>2082.12</v>
       </c>
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.2">
@@ -32212,7 +32212,7 @@
         <v>21</v>
       </c>
       <c r="E1196" s="3">
-        <v>2307.71</v>
+        <v>2561.56</v>
       </c>
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.2">
@@ -32229,7 +32229,7 @@
         <v>21</v>
       </c>
       <c r="E1197" s="3">
-        <v>2781.87</v>
+        <v>3087.9</v>
       </c>
     </row>
     <row r="1198" spans="1:5" x14ac:dyDescent="0.2">
@@ -32246,7 +32246,7 @@
         <v>21</v>
       </c>
       <c r="E1198" s="3">
-        <v>2743.09</v>
+        <v>3044.82</v>
       </c>
     </row>
     <row r="1199" spans="1:5" x14ac:dyDescent="0.2">
@@ -32263,7 +32263,7 @@
         <v>21</v>
       </c>
       <c r="E1199" s="3">
-        <v>3093.49</v>
+        <v>3433.76</v>
       </c>
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.2">
@@ -32280,7 +32280,7 @@
         <v>21</v>
       </c>
       <c r="E1200" s="3">
-        <v>3812.31</v>
+        <v>4231.67</v>
       </c>
     </row>
     <row r="1201" spans="1:5" x14ac:dyDescent="0.2">
@@ -32297,7 +32297,7 @@
         <v>21</v>
       </c>
       <c r="E1201" s="3">
-        <v>452.75</v>
+        <v>502.54</v>
       </c>
     </row>
     <row r="1202" spans="1:5" x14ac:dyDescent="0.2">
@@ -32314,7 +32314,7 @@
         <v>21</v>
       </c>
       <c r="E1202" s="3">
-        <v>575.76</v>
+        <v>639.1</v>
       </c>
     </row>
     <row r="1203" spans="1:5" x14ac:dyDescent="0.2">
@@ -32331,7 +32331,7 @@
         <v>21</v>
       </c>
       <c r="E1203" s="3">
-        <v>4059.95</v>
+        <v>4506.55</v>
       </c>
     </row>
     <row r="1204" spans="1:5" x14ac:dyDescent="0.2">
@@ -32348,7 +32348,7 @@
         <v>21</v>
       </c>
       <c r="E1204" s="3">
-        <v>5516.75</v>
+        <v>6123.58</v>
       </c>
     </row>
     <row r="1205" spans="1:5" x14ac:dyDescent="0.2">
@@ -32365,7 +32365,7 @@
         <v>21</v>
       </c>
       <c r="E1205" s="3">
-        <v>6615.43</v>
+        <v>7343.13</v>
       </c>
     </row>
     <row r="1206" spans="1:5" x14ac:dyDescent="0.2">
@@ -32824,7 +32824,7 @@
         <v>21</v>
       </c>
       <c r="E1232" s="3">
-        <v>26896.79</v>
+        <v>27389.41</v>
       </c>
     </row>
     <row r="1233" spans="1:5" x14ac:dyDescent="0.2">
@@ -32841,7 +32841,7 @@
         <v>21</v>
       </c>
       <c r="E1233" s="3">
-        <v>26896.79</v>
+        <v>27389.41</v>
       </c>
     </row>
     <row r="1234" spans="1:5" x14ac:dyDescent="0.2">
@@ -32858,7 +32858,7 @@
         <v>21</v>
       </c>
       <c r="E1234" s="3">
-        <v>26896.79</v>
+        <v>27389.41</v>
       </c>
     </row>
     <row r="1235" spans="1:5" x14ac:dyDescent="0.2">
@@ -32875,7 +32875,7 @@
         <v>21</v>
       </c>
       <c r="E1235" s="3">
-        <v>26896.79</v>
+        <v>27389.41</v>
       </c>
     </row>
     <row r="1236" spans="1:5" x14ac:dyDescent="0.2">
@@ -32892,7 +32892,7 @@
         <v>21</v>
       </c>
       <c r="E1236" s="3">
-        <v>26896.79</v>
+        <v>27389.41</v>
       </c>
     </row>
     <row r="1237" spans="1:5" x14ac:dyDescent="0.2">
@@ -32909,7 +32909,7 @@
         <v>21</v>
       </c>
       <c r="E1237" s="3">
-        <v>26896.79</v>
+        <v>27389.41</v>
       </c>
     </row>
     <row r="1238" spans="1:5" x14ac:dyDescent="0.2">
@@ -32926,7 +32926,7 @@
         <v>21</v>
       </c>
       <c r="E1238" s="3">
-        <v>26896.79</v>
+        <v>27389.41</v>
       </c>
     </row>
     <row r="1239" spans="1:5" x14ac:dyDescent="0.2">
@@ -32943,7 +32943,7 @@
         <v>21</v>
       </c>
       <c r="E1239" s="3">
-        <v>26896.79</v>
+        <v>27389.41</v>
       </c>
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.2">
@@ -32960,7 +32960,7 @@
         <v>21</v>
       </c>
       <c r="E1240" s="3">
-        <v>26896.79</v>
+        <v>27389.41</v>
       </c>
     </row>
     <row r="1241" spans="1:5" x14ac:dyDescent="0.2">
@@ -32994,7 +32994,7 @@
         <v>21</v>
       </c>
       <c r="E1242" s="3">
-        <v>26665.56</v>
+        <v>27153.94</v>
       </c>
     </row>
     <row r="1243" spans="1:5" x14ac:dyDescent="0.2">
@@ -33011,7 +33011,7 @@
         <v>21</v>
       </c>
       <c r="E1243" s="3">
-        <v>26665.56</v>
+        <v>27153.94</v>
       </c>
     </row>
     <row r="1244" spans="1:5" x14ac:dyDescent="0.2">
@@ -33028,7 +33028,7 @@
         <v>21</v>
       </c>
       <c r="E1244" s="3">
-        <v>26665.56</v>
+        <v>27153.94</v>
       </c>
     </row>
     <row r="1245" spans="1:5" x14ac:dyDescent="0.2">
@@ -33045,7 +33045,7 @@
         <v>21</v>
       </c>
       <c r="E1245" s="3">
-        <v>26665.56</v>
+        <v>27153.94</v>
       </c>
     </row>
     <row r="1246" spans="1:5" x14ac:dyDescent="0.2">
@@ -33062,7 +33062,7 @@
         <v>21</v>
       </c>
       <c r="E1246" s="3">
-        <v>26665.56</v>
+        <v>27153.94</v>
       </c>
     </row>
     <row r="1247" spans="1:5" x14ac:dyDescent="0.2">
@@ -33079,7 +33079,7 @@
         <v>21</v>
       </c>
       <c r="E1247" s="3">
-        <v>26896.79</v>
+        <v>27389.41</v>
       </c>
     </row>
     <row r="1248" spans="1:5" x14ac:dyDescent="0.2">
@@ -33096,7 +33096,7 @@
         <v>21</v>
       </c>
       <c r="E1248" s="3">
-        <v>26665.56</v>
+        <v>27153.94</v>
       </c>
     </row>
     <row r="1249" spans="1:5" x14ac:dyDescent="0.2">
@@ -33266,7 +33266,7 @@
         <v>21</v>
       </c>
       <c r="E1258" s="3">
-        <v>404.66</v>
+        <v>437.03</v>
       </c>
     </row>
     <row r="1259" spans="1:5" x14ac:dyDescent="0.2">
@@ -33283,7 +33283,7 @@
         <v>21</v>
       </c>
       <c r="E1259" s="3">
-        <v>711.1</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1260" spans="1:5" x14ac:dyDescent="0.2">
@@ -33300,7 +33300,7 @@
         <v>21</v>
       </c>
       <c r="E1260" s="3">
-        <v>1128.69</v>
+        <v>1218.99</v>
       </c>
     </row>
     <row r="1261" spans="1:5" x14ac:dyDescent="0.2">
@@ -54822,7 +54822,7 @@
         <v>21</v>
       </c>
       <c r="E2526" s="3">
-        <v>3271.42</v>
+        <v>3331.34</v>
       </c>
     </row>
     <row r="2527" spans="1:5" x14ac:dyDescent="0.2">
@@ -54839,7 +54839,7 @@
         <v>21</v>
       </c>
       <c r="E2527" s="3">
-        <v>6856.66</v>
+        <v>6982.24</v>
       </c>
     </row>
     <row r="2528" spans="1:5" x14ac:dyDescent="0.2">
@@ -54856,7 +54856,7 @@
         <v>21</v>
       </c>
       <c r="E2528" s="3">
-        <v>4413.87</v>
+        <v>4494.71</v>
       </c>
     </row>
     <row r="2529" spans="1:5" x14ac:dyDescent="0.2">
@@ -54873,7 +54873,7 @@
         <v>21</v>
       </c>
       <c r="E2529" s="3">
-        <v>3046.3</v>
+        <v>3102.1</v>
       </c>
     </row>
     <row r="2530" spans="1:5" x14ac:dyDescent="0.2">
@@ -54890,7 +54890,7 @@
         <v>21</v>
       </c>
       <c r="E2530" s="3">
-        <v>5458.37</v>
+        <v>5558.34</v>
       </c>
     </row>
     <row r="2531" spans="1:5" x14ac:dyDescent="0.2">
@@ -54907,7 +54907,7 @@
         <v>21</v>
       </c>
       <c r="E2531" s="3">
-        <v>766.37</v>
+        <v>780.4</v>
       </c>
     </row>
     <row r="2532" spans="1:5" x14ac:dyDescent="0.2">
@@ -54924,7 +54924,7 @@
         <v>21</v>
       </c>
       <c r="E2532" s="3">
-        <v>699.31</v>
+        <v>712.12</v>
       </c>
     </row>
     <row r="2533" spans="1:5" x14ac:dyDescent="0.2">
@@ -54941,7 +54941,7 @@
         <v>21</v>
       </c>
       <c r="E2533" s="3">
-        <v>1317.19</v>
+        <v>1341.32</v>
       </c>
     </row>
     <row r="2534" spans="1:5" x14ac:dyDescent="0.2">
@@ -54958,7 +54958,7 @@
         <v>21</v>
       </c>
       <c r="E2534" s="3">
-        <v>1484.83</v>
+        <v>1512.03</v>
       </c>
     </row>
     <row r="2535" spans="1:5" x14ac:dyDescent="0.2">
@@ -54975,7 +54975,7 @@
         <v>21</v>
       </c>
       <c r="E2535" s="3">
-        <v>196.38</v>
+        <v>199.98</v>
       </c>
     </row>
     <row r="2536" spans="1:5" x14ac:dyDescent="0.2">
@@ -54992,7 +54992,7 @@
         <v>21</v>
       </c>
       <c r="E2536" s="3">
-        <v>766.37</v>
+        <v>780.4</v>
       </c>
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.2">
@@ -55009,7 +55009,7 @@
         <v>21</v>
       </c>
       <c r="E2537" s="3">
-        <v>699.31</v>
+        <v>712.12</v>
       </c>
     </row>
     <row r="2538" spans="1:5" x14ac:dyDescent="0.2">
@@ -55026,7 +55026,7 @@
         <v>21</v>
       </c>
       <c r="E2538" s="3">
-        <v>1484.83</v>
+        <v>1512.03</v>
       </c>
     </row>
     <row r="2539" spans="1:5" x14ac:dyDescent="0.2">
@@ -55043,7 +55043,7 @@
         <v>21</v>
       </c>
       <c r="E2539" s="3">
-        <v>517.29999999999995</v>
+        <v>526.77</v>
       </c>
     </row>
     <row r="2540" spans="1:5" x14ac:dyDescent="0.2">
@@ -55060,7 +55060,7 @@
         <v>21</v>
       </c>
       <c r="E2540" s="3">
-        <v>972.33</v>
+        <v>990.13</v>
       </c>
     </row>
     <row r="2541" spans="1:5" x14ac:dyDescent="0.2">
@@ -55077,7 +55077,7 @@
         <v>21</v>
       </c>
       <c r="E2541" s="3">
-        <v>10963.82</v>
+        <v>11164.62</v>
       </c>
     </row>
     <row r="2542" spans="1:5" x14ac:dyDescent="0.2">
@@ -55094,7 +55094,7 @@
         <v>21</v>
       </c>
       <c r="E2542" s="3">
-        <v>11706.23</v>
+        <v>11920.63</v>
       </c>
     </row>
     <row r="2543" spans="1:5" x14ac:dyDescent="0.2">
@@ -56607,7 +56607,7 @@
         <v>21</v>
       </c>
       <c r="E2631" s="3">
-        <v>3932.41</v>
+        <v>4004.44</v>
       </c>
     </row>
     <row r="2632" spans="1:5" x14ac:dyDescent="0.2">
@@ -57321,7 +57321,7 @@
         <v>21</v>
       </c>
       <c r="E2673" s="3">
-        <v>25856.12</v>
+        <v>26329.67</v>
       </c>
     </row>
     <row r="2674" spans="1:5" x14ac:dyDescent="0.2">
@@ -57338,7 +57338,7 @@
         <v>21</v>
       </c>
       <c r="E2674" s="3">
-        <v>29334.29</v>
+        <v>29871.55</v>
       </c>
     </row>
     <row r="2675" spans="1:5" x14ac:dyDescent="0.2">
@@ -57457,7 +57457,7 @@
         <v>21</v>
       </c>
       <c r="E2681" s="3">
-        <v>376.43</v>
+        <v>406.54</v>
       </c>
     </row>
     <row r="2682" spans="1:5" x14ac:dyDescent="0.2">
@@ -57474,7 +57474,7 @@
         <v>21</v>
       </c>
       <c r="E2682" s="3">
-        <v>2315.5</v>
+        <v>2723.44</v>
       </c>
     </row>
     <row r="2683" spans="1:5" x14ac:dyDescent="0.2">
@@ -57491,7 +57491,7 @@
         <v>21</v>
       </c>
       <c r="E2683" s="3">
-        <v>376.43</v>
+        <v>406.54</v>
       </c>
     </row>
     <row r="2684" spans="1:5" x14ac:dyDescent="0.2">
@@ -57508,7 +57508,7 @@
         <v>21</v>
       </c>
       <c r="E2684" s="3">
-        <v>2315.5</v>
+        <v>2723.44</v>
       </c>
     </row>
     <row r="2685" spans="1:5" x14ac:dyDescent="0.2">
@@ -57525,7 +57525,7 @@
         <v>21</v>
       </c>
       <c r="E2685" s="3">
-        <v>2910.28</v>
+        <v>3143.1</v>
       </c>
     </row>
     <row r="2686" spans="1:5" x14ac:dyDescent="0.2">
@@ -57542,7 +57542,7 @@
         <v>21</v>
       </c>
       <c r="E2686" s="3">
-        <v>4194.99</v>
+        <v>4530.58</v>
       </c>
     </row>
     <row r="2687" spans="1:5" x14ac:dyDescent="0.2">
@@ -57559,7 +57559,7 @@
         <v>21</v>
       </c>
       <c r="E2687" s="3">
-        <v>5243.74</v>
+        <v>5663.23</v>
       </c>
     </row>
     <row r="2688" spans="1:5" x14ac:dyDescent="0.2">
@@ -57576,7 +57576,7 @@
         <v>21</v>
       </c>
       <c r="E2688" s="3">
-        <v>5505.92</v>
+        <v>5946.39</v>
       </c>
     </row>
     <row r="2689" spans="1:5" x14ac:dyDescent="0.2">
@@ -57593,7 +57593,7 @@
         <v>21</v>
       </c>
       <c r="E2689" s="3">
-        <v>4719.3599999999997</v>
+        <v>5096.8900000000003</v>
       </c>
     </row>
     <row r="2690" spans="1:5" x14ac:dyDescent="0.2">
@@ -57610,7 +57610,7 @@
         <v>21</v>
       </c>
       <c r="E2690" s="3">
-        <v>8389.98</v>
+        <v>9061.17</v>
       </c>
     </row>
     <row r="2691" spans="1:5" x14ac:dyDescent="0.2">
@@ -57627,7 +57627,7 @@
         <v>21</v>
       </c>
       <c r="E2691" s="3">
-        <v>12322.78</v>
+        <v>13306.13</v>
       </c>
     </row>
     <row r="2692" spans="1:5" x14ac:dyDescent="0.2">
@@ -57644,7 +57644,7 @@
         <v>21</v>
       </c>
       <c r="E2692" s="3">
-        <v>16255.6</v>
+        <v>17556.04</v>
       </c>
     </row>
     <row r="2693" spans="1:5" x14ac:dyDescent="0.2">
@@ -57661,7 +57661,7 @@
         <v>21</v>
       </c>
       <c r="E2693" s="3">
-        <v>11814.15</v>
+        <v>12758.67</v>
       </c>
     </row>
     <row r="2694" spans="1:5" x14ac:dyDescent="0.2">
@@ -57678,7 +57678,7 @@
         <v>21</v>
       </c>
       <c r="E2694" s="3">
-        <v>11814.24</v>
+        <v>12758.67</v>
       </c>
     </row>
     <row r="2695" spans="1:5" x14ac:dyDescent="0.2">
@@ -57695,7 +57695,7 @@
         <v>21</v>
       </c>
       <c r="E2695" s="3">
-        <v>12601.85</v>
+        <v>13609.01</v>
       </c>
     </row>
     <row r="2696" spans="1:5" x14ac:dyDescent="0.2">
@@ -57712,7 +57712,7 @@
         <v>21</v>
       </c>
       <c r="E2696" s="3">
-        <v>20276.34</v>
+        <v>21898.44</v>
       </c>
     </row>
     <row r="2697" spans="1:5" x14ac:dyDescent="0.2">
@@ -57729,7 +57729,7 @@
         <v>21</v>
       </c>
       <c r="E2697" s="3">
-        <v>79.62</v>
+        <v>85.03</v>
       </c>
     </row>
     <row r="2698" spans="1:5" x14ac:dyDescent="0.2">
@@ -57746,7 +57746,7 @@
         <v>21</v>
       </c>
       <c r="E2698" s="3">
-        <v>376.43</v>
+        <v>406.54</v>
       </c>
     </row>
     <row r="2699" spans="1:5" x14ac:dyDescent="0.2">
@@ -57763,7 +57763,7 @@
         <v>21</v>
       </c>
       <c r="E2699" s="3">
-        <v>527.26</v>
+        <v>569.44000000000005</v>
       </c>
     </row>
     <row r="2700" spans="1:5" x14ac:dyDescent="0.2">
@@ -57780,7 +57780,7 @@
         <v>21</v>
       </c>
       <c r="E2700" s="3">
-        <v>68.97</v>
+        <v>66.27</v>
       </c>
     </row>
     <row r="2701" spans="1:5" x14ac:dyDescent="0.2">
@@ -57797,7 +57797,7 @@
         <v>21</v>
       </c>
       <c r="E2701" s="3">
-        <v>22810.25</v>
+        <v>24635.07</v>
       </c>
     </row>
     <row r="2702" spans="1:5" x14ac:dyDescent="0.2">
@@ -57814,7 +57814,7 @@
         <v>21</v>
       </c>
       <c r="E2702" s="3">
-        <v>33297.760000000002</v>
+        <v>35961.57</v>
       </c>
     </row>
     <row r="2703" spans="1:5" x14ac:dyDescent="0.2">
@@ -57831,7 +57831,7 @@
         <v>21</v>
       </c>
       <c r="E2703" s="3">
-        <v>42474.32</v>
+        <v>45872.26</v>
       </c>
     </row>
     <row r="2704" spans="1:5" x14ac:dyDescent="0.2">
@@ -57848,7 +57848,7 @@
         <v>21</v>
       </c>
       <c r="E2704" s="3">
-        <v>49815.57</v>
+        <v>53800.81</v>
       </c>
     </row>
     <row r="2705" spans="1:5" x14ac:dyDescent="0.2">
@@ -57916,7 +57916,7 @@
         <v>21</v>
       </c>
       <c r="E2708" s="3">
-        <v>5768.11</v>
+        <v>6229.55</v>
       </c>
     </row>
     <row r="2709" spans="1:5" x14ac:dyDescent="0.2">
@@ -58307,7 +58307,7 @@
         <v>21</v>
       </c>
       <c r="E2731" s="3">
-        <v>222.12</v>
+        <v>235.45</v>
       </c>
     </row>
     <row r="2732" spans="1:5" x14ac:dyDescent="0.2">
@@ -59463,7 +59463,7 @@
         <v>21</v>
       </c>
       <c r="E2799" s="3">
-        <v>948.38</v>
+        <v>965.75</v>
       </c>
     </row>
     <row r="2800" spans="1:5" x14ac:dyDescent="0.2">
@@ -59480,7 +59480,7 @@
         <v>21</v>
       </c>
       <c r="E2800" s="3">
-        <v>948.38</v>
+        <v>965.75</v>
       </c>
     </row>
     <row r="2801" spans="1:5" x14ac:dyDescent="0.2">
@@ -59497,7 +59497,7 @@
         <v>21</v>
       </c>
       <c r="E2801" s="3">
-        <v>1063.33</v>
+        <v>1082.81</v>
       </c>
     </row>
     <row r="2802" spans="1:5" x14ac:dyDescent="0.2">
@@ -59514,7 +59514,7 @@
         <v>21</v>
       </c>
       <c r="E2802" s="3">
-        <v>402.34</v>
+        <v>409.71</v>
       </c>
     </row>
     <row r="2803" spans="1:5" x14ac:dyDescent="0.2">
@@ -59531,7 +59531,7 @@
         <v>21</v>
       </c>
       <c r="E2803" s="3">
-        <v>747.21</v>
+        <v>760.89</v>
       </c>
     </row>
     <row r="2804" spans="1:5" x14ac:dyDescent="0.2">
@@ -59548,7 +59548,7 @@
         <v>21</v>
       </c>
       <c r="E2804" s="3">
-        <v>747.21</v>
+        <v>760.89</v>
       </c>
     </row>
     <row r="2805" spans="1:5" x14ac:dyDescent="0.2">
@@ -59565,7 +59565,7 @@
         <v>21</v>
       </c>
       <c r="E2805" s="3">
-        <v>565.19000000000005</v>
+        <v>575.54999999999995</v>
       </c>
     </row>
     <row r="2806" spans="1:5" x14ac:dyDescent="0.2">
@@ -59582,7 +59582,7 @@
         <v>21</v>
       </c>
       <c r="E2806" s="3">
-        <v>565.19000000000005</v>
+        <v>575.54999999999995</v>
       </c>
     </row>
     <row r="2807" spans="1:5" x14ac:dyDescent="0.2">
@@ -59599,7 +59599,7 @@
         <v>21</v>
       </c>
       <c r="E2807" s="3">
-        <v>565.19000000000005</v>
+        <v>575.54999999999995</v>
       </c>
     </row>
     <row r="2808" spans="1:5" x14ac:dyDescent="0.2">
@@ -59616,7 +59616,7 @@
         <v>21</v>
       </c>
       <c r="E2808" s="3">
-        <v>774.56</v>
+        <v>884.88</v>
       </c>
     </row>
     <row r="2809" spans="1:5" x14ac:dyDescent="0.2">
@@ -59650,7 +59650,7 @@
         <v>21</v>
       </c>
       <c r="E2810" s="3">
-        <v>306.55</v>
+        <v>312.16000000000003</v>
       </c>
     </row>
     <row r="2811" spans="1:5" x14ac:dyDescent="0.2">
@@ -59667,7 +59667,7 @@
         <v>21</v>
       </c>
       <c r="E2811" s="3">
-        <v>440.66</v>
+        <v>448.73</v>
       </c>
     </row>
     <row r="2812" spans="1:5" x14ac:dyDescent="0.2">
@@ -59684,7 +59684,7 @@
         <v>21</v>
       </c>
       <c r="E2812" s="3">
-        <v>440.66</v>
+        <v>448.73</v>
       </c>
     </row>
     <row r="2813" spans="1:5" x14ac:dyDescent="0.2">
@@ -59701,7 +59701,7 @@
         <v>21</v>
       </c>
       <c r="E2813" s="3">
-        <v>208.11</v>
+        <v>211.92</v>
       </c>
     </row>
     <row r="2814" spans="1:5" x14ac:dyDescent="0.2">
@@ -59718,7 +59718,7 @@
         <v>21</v>
       </c>
       <c r="E2814" s="3">
-        <v>531.66999999999996</v>
+        <v>541.4</v>
       </c>
     </row>
     <row r="2815" spans="1:5" x14ac:dyDescent="0.2">
@@ -59735,7 +59735,7 @@
         <v>21</v>
       </c>
       <c r="E2815" s="3">
-        <v>790.31</v>
+        <v>804.79</v>
       </c>
     </row>
     <row r="2816" spans="1:5" x14ac:dyDescent="0.2">
@@ -59752,7 +59752,7 @@
         <v>21</v>
       </c>
       <c r="E2816" s="3">
-        <v>1058.54</v>
+        <v>1077.93</v>
       </c>
     </row>
     <row r="2817" spans="1:5" x14ac:dyDescent="0.2">
@@ -59769,7 +59769,7 @@
         <v>21</v>
       </c>
       <c r="E2817" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2818" spans="1:5" x14ac:dyDescent="0.2">
@@ -59786,7 +59786,7 @@
         <v>21</v>
       </c>
       <c r="E2818" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2819" spans="1:5" x14ac:dyDescent="0.2">
@@ -59803,7 +59803,7 @@
         <v>21</v>
       </c>
       <c r="E2819" s="3">
-        <v>180.36</v>
+        <v>183.66</v>
       </c>
     </row>
     <row r="2820" spans="1:5" x14ac:dyDescent="0.2">
@@ -59820,7 +59820,7 @@
         <v>21</v>
       </c>
       <c r="E2820" s="3">
-        <v>180.36</v>
+        <v>183.66</v>
       </c>
     </row>
     <row r="2821" spans="1:5" x14ac:dyDescent="0.2">
@@ -59837,7 +59837,7 @@
         <v>21</v>
       </c>
       <c r="E2821" s="3">
-        <v>180.36</v>
+        <v>183.66</v>
       </c>
     </row>
     <row r="2822" spans="1:5" x14ac:dyDescent="0.2">
@@ -59854,7 +59854,7 @@
         <v>21</v>
       </c>
       <c r="E2822" s="3">
-        <v>180.36</v>
+        <v>183.66</v>
       </c>
     </row>
     <row r="2823" spans="1:5" x14ac:dyDescent="0.2">
@@ -59871,7 +59871,7 @@
         <v>21</v>
       </c>
       <c r="E2823" s="3">
-        <v>1441.73</v>
+        <v>1468.13</v>
       </c>
     </row>
     <row r="2824" spans="1:5" x14ac:dyDescent="0.2">
@@ -59888,7 +59888,7 @@
         <v>21</v>
       </c>
       <c r="E2824" s="3">
-        <v>1925.49</v>
+        <v>1960.76</v>
       </c>
     </row>
     <row r="2825" spans="1:5" x14ac:dyDescent="0.2">
@@ -59922,7 +59922,7 @@
         <v>21</v>
       </c>
       <c r="E2826" s="3">
-        <v>97.12</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="2827" spans="1:5" x14ac:dyDescent="0.2">
@@ -59939,7 +59939,7 @@
         <v>21</v>
       </c>
       <c r="E2827" s="3">
-        <v>97.12</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="2828" spans="1:5" x14ac:dyDescent="0.2">
@@ -59956,7 +59956,7 @@
         <v>21</v>
       </c>
       <c r="E2828" s="3">
-        <v>97.12</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="2829" spans="1:5" x14ac:dyDescent="0.2">
@@ -59973,7 +59973,7 @@
         <v>21</v>
       </c>
       <c r="E2829" s="3">
-        <v>97.12</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="2830" spans="1:5" x14ac:dyDescent="0.2">
@@ -59990,7 +59990,7 @@
         <v>21</v>
       </c>
       <c r="E2830" s="3">
-        <v>166.49</v>
+        <v>169.54</v>
       </c>
     </row>
     <row r="2831" spans="1:5" x14ac:dyDescent="0.2">
@@ -60007,7 +60007,7 @@
         <v>21</v>
       </c>
       <c r="E2831" s="3">
-        <v>300.60000000000002</v>
+        <v>306.11</v>
       </c>
     </row>
     <row r="2832" spans="1:5" x14ac:dyDescent="0.2">
@@ -60024,7 +60024,7 @@
         <v>21</v>
       </c>
       <c r="E2832" s="3">
-        <v>161.86000000000001</v>
+        <v>164.83</v>
       </c>
     </row>
     <row r="2833" spans="1:5" x14ac:dyDescent="0.2">
@@ -60041,7 +60041,7 @@
         <v>21</v>
       </c>
       <c r="E2833" s="3">
-        <v>161.86000000000001</v>
+        <v>164.83</v>
       </c>
     </row>
     <row r="2834" spans="1:5" x14ac:dyDescent="0.2">
@@ -60058,7 +60058,7 @@
         <v>21</v>
       </c>
       <c r="E2834" s="3">
-        <v>161.86000000000001</v>
+        <v>164.83</v>
       </c>
     </row>
     <row r="2835" spans="1:5" x14ac:dyDescent="0.2">
@@ -60075,7 +60075,7 @@
         <v>21</v>
       </c>
       <c r="E2835" s="3">
-        <v>161.86000000000001</v>
+        <v>164.83</v>
       </c>
     </row>
     <row r="2836" spans="1:5" x14ac:dyDescent="0.2">
@@ -60092,7 +60092,7 @@
         <v>21</v>
       </c>
       <c r="E2836" s="3">
-        <v>161.86000000000001</v>
+        <v>164.83</v>
       </c>
     </row>
     <row r="2837" spans="1:5" x14ac:dyDescent="0.2">
@@ -60109,7 +60109,7 @@
         <v>21</v>
       </c>
       <c r="E2837" s="3">
-        <v>148.47999999999999</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="2838" spans="1:5" x14ac:dyDescent="0.2">
@@ -60126,7 +60126,7 @@
         <v>21</v>
       </c>
       <c r="E2838" s="3">
-        <v>819.05</v>
+        <v>834.05</v>
       </c>
     </row>
     <row r="2839" spans="1:5" x14ac:dyDescent="0.2">
@@ -60143,7 +60143,7 @@
         <v>21</v>
       </c>
       <c r="E2839" s="3">
-        <v>819.05</v>
+        <v>834.05</v>
       </c>
     </row>
     <row r="2840" spans="1:5" x14ac:dyDescent="0.2">
@@ -60160,7 +60160,7 @@
         <v>21</v>
       </c>
       <c r="E2840" s="3">
-        <v>819.05</v>
+        <v>834.05</v>
       </c>
     </row>
     <row r="2841" spans="1:5" x14ac:dyDescent="0.2">
@@ -60177,7 +60177,7 @@
         <v>21</v>
       </c>
       <c r="E2841" s="3">
-        <v>819.05</v>
+        <v>834.05</v>
       </c>
     </row>
     <row r="2842" spans="1:5" x14ac:dyDescent="0.2">
@@ -60194,7 +60194,7 @@
         <v>21</v>
       </c>
       <c r="E2842" s="3">
-        <v>819.05</v>
+        <v>834.05</v>
       </c>
     </row>
     <row r="2843" spans="1:5" x14ac:dyDescent="0.2">
@@ -60211,7 +60211,7 @@
         <v>21</v>
       </c>
       <c r="E2843" s="3">
-        <v>819.05</v>
+        <v>834.05</v>
       </c>
     </row>
     <row r="2844" spans="1:5" x14ac:dyDescent="0.2">
@@ -60228,7 +60228,7 @@
         <v>21</v>
       </c>
       <c r="E2844" s="3">
-        <v>819.05</v>
+        <v>834.05</v>
       </c>
     </row>
     <row r="2845" spans="1:5" x14ac:dyDescent="0.2">
@@ -60245,7 +60245,7 @@
         <v>21</v>
       </c>
       <c r="E2845" s="3">
-        <v>148.47999999999999</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="2846" spans="1:5" x14ac:dyDescent="0.2">
@@ -60262,7 +60262,7 @@
         <v>21</v>
       </c>
       <c r="E2846" s="3">
-        <v>148.47999999999999</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="2847" spans="1:5" x14ac:dyDescent="0.2">
@@ -60279,7 +60279,7 @@
         <v>21</v>
       </c>
       <c r="E2847" s="3">
-        <v>148.47999999999999</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="2848" spans="1:5" x14ac:dyDescent="0.2">
@@ -60296,7 +60296,7 @@
         <v>21</v>
       </c>
       <c r="E2848" s="3">
-        <v>148.47999999999999</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="2849" spans="1:5" x14ac:dyDescent="0.2">
@@ -60313,7 +60313,7 @@
         <v>21</v>
       </c>
       <c r="E2849" s="3">
-        <v>459.82</v>
+        <v>468.24</v>
       </c>
     </row>
     <row r="2850" spans="1:5" x14ac:dyDescent="0.2">
@@ -60330,7 +60330,7 @@
         <v>21</v>
       </c>
       <c r="E2850" s="3">
-        <v>613.09</v>
+        <v>624.32000000000005</v>
       </c>
     </row>
     <row r="2851" spans="1:5" x14ac:dyDescent="0.2">
@@ -60347,7 +60347,7 @@
         <v>21</v>
       </c>
       <c r="E2851" s="3">
-        <v>914.85</v>
+        <v>931.6</v>
       </c>
     </row>
     <row r="2852" spans="1:5" x14ac:dyDescent="0.2">
@@ -60364,7 +60364,7 @@
         <v>21</v>
       </c>
       <c r="E2852" s="3">
-        <v>252.7</v>
+        <v>257.33</v>
       </c>
     </row>
     <row r="2853" spans="1:5" x14ac:dyDescent="0.2">
@@ -60381,7 +60381,7 @@
         <v>21</v>
       </c>
       <c r="E2853" s="3">
-        <v>317.12</v>
+        <v>322.92</v>
       </c>
     </row>
     <row r="2854" spans="1:5" x14ac:dyDescent="0.2">
@@ -60398,7 +60398,7 @@
         <v>21</v>
       </c>
       <c r="E2854" s="3">
-        <v>361.71</v>
+        <v>368.34</v>
       </c>
     </row>
     <row r="2855" spans="1:5" x14ac:dyDescent="0.2">
@@ -60415,7 +60415,7 @@
         <v>21</v>
       </c>
       <c r="E2855" s="3">
-        <v>594.59</v>
+        <v>605.48</v>
       </c>
     </row>
     <row r="2856" spans="1:5" x14ac:dyDescent="0.2">
@@ -60432,7 +60432,7 @@
         <v>21</v>
       </c>
       <c r="E2856" s="3">
-        <v>97.12</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="2857" spans="1:5" x14ac:dyDescent="0.2">
@@ -60449,7 +60449,7 @@
         <v>21</v>
       </c>
       <c r="E2857" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2858" spans="1:5" x14ac:dyDescent="0.2">
@@ -60466,7 +60466,7 @@
         <v>21</v>
       </c>
       <c r="E2858" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2859" spans="1:5" x14ac:dyDescent="0.2">
@@ -60483,7 +60483,7 @@
         <v>21</v>
       </c>
       <c r="E2859" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2860" spans="1:5" x14ac:dyDescent="0.2">
@@ -60500,7 +60500,7 @@
         <v>21</v>
       </c>
       <c r="E2860" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2861" spans="1:5" x14ac:dyDescent="0.2">
@@ -60517,7 +60517,7 @@
         <v>21</v>
       </c>
       <c r="E2861" s="3">
-        <v>862.16</v>
+        <v>877.95</v>
       </c>
     </row>
     <row r="2862" spans="1:5" x14ac:dyDescent="0.2">
@@ -60534,7 +60534,7 @@
         <v>21</v>
       </c>
       <c r="E2862" s="3">
-        <v>1719.53</v>
+        <v>1751.03</v>
       </c>
     </row>
     <row r="2863" spans="1:5" x14ac:dyDescent="0.2">
@@ -60551,7 +60551,7 @@
         <v>21</v>
       </c>
       <c r="E2863" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2864" spans="1:5" x14ac:dyDescent="0.2">
@@ -60568,7 +60568,7 @@
         <v>21</v>
       </c>
       <c r="E2864" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2865" spans="1:5" x14ac:dyDescent="0.2">
@@ -60585,7 +60585,7 @@
         <v>21</v>
       </c>
       <c r="E2865" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2866" spans="1:5" x14ac:dyDescent="0.2">
@@ -60602,7 +60602,7 @@
         <v>21</v>
       </c>
       <c r="E2866" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2867" spans="1:5" x14ac:dyDescent="0.2">
@@ -60619,7 +60619,7 @@
         <v>21</v>
       </c>
       <c r="E2867" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2868" spans="1:5" x14ac:dyDescent="0.2">
@@ -60636,7 +60636,7 @@
         <v>21</v>
       </c>
       <c r="E2868" s="3">
-        <v>143.36000000000001</v>
+        <v>145.99</v>
       </c>
     </row>
     <row r="2869" spans="1:5" x14ac:dyDescent="0.2">
@@ -60653,7 +60653,7 @@
         <v>21</v>
       </c>
       <c r="E2869" s="3">
-        <v>97.12</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="2870" spans="1:5" x14ac:dyDescent="0.2">
@@ -60670,7 +60670,7 @@
         <v>21</v>
       </c>
       <c r="E2870" s="3">
-        <v>1226.18</v>
+        <v>1248.6400000000001</v>
       </c>
     </row>
     <row r="2871" spans="1:5" x14ac:dyDescent="0.2">
@@ -60687,7 +60687,7 @@
         <v>21</v>
       </c>
       <c r="E2871" s="3">
-        <v>296.97000000000003</v>
+        <v>302.41000000000003</v>
       </c>
     </row>
     <row r="2872" spans="1:5" x14ac:dyDescent="0.2">
@@ -60704,7 +60704,7 @@
         <v>21</v>
       </c>
       <c r="E2872" s="3">
-        <v>488.56</v>
+        <v>497.51</v>
       </c>
     </row>
     <row r="2873" spans="1:5" x14ac:dyDescent="0.2">
@@ -60721,7 +60721,7 @@
         <v>21</v>
       </c>
       <c r="E2873" s="3">
-        <v>2265.5700000000002</v>
+        <v>2307.06</v>
       </c>
     </row>
     <row r="2874" spans="1:5" x14ac:dyDescent="0.2">
@@ -60738,7 +60738,7 @@
         <v>21</v>
       </c>
       <c r="E2874" s="3">
-        <v>1341.14</v>
+        <v>1365.7</v>
       </c>
     </row>
     <row r="2875" spans="1:5" x14ac:dyDescent="0.2">
@@ -60755,7 +60755,7 @@
         <v>21</v>
       </c>
       <c r="E2875" s="3">
-        <v>208.11</v>
+        <v>211.92</v>
       </c>
     </row>
     <row r="2876" spans="1:5" x14ac:dyDescent="0.2">
@@ -60772,7 +60772,7 @@
         <v>21</v>
       </c>
       <c r="E2876" s="3">
-        <v>208.11</v>
+        <v>211.92</v>
       </c>
     </row>
     <row r="2877" spans="1:5" x14ac:dyDescent="0.2">
@@ -61435,7 +61435,7 @@
         <v>21</v>
       </c>
       <c r="E2915" s="3">
-        <v>2382.58</v>
+        <v>2620.84</v>
       </c>
     </row>
     <row r="2916" spans="1:5" x14ac:dyDescent="0.2">
@@ -61452,7 +61452,7 @@
         <v>21</v>
       </c>
       <c r="E2916" s="3">
-        <v>5439.42</v>
+        <v>5983.36</v>
       </c>
     </row>
     <row r="2917" spans="1:5" x14ac:dyDescent="0.2">
@@ -61469,7 +61469,7 @@
         <v>21</v>
       </c>
       <c r="E2917" s="3">
-        <v>10721.39</v>
+        <v>11793.54</v>
       </c>
     </row>
     <row r="2918" spans="1:5" x14ac:dyDescent="0.2">
@@ -61486,7 +61486,7 @@
         <v>21</v>
       </c>
       <c r="E2918" s="3">
-        <v>970.65</v>
+        <v>1067.71</v>
       </c>
     </row>
     <row r="2919" spans="1:5" x14ac:dyDescent="0.2">
@@ -61503,7 +61503,7 @@
         <v>21</v>
       </c>
       <c r="E2919" s="3">
-        <v>1477.41</v>
+        <v>1625.16</v>
       </c>
     </row>
     <row r="2920" spans="1:5" x14ac:dyDescent="0.2">
@@ -61520,7 +61520,7 @@
         <v>21</v>
       </c>
       <c r="E2920" s="3">
-        <v>2499.85</v>
+        <v>2749.85</v>
       </c>
     </row>
     <row r="2921" spans="1:5" x14ac:dyDescent="0.2">
@@ -61537,7 +61537,7 @@
         <v>21</v>
       </c>
       <c r="E2921" s="3">
-        <v>9233.0300000000007</v>
+        <v>10156.33</v>
       </c>
     </row>
     <row r="2922" spans="1:5" x14ac:dyDescent="0.2">
@@ -61554,7 +61554,7 @@
         <v>21</v>
       </c>
       <c r="E2922" s="3">
-        <v>769.43</v>
+        <v>869.45</v>
       </c>
     </row>
     <row r="2923" spans="1:5" x14ac:dyDescent="0.2">
@@ -61571,7 +61571,7 @@
         <v>21</v>
       </c>
       <c r="E2923" s="3">
-        <v>1134.22</v>
+        <v>1281.68</v>
       </c>
     </row>
     <row r="2924" spans="1:5" x14ac:dyDescent="0.2">
@@ -61588,7 +61588,7 @@
         <v>21</v>
       </c>
       <c r="E2924" s="3">
-        <v>1878.88</v>
+        <v>2123.14</v>
       </c>
     </row>
     <row r="2925" spans="1:5" x14ac:dyDescent="0.2">
@@ -61605,7 +61605,7 @@
         <v>21</v>
       </c>
       <c r="E2925" s="3">
-        <v>6803.65</v>
+        <v>7688.12</v>
       </c>
     </row>
     <row r="2926" spans="1:5" x14ac:dyDescent="0.2">
@@ -61622,7 +61622,7 @@
         <v>21</v>
       </c>
       <c r="E2926" s="3">
-        <v>18984.560000000001</v>
+        <v>20883.02</v>
       </c>
     </row>
     <row r="2927" spans="1:5" x14ac:dyDescent="0.2">
@@ -61639,7 +61639,7 @@
         <v>21</v>
       </c>
       <c r="E2927" s="3">
-        <v>1011.61</v>
+        <v>1112.77</v>
       </c>
     </row>
     <row r="2928" spans="1:5" x14ac:dyDescent="0.2">
@@ -61656,7 +61656,7 @@
         <v>21</v>
       </c>
       <c r="E2928" s="3">
-        <v>1546.88</v>
+        <v>1701.57</v>
       </c>
     </row>
     <row r="2929" spans="1:5" x14ac:dyDescent="0.2">
@@ -61673,7 +61673,7 @@
         <v>21</v>
       </c>
       <c r="E2929" s="3">
-        <v>9667.83</v>
+        <v>10634.61</v>
       </c>
     </row>
     <row r="2930" spans="1:5" x14ac:dyDescent="0.2">
@@ -61690,7 +61690,7 @@
         <v>21</v>
       </c>
       <c r="E2930" s="3">
-        <v>892.74</v>
+        <v>982.03</v>
       </c>
     </row>
     <row r="2931" spans="1:5" x14ac:dyDescent="0.2">
@@ -61707,7 +61707,7 @@
         <v>21</v>
       </c>
       <c r="E2931" s="3">
-        <v>1318.63</v>
+        <v>1450.49</v>
       </c>
     </row>
     <row r="2932" spans="1:5" x14ac:dyDescent="0.2">
@@ -61724,7 +61724,7 @@
         <v>21</v>
       </c>
       <c r="E2932" s="3">
-        <v>2183.5</v>
+        <v>2401.85</v>
       </c>
     </row>
     <row r="2933" spans="1:5" x14ac:dyDescent="0.2">
@@ -61741,7 +61741,7 @@
         <v>21</v>
       </c>
       <c r="E2933" s="3">
-        <v>7898.8</v>
+        <v>8688.68</v>
       </c>
     </row>
     <row r="2934" spans="1:5" x14ac:dyDescent="0.2">
@@ -61758,7 +61758,7 @@
         <v>21</v>
       </c>
       <c r="E2934" s="3">
-        <v>1115.53</v>
+        <v>1260.56</v>
       </c>
     </row>
     <row r="2935" spans="1:5" x14ac:dyDescent="0.2">
@@ -61775,7 +61775,7 @@
         <v>21</v>
       </c>
       <c r="E2935" s="3">
-        <v>1846.65</v>
+        <v>2086.7199999999998</v>
       </c>
     </row>
     <row r="2936" spans="1:5" x14ac:dyDescent="0.2">
@@ -61792,7 +61792,7 @@
         <v>21</v>
       </c>
       <c r="E2936" s="3">
-        <v>6675.99</v>
+        <v>7543.86</v>
       </c>
     </row>
     <row r="2937" spans="1:5" x14ac:dyDescent="0.2">
@@ -61809,7 +61809,7 @@
         <v>21</v>
       </c>
       <c r="E2937" s="3">
-        <v>973.66</v>
+        <v>1100.24</v>
       </c>
     </row>
     <row r="2938" spans="1:5" x14ac:dyDescent="0.2">
@@ -61826,7 +61826,7 @@
         <v>21</v>
       </c>
       <c r="E2938" s="3">
-        <v>1613.69</v>
+        <v>1823.46</v>
       </c>
     </row>
     <row r="2939" spans="1:5" x14ac:dyDescent="0.2">
@@ -61843,7 +61843,7 @@
         <v>21</v>
       </c>
       <c r="E2939" s="3">
-        <v>5836.27</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="2940" spans="1:5" x14ac:dyDescent="0.2">
@@ -61860,7 +61860,7 @@
         <v>21</v>
       </c>
       <c r="E2940" s="3">
-        <v>1878.88</v>
+        <v>2123.14</v>
       </c>
     </row>
     <row r="2941" spans="1:5" x14ac:dyDescent="0.2">
@@ -61877,7 +61877,7 @@
         <v>21</v>
       </c>
       <c r="E2941" s="3">
-        <v>1878.88</v>
+        <v>2123.14</v>
       </c>
     </row>
     <row r="2942" spans="1:5" x14ac:dyDescent="0.2">
@@ -61894,7 +61894,7 @@
         <v>21</v>
       </c>
       <c r="E2942" s="3">
-        <v>1304.74</v>
+        <v>1435.21</v>
       </c>
     </row>
     <row r="2943" spans="1:5" x14ac:dyDescent="0.2">
@@ -61911,7 +61911,7 @@
         <v>21</v>
       </c>
       <c r="E2943" s="3">
-        <v>2164</v>
+        <v>2380.39</v>
       </c>
     </row>
     <row r="2944" spans="1:5" x14ac:dyDescent="0.2">
@@ -61928,7 +61928,7 @@
         <v>21</v>
       </c>
       <c r="E2944" s="3">
-        <v>7824.35</v>
+        <v>8606.77</v>
       </c>
     </row>
     <row r="2945" spans="1:5" x14ac:dyDescent="0.2">
@@ -61945,7 +61945,7 @@
         <v>21</v>
       </c>
       <c r="E2945" s="3">
-        <v>1142.2</v>
+        <v>1290.68</v>
       </c>
     </row>
     <row r="2946" spans="1:5" x14ac:dyDescent="0.2">
@@ -61962,7 +61962,7 @@
         <v>21</v>
       </c>
       <c r="E2946" s="3">
-        <v>1734.83</v>
+        <v>1960.33</v>
       </c>
     </row>
     <row r="2947" spans="1:5" x14ac:dyDescent="0.2">
@@ -61979,7 +61979,7 @@
         <v>21</v>
       </c>
       <c r="E2947" s="3">
-        <v>9233.0300000000007</v>
+        <v>10156.33</v>
       </c>
     </row>
     <row r="2948" spans="1:5" x14ac:dyDescent="0.2">
@@ -61996,7 +61996,7 @@
         <v>21</v>
       </c>
       <c r="E2948" s="3">
-        <v>17142.89</v>
+        <v>18857.18</v>
       </c>
     </row>
     <row r="2949" spans="1:5" x14ac:dyDescent="0.2">
@@ -62081,7 +62081,7 @@
         <v>21</v>
       </c>
       <c r="E2953" s="3">
-        <v>1092.77</v>
+        <v>1202.03</v>
       </c>
     </row>
     <row r="2954" spans="1:5" x14ac:dyDescent="0.2">
@@ -62098,7 +62098,7 @@
         <v>21</v>
       </c>
       <c r="E2954" s="3">
-        <v>3754.82</v>
+        <v>4130.3100000000004</v>
       </c>
     </row>
     <row r="2955" spans="1:5" x14ac:dyDescent="0.2">
@@ -62115,7 +62115,7 @@
         <v>21</v>
       </c>
       <c r="E2955" s="3">
-        <v>8890.06</v>
+        <v>9779.07</v>
       </c>
     </row>
     <row r="2956" spans="1:5" x14ac:dyDescent="0.2">
@@ -68201,7 +68201,7 @@
         <v>21</v>
       </c>
       <c r="E3313" s="3">
-        <v>5216.08</v>
+        <v>5311.61</v>
       </c>
     </row>
     <row r="3314" spans="1:5" x14ac:dyDescent="0.2">
@@ -68218,7 +68218,7 @@
         <v>21</v>
       </c>
       <c r="E3314" s="3">
-        <v>5216.08</v>
+        <v>5311.61</v>
       </c>
     </row>
     <row r="3315" spans="1:5" x14ac:dyDescent="0.2">
@@ -68235,7 +68235,7 @@
         <v>21</v>
       </c>
       <c r="E3315" s="3">
-        <v>3601.92</v>
+        <v>3667.89</v>
       </c>
     </row>
     <row r="3316" spans="1:5" x14ac:dyDescent="0.2">
@@ -68252,7 +68252,7 @@
         <v>21</v>
       </c>
       <c r="E3316" s="3">
-        <v>3601.92</v>
+        <v>3667.89</v>
       </c>
     </row>
     <row r="3317" spans="1:5" x14ac:dyDescent="0.2">
@@ -69714,7 +69714,7 @@
         <v>21</v>
       </c>
       <c r="E3402" s="3">
-        <v>1556.68</v>
+        <v>1585.19</v>
       </c>
     </row>
     <row r="3403" spans="1:5" x14ac:dyDescent="0.2">
@@ -69731,7 +69731,7 @@
         <v>21</v>
       </c>
       <c r="E3403" s="3">
-        <v>1714.74</v>
+        <v>1746.15</v>
       </c>
     </row>
     <row r="3404" spans="1:5" x14ac:dyDescent="0.2">
@@ -69748,7 +69748,7 @@
         <v>21</v>
       </c>
       <c r="E3404" s="3">
-        <v>1226.18</v>
+        <v>1248.6400000000001</v>
       </c>
     </row>
     <row r="3405" spans="1:5" x14ac:dyDescent="0.2">
@@ -69765,7 +69765,7 @@
         <v>21</v>
       </c>
       <c r="E3405" s="3">
-        <v>1163.92</v>
+        <v>1185.23</v>
       </c>
     </row>
     <row r="3406" spans="1:5" x14ac:dyDescent="0.2">
@@ -69782,7 +69782,7 @@
         <v>21</v>
       </c>
       <c r="E3406" s="3">
-        <v>1130.3900000000001</v>
+        <v>1151.0899999999999</v>
       </c>
     </row>
     <row r="3407" spans="1:5" x14ac:dyDescent="0.2">
@@ -69799,7 +69799,7 @@
         <v>21</v>
       </c>
       <c r="E3407" s="3">
-        <v>1456.09</v>
+        <v>1482.76</v>
       </c>
     </row>
     <row r="3408" spans="1:5" x14ac:dyDescent="0.2">
@@ -69816,7 +69816,7 @@
         <v>21</v>
       </c>
       <c r="E3408" s="3">
-        <v>4339.55</v>
+        <v>4419.0200000000004</v>
       </c>
     </row>
     <row r="3409" spans="1:5" x14ac:dyDescent="0.2">
@@ -69833,7 +69833,7 @@
         <v>21</v>
       </c>
       <c r="E3409" s="3">
-        <v>3070.25</v>
+        <v>3126.48</v>
       </c>
     </row>
     <row r="3410" spans="1:5" x14ac:dyDescent="0.2">
@@ -69850,7 +69850,7 @@
         <v>21</v>
       </c>
       <c r="E3410" s="3">
-        <v>3673.77</v>
+        <v>3741.05</v>
       </c>
     </row>
     <row r="3411" spans="1:5" x14ac:dyDescent="0.2">
@@ -69867,7 +69867,7 @@
         <v>21</v>
       </c>
       <c r="E3411" s="3">
-        <v>4550.3</v>
+        <v>4633.63</v>
       </c>
     </row>
     <row r="3412" spans="1:5" x14ac:dyDescent="0.2">
@@ -69884,7 +69884,7 @@
         <v>21</v>
       </c>
       <c r="E3412" s="3">
-        <v>3664.19</v>
+        <v>3731.3</v>
       </c>
     </row>
     <row r="3413" spans="1:5" x14ac:dyDescent="0.2">
@@ -69901,7 +69901,7 @@
         <v>21</v>
       </c>
       <c r="E3413" s="3">
-        <v>4004.26</v>
+        <v>4077.6</v>
       </c>
     </row>
     <row r="3414" spans="1:5" x14ac:dyDescent="0.2">
@@ -69918,7 +69918,7 @@
         <v>21</v>
       </c>
       <c r="E3414" s="3">
-        <v>3458.22</v>
+        <v>3521.56</v>
       </c>
     </row>
     <row r="3415" spans="1:5" x14ac:dyDescent="0.2">
@@ -70972,7 +70972,7 @@
         <v>21</v>
       </c>
       <c r="E3476" s="3">
-        <v>1496.39</v>
+        <v>1523.8</v>
       </c>
     </row>
     <row r="3477" spans="1:5" x14ac:dyDescent="0.2">
@@ -71397,7 +71397,7 @@
         <v>21</v>
       </c>
       <c r="E3501" s="3">
-        <v>404.83</v>
+        <v>547.76</v>
       </c>
     </row>
     <row r="3502" spans="1:5" x14ac:dyDescent="0.2">
@@ -71414,7 +71414,7 @@
         <v>21</v>
       </c>
       <c r="E3502" s="3">
-        <v>536.11</v>
+        <v>724.16</v>
       </c>
     </row>
     <row r="3503" spans="1:5" x14ac:dyDescent="0.2">
@@ -71431,7 +71431,7 @@
         <v>21</v>
       </c>
       <c r="E3503" s="3">
-        <v>749.47</v>
+        <v>1016.61</v>
       </c>
     </row>
     <row r="3504" spans="1:5" x14ac:dyDescent="0.2">
@@ -71448,7 +71448,7 @@
         <v>21</v>
       </c>
       <c r="E3504" s="3">
-        <v>1214.46</v>
+        <v>1643.28</v>
       </c>
     </row>
     <row r="3505" spans="1:5" x14ac:dyDescent="0.2">
@@ -71465,7 +71465,7 @@
         <v>21</v>
       </c>
       <c r="E3505" s="3">
-        <v>2283.2800000000002</v>
+        <v>2919.85</v>
       </c>
     </row>
     <row r="3506" spans="1:5" x14ac:dyDescent="0.2">
@@ -71482,7 +71482,7 @@
         <v>21</v>
       </c>
       <c r="E3506" s="3">
-        <v>335.2</v>
+        <v>464.2</v>
       </c>
     </row>
     <row r="3507" spans="1:5" x14ac:dyDescent="0.2">
@@ -71499,7 +71499,7 @@
         <v>21</v>
       </c>
       <c r="E3507" s="3">
-        <v>452.97</v>
+        <v>626.67999999999995</v>
       </c>
     </row>
     <row r="3508" spans="1:5" x14ac:dyDescent="0.2">
@@ -71516,7 +71516,7 @@
         <v>21</v>
       </c>
       <c r="E3508" s="3">
-        <v>452.97</v>
+        <v>626.67999999999995</v>
       </c>
     </row>
     <row r="3509" spans="1:5" x14ac:dyDescent="0.2">
@@ -71533,7 +71533,7 @@
         <v>21</v>
       </c>
       <c r="E3509" s="3">
-        <v>779.1</v>
+        <v>1076.95</v>
       </c>
     </row>
     <row r="3510" spans="1:5" x14ac:dyDescent="0.2">
@@ -71550,7 +71550,7 @@
         <v>21</v>
       </c>
       <c r="E3510" s="3">
-        <v>1150.53</v>
+        <v>1596.86</v>
       </c>
     </row>
     <row r="3511" spans="1:5" x14ac:dyDescent="0.2">
@@ -71567,7 +71567,7 @@
         <v>21</v>
       </c>
       <c r="E3511" s="3">
-        <v>1171.6500000000001</v>
+        <v>1624.72</v>
       </c>
     </row>
     <row r="3512" spans="1:5" x14ac:dyDescent="0.2">
@@ -71618,7 +71618,7 @@
         <v>21</v>
       </c>
       <c r="E3514" s="3">
-        <v>342.22</v>
+        <v>348.49</v>
       </c>
     </row>
     <row r="3515" spans="1:5" x14ac:dyDescent="0.2">
@@ -71635,7 +71635,7 @@
         <v>21</v>
       </c>
       <c r="E3515" s="3">
-        <v>887.93</v>
+        <v>904.19</v>
       </c>
     </row>
     <row r="3516" spans="1:5" x14ac:dyDescent="0.2">
@@ -71652,7 +71652,7 @@
         <v>21</v>
       </c>
       <c r="E3516" s="3">
-        <v>1424.38</v>
+        <v>1450.47</v>
       </c>
     </row>
     <row r="3517" spans="1:5" x14ac:dyDescent="0.2">
@@ -71669,7 +71669,7 @@
         <v>21</v>
       </c>
       <c r="E3517" s="3">
-        <v>2427.9299999999998</v>
+        <v>2472.39</v>
       </c>
     </row>
     <row r="3518" spans="1:5" x14ac:dyDescent="0.2">
@@ -71686,7 +71686,7 @@
         <v>21</v>
       </c>
       <c r="E3518" s="3">
-        <v>2427.9299999999998</v>
+        <v>2472.39</v>
       </c>
     </row>
     <row r="3519" spans="1:5" x14ac:dyDescent="0.2">
@@ -71703,7 +71703,7 @@
         <v>21</v>
       </c>
       <c r="E3519" s="3">
-        <v>4111.29</v>
+        <v>4186.59</v>
       </c>
     </row>
     <row r="3520" spans="1:5" x14ac:dyDescent="0.2">
@@ -71720,7 +71720,7 @@
         <v>21</v>
       </c>
       <c r="E3520" s="3">
-        <v>4111.29</v>
+        <v>4186.59</v>
       </c>
     </row>
     <row r="3521" spans="1:5" x14ac:dyDescent="0.2">
@@ -71737,7 +71737,7 @@
         <v>21</v>
       </c>
       <c r="E3521" s="3">
-        <v>1794.35</v>
+        <v>1827.22</v>
       </c>
     </row>
     <row r="3522" spans="1:5" x14ac:dyDescent="0.2">
@@ -71754,7 +71754,7 @@
         <v>21</v>
       </c>
       <c r="E3522" s="3">
-        <v>6659.45</v>
+        <v>6781.42</v>
       </c>
     </row>
     <row r="3523" spans="1:5" x14ac:dyDescent="0.2">
@@ -71771,7 +71771,7 @@
         <v>21</v>
       </c>
       <c r="E3523" s="3">
-        <v>6659.45</v>
+        <v>6781.42</v>
       </c>
     </row>
     <row r="3524" spans="1:5" x14ac:dyDescent="0.2">
@@ -71788,7 +71788,7 @@
         <v>21</v>
       </c>
       <c r="E3524" s="3">
-        <v>772.31</v>
+        <v>786.46</v>
       </c>
     </row>
     <row r="3525" spans="1:5" x14ac:dyDescent="0.2">
@@ -71805,7 +71805,7 @@
         <v>21</v>
       </c>
       <c r="E3525" s="3">
-        <v>878.68</v>
+        <v>894.77</v>
       </c>
     </row>
     <row r="3526" spans="1:5" x14ac:dyDescent="0.2">
@@ -71822,7 +71822,7 @@
         <v>21</v>
       </c>
       <c r="E3526" s="3">
-        <v>647.45000000000005</v>
+        <v>659.3</v>
       </c>
     </row>
     <row r="3527" spans="1:5" x14ac:dyDescent="0.2">
@@ -71839,7 +71839,7 @@
         <v>21</v>
       </c>
       <c r="E3527" s="3">
-        <v>531.83000000000004</v>
+        <v>541.57000000000005</v>
       </c>
     </row>
     <row r="3528" spans="1:5" x14ac:dyDescent="0.2">
@@ -71856,7 +71856,7 @@
         <v>21</v>
       </c>
       <c r="E3528" s="3">
-        <v>587.33000000000004</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="3529" spans="1:5" x14ac:dyDescent="0.2">
@@ -71873,7 +71873,7 @@
         <v>21</v>
       </c>
       <c r="E3529" s="3">
-        <v>656.7</v>
+        <v>668.72</v>
       </c>
     </row>
     <row r="3530" spans="1:5" x14ac:dyDescent="0.2">
@@ -71890,7 +71890,7 @@
         <v>21</v>
       </c>
       <c r="E3530" s="3">
-        <v>1424.38</v>
+        <v>1450.47</v>
       </c>
     </row>
     <row r="3531" spans="1:5" x14ac:dyDescent="0.2">
@@ -71907,7 +71907,7 @@
         <v>21</v>
       </c>
       <c r="E3531" s="3">
-        <v>342.22</v>
+        <v>348.49</v>
       </c>
     </row>
     <row r="3532" spans="1:5" x14ac:dyDescent="0.2">
@@ -71924,7 +71924,7 @@
         <v>21</v>
       </c>
       <c r="E3532" s="3">
-        <v>887.93</v>
+        <v>904.19</v>
       </c>
     </row>
     <row r="3533" spans="1:5" x14ac:dyDescent="0.2">
@@ -71941,7 +71941,7 @@
         <v>21</v>
       </c>
       <c r="E3533" s="3">
-        <v>1794.35</v>
+        <v>1827.22</v>
       </c>
     </row>
     <row r="3534" spans="1:5" x14ac:dyDescent="0.2">
@@ -71958,7 +71958,7 @@
         <v>21</v>
       </c>
       <c r="E3534" s="3">
-        <v>6429.01</v>
+        <v>8912.7199999999993</v>
       </c>
     </row>
     <row r="3535" spans="1:5" x14ac:dyDescent="0.2">
@@ -71975,7 +71975,7 @@
         <v>21</v>
       </c>
       <c r="E3535" s="3">
-        <v>1960.84</v>
+        <v>1996.75</v>
       </c>
     </row>
     <row r="3536" spans="1:5" x14ac:dyDescent="0.2">
@@ -71992,7 +71992,7 @@
         <v>21</v>
       </c>
       <c r="E3536" s="3">
-        <v>3283.48</v>
+        <v>3343.62</v>
       </c>
     </row>
     <row r="3537" spans="1:5" x14ac:dyDescent="0.2">
@@ -72009,7 +72009,7 @@
         <v>21</v>
       </c>
       <c r="E3537" s="3">
-        <v>6571.59</v>
+        <v>6691.94</v>
       </c>
     </row>
     <row r="3538" spans="1:5" x14ac:dyDescent="0.2">
@@ -72026,7 +72026,7 @@
         <v>21</v>
       </c>
       <c r="E3538" s="3">
-        <v>5776.15</v>
+        <v>5881.94</v>
       </c>
     </row>
     <row r="3539" spans="1:5" x14ac:dyDescent="0.2">
@@ -72043,7 +72043,7 @@
         <v>21</v>
       </c>
       <c r="E3539" s="3">
-        <v>11543.05</v>
+        <v>11754.46</v>
       </c>
     </row>
     <row r="3540" spans="1:5" x14ac:dyDescent="0.2">
@@ -72060,7 +72060,7 @@
         <v>21</v>
       </c>
       <c r="E3540" s="3">
-        <v>2451.0500000000002</v>
+        <v>2495.94</v>
       </c>
     </row>
     <row r="3541" spans="1:5" x14ac:dyDescent="0.2">
@@ -72077,7 +72077,7 @@
         <v>21</v>
       </c>
       <c r="E3541" s="3">
-        <v>4078.91</v>
+        <v>4153.62</v>
       </c>
     </row>
     <row r="3542" spans="1:5" x14ac:dyDescent="0.2">
@@ -72094,7 +72094,7 @@
         <v>21</v>
       </c>
       <c r="E3542" s="3">
-        <v>8157.83</v>
+        <v>8307.24</v>
       </c>
     </row>
     <row r="3543" spans="1:5" x14ac:dyDescent="0.2">
@@ -72111,7 +72111,7 @@
         <v>21</v>
       </c>
       <c r="E3543" s="3">
-        <v>7852.6</v>
+        <v>7996.43</v>
       </c>
     </row>
     <row r="3544" spans="1:5" x14ac:dyDescent="0.2">
@@ -72128,7 +72128,7 @@
         <v>21</v>
       </c>
       <c r="E3544" s="3">
-        <v>15700.58</v>
+        <v>15988.14</v>
       </c>
     </row>
     <row r="3545" spans="1:5" x14ac:dyDescent="0.2">
@@ -72145,7 +72145,7 @@
         <v>21</v>
       </c>
       <c r="E3545" s="3">
-        <v>11621.67</v>
+        <v>11834.52</v>
       </c>
     </row>
     <row r="3546" spans="1:5" x14ac:dyDescent="0.2">
@@ -72162,7 +72162,7 @@
         <v>21</v>
       </c>
       <c r="E3546" s="3">
-        <v>4772.6099999999997</v>
+        <v>4860.0200000000004</v>
       </c>
     </row>
     <row r="3547" spans="1:5" x14ac:dyDescent="0.2">
@@ -72179,7 +72179,7 @@
         <v>21</v>
       </c>
       <c r="E3547" s="3">
-        <v>9545.2199999999993</v>
+        <v>9720.0400000000009</v>
       </c>
     </row>
     <row r="3548" spans="1:5" x14ac:dyDescent="0.2">
@@ -72196,7 +72196,7 @@
         <v>21</v>
       </c>
       <c r="E3548" s="3">
-        <v>9697.83</v>
+        <v>9875.44</v>
       </c>
     </row>
     <row r="3549" spans="1:5" x14ac:dyDescent="0.2">
@@ -72213,7 +72213,7 @@
         <v>21</v>
       </c>
       <c r="E3549" s="3">
-        <v>19395.66</v>
+        <v>19750.89</v>
       </c>
     </row>
     <row r="3550" spans="1:5" x14ac:dyDescent="0.2">
@@ -72230,7 +72230,7 @@
         <v>21</v>
       </c>
       <c r="E3550" s="3">
-        <v>8083.84</v>
+        <v>8231.89</v>
       </c>
     </row>
     <row r="3551" spans="1:5" x14ac:dyDescent="0.2">
@@ -72247,7 +72247,7 @@
         <v>21</v>
       </c>
       <c r="E3551" s="3">
-        <v>16163.05</v>
+        <v>16459.07</v>
       </c>
     </row>
     <row r="3552" spans="1:5" x14ac:dyDescent="0.2">
@@ -72264,7 +72264,7 @@
         <v>21</v>
       </c>
       <c r="E3552" s="3">
-        <v>14549.05</v>
+        <v>14815.52</v>
       </c>
     </row>
     <row r="3553" spans="1:5" x14ac:dyDescent="0.2">
@@ -72281,7 +72281,7 @@
         <v>21</v>
       </c>
       <c r="E3553" s="3">
-        <v>29093.48</v>
+        <v>29626.33</v>
       </c>
     </row>
     <row r="3554" spans="1:5" x14ac:dyDescent="0.2">
@@ -72298,7 +72298,7 @@
         <v>21</v>
       </c>
       <c r="E3554" s="3">
-        <v>5387.68</v>
+        <v>5486.36</v>
       </c>
     </row>
     <row r="3555" spans="1:5" x14ac:dyDescent="0.2">
@@ -72315,7 +72315,7 @@
         <v>21</v>
       </c>
       <c r="E3555" s="3">
-        <v>10775.36</v>
+        <v>10972.72</v>
       </c>
     </row>
     <row r="3556" spans="1:5" x14ac:dyDescent="0.2">
@@ -72332,7 +72332,7 @@
         <v>21</v>
       </c>
       <c r="E3556" s="3">
-        <v>10100.17</v>
+        <v>10285.15</v>
       </c>
     </row>
     <row r="3557" spans="1:5" x14ac:dyDescent="0.2">
@@ -72349,7 +72349,7 @@
         <v>21</v>
       </c>
       <c r="E3557" s="3">
-        <v>20204.96</v>
+        <v>20575.02</v>
       </c>
     </row>
     <row r="3558" spans="1:5" x14ac:dyDescent="0.2">
@@ -72383,7 +72383,7 @@
         <v>21</v>
       </c>
       <c r="E3559" s="3">
-        <v>18105.39</v>
+        <v>18436.990000000002</v>
       </c>
     </row>
     <row r="3560" spans="1:5" x14ac:dyDescent="0.2">
@@ -72434,7 +72434,7 @@
         <v>21</v>
       </c>
       <c r="E3562" s="3">
-        <v>23247.96</v>
+        <v>23673.75</v>
       </c>
     </row>
     <row r="3563" spans="1:5" x14ac:dyDescent="0.2">
@@ -72451,7 +72451,7 @@
         <v>21</v>
       </c>
       <c r="E3563" s="3">
-        <v>8772.9</v>
+        <v>8933.58</v>
       </c>
     </row>
     <row r="3564" spans="1:5" x14ac:dyDescent="0.2">
@@ -72621,7 +72621,7 @@
         <v>21</v>
       </c>
       <c r="E3573" s="3">
-        <v>2653.54</v>
+        <v>2702.14</v>
       </c>
     </row>
     <row r="3574" spans="1:5" x14ac:dyDescent="0.2">

--- a/excel-files/jm.xlsx
+++ b/excel-files/jm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Historico" sheetId="1" r:id="rId1"/>
@@ -11865,7 +11865,7 @@
   <dimension ref="A1:AK3724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14100,7 +14100,7 @@
         <v>21</v>
       </c>
       <c r="E129" s="3">
-        <v>7233.89</v>
+        <v>7402.24</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -14117,7 +14117,7 @@
         <v>21</v>
       </c>
       <c r="E130" s="3">
-        <v>18034.82</v>
+        <v>18457.82</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -14134,7 +14134,7 @@
         <v>21</v>
       </c>
       <c r="E131" s="3">
-        <v>35659.629999999997</v>
+        <v>36497.230000000003</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -14151,7 +14151,7 @@
         <v>10.5</v>
       </c>
       <c r="E132" s="3">
-        <v>1421.96</v>
+        <v>1455.39</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -14168,7 +14168,7 @@
         <v>21</v>
       </c>
       <c r="E133" s="3">
-        <v>24069.52</v>
+        <v>24634.15</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -14185,7 +14185,7 @@
         <v>21</v>
       </c>
       <c r="E134" s="3">
-        <v>7030.74</v>
+        <v>7194.42</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -14202,7 +14202,7 @@
         <v>21</v>
       </c>
       <c r="E135" s="3">
-        <v>54676.49</v>
+        <v>55961.29</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -14219,7 +14219,7 @@
         <v>21</v>
       </c>
       <c r="E136" s="3">
-        <v>54676.49</v>
+        <v>55961.29</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -14236,7 +14236,7 @@
         <v>21</v>
       </c>
       <c r="E137" s="3">
-        <v>4427.95</v>
+        <v>4531.87</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -14253,7 +14253,7 @@
         <v>21</v>
       </c>
       <c r="E138" s="3">
-        <v>19206.88</v>
+        <v>19657.21</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -14270,7 +14270,7 @@
         <v>21</v>
       </c>
       <c r="E139" s="3">
-        <v>4870.63</v>
+        <v>4984.53</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -14287,7 +14287,7 @@
         <v>21</v>
       </c>
       <c r="E140" s="3">
-        <v>3124.75</v>
+        <v>3196.7</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -14304,7 +14304,7 @@
         <v>21</v>
       </c>
       <c r="E141" s="3">
-        <v>8669.01</v>
+        <v>8871.07</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -14321,7 +14321,7 @@
         <v>21</v>
       </c>
       <c r="E142" s="3">
-        <v>6004.37</v>
+        <v>6144.26</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -14338,7 +14338,7 @@
         <v>21</v>
       </c>
       <c r="E143" s="3">
-        <v>25593.88</v>
+        <v>26195.34</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -14372,7 +14372,7 @@
         <v>21</v>
       </c>
       <c r="E145" s="3">
-        <v>13142.72</v>
+        <v>13451.58</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -14389,7 +14389,7 @@
         <v>21</v>
       </c>
       <c r="E146" s="3">
-        <v>17602.080000000002</v>
+        <v>18015.72</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -14406,7 +14406,7 @@
         <v>21</v>
       </c>
       <c r="E147" s="3">
-        <v>5043.97</v>
+        <v>5161.47</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -14423,7 +14423,7 @@
         <v>21</v>
       </c>
       <c r="E148" s="3">
-        <v>37178.300000000003</v>
+        <v>38050.629999999997</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -14440,7 +14440,7 @@
         <v>21</v>
       </c>
       <c r="E149" s="3">
-        <v>1563.8</v>
+        <v>1600.55</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -14457,7 +14457,7 @@
         <v>21</v>
       </c>
       <c r="E150" s="3">
-        <v>1691.41</v>
+        <v>1730.23</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -14474,7 +14474,7 @@
         <v>21</v>
       </c>
       <c r="E151" s="3">
-        <v>1942.3</v>
+        <v>1987.96</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -14491,7 +14491,7 @@
         <v>21</v>
       </c>
       <c r="E152" s="3">
-        <v>2520.89</v>
+        <v>2579.02</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -14508,7 +14508,7 @@
         <v>21</v>
       </c>
       <c r="E153" s="3">
-        <v>77819.95</v>
+        <v>79648.490000000005</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -14525,7 +14525,7 @@
         <v>21</v>
       </c>
       <c r="E154" s="3">
-        <v>90629.91</v>
+        <v>92758.36</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -14542,7 +14542,7 @@
         <v>21</v>
       </c>
       <c r="E155" s="3">
-        <v>106175.6</v>
+        <v>108670.1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -14559,7 +14559,7 @@
         <v>21</v>
       </c>
       <c r="E156" s="3">
-        <v>8021.56</v>
+        <v>8209.1200000000008</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -14576,7 +14576,7 @@
         <v>21</v>
       </c>
       <c r="E157" s="3">
-        <v>7393.21</v>
+        <v>7565.4</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -14593,7 +14593,7 @@
         <v>21</v>
       </c>
       <c r="E158" s="3">
-        <v>9300.2800000000007</v>
+        <v>9518.59</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -14610,7 +14610,7 @@
         <v>21</v>
       </c>
       <c r="E159" s="3">
-        <v>15074.23</v>
+        <v>15427.26</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -14627,7 +14627,7 @@
         <v>21</v>
       </c>
       <c r="E160" s="3">
-        <v>5777.29</v>
+        <v>5912.06</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -14644,7 +14644,7 @@
         <v>21</v>
       </c>
       <c r="E161" s="3">
-        <v>13178.66</v>
+        <v>13487.63</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -14661,7 +14661,7 @@
         <v>21</v>
       </c>
       <c r="E162" s="3">
-        <v>9513.4</v>
+        <v>13124.96</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -14678,7 +14678,7 @@
         <v>21</v>
       </c>
       <c r="E163" s="3">
-        <v>26156.34</v>
+        <v>26770.28</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -14695,7 +14695,7 @@
         <v>21</v>
       </c>
       <c r="E164" s="3">
-        <v>8825.7099999999991</v>
+        <v>9033.1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -14712,7 +14712,7 @@
         <v>21</v>
       </c>
       <c r="E165" s="3">
-        <v>6306.52</v>
+        <v>6454.72</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -14729,7 +14729,7 @@
         <v>21</v>
       </c>
       <c r="E166" s="3">
-        <v>23614.95</v>
+        <v>24168.3</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -24946,7 +24946,7 @@
         <v>21</v>
       </c>
       <c r="E767" s="3">
-        <v>425.4</v>
+        <v>706.15</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.2">
@@ -24963,7 +24963,7 @@
         <v>21</v>
       </c>
       <c r="E768" s="3">
-        <v>407.57</v>
+        <v>676.55</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.2">
@@ -24980,7 +24980,7 @@
         <v>21</v>
       </c>
       <c r="E769" s="3">
-        <v>394.55</v>
+        <v>654.95000000000005</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.2">
@@ -24997,7 +24997,7 @@
         <v>21</v>
       </c>
       <c r="E770" s="3">
-        <v>357.78</v>
+        <v>593.9</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.2">
@@ -25014,7 +25014,7 @@
         <v>21</v>
       </c>
       <c r="E771" s="3">
-        <v>335.95</v>
+        <v>557.69000000000005</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.2">
@@ -25031,7 +25031,7 @@
         <v>21</v>
       </c>
       <c r="E772" s="3">
-        <v>335.95</v>
+        <v>557.69000000000005</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.2">
@@ -25048,7 +25048,7 @@
         <v>21</v>
       </c>
       <c r="E773" s="3">
-        <v>335.95</v>
+        <v>557.69000000000005</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.2">
@@ -25065,7 +25065,7 @@
         <v>21</v>
       </c>
       <c r="E774" s="3">
-        <v>340.78</v>
+        <v>565.69000000000005</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.2">
@@ -25082,7 +25082,7 @@
         <v>21</v>
       </c>
       <c r="E775" s="3">
-        <v>373.23</v>
+        <v>619.57000000000005</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.2">
@@ -25099,7 +25099,7 @@
         <v>21</v>
       </c>
       <c r="E776" s="3">
-        <v>395.9</v>
+        <v>657.2</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.2">
@@ -25116,7 +25116,7 @@
         <v>21</v>
       </c>
       <c r="E777" s="3">
-        <v>403.11</v>
+        <v>669.15</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.2">
@@ -25133,7 +25133,7 @@
         <v>21</v>
       </c>
       <c r="E778" s="3">
-        <v>441.26</v>
+        <v>732.5</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.2">
@@ -25150,7 +25150,7 @@
         <v>21</v>
       </c>
       <c r="E779" s="3">
-        <v>463.01</v>
+        <v>768.59</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
@@ -25167,7 +25167,7 @@
         <v>21</v>
       </c>
       <c r="E780" s="3">
-        <v>508.37</v>
+        <v>843.88</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.2">
@@ -25184,7 +25184,7 @@
         <v>21</v>
       </c>
       <c r="E781" s="3">
-        <v>542.84</v>
+        <v>901.11</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.2">
@@ -25201,7 +25201,7 @@
         <v>21</v>
       </c>
       <c r="E782" s="3">
-        <v>581.29999999999995</v>
+        <v>964.96</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.2">
@@ -25218,7 +25218,7 @@
         <v>21</v>
       </c>
       <c r="E783" s="3">
-        <v>612.29</v>
+        <v>1016.4</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.2">
@@ -25235,7 +25235,7 @@
         <v>21</v>
       </c>
       <c r="E784" s="3">
-        <v>650.42999999999995</v>
+        <v>1079.7</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.2">
@@ -25252,7 +25252,7 @@
         <v>21</v>
       </c>
       <c r="E785" s="3">
-        <v>666.78</v>
+        <v>1106.8599999999999</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.2">
@@ -25269,7 +25269,7 @@
         <v>21</v>
       </c>
       <c r="E786" s="3">
-        <v>687.34</v>
+        <v>1140.99</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.2">
@@ -25286,7 +25286,7 @@
         <v>21</v>
       </c>
       <c r="E787" s="3">
-        <v>694.82</v>
+        <v>1153.4100000000001</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.2">
@@ -25303,7 +25303,7 @@
         <v>21</v>
       </c>
       <c r="E788" s="3">
-        <v>779.63</v>
+        <v>1294.19</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.2">
@@ -25320,7 +25320,7 @@
         <v>21</v>
       </c>
       <c r="E789" s="3">
-        <v>806.61</v>
+        <v>1338.98</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.2">
@@ -25337,7 +25337,7 @@
         <v>21</v>
       </c>
       <c r="E790" s="3">
-        <v>896.62</v>
+        <v>1488.39</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.2">
@@ -25354,7 +25354,7 @@
         <v>21</v>
       </c>
       <c r="E791" s="3">
-        <v>942.2</v>
+        <v>1564.07</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.2">
@@ -25371,7 +25371,7 @@
         <v>21</v>
       </c>
       <c r="E792" s="3">
-        <v>1025.8599999999999</v>
+        <v>1702.92</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.2">
@@ -25388,7 +25388,7 @@
         <v>21</v>
       </c>
       <c r="E793" s="3">
-        <v>1070.3</v>
+        <v>1776.68</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.2">
@@ -25405,7 +25405,7 @@
         <v>21</v>
       </c>
       <c r="E794" s="3">
-        <v>1171.73</v>
+        <v>1945.06</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.2">
@@ -25422,7 +25422,7 @@
         <v>21</v>
       </c>
       <c r="E795" s="3">
-        <v>1234.3599999999999</v>
+        <v>2049.0500000000002</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.2">
@@ -25439,7 +25439,7 @@
         <v>21</v>
       </c>
       <c r="E796" s="3">
-        <v>1350.11</v>
+        <v>2241.16</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.2">
@@ -25456,7 +25456,7 @@
         <v>21</v>
       </c>
       <c r="E797" s="3">
-        <v>1394.07</v>
+        <v>2314.17</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.2">
@@ -25473,7 +25473,7 @@
         <v>21</v>
       </c>
       <c r="E798" s="3">
-        <v>1533.2</v>
+        <v>2545.13</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.2">
@@ -25490,7 +25490,7 @@
         <v>21</v>
       </c>
       <c r="E799" s="3">
-        <v>1585</v>
+        <v>2631.08</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.2">
@@ -25507,7 +25507,7 @@
         <v>21</v>
       </c>
       <c r="E800" s="3">
-        <v>1718.66</v>
+        <v>2852.96</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.2">
@@ -25524,7 +25524,7 @@
         <v>21</v>
       </c>
       <c r="E801" s="3">
-        <v>1778.19</v>
+        <v>2951.81</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.2">
@@ -25541,7 +25541,7 @@
         <v>21</v>
       </c>
       <c r="E802" s="3">
-        <v>1879.93</v>
+        <v>3120.68</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.2">
@@ -25558,7 +25558,7 @@
         <v>21</v>
       </c>
       <c r="E803" s="3">
-        <v>2103.36</v>
+        <v>3491.6</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.2">
@@ -25575,7 +25575,7 @@
         <v>21</v>
       </c>
       <c r="E804" s="3">
-        <v>2462.48</v>
+        <v>4087.7</v>
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.2">
@@ -25592,7 +25592,7 @@
         <v>21</v>
       </c>
       <c r="E805" s="3">
-        <v>2535.04</v>
+        <v>4208.1899999999996</v>
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.2">
@@ -25609,7 +25609,7 @@
         <v>21</v>
       </c>
       <c r="E806" s="3">
-        <v>2700.61</v>
+        <v>4483.01</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.2">
@@ -25626,7 +25626,7 @@
         <v>21</v>
       </c>
       <c r="E807" s="3">
-        <v>2771.99</v>
+        <v>4601.49</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.2">
@@ -25643,7 +25643,7 @@
         <v>21</v>
       </c>
       <c r="E808" s="3">
-        <v>2984.46</v>
+        <v>4954.2</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.2">
@@ -25660,7 +25660,7 @@
         <v>21</v>
       </c>
       <c r="E809" s="3">
-        <v>3045.29</v>
+        <v>5055.1899999999996</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.2">
@@ -25677,7 +25677,7 @@
         <v>21</v>
       </c>
       <c r="E810" s="3">
-        <v>3252.25</v>
+        <v>5398.74</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.2">
@@ -25694,7 +25694,7 @@
         <v>21</v>
       </c>
       <c r="E811" s="3">
-        <v>3346.38</v>
+        <v>5554.98</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.2">
@@ -25711,7 +25711,7 @@
         <v>21</v>
       </c>
       <c r="E812" s="3">
-        <v>3624.71</v>
+        <v>6017.02</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.2">
@@ -25728,7 +25728,7 @@
         <v>21</v>
       </c>
       <c r="E813" s="3">
-        <v>3754.24</v>
+        <v>6232.05</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.2">
@@ -25745,7 +25745,7 @@
         <v>21</v>
       </c>
       <c r="E814" s="3">
-        <v>4124.3900000000003</v>
+        <v>6846.48</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.2">
@@ -25762,7 +25762,7 @@
         <v>21</v>
       </c>
       <c r="E815" s="3">
-        <v>4241.54</v>
+        <v>7040.95</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.2">
@@ -25779,7 +25779,7 @@
         <v>21</v>
       </c>
       <c r="E816" s="3">
-        <v>651.64</v>
+        <v>1081.72</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.2">
@@ -25796,7 +25796,7 @@
         <v>21</v>
       </c>
       <c r="E817" s="3">
-        <v>770.12</v>
+        <v>1278.4000000000001</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.2">
@@ -25813,7 +25813,7 @@
         <v>21</v>
       </c>
       <c r="E818" s="3">
-        <v>916.13</v>
+        <v>1520.8</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.2">
@@ -25830,7 +25830,7 @@
         <v>21</v>
       </c>
       <c r="E819" s="3">
-        <v>364.62</v>
+        <v>605.28</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.2">
@@ -25847,7 +25847,7 @@
         <v>21</v>
       </c>
       <c r="E820" s="3">
-        <v>364.62</v>
+        <v>605.28</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.2">
@@ -25864,7 +25864,7 @@
         <v>21</v>
       </c>
       <c r="E821" s="3">
-        <v>377.52</v>
+        <v>626.66999999999996</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.2">
@@ -25881,7 +25881,7 @@
         <v>21</v>
       </c>
       <c r="E822" s="3">
-        <v>424.87</v>
+        <v>705.27</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.2">
@@ -25898,7 +25898,7 @@
         <v>21</v>
       </c>
       <c r="E823" s="3">
-        <v>591.41999999999996</v>
+        <v>981.77</v>
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.2">
@@ -25915,7 +25915,7 @@
         <v>21</v>
       </c>
       <c r="E824" s="3">
-        <v>812.98</v>
+        <v>1349.56</v>
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.2">
@@ -25932,7 +25932,7 @@
         <v>21</v>
       </c>
       <c r="E825" s="3">
-        <v>1061.19</v>
+        <v>1761.59</v>
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.2">
@@ -25949,7 +25949,7 @@
         <v>21</v>
       </c>
       <c r="E826" s="3">
-        <v>1473.66</v>
+        <v>2446.2800000000002</v>
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.2">
@@ -25966,7 +25966,7 @@
         <v>21</v>
       </c>
       <c r="E827" s="3">
-        <v>1654.56</v>
+        <v>2746.56</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.2">
@@ -25983,7 +25983,7 @@
         <v>21</v>
       </c>
       <c r="E828" s="3">
-        <v>1997.24</v>
+        <v>3315.41</v>
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.2">
@@ -26000,7 +26000,7 @@
         <v>21</v>
       </c>
       <c r="E829" s="3">
-        <v>2533.6</v>
+        <v>4205.8</v>
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.2">
@@ -26017,7 +26017,7 @@
         <v>21</v>
       </c>
       <c r="E830" s="3">
-        <v>3126.17</v>
+        <v>5189.43</v>
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.2">
@@ -26034,7 +26034,7 @@
         <v>21</v>
       </c>
       <c r="E831" s="3">
-        <v>2521.09</v>
+        <v>4185.03</v>
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.2">
@@ -26051,7 +26051,7 @@
         <v>21</v>
       </c>
       <c r="E832" s="3">
-        <v>2213.79</v>
+        <v>3674.89</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
@@ -26068,7 +26068,7 @@
         <v>21</v>
       </c>
       <c r="E833" s="3">
-        <v>2223.21</v>
+        <v>3690.52</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
@@ -26085,7 +26085,7 @@
         <v>21</v>
       </c>
       <c r="E834" s="3">
-        <v>2372.35</v>
+        <v>3938.1</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
@@ -26102,7 +26102,7 @@
         <v>21</v>
       </c>
       <c r="E835" s="3">
-        <v>2646.52</v>
+        <v>4393.22</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
@@ -26119,7 +26119,7 @@
         <v>21</v>
       </c>
       <c r="E836" s="3">
-        <v>2813.41</v>
+        <v>4670.2700000000004</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
@@ -26136,7 +26136,7 @@
         <v>21</v>
       </c>
       <c r="E837" s="3">
-        <v>453.01</v>
+        <v>752.01</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
@@ -26153,7 +26153,7 @@
         <v>21</v>
       </c>
       <c r="E838" s="3">
-        <v>522.16</v>
+        <v>866.76</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.2">
@@ -26170,7 +26170,7 @@
         <v>21</v>
       </c>
       <c r="E839" s="3">
-        <v>696.22</v>
+        <v>1155.72</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
@@ -26187,7 +26187,7 @@
         <v>21</v>
       </c>
       <c r="E840" s="3">
-        <v>1624.81</v>
+        <v>2697.18</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
@@ -26204,7 +26204,7 @@
         <v>21</v>
       </c>
       <c r="E841" s="3">
-        <v>545.37</v>
+        <v>905.32</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
@@ -26221,7 +26221,7 @@
         <v>21</v>
       </c>
       <c r="E842" s="3">
-        <v>870.46</v>
+        <v>1444.97</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
@@ -26238,7 +26238,7 @@
         <v>21</v>
       </c>
       <c r="E843" s="3">
-        <v>1915.28</v>
+        <v>3179.36</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
@@ -26255,7 +26255,7 @@
         <v>21</v>
       </c>
       <c r="E844" s="3">
-        <v>986.98</v>
+        <v>1638.39</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
@@ -26272,7 +26272,7 @@
         <v>21</v>
       </c>
       <c r="E845" s="3">
-        <v>1973.46</v>
+        <v>3275.97</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
@@ -26289,7 +26289,7 @@
         <v>21</v>
       </c>
       <c r="E846" s="3">
-        <v>1102.8599999999999</v>
+        <v>1830.75</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
@@ -26306,7 +26306,7 @@
         <v>21</v>
       </c>
       <c r="E847" s="3">
-        <v>2263.66</v>
+        <v>3757.68</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
@@ -26323,7 +26323,7 @@
         <v>21</v>
       </c>
       <c r="E848" s="3">
-        <v>8117.14</v>
+        <v>13474.45</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.2">
@@ -26340,7 +26340,7 @@
         <v>21</v>
       </c>
       <c r="E849" s="3">
-        <v>5241.63</v>
+        <v>8701.1</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.2">
@@ -26357,7 +26357,7 @@
         <v>21</v>
       </c>
       <c r="E850" s="3">
-        <v>387.48</v>
+        <v>643.23</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.2">
@@ -32511,7 +32511,7 @@
         <v>21</v>
       </c>
       <c r="E1212" s="3">
-        <v>411.56</v>
+        <v>514.44000000000005</v>
       </c>
     </row>
     <row r="1213" spans="1:5" x14ac:dyDescent="0.2">
@@ -32528,7 +32528,7 @@
         <v>21</v>
       </c>
       <c r="E1213" s="3">
-        <v>414.76</v>
+        <v>518.44000000000005</v>
       </c>
     </row>
     <row r="1214" spans="1:5" x14ac:dyDescent="0.2">
@@ -32545,7 +32545,7 @@
         <v>21</v>
       </c>
       <c r="E1214" s="3">
-        <v>675.12</v>
+        <v>843.9</v>
       </c>
     </row>
     <row r="1215" spans="1:5" x14ac:dyDescent="0.2">
@@ -32562,7 +32562,7 @@
         <v>21</v>
       </c>
       <c r="E1215" s="3">
-        <v>182.8</v>
+        <v>228.49</v>
       </c>
     </row>
     <row r="1216" spans="1:5" x14ac:dyDescent="0.2">
@@ -32579,7 +32579,7 @@
         <v>21</v>
       </c>
       <c r="E1216" s="3">
-        <v>229.35</v>
+        <v>286.67</v>
       </c>
     </row>
     <row r="1217" spans="1:5" x14ac:dyDescent="0.2">
@@ -32596,7 +32596,7 @@
         <v>21</v>
       </c>
       <c r="E1217" s="3">
-        <v>345.21</v>
+        <v>431.51</v>
       </c>
     </row>
     <row r="1218" spans="1:5" x14ac:dyDescent="0.2">
@@ -32613,7 +32613,7 @@
         <v>21</v>
       </c>
       <c r="E1218" s="3">
-        <v>545.91999999999996</v>
+        <v>682.4</v>
       </c>
     </row>
     <row r="1219" spans="1:5" x14ac:dyDescent="0.2">
@@ -32630,7 +32630,7 @@
         <v>21</v>
       </c>
       <c r="E1219" s="3">
-        <v>767.83</v>
+        <v>959.79</v>
       </c>
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.2">
@@ -32647,7 +32647,7 @@
         <v>21</v>
       </c>
       <c r="E1220" s="3">
-        <v>1085.22</v>
+        <v>1356.51</v>
       </c>
     </row>
     <row r="1221" spans="1:5" x14ac:dyDescent="0.2">
@@ -32664,7 +32664,7 @@
         <v>21</v>
       </c>
       <c r="E1221" s="3">
-        <v>1754.76</v>
+        <v>2193.46</v>
       </c>
     </row>
     <row r="1222" spans="1:5" x14ac:dyDescent="0.2">
@@ -32681,7 +32681,7 @@
         <v>21</v>
       </c>
       <c r="E1222" s="3">
-        <v>2151.69</v>
+        <v>2689.61</v>
       </c>
     </row>
     <row r="1223" spans="1:5" x14ac:dyDescent="0.2">
@@ -32698,7 +32698,7 @@
         <v>21</v>
       </c>
       <c r="E1223" s="3">
-        <v>3180.69</v>
+        <v>3975.86</v>
       </c>
     </row>
     <row r="1224" spans="1:5" x14ac:dyDescent="0.2">
@@ -32715,7 +32715,7 @@
         <v>21</v>
       </c>
       <c r="E1224" s="3">
-        <v>4580.3999999999996</v>
+        <v>5725.51</v>
       </c>
     </row>
     <row r="1225" spans="1:5" x14ac:dyDescent="0.2">
@@ -32732,7 +32732,7 @@
         <v>21</v>
       </c>
       <c r="E1225" s="3">
-        <v>6119.33</v>
+        <v>7649.16</v>
       </c>
     </row>
     <row r="1226" spans="1:5" x14ac:dyDescent="0.2">
@@ -32749,7 +32749,7 @@
         <v>21</v>
       </c>
       <c r="E1226" s="3">
-        <v>152.33000000000001</v>
+        <v>190.41</v>
       </c>
     </row>
     <row r="1227" spans="1:5" x14ac:dyDescent="0.2">
@@ -32766,7 +32766,7 @@
         <v>21</v>
       </c>
       <c r="E1227" s="3">
-        <v>1367.68</v>
+        <v>1709.6</v>
       </c>
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.2">
@@ -63621,7 +63621,7 @@
         <v>21</v>
       </c>
       <c r="E3042" s="3">
-        <v>897.46</v>
+        <v>969.57</v>
       </c>
     </row>
     <row r="3043" spans="1:5" x14ac:dyDescent="0.2">
@@ -63638,7 +63638,7 @@
         <v>21</v>
       </c>
       <c r="E3043" s="3">
-        <v>973.06</v>
+        <v>1051.24</v>
       </c>
     </row>
     <row r="3044" spans="1:5" x14ac:dyDescent="0.2">
@@ -63655,7 +63655,7 @@
         <v>21</v>
       </c>
       <c r="E3044" s="3">
-        <v>961.87</v>
+        <v>1038.4000000000001</v>
       </c>
     </row>
     <row r="3045" spans="1:5" x14ac:dyDescent="0.2">
@@ -63672,7 +63672,7 @@
         <v>21</v>
       </c>
       <c r="E3045" s="3">
-        <v>9023.59</v>
+        <v>9745.81</v>
       </c>
     </row>
     <row r="3046" spans="1:5" x14ac:dyDescent="0.2">
@@ -63689,7 +63689,7 @@
         <v>21</v>
       </c>
       <c r="E3046" s="3">
-        <v>74.069999999999993</v>
+        <v>80.02</v>
       </c>
     </row>
     <row r="3047" spans="1:5" x14ac:dyDescent="0.2">
@@ -63706,7 +63706,7 @@
         <v>21</v>
       </c>
       <c r="E3047" s="3">
-        <v>9327.41</v>
+        <v>10073.65</v>
       </c>
     </row>
     <row r="3048" spans="1:5" x14ac:dyDescent="0.2">
@@ -63723,7 +63723,7 @@
         <v>21</v>
       </c>
       <c r="E3048" s="3">
-        <v>21714.01</v>
+        <v>23451.52</v>
       </c>
     </row>
     <row r="3049" spans="1:5" x14ac:dyDescent="0.2">
@@ -63740,7 +63740,7 @@
         <v>21</v>
       </c>
       <c r="E3049" s="3">
-        <v>6885.79</v>
+        <v>7436.54</v>
       </c>
     </row>
     <row r="3050" spans="1:5" x14ac:dyDescent="0.2">
@@ -63757,7 +63757,7 @@
         <v>21</v>
       </c>
       <c r="E3050" s="3">
-        <v>7745.7</v>
+        <v>8365.2999999999993</v>
       </c>
     </row>
     <row r="3051" spans="1:5" x14ac:dyDescent="0.2">
@@ -63774,7 +63774,7 @@
         <v>21</v>
       </c>
       <c r="E3051" s="3">
-        <v>8606.91</v>
+        <v>9295.14</v>
       </c>
     </row>
     <row r="3052" spans="1:5" x14ac:dyDescent="0.2">
@@ -63791,7 +63791,7 @@
         <v>21</v>
       </c>
       <c r="E3052" s="3">
-        <v>9639.58</v>
+        <v>10410.08</v>
       </c>
     </row>
     <row r="3053" spans="1:5" x14ac:dyDescent="0.2">
@@ -63808,7 +63808,7 @@
         <v>21</v>
       </c>
       <c r="E3053" s="3">
-        <v>7380.68</v>
+        <v>7970.2</v>
       </c>
     </row>
     <row r="3054" spans="1:5" x14ac:dyDescent="0.2">
@@ -63825,7 +63825,7 @@
         <v>21</v>
       </c>
       <c r="E3054" s="3">
-        <v>9461.61</v>
+        <v>10218.48</v>
       </c>
     </row>
     <row r="3055" spans="1:5" x14ac:dyDescent="0.2">
@@ -63842,7 +63842,7 @@
         <v>21</v>
       </c>
       <c r="E3055" s="3">
-        <v>10048.76</v>
+        <v>10852.8</v>
       </c>
     </row>
     <row r="3056" spans="1:5" x14ac:dyDescent="0.2">
@@ -63859,7 +63859,7 @@
         <v>21</v>
       </c>
       <c r="E3056" s="3">
-        <v>12883.08</v>
+        <v>13914.02</v>
       </c>
     </row>
     <row r="3057" spans="1:5" x14ac:dyDescent="0.2">
@@ -63876,7 +63876,7 @@
         <v>21</v>
       </c>
       <c r="E3057" s="3">
-        <v>28962.29</v>
+        <v>31279.21</v>
       </c>
     </row>
     <row r="3058" spans="1:5" x14ac:dyDescent="0.2">
@@ -63893,7 +63893,7 @@
         <v>21</v>
       </c>
       <c r="E3058" s="3">
-        <v>12008.59</v>
+        <v>12969.51</v>
       </c>
     </row>
     <row r="3059" spans="1:5" x14ac:dyDescent="0.2">
@@ -63910,7 +63910,7 @@
         <v>21</v>
       </c>
       <c r="E3059" s="3">
-        <v>40.93</v>
+        <v>44.21</v>
       </c>
     </row>
     <row r="3060" spans="1:5" x14ac:dyDescent="0.2">

--- a/excel-files/jm.xlsx
+++ b/excel-files/jm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3660"/>
   </bookViews>
   <sheets>
     <sheet name="Historico" sheetId="1" r:id="rId1"/>
@@ -11671,7 +11671,7 @@
         <v>21</v>
       </c>
       <c r="E47" s="3">
-        <v>10230.66</v>
+        <v>10282.77</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -11688,7 +11688,7 @@
         <v>21</v>
       </c>
       <c r="E48" s="3">
-        <v>9936.14</v>
+        <v>9986.75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -11705,7 +11705,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="3">
-        <v>3844.25</v>
+        <v>3863.83</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -11722,7 +11722,7 @@
         <v>21</v>
       </c>
       <c r="E50" s="3">
-        <v>3906.25</v>
+        <v>3926.15</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -11739,7 +11739,7 @@
         <v>21</v>
       </c>
       <c r="E51" s="3">
-        <v>5896.8</v>
+        <v>5926.83</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -11756,7 +11756,7 @@
         <v>21</v>
       </c>
       <c r="E52" s="3">
-        <v>4805.3100000000004</v>
+        <v>4829.79</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -11773,7 +11773,7 @@
         <v>21</v>
       </c>
       <c r="E53" s="3">
-        <v>6711.93</v>
+        <v>6746.12</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -11790,7 +11790,7 @@
         <v>21</v>
       </c>
       <c r="E54" s="3">
-        <v>1782.61</v>
+        <v>1791.7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -11807,7 +11807,7 @@
         <v>21</v>
       </c>
       <c r="E55" s="3">
-        <v>2263.15</v>
+        <v>2274.67</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -11824,7 +11824,7 @@
         <v>21</v>
       </c>
       <c r="E56" s="3">
-        <v>2929.7</v>
+        <v>2944.61</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -11841,7 +11841,7 @@
         <v>21</v>
       </c>
       <c r="E57" s="3">
-        <v>2402.65</v>
+        <v>2414.89</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -12640,7 +12640,7 @@
         <v>21</v>
       </c>
       <c r="E104" s="3">
-        <v>4174.59</v>
+        <v>4195.84</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -12657,7 +12657,7 @@
         <v>21</v>
       </c>
       <c r="E105" s="3">
-        <v>4174.59</v>
+        <v>4195.84</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -12674,7 +12674,7 @@
         <v>21</v>
       </c>
       <c r="E106" s="3">
-        <v>5631.88</v>
+        <v>5660.58</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -13745,7 +13745,7 @@
         <v>21</v>
       </c>
       <c r="E169" s="3">
-        <v>7360.3</v>
+        <v>7397.79</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -13762,7 +13762,7 @@
         <v>21</v>
       </c>
       <c r="E170" s="3">
-        <v>7440.48</v>
+        <v>7478.38</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -13779,7 +13779,7 @@
         <v>21</v>
       </c>
       <c r="E171" s="3">
-        <v>6382.14</v>
+        <v>6414.65</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -14408,7 +14408,7 @@
         <v>21</v>
       </c>
       <c r="E208" s="3">
-        <v>1054.23</v>
+        <v>1116.9000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -14425,7 +14425,7 @@
         <v>21</v>
       </c>
       <c r="E209" s="3">
-        <v>1322.51</v>
+        <v>1399.14</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -14442,7 +14442,7 @@
         <v>21</v>
       </c>
       <c r="E210" s="3">
-        <v>1796.78</v>
+        <v>1899.63</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -14459,7 +14459,7 @@
         <v>21</v>
       </c>
       <c r="E211" s="3">
-        <v>2245.94</v>
+        <v>2373.33</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -14476,7 +14476,7 @@
         <v>21</v>
       </c>
       <c r="E212" s="3">
-        <v>2750.81</v>
+        <v>2904.98</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -14493,7 +14493,7 @@
         <v>21</v>
       </c>
       <c r="E213" s="3">
-        <v>818.72</v>
+        <v>877.44</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -14510,7 +14510,7 @@
         <v>21</v>
       </c>
       <c r="E214" s="3">
-        <v>859.55</v>
+        <v>989.06</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -14527,7 +14527,7 @@
         <v>21</v>
       </c>
       <c r="E215" s="3">
-        <v>1010.7</v>
+        <v>1212.53</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -14544,7 +14544,7 @@
         <v>21</v>
       </c>
       <c r="E216" s="3">
-        <v>604.62</v>
+        <v>737.63</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -14561,7 +14561,7 @@
         <v>21</v>
       </c>
       <c r="E217" s="3">
-        <v>604.62</v>
+        <v>737.63</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -14578,7 +14578,7 @@
         <v>21</v>
       </c>
       <c r="E218" s="3">
-        <v>604.62</v>
+        <v>737.63</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -14595,7 +14595,7 @@
         <v>21</v>
       </c>
       <c r="E219" s="3">
-        <v>604.62</v>
+        <v>737.63</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -14612,7 +14612,7 @@
         <v>21</v>
       </c>
       <c r="E220" s="3">
-        <v>1749.44</v>
+        <v>2134.31</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -14629,7 +14629,7 @@
         <v>21</v>
       </c>
       <c r="E221" s="3">
-        <v>1749.44</v>
+        <v>2134.31</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -17179,7 +17179,7 @@
         <v>21</v>
       </c>
       <c r="E371" s="3">
-        <v>11408.74</v>
+        <v>11466.85</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -17196,7 +17196,7 @@
         <v>21</v>
       </c>
       <c r="E372" s="3">
-        <v>11408.74</v>
+        <v>11466.85</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -17213,7 +17213,7 @@
         <v>21</v>
       </c>
       <c r="E373" s="3">
-        <v>4541.8</v>
+        <v>4564.93</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -20630,7 +20630,7 @@
         <v>21</v>
       </c>
       <c r="E574" s="3">
-        <v>3346.26</v>
+        <v>3613.97</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
@@ -20647,7 +20647,7 @@
         <v>21</v>
       </c>
       <c r="E575" s="3">
-        <v>4661.4799999999996</v>
+        <v>5034.3900000000003</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
@@ -20664,7 +20664,7 @@
         <v>21</v>
       </c>
       <c r="E576" s="3">
-        <v>1300.3900000000001</v>
+        <v>1404.43</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
@@ -20681,7 +20681,7 @@
         <v>21</v>
       </c>
       <c r="E577" s="3">
-        <v>1460.64</v>
+        <v>1577.49</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
@@ -20698,7 +20698,7 @@
         <v>21</v>
       </c>
       <c r="E578" s="3">
-        <v>1752.49</v>
+        <v>1892.7</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
@@ -20715,7 +20715,7 @@
         <v>21</v>
       </c>
       <c r="E579" s="3">
-        <v>2297.46</v>
+        <v>2481.27</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
@@ -20732,7 +20732,7 @@
         <v>21</v>
       </c>
       <c r="E580" s="3">
-        <v>2823.01</v>
+        <v>3048.87</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
@@ -21820,7 +21820,7 @@
         <v>21</v>
       </c>
       <c r="E644" s="3">
-        <v>16683.150000000001</v>
+        <v>16768.12</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.2">
@@ -21837,7 +21837,7 @@
         <v>21</v>
       </c>
       <c r="E645" s="3">
-        <v>1199.25</v>
+        <v>1205.3499999999999</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.2">
@@ -21854,7 +21854,7 @@
         <v>21</v>
       </c>
       <c r="E646" s="3">
-        <v>1776.09</v>
+        <v>1785.14</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.2">
@@ -21871,7 +21871,7 @@
         <v>21</v>
       </c>
       <c r="E647" s="3">
-        <v>2960.17</v>
+        <v>2975.24</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.2">
@@ -21888,7 +21888,7 @@
         <v>21</v>
       </c>
       <c r="E648" s="3">
-        <v>4872.87</v>
+        <v>4897.6899999999996</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.2">
@@ -21905,7 +21905,7 @@
         <v>21</v>
       </c>
       <c r="E649" s="3">
-        <v>1609.11</v>
+        <v>1617.31</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.2">
@@ -21922,7 +21922,7 @@
         <v>21</v>
       </c>
       <c r="E650" s="3">
-        <v>3020.87</v>
+        <v>3036.27</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.2">
@@ -21939,7 +21939,7 @@
         <v>21</v>
       </c>
       <c r="E651" s="3">
-        <v>4204.95</v>
+        <v>4226.3599999999997</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.2">
@@ -21956,7 +21956,7 @@
         <v>21</v>
       </c>
       <c r="E652" s="3">
-        <v>7544.6</v>
+        <v>7583.04</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.2">
@@ -21973,7 +21973,7 @@
         <v>21</v>
       </c>
       <c r="E653" s="3">
-        <v>11901.35</v>
+        <v>11961.97</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.2">
@@ -21990,7 +21990,7 @@
         <v>21</v>
       </c>
       <c r="E654" s="3">
-        <v>2565.48</v>
+        <v>2578.54</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.2">
@@ -22007,7 +22007,7 @@
         <v>21</v>
       </c>
       <c r="E655" s="3">
-        <v>7529.43</v>
+        <v>7567.78</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.2">
@@ -22024,7 +22024,7 @@
         <v>21</v>
       </c>
       <c r="E656" s="3">
-        <v>7969.66</v>
+        <v>8010.25</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.2">
@@ -22041,7 +22041,7 @@
         <v>21</v>
       </c>
       <c r="E657" s="3">
-        <v>1601.42</v>
+        <v>1609.57</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.2">
@@ -22058,7 +22058,7 @@
         <v>21</v>
       </c>
       <c r="E658" s="3">
-        <v>2813.7</v>
+        <v>2828.03</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.2">
@@ -22075,7 +22075,7 @@
         <v>21</v>
       </c>
       <c r="E659" s="3">
-        <v>4624.6400000000003</v>
+        <v>4648.2</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.2">
@@ -26172,7 +26172,7 @@
         <v>21</v>
       </c>
       <c r="E900" s="3">
-        <v>66235.88</v>
+        <v>53366.17</v>
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.2">
@@ -26189,7 +26189,7 @@
         <v>21</v>
       </c>
       <c r="E901" s="3">
-        <v>61281.18</v>
+        <v>49126</v>
       </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.2">
@@ -26206,7 +26206,7 @@
         <v>21</v>
       </c>
       <c r="E902" s="3">
-        <v>23119.15</v>
+        <v>19124.05</v>
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.2">
@@ -26223,7 +26223,7 @@
         <v>21</v>
       </c>
       <c r="E903" s="3">
-        <v>23119.15</v>
+        <v>19124.05</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.2">
@@ -26257,7 +26257,7 @@
         <v>21</v>
       </c>
       <c r="E905" s="3">
-        <v>53584.18</v>
+        <v>44976.61</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.2">
@@ -26274,7 +26274,7 @@
         <v>21</v>
       </c>
       <c r="E906" s="3">
-        <v>29677.37</v>
+        <v>22790.959999999999</v>
       </c>
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.2">
@@ -26308,7 +26308,7 @@
         <v>21</v>
       </c>
       <c r="E908" s="3">
-        <v>10421.73</v>
+        <v>9092.4699999999993</v>
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.2">
@@ -26325,7 +26325,7 @@
         <v>21</v>
       </c>
       <c r="E909" s="3">
-        <v>42553.64</v>
+        <v>36634.61</v>
       </c>
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.2">
@@ -26342,7 +26342,7 @@
         <v>21</v>
       </c>
       <c r="E910" s="3">
-        <v>37181.360000000001</v>
+        <v>33335.5</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.2">
@@ -27940,7 +27940,7 @@
         <v>21</v>
       </c>
       <c r="E1004" s="3">
-        <v>1508.62</v>
+        <v>1516.31</v>
       </c>
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
@@ -27957,7 +27957,7 @@
         <v>21</v>
       </c>
       <c r="E1005" s="3">
-        <v>1524.35</v>
+        <v>1532.1</v>
       </c>
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
@@ -27974,7 +27974,7 @@
         <v>21</v>
       </c>
       <c r="E1006" s="3">
-        <v>2482.94</v>
+        <v>2495.59</v>
       </c>
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
@@ -27991,7 +27991,7 @@
         <v>21</v>
       </c>
       <c r="E1007" s="3">
-        <v>675.73</v>
+        <v>679.18</v>
       </c>
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
@@ -28008,7 +28008,7 @@
         <v>21</v>
       </c>
       <c r="E1008" s="3">
-        <v>848.6</v>
+        <v>852.92</v>
       </c>
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
@@ -28025,7 +28025,7 @@
         <v>21</v>
       </c>
       <c r="E1009" s="3">
-        <v>1272.8900000000001</v>
+        <v>1279.3800000000001</v>
       </c>
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
@@ -28042,7 +28042,7 @@
         <v>21</v>
       </c>
       <c r="E1010" s="3">
-        <v>2011.5</v>
+        <v>2021.74</v>
       </c>
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
@@ -28059,7 +28059,7 @@
         <v>21</v>
       </c>
       <c r="E1011" s="3">
-        <v>2828.67</v>
+        <v>2843.07</v>
       </c>
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
@@ -28076,7 +28076,7 @@
         <v>21</v>
       </c>
       <c r="E1012" s="3">
-        <v>3991.56</v>
+        <v>4011.89</v>
       </c>
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
@@ -28093,7 +28093,7 @@
         <v>21</v>
       </c>
       <c r="E1013" s="3">
-        <v>6474.5</v>
+        <v>6507.48</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
@@ -28110,7 +28110,7 @@
         <v>21</v>
       </c>
       <c r="E1014" s="3">
-        <v>7935.99</v>
+        <v>7976.4</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
@@ -28127,7 +28127,7 @@
         <v>21</v>
       </c>
       <c r="E1015" s="3">
-        <v>11723.25</v>
+        <v>11782.96</v>
       </c>
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
@@ -28144,7 +28144,7 @@
         <v>21</v>
       </c>
       <c r="E1016" s="3">
-        <v>16893.43</v>
+        <v>16979.47</v>
       </c>
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
@@ -28161,7 +28161,7 @@
         <v>21</v>
       </c>
       <c r="E1017" s="3">
-        <v>22582.2</v>
+        <v>22697.21</v>
       </c>
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
@@ -28178,7 +28178,7 @@
         <v>21</v>
       </c>
       <c r="E1018" s="3">
-        <v>675.73</v>
+        <v>679.18</v>
       </c>
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
@@ -28195,7 +28195,7 @@
         <v>21</v>
       </c>
       <c r="E1019" s="3">
-        <v>5044.45</v>
+        <v>5070.1499999999996</v>
       </c>
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
@@ -28382,7 +28382,7 @@
         <v>21</v>
       </c>
       <c r="E1030" s="3">
-        <v>15787.51</v>
+        <v>15867.92</v>
       </c>
     </row>
     <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
@@ -28399,7 +28399,7 @@
         <v>21</v>
       </c>
       <c r="E1031" s="3">
-        <v>15787.51</v>
+        <v>15867.92</v>
       </c>
     </row>
     <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
@@ -28416,7 +28416,7 @@
         <v>21</v>
       </c>
       <c r="E1032" s="3">
-        <v>15787.51</v>
+        <v>15867.92</v>
       </c>
     </row>
     <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
@@ -28433,7 +28433,7 @@
         <v>21</v>
       </c>
       <c r="E1033" s="3">
-        <v>15787.51</v>
+        <v>15867.92</v>
       </c>
     </row>
     <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
@@ -28450,7 +28450,7 @@
         <v>21</v>
       </c>
       <c r="E1034" s="3">
-        <v>15787.51</v>
+        <v>15867.92</v>
       </c>
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
@@ -28467,7 +28467,7 @@
         <v>21</v>
       </c>
       <c r="E1035" s="3">
-        <v>15787.51</v>
+        <v>15867.92</v>
       </c>
     </row>
     <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
@@ -28484,7 +28484,7 @@
         <v>21</v>
       </c>
       <c r="E1036" s="3">
-        <v>15787.51</v>
+        <v>15867.92</v>
       </c>
     </row>
     <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
@@ -28501,7 +28501,7 @@
         <v>21</v>
       </c>
       <c r="E1037" s="3">
-        <v>15787.51</v>
+        <v>15867.92</v>
       </c>
     </row>
     <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
@@ -28518,7 +28518,7 @@
         <v>21</v>
       </c>
       <c r="E1038" s="3">
-        <v>2034.16</v>
+        <v>2044.52</v>
       </c>
     </row>
     <row r="1039" spans="1:5" x14ac:dyDescent="0.2">
@@ -28756,7 +28756,7 @@
         <v>21</v>
       </c>
       <c r="E1052" s="3">
-        <v>77099.960000000006</v>
+        <v>70090.87</v>
       </c>
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
@@ -28773,7 +28773,7 @@
         <v>21</v>
       </c>
       <c r="E1053" s="3">
-        <v>261441.83</v>
+        <v>237674.4</v>
       </c>
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
@@ -29011,7 +29011,7 @@
         <v>10.5</v>
       </c>
       <c r="E1067" s="3">
-        <v>267932.86</v>
+        <v>243575.33</v>
       </c>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.2">
@@ -29759,7 +29759,7 @@
         <v>21</v>
       </c>
       <c r="E1111" s="3">
-        <v>31696.87</v>
+        <v>28815.35</v>
       </c>
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.2">
@@ -29776,7 +29776,7 @@
         <v>21</v>
       </c>
       <c r="E1112" s="3">
-        <v>16756.29</v>
+        <v>15232.99</v>
       </c>
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.2">
@@ -29793,7 +29793,7 @@
         <v>10.5</v>
       </c>
       <c r="E1113" s="3">
-        <v>89669.66</v>
+        <v>81517.87</v>
       </c>
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.2">
@@ -29810,7 +29810,7 @@
         <v>21</v>
       </c>
       <c r="E1114" s="3">
-        <v>146721.29</v>
+        <v>133382.99</v>
       </c>
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.2">
@@ -42101,7 +42101,7 @@
         <v>21</v>
       </c>
       <c r="E1837" s="3">
-        <v>244400.48</v>
+        <v>222182.24</v>
       </c>
     </row>
     <row r="1838" spans="1:5" x14ac:dyDescent="0.2">
@@ -42118,7 +42118,7 @@
         <v>21</v>
       </c>
       <c r="E1838" s="3">
-        <v>233010.92</v>
+        <v>211828.12</v>
       </c>
     </row>
     <row r="1839" spans="1:5" x14ac:dyDescent="0.2">
@@ -42135,7 +42135,7 @@
         <v>21</v>
       </c>
       <c r="E1839" s="3">
-        <v>243293.2</v>
+        <v>221175.64</v>
       </c>
     </row>
     <row r="1840" spans="1:5" x14ac:dyDescent="0.2">
@@ -42152,7 +42152,7 @@
         <v>21</v>
       </c>
       <c r="E1840" s="3">
-        <v>98865.63</v>
+        <v>89877.84</v>
       </c>
     </row>
     <row r="1841" spans="1:5" x14ac:dyDescent="0.2">
@@ -42169,7 +42169,7 @@
         <v>21</v>
       </c>
       <c r="E1841" s="3">
-        <v>157766.19</v>
+        <v>143423.81</v>
       </c>
     </row>
     <row r="1842" spans="1:5" x14ac:dyDescent="0.2">
@@ -42186,7 +42186,7 @@
         <v>21</v>
       </c>
       <c r="E1842" s="3">
-        <v>239866.54</v>
+        <v>218060.49</v>
       </c>
     </row>
     <row r="1843" spans="1:5" x14ac:dyDescent="0.2">
@@ -42203,7 +42203,7 @@
         <v>21</v>
       </c>
       <c r="E1843" s="3">
-        <v>33720.089999999997</v>
+        <v>30654.62</v>
       </c>
     </row>
     <row r="1844" spans="1:5" x14ac:dyDescent="0.2">
@@ -42220,7 +42220,7 @@
         <v>21</v>
       </c>
       <c r="E1844" s="3">
-        <v>68827.88</v>
+        <v>62570.8</v>
       </c>
     </row>
     <row r="1845" spans="1:5" x14ac:dyDescent="0.2">
@@ -42237,7 +42237,7 @@
         <v>21</v>
       </c>
       <c r="E1845" s="3">
-        <v>109590.28</v>
+        <v>99627.53</v>
       </c>
     </row>
     <row r="1846" spans="1:5" x14ac:dyDescent="0.2">
@@ -42254,7 +42254,7 @@
         <v>21</v>
       </c>
       <c r="E1846" s="3">
-        <v>186118.67</v>
+        <v>169198.79</v>
       </c>
     </row>
     <row r="1847" spans="1:5" x14ac:dyDescent="0.2">
@@ -42526,7 +42526,7 @@
         <v>21</v>
       </c>
       <c r="E1862" s="3">
-        <v>185192.33</v>
+        <v>168356.66</v>
       </c>
     </row>
     <row r="1863" spans="1:5" x14ac:dyDescent="0.2">
@@ -42543,7 +42543,7 @@
         <v>21</v>
       </c>
       <c r="E1863" s="3">
-        <v>116189.32</v>
+        <v>105626.65</v>
       </c>
     </row>
     <row r="1864" spans="1:5" x14ac:dyDescent="0.2">
@@ -42747,7 +42747,7 @@
         <v>10.5</v>
       </c>
       <c r="E1875" s="3">
-        <v>132056.85999999999</v>
+        <v>120051.7</v>
       </c>
     </row>
     <row r="1876" spans="1:5" x14ac:dyDescent="0.2">
@@ -42764,7 +42764,7 @@
         <v>10.5</v>
       </c>
       <c r="E1876" s="3">
-        <v>146161.95000000001</v>
+        <v>132874.49</v>
       </c>
     </row>
     <row r="1877" spans="1:5" x14ac:dyDescent="0.2">
@@ -42951,7 +42951,7 @@
         <v>10.5</v>
       </c>
       <c r="E1887" s="3">
-        <v>242229.43</v>
+        <v>220208.57</v>
       </c>
     </row>
     <row r="1888" spans="1:5" x14ac:dyDescent="0.2">
@@ -42968,7 +42968,7 @@
         <v>21</v>
       </c>
       <c r="E1888" s="3">
-        <v>90400.5</v>
+        <v>82182.27</v>
       </c>
     </row>
     <row r="1889" spans="1:5" x14ac:dyDescent="0.2">
@@ -43223,7 +43223,7 @@
         <v>21</v>
       </c>
       <c r="E1903" s="3">
-        <v>57618.73</v>
+        <v>52380.67</v>
       </c>
     </row>
     <row r="1904" spans="1:5" x14ac:dyDescent="0.2">
@@ -43240,7 +43240,7 @@
         <v>21</v>
       </c>
       <c r="E1904" s="3">
-        <v>66010.89</v>
+        <v>60009.9</v>
       </c>
     </row>
     <row r="1905" spans="1:5" x14ac:dyDescent="0.2">
@@ -43257,7 +43257,7 @@
         <v>21</v>
       </c>
       <c r="E1905" s="3">
-        <v>63812.12</v>
+        <v>58011.01</v>
       </c>
     </row>
     <row r="1906" spans="1:5" x14ac:dyDescent="0.2">
@@ -43274,7 +43274,7 @@
         <v>21</v>
       </c>
       <c r="E1906" s="3">
-        <v>118027.03</v>
+        <v>107297.3</v>
       </c>
     </row>
     <row r="1907" spans="1:5" x14ac:dyDescent="0.2">
@@ -43291,7 +43291,7 @@
         <v>21</v>
       </c>
       <c r="E1907" s="3">
-        <v>76171.27</v>
+        <v>69246.61</v>
       </c>
     </row>
     <row r="1908" spans="1:5" x14ac:dyDescent="0.2">
@@ -43325,7 +43325,7 @@
         <v>21</v>
       </c>
       <c r="E1909" s="3">
-        <v>49940.47</v>
+        <v>45400.42</v>
       </c>
     </row>
     <row r="1910" spans="1:5" x14ac:dyDescent="0.2">
@@ -43342,7 +43342,7 @@
         <v>21</v>
       </c>
       <c r="E1910" s="3">
-        <v>69306.83</v>
+        <v>63006.21</v>
       </c>
     </row>
     <row r="1911" spans="1:5" x14ac:dyDescent="0.2">
@@ -43427,7 +43427,7 @@
         <v>21</v>
       </c>
       <c r="E1915" s="3">
-        <v>58858.68</v>
+        <v>53507.89</v>
       </c>
     </row>
     <row r="1916" spans="1:5" x14ac:dyDescent="0.2">
@@ -43444,7 +43444,7 @@
         <v>21</v>
       </c>
       <c r="E1916" s="3">
-        <v>86935.76</v>
+        <v>79032.509999999995</v>
       </c>
     </row>
     <row r="1917" spans="1:5" x14ac:dyDescent="0.2">
@@ -43461,7 +43461,7 @@
         <v>10.5</v>
       </c>
       <c r="E1917" s="3">
-        <v>409202.09</v>
+        <v>372001.9</v>
       </c>
     </row>
     <row r="1918" spans="1:5" x14ac:dyDescent="0.2">
@@ -43818,7 +43818,7 @@
         <v>21</v>
       </c>
       <c r="E1938" s="3">
-        <v>228558.54</v>
+        <v>207780.49</v>
       </c>
     </row>
     <row r="1939" spans="1:5" x14ac:dyDescent="0.2">
@@ -43869,7 +43869,7 @@
         <v>21</v>
       </c>
       <c r="E1941" s="3">
-        <v>101035.85</v>
+        <v>91850.77</v>
       </c>
     </row>
     <row r="1942" spans="1:5" x14ac:dyDescent="0.2">
@@ -43886,7 +43886,7 @@
         <v>21</v>
       </c>
       <c r="E1942" s="3">
-        <v>163959.56</v>
+        <v>149054.15</v>
       </c>
     </row>
     <row r="1943" spans="1:5" x14ac:dyDescent="0.2">
@@ -43903,7 +43903,7 @@
         <v>21</v>
       </c>
       <c r="E1943" s="3">
-        <v>67688.05</v>
+        <v>61534.59</v>
       </c>
     </row>
     <row r="1944" spans="1:5" x14ac:dyDescent="0.2">
@@ -43954,7 +43954,7 @@
         <v>21</v>
       </c>
       <c r="E1946" s="3">
-        <v>112482.43</v>
+        <v>102256.75</v>
       </c>
     </row>
     <row r="1947" spans="1:5" x14ac:dyDescent="0.2">
@@ -44430,7 +44430,7 @@
         <v>10.5</v>
       </c>
       <c r="E1974" s="3">
-        <v>165811.28</v>
+        <v>150737.53</v>
       </c>
     </row>
     <row r="1975" spans="1:5" x14ac:dyDescent="0.2">
@@ -44532,7 +44532,7 @@
         <v>21</v>
       </c>
       <c r="E1980" s="3">
-        <v>61588.44</v>
+        <v>55989.5</v>
       </c>
     </row>
     <row r="1981" spans="1:5" x14ac:dyDescent="0.2">
@@ -44549,7 +44549,7 @@
         <v>21</v>
       </c>
       <c r="E1981" s="3">
-        <v>80607.87</v>
+        <v>73279.88</v>
       </c>
     </row>
     <row r="1982" spans="1:5" x14ac:dyDescent="0.2">
@@ -44566,7 +44566,7 @@
         <v>21</v>
       </c>
       <c r="E1982" s="3">
-        <v>83422.2</v>
+        <v>75838.36</v>
       </c>
     </row>
     <row r="1983" spans="1:5" x14ac:dyDescent="0.2">
@@ -44583,7 +44583,7 @@
         <v>21</v>
       </c>
       <c r="E1983" s="3">
-        <v>143031.53</v>
+        <v>130028.66</v>
       </c>
     </row>
     <row r="1984" spans="1:5" x14ac:dyDescent="0.2">
@@ -44600,7 +44600,7 @@
         <v>21</v>
       </c>
       <c r="E1984" s="3">
-        <v>175085.06</v>
+        <v>159168.24</v>
       </c>
     </row>
     <row r="1985" spans="1:5" x14ac:dyDescent="0.2">
@@ -44940,7 +44940,7 @@
         <v>21</v>
       </c>
       <c r="E2004" s="3">
-        <v>460603.41</v>
+        <v>418730.37</v>
       </c>
     </row>
     <row r="2005" spans="1:5" x14ac:dyDescent="0.2">
@@ -45535,7 +45535,7 @@
         <v>21</v>
       </c>
       <c r="E2039" s="3">
-        <v>320477.02</v>
+        <v>286185.98</v>
       </c>
     </row>
     <row r="2040" spans="1:5" x14ac:dyDescent="0.2">
@@ -45552,7 +45552,7 @@
         <v>21</v>
       </c>
       <c r="E2040" s="3">
-        <v>357972.61</v>
+        <v>323070.28000000003</v>
       </c>
     </row>
     <row r="2041" spans="1:5" x14ac:dyDescent="0.2">
@@ -45569,7 +45569,7 @@
         <v>21</v>
       </c>
       <c r="E2041" s="3">
-        <v>51036.94</v>
+        <v>41697.18</v>
       </c>
     </row>
     <row r="2042" spans="1:5" x14ac:dyDescent="0.2">
@@ -45586,7 +45586,7 @@
         <v>21</v>
       </c>
       <c r="E2042" s="3">
-        <v>69501.06</v>
+        <v>62550.96</v>
       </c>
     </row>
     <row r="2043" spans="1:5" x14ac:dyDescent="0.2">
@@ -49224,7 +49224,7 @@
         <v>21</v>
       </c>
       <c r="E2256" s="3">
-        <v>13051.85</v>
+        <v>13118.33</v>
       </c>
     </row>
     <row r="2257" spans="1:5" x14ac:dyDescent="0.2">
@@ -49241,7 +49241,7 @@
         <v>21</v>
       </c>
       <c r="E2257" s="3">
-        <v>27096.84</v>
+        <v>27234.84</v>
       </c>
     </row>
     <row r="2258" spans="1:5" x14ac:dyDescent="0.2">
@@ -49258,7 +49258,7 @@
         <v>21</v>
       </c>
       <c r="E2258" s="3">
-        <v>15029.57</v>
+        <v>15106.11</v>
       </c>
     </row>
     <row r="2259" spans="1:5" x14ac:dyDescent="0.2">
@@ -49275,7 +49275,7 @@
         <v>21</v>
       </c>
       <c r="E2259" s="3">
-        <v>9812.15</v>
+        <v>9862.11</v>
       </c>
     </row>
     <row r="2260" spans="1:5" x14ac:dyDescent="0.2">
@@ -49292,7 +49292,7 @@
         <v>21</v>
       </c>
       <c r="E2260" s="3">
-        <v>21517.54</v>
+        <v>21627.13</v>
       </c>
     </row>
     <row r="2261" spans="1:5" x14ac:dyDescent="0.2">
@@ -49309,7 +49309,7 @@
         <v>21</v>
       </c>
       <c r="E2261" s="3">
-        <v>2464.67</v>
+        <v>2477.21</v>
       </c>
     </row>
     <row r="2262" spans="1:5" x14ac:dyDescent="0.2">
@@ -49326,7 +49326,7 @@
         <v>21</v>
       </c>
       <c r="E2262" s="3">
-        <v>2201.14</v>
+        <v>2212.35</v>
       </c>
     </row>
     <row r="2263" spans="1:5" x14ac:dyDescent="0.2">
@@ -49343,7 +49343,7 @@
         <v>21</v>
       </c>
       <c r="E2263" s="3">
-        <v>4061.26</v>
+        <v>4081.95</v>
       </c>
     </row>
     <row r="2264" spans="1:5" x14ac:dyDescent="0.2">
@@ -49360,7 +49360,7 @@
         <v>21</v>
       </c>
       <c r="E2264" s="3">
-        <v>5456.35</v>
+        <v>5484.15</v>
       </c>
     </row>
     <row r="2265" spans="1:5" x14ac:dyDescent="0.2">
@@ -49377,7 +49377,7 @@
         <v>21</v>
       </c>
       <c r="E2265" s="3">
-        <v>635.54999999999995</v>
+        <v>638.78</v>
       </c>
     </row>
     <row r="2266" spans="1:5" x14ac:dyDescent="0.2">
@@ -49394,7 +49394,7 @@
         <v>21</v>
       </c>
       <c r="E2266" s="3">
-        <v>2464.67</v>
+        <v>2477.21</v>
       </c>
     </row>
     <row r="2267" spans="1:5" x14ac:dyDescent="0.2">
@@ -49411,7 +49411,7 @@
         <v>21</v>
       </c>
       <c r="E2267" s="3">
-        <v>2216.64</v>
+        <v>2227.9299999999998</v>
       </c>
     </row>
     <row r="2268" spans="1:5" x14ac:dyDescent="0.2">
@@ -49428,7 +49428,7 @@
         <v>21</v>
       </c>
       <c r="E2268" s="3">
-        <v>5456.35</v>
+        <v>5484.15</v>
       </c>
     </row>
     <row r="2269" spans="1:5" x14ac:dyDescent="0.2">
@@ -49445,7 +49445,7 @@
         <v>21</v>
       </c>
       <c r="E2269" s="3">
-        <v>2232.15</v>
+        <v>2243.5100000000002</v>
       </c>
     </row>
     <row r="2270" spans="1:5" x14ac:dyDescent="0.2">
@@ -49462,7 +49462,7 @@
         <v>21</v>
       </c>
       <c r="E2270" s="3">
-        <v>3472.23</v>
+        <v>3489.91</v>
       </c>
     </row>
     <row r="2271" spans="1:5" x14ac:dyDescent="0.2">
@@ -49479,7 +49479,7 @@
         <v>21</v>
       </c>
       <c r="E2271" s="3">
-        <v>34520.730000000003</v>
+        <v>34696.57</v>
       </c>
     </row>
     <row r="2272" spans="1:5" x14ac:dyDescent="0.2">
@@ -49496,7 +49496,7 @@
         <v>21</v>
       </c>
       <c r="E2272" s="3">
-        <v>34102.22</v>
+        <v>34275.910000000003</v>
       </c>
     </row>
     <row r="2273" spans="1:5" x14ac:dyDescent="0.2">
@@ -50975,7 +50975,7 @@
         <v>21</v>
       </c>
       <c r="E2359" s="3">
-        <v>12726.32</v>
+        <v>12791.15</v>
       </c>
     </row>
     <row r="2360" spans="1:5" x14ac:dyDescent="0.2">
@@ -51570,7 +51570,7 @@
         <v>21</v>
       </c>
       <c r="E2394" s="3">
-        <v>83677.22</v>
+        <v>84103.42</v>
       </c>
     </row>
     <row r="2395" spans="1:5" x14ac:dyDescent="0.2">
@@ -51587,7 +51587,7 @@
         <v>21</v>
       </c>
       <c r="E2395" s="3">
-        <v>94933.51</v>
+        <v>95417.05</v>
       </c>
     </row>
     <row r="2396" spans="1:5" x14ac:dyDescent="0.2">
@@ -53338,7 +53338,7 @@
         <v>21</v>
       </c>
       <c r="E2498" s="3">
-        <v>2526.67</v>
+        <v>2539.5300000000002</v>
       </c>
     </row>
     <row r="2499" spans="1:5" x14ac:dyDescent="0.2">
@@ -53355,7 +53355,7 @@
         <v>21</v>
       </c>
       <c r="E2499" s="3">
-        <v>2526.67</v>
+        <v>2539.5300000000002</v>
       </c>
     </row>
     <row r="2500" spans="1:5" x14ac:dyDescent="0.2">
@@ -53372,7 +53372,7 @@
         <v>21</v>
       </c>
       <c r="E2500" s="3">
-        <v>3673.73</v>
+        <v>3692.45</v>
       </c>
     </row>
     <row r="2501" spans="1:5" x14ac:dyDescent="0.2">
@@ -53389,7 +53389,7 @@
         <v>21</v>
       </c>
       <c r="E2501" s="3">
-        <v>868.06</v>
+        <v>872.48</v>
       </c>
     </row>
     <row r="2502" spans="1:5" x14ac:dyDescent="0.2">
@@ -53406,7 +53406,7 @@
         <v>21</v>
       </c>
       <c r="E2502" s="3">
-        <v>2588.66</v>
+        <v>2601.85</v>
       </c>
     </row>
     <row r="2503" spans="1:5" x14ac:dyDescent="0.2">
@@ -53423,7 +53423,7 @@
         <v>21</v>
       </c>
       <c r="E2503" s="3">
-        <v>2588.66</v>
+        <v>2601.85</v>
       </c>
     </row>
     <row r="2504" spans="1:5" x14ac:dyDescent="0.2">
@@ -53440,7 +53440,7 @@
         <v>21</v>
       </c>
       <c r="E2504" s="3">
-        <v>1953.13</v>
+        <v>1963.07</v>
       </c>
     </row>
     <row r="2505" spans="1:5" x14ac:dyDescent="0.2">
@@ -53457,7 +53457,7 @@
         <v>21</v>
       </c>
       <c r="E2505" s="3">
-        <v>1953.13</v>
+        <v>1963.07</v>
       </c>
     </row>
     <row r="2506" spans="1:5" x14ac:dyDescent="0.2">
@@ -53474,7 +53474,7 @@
         <v>21</v>
       </c>
       <c r="E2506" s="3">
-        <v>1953.13</v>
+        <v>1963.07</v>
       </c>
     </row>
     <row r="2507" spans="1:5" x14ac:dyDescent="0.2">
@@ -53508,7 +53508,7 @@
         <v>21</v>
       </c>
       <c r="E2508" s="3">
-        <v>1038.58</v>
+        <v>1043.8599999999999</v>
       </c>
     </row>
     <row r="2509" spans="1:5" x14ac:dyDescent="0.2">
@@ -53525,7 +53525,7 @@
         <v>21</v>
       </c>
       <c r="E2509" s="3">
-        <v>1596.6</v>
+        <v>1604.74</v>
       </c>
     </row>
     <row r="2510" spans="1:5" x14ac:dyDescent="0.2">
@@ -53542,7 +53542,7 @@
         <v>21</v>
       </c>
       <c r="E2510" s="3">
-        <v>1596.6</v>
+        <v>1604.74</v>
       </c>
     </row>
     <row r="2511" spans="1:5" x14ac:dyDescent="0.2">
@@ -53559,7 +53559,7 @@
         <v>21</v>
       </c>
       <c r="E2511" s="3">
-        <v>748.32</v>
+        <v>752.14</v>
       </c>
     </row>
     <row r="2512" spans="1:5" x14ac:dyDescent="0.2">
@@ -53576,7 +53576,7 @@
         <v>21</v>
       </c>
       <c r="E2512" s="3">
-        <v>1860.12</v>
+        <v>1869.6</v>
       </c>
     </row>
     <row r="2513" spans="1:5" x14ac:dyDescent="0.2">
@@ -53593,7 +53593,7 @@
         <v>21</v>
       </c>
       <c r="E2513" s="3">
-        <v>2263.15</v>
+        <v>2274.67</v>
       </c>
     </row>
     <row r="2514" spans="1:5" x14ac:dyDescent="0.2">
@@ -53610,7 +53610,7 @@
         <v>21</v>
       </c>
       <c r="E2514" s="3">
-        <v>3007.2</v>
+        <v>3022.51</v>
       </c>
     </row>
     <row r="2515" spans="1:5" x14ac:dyDescent="0.2">
@@ -53627,7 +53627,7 @@
         <v>21</v>
       </c>
       <c r="E2515" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2516" spans="1:5" x14ac:dyDescent="0.2">
@@ -53644,7 +53644,7 @@
         <v>21</v>
       </c>
       <c r="E2516" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2517" spans="1:5" x14ac:dyDescent="0.2">
@@ -53661,7 +53661,7 @@
         <v>21</v>
       </c>
       <c r="E2517" s="3">
-        <v>628.59</v>
+        <v>631.79</v>
       </c>
     </row>
     <row r="2518" spans="1:5" x14ac:dyDescent="0.2">
@@ -53678,7 +53678,7 @@
         <v>21</v>
       </c>
       <c r="E2518" s="3">
-        <v>628.59</v>
+        <v>631.79</v>
       </c>
     </row>
     <row r="2519" spans="1:5" x14ac:dyDescent="0.2">
@@ -53695,7 +53695,7 @@
         <v>21</v>
       </c>
       <c r="E2519" s="3">
-        <v>628.59</v>
+        <v>631.79</v>
       </c>
     </row>
     <row r="2520" spans="1:5" x14ac:dyDescent="0.2">
@@ -53712,7 +53712,7 @@
         <v>21</v>
       </c>
       <c r="E2520" s="3">
-        <v>628.59</v>
+        <v>631.79</v>
       </c>
     </row>
     <row r="2521" spans="1:5" x14ac:dyDescent="0.2">
@@ -53729,7 +53729,7 @@
         <v>21</v>
       </c>
       <c r="E2521" s="3">
-        <v>4526.29</v>
+        <v>4549.3500000000004</v>
       </c>
     </row>
     <row r="2522" spans="1:5" x14ac:dyDescent="0.2">
@@ -53746,7 +53746,7 @@
         <v>21</v>
       </c>
       <c r="E2522" s="3">
-        <v>6029.9</v>
+        <v>6060.6</v>
       </c>
     </row>
     <row r="2523" spans="1:5" x14ac:dyDescent="0.2">
@@ -53763,7 +53763,7 @@
         <v>21</v>
       </c>
       <c r="E2523" s="3">
-        <v>3562.02</v>
+        <v>3580.17</v>
       </c>
     </row>
     <row r="2524" spans="1:5" x14ac:dyDescent="0.2">
@@ -53780,7 +53780,7 @@
         <v>21</v>
       </c>
       <c r="E2524" s="3">
-        <v>568.73</v>
+        <v>571.62</v>
       </c>
     </row>
     <row r="2525" spans="1:5" x14ac:dyDescent="0.2">
@@ -53797,7 +53797,7 @@
         <v>21</v>
       </c>
       <c r="E2525" s="3">
-        <v>16121.05</v>
+        <v>16203.16</v>
       </c>
     </row>
     <row r="2526" spans="1:5" x14ac:dyDescent="0.2">
@@ -53814,7 +53814,7 @@
         <v>21</v>
       </c>
       <c r="E2526" s="3">
-        <v>344.24</v>
+        <v>345.98</v>
       </c>
     </row>
     <row r="2527" spans="1:5" x14ac:dyDescent="0.2">
@@ -53831,7 +53831,7 @@
         <v>21</v>
       </c>
       <c r="E2527" s="3">
-        <v>344.24</v>
+        <v>345.98</v>
       </c>
     </row>
     <row r="2528" spans="1:5" x14ac:dyDescent="0.2">
@@ -53848,7 +53848,7 @@
         <v>21</v>
       </c>
       <c r="E2528" s="3">
-        <v>344.24</v>
+        <v>345.98</v>
       </c>
     </row>
     <row r="2529" spans="1:5" x14ac:dyDescent="0.2">
@@ -53865,7 +53865,7 @@
         <v>21</v>
       </c>
       <c r="E2529" s="3">
-        <v>344.24</v>
+        <v>345.98</v>
       </c>
     </row>
     <row r="2530" spans="1:5" x14ac:dyDescent="0.2">
@@ -53882,7 +53882,7 @@
         <v>21</v>
       </c>
       <c r="E2530" s="3">
-        <v>419.06</v>
+        <v>421.2</v>
       </c>
     </row>
     <row r="2531" spans="1:5" x14ac:dyDescent="0.2">
@@ -53899,7 +53899,7 @@
         <v>21</v>
       </c>
       <c r="E2531" s="3">
-        <v>733.37</v>
+        <v>737.09</v>
       </c>
     </row>
     <row r="2532" spans="1:5" x14ac:dyDescent="0.2">
@@ -53916,7 +53916,7 @@
         <v>21</v>
       </c>
       <c r="E2532" s="3">
-        <v>568.73</v>
+        <v>571.62</v>
       </c>
     </row>
     <row r="2533" spans="1:5" x14ac:dyDescent="0.2">
@@ -53933,7 +53933,7 @@
         <v>21</v>
       </c>
       <c r="E2533" s="3">
-        <v>568.73</v>
+        <v>571.62</v>
       </c>
     </row>
     <row r="2534" spans="1:5" x14ac:dyDescent="0.2">
@@ -53950,7 +53950,7 @@
         <v>21</v>
       </c>
       <c r="E2534" s="3">
-        <v>568.73</v>
+        <v>571.62</v>
       </c>
     </row>
     <row r="2535" spans="1:5" x14ac:dyDescent="0.2">
@@ -53967,7 +53967,7 @@
         <v>21</v>
       </c>
       <c r="E2535" s="3">
-        <v>568.73</v>
+        <v>571.62</v>
       </c>
     </row>
     <row r="2536" spans="1:5" x14ac:dyDescent="0.2">
@@ -53984,7 +53984,7 @@
         <v>21</v>
       </c>
       <c r="E2536" s="3">
-        <v>568.73</v>
+        <v>571.62</v>
       </c>
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.2">
@@ -54001,7 +54001,7 @@
         <v>21</v>
       </c>
       <c r="E2537" s="3">
-        <v>527.03</v>
+        <v>529.72</v>
       </c>
     </row>
     <row r="2538" spans="1:5" x14ac:dyDescent="0.2">
@@ -54018,7 +54018,7 @@
         <v>21</v>
       </c>
       <c r="E2538" s="3">
-        <v>2867.68</v>
+        <v>2882.29</v>
       </c>
     </row>
     <row r="2539" spans="1:5" x14ac:dyDescent="0.2">
@@ -54035,7 +54035,7 @@
         <v>21</v>
       </c>
       <c r="E2539" s="3">
-        <v>2867.68</v>
+        <v>2882.29</v>
       </c>
     </row>
     <row r="2540" spans="1:5" x14ac:dyDescent="0.2">
@@ -54052,7 +54052,7 @@
         <v>21</v>
       </c>
       <c r="E2540" s="3">
-        <v>2867.68</v>
+        <v>2882.29</v>
       </c>
     </row>
     <row r="2541" spans="1:5" x14ac:dyDescent="0.2">
@@ -54069,7 +54069,7 @@
         <v>21</v>
       </c>
       <c r="E2541" s="3">
-        <v>2867.68</v>
+        <v>2882.29</v>
       </c>
     </row>
     <row r="2542" spans="1:5" x14ac:dyDescent="0.2">
@@ -54086,7 +54086,7 @@
         <v>21</v>
       </c>
       <c r="E2542" s="3">
-        <v>2867.68</v>
+        <v>2882.29</v>
       </c>
     </row>
     <row r="2543" spans="1:5" x14ac:dyDescent="0.2">
@@ -54103,7 +54103,7 @@
         <v>21</v>
       </c>
       <c r="E2543" s="3">
-        <v>2867.68</v>
+        <v>2882.29</v>
       </c>
     </row>
     <row r="2544" spans="1:5" x14ac:dyDescent="0.2">
@@ -54120,7 +54120,7 @@
         <v>21</v>
       </c>
       <c r="E2544" s="3">
-        <v>2867.68</v>
+        <v>2882.29</v>
       </c>
     </row>
     <row r="2545" spans="1:5" x14ac:dyDescent="0.2">
@@ -54137,7 +54137,7 @@
         <v>21</v>
       </c>
       <c r="E2545" s="3">
-        <v>527.03</v>
+        <v>529.72</v>
       </c>
     </row>
     <row r="2546" spans="1:5" x14ac:dyDescent="0.2">
@@ -54154,7 +54154,7 @@
         <v>21</v>
       </c>
       <c r="E2546" s="3">
-        <v>527.03</v>
+        <v>529.72</v>
       </c>
     </row>
     <row r="2547" spans="1:5" x14ac:dyDescent="0.2">
@@ -54171,7 +54171,7 @@
         <v>21</v>
       </c>
       <c r="E2547" s="3">
-        <v>527.03</v>
+        <v>529.72</v>
       </c>
     </row>
     <row r="2548" spans="1:5" x14ac:dyDescent="0.2">
@@ -54188,7 +54188,7 @@
         <v>21</v>
       </c>
       <c r="E2548" s="3">
-        <v>527.03</v>
+        <v>529.72</v>
       </c>
     </row>
     <row r="2549" spans="1:5" x14ac:dyDescent="0.2">
@@ -54205,7 +54205,7 @@
         <v>21</v>
       </c>
       <c r="E2549" s="3">
-        <v>1550.1</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="2550" spans="1:5" x14ac:dyDescent="0.2">
@@ -54222,7 +54222,7 @@
         <v>21</v>
       </c>
       <c r="E2550" s="3">
-        <v>2077.14</v>
+        <v>2087.71</v>
       </c>
     </row>
     <row r="2551" spans="1:5" x14ac:dyDescent="0.2">
@@ -54239,7 +54239,7 @@
         <v>21</v>
       </c>
       <c r="E2551" s="3">
-        <v>3115.71</v>
+        <v>3131.57</v>
       </c>
     </row>
     <row r="2552" spans="1:5" x14ac:dyDescent="0.2">
@@ -54256,7 +54256,7 @@
         <v>21</v>
       </c>
       <c r="E2552" s="3">
-        <v>545.21</v>
+        <v>547.98</v>
       </c>
     </row>
     <row r="2553" spans="1:5" x14ac:dyDescent="0.2">
@@ -54273,7 +54273,7 @@
         <v>21</v>
       </c>
       <c r="E2553" s="3">
-        <v>721.59</v>
+        <v>725.27</v>
       </c>
     </row>
     <row r="2554" spans="1:5" x14ac:dyDescent="0.2">
@@ -54290,7 +54290,7 @@
         <v>21</v>
       </c>
       <c r="E2554" s="3">
-        <v>801.78</v>
+        <v>805.86</v>
       </c>
     </row>
     <row r="2555" spans="1:5" x14ac:dyDescent="0.2">
@@ -54307,7 +54307,7 @@
         <v>21</v>
       </c>
       <c r="E2555" s="3">
-        <v>1395.08</v>
+        <v>1402.2</v>
       </c>
     </row>
     <row r="2556" spans="1:5" x14ac:dyDescent="0.2">
@@ -54324,7 +54324,7 @@
         <v>21</v>
       </c>
       <c r="E2556" s="3">
-        <v>344.24</v>
+        <v>345.98</v>
       </c>
     </row>
     <row r="2557" spans="1:5" x14ac:dyDescent="0.2">
@@ -54341,7 +54341,7 @@
         <v>21</v>
       </c>
       <c r="E2557" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2558" spans="1:5" x14ac:dyDescent="0.2">
@@ -54358,7 +54358,7 @@
         <v>21</v>
       </c>
       <c r="E2558" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2559" spans="1:5" x14ac:dyDescent="0.2">
@@ -54375,7 +54375,7 @@
         <v>21</v>
       </c>
       <c r="E2559" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2560" spans="1:5" x14ac:dyDescent="0.2">
@@ -54392,7 +54392,7 @@
         <v>21</v>
       </c>
       <c r="E2560" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2561" spans="1:5" x14ac:dyDescent="0.2">
@@ -54409,7 +54409,7 @@
         <v>21</v>
       </c>
       <c r="E2561" s="3">
-        <v>2991.69</v>
+        <v>3006.93</v>
       </c>
     </row>
     <row r="2562" spans="1:5" x14ac:dyDescent="0.2">
@@ -54426,7 +54426,7 @@
         <v>21</v>
       </c>
       <c r="E2562" s="3">
-        <v>6029.9</v>
+        <v>6060.6</v>
       </c>
     </row>
     <row r="2563" spans="1:5" x14ac:dyDescent="0.2">
@@ -54443,7 +54443,7 @@
         <v>21</v>
       </c>
       <c r="E2563" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2564" spans="1:5" x14ac:dyDescent="0.2">
@@ -54460,7 +54460,7 @@
         <v>21</v>
       </c>
       <c r="E2564" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2565" spans="1:5" x14ac:dyDescent="0.2">
@@ -54477,7 +54477,7 @@
         <v>21</v>
       </c>
       <c r="E2565" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2566" spans="1:5" x14ac:dyDescent="0.2">
@@ -54494,7 +54494,7 @@
         <v>21</v>
       </c>
       <c r="E2566" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2567" spans="1:5" x14ac:dyDescent="0.2">
@@ -54511,7 +54511,7 @@
         <v>21</v>
       </c>
       <c r="E2567" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2568" spans="1:5" x14ac:dyDescent="0.2">
@@ -54528,7 +54528,7 @@
         <v>21</v>
       </c>
       <c r="E2568" s="3">
-        <v>508.86</v>
+        <v>511.45</v>
       </c>
     </row>
     <row r="2569" spans="1:5" x14ac:dyDescent="0.2">
@@ -54545,7 +54545,7 @@
         <v>21</v>
       </c>
       <c r="E2569" s="3">
-        <v>344.24</v>
+        <v>345.98</v>
       </c>
     </row>
     <row r="2570" spans="1:5" x14ac:dyDescent="0.2">
@@ -54562,7 +54562,7 @@
         <v>21</v>
       </c>
       <c r="E2570" s="3">
-        <v>4154.2700000000004</v>
+        <v>4175.43</v>
       </c>
     </row>
     <row r="2571" spans="1:5" x14ac:dyDescent="0.2">
@@ -54579,7 +54579,7 @@
         <v>21</v>
       </c>
       <c r="E2571" s="3">
-        <v>899.06</v>
+        <v>903.64</v>
       </c>
     </row>
     <row r="2572" spans="1:5" x14ac:dyDescent="0.2">
@@ -54596,7 +54596,7 @@
         <v>21</v>
       </c>
       <c r="E2572" s="3">
-        <v>1643.11</v>
+        <v>1651.48</v>
       </c>
     </row>
     <row r="2573" spans="1:5" x14ac:dyDescent="0.2">
@@ -54613,7 +54613,7 @@
         <v>21</v>
       </c>
       <c r="E2573" s="3">
-        <v>6959.94</v>
+        <v>6995.4</v>
       </c>
     </row>
     <row r="2574" spans="1:5" x14ac:dyDescent="0.2">
@@ -54630,7 +54630,7 @@
         <v>21</v>
       </c>
       <c r="E2574" s="3">
-        <v>4712.3100000000004</v>
+        <v>4736.3100000000004</v>
       </c>
     </row>
     <row r="2575" spans="1:5" x14ac:dyDescent="0.2">
@@ -54647,7 +54647,7 @@
         <v>21</v>
       </c>
       <c r="E2575" s="3">
-        <v>748.32</v>
+        <v>752.14</v>
       </c>
     </row>
     <row r="2576" spans="1:5" x14ac:dyDescent="0.2">
@@ -54664,7 +54664,7 @@
         <v>21</v>
       </c>
       <c r="E2576" s="3">
-        <v>748.32</v>
+        <v>752.14</v>
       </c>
     </row>
     <row r="2577" spans="1:5" x14ac:dyDescent="0.2">
@@ -56075,7 +56075,7 @@
         <v>21</v>
       </c>
       <c r="E2659" s="3">
-        <v>3917.73</v>
+        <v>4231.1499999999996</v>
       </c>
     </row>
     <row r="2660" spans="1:5" x14ac:dyDescent="0.2">
@@ -56092,7 +56092,7 @@
         <v>21</v>
       </c>
       <c r="E2660" s="3">
-        <v>4900</v>
+        <v>5291.99</v>
       </c>
     </row>
     <row r="2661" spans="1:5" x14ac:dyDescent="0.2">
@@ -56109,7 +56109,7 @@
         <v>21</v>
       </c>
       <c r="E2661" s="3">
-        <v>5600.01</v>
+        <v>6048.02</v>
       </c>
     </row>
     <row r="2662" spans="1:5" x14ac:dyDescent="0.2">
@@ -56126,7 +56126,7 @@
         <v>21</v>
       </c>
       <c r="E2662" s="3">
-        <v>3674.33</v>
+        <v>3968.28</v>
       </c>
     </row>
     <row r="2663" spans="1:5" x14ac:dyDescent="0.2">
@@ -56143,7 +56143,7 @@
         <v>21</v>
       </c>
       <c r="E2663" s="3">
-        <v>4396.8599999999997</v>
+        <v>4748.62</v>
       </c>
     </row>
     <row r="2664" spans="1:5" x14ac:dyDescent="0.2">
@@ -56160,7 +56160,7 @@
         <v>21</v>
       </c>
       <c r="E2664" s="3">
-        <v>3515.05</v>
+        <v>3796.26</v>
       </c>
     </row>
     <row r="2665" spans="1:5" x14ac:dyDescent="0.2">
@@ -56177,7 +56177,7 @@
         <v>21</v>
       </c>
       <c r="E2665" s="3">
-        <v>2112.0100000000002</v>
+        <v>2280.9699999999998</v>
       </c>
     </row>
     <row r="2666" spans="1:5" x14ac:dyDescent="0.2">
@@ -56194,7 +56194,7 @@
         <v>21</v>
       </c>
       <c r="E2666" s="3">
-        <v>2128.23</v>
+        <v>2298.48</v>
       </c>
     </row>
     <row r="2667" spans="1:5" x14ac:dyDescent="0.2">
@@ -56211,7 +56211,7 @@
         <v>21</v>
       </c>
       <c r="E2667" s="3">
-        <v>2500.29</v>
+        <v>2700.3</v>
       </c>
     </row>
     <row r="2668" spans="1:5" x14ac:dyDescent="0.2">
@@ -56228,7 +56228,7 @@
         <v>21</v>
       </c>
       <c r="E2668" s="3">
-        <v>3682.1</v>
+        <v>3976.68</v>
       </c>
     </row>
     <row r="2669" spans="1:5" x14ac:dyDescent="0.2">
@@ -56245,7 +56245,7 @@
         <v>21</v>
       </c>
       <c r="E2669" s="3">
-        <v>4536.58</v>
+        <v>4899.49</v>
       </c>
     </row>
     <row r="2670" spans="1:5" x14ac:dyDescent="0.2">
@@ -56262,7 +56262,7 @@
         <v>21</v>
       </c>
       <c r="E2670" s="3">
-        <v>6493.83</v>
+        <v>7013.33</v>
       </c>
     </row>
     <row r="2671" spans="1:5" x14ac:dyDescent="0.2">
@@ -56279,7 +56279,7 @@
         <v>21</v>
       </c>
       <c r="E2671" s="3">
-        <v>2311.17</v>
+        <v>2496.06</v>
       </c>
     </row>
     <row r="2672" spans="1:5" x14ac:dyDescent="0.2">
@@ -56296,7 +56296,7 @@
         <v>21</v>
       </c>
       <c r="E2672" s="3">
-        <v>3361.46</v>
+        <v>3630.38</v>
       </c>
     </row>
     <row r="2673" spans="1:5" x14ac:dyDescent="0.2">
@@ -56313,7 +56313,7 @@
         <v>21</v>
       </c>
       <c r="E2673" s="3">
-        <v>4436.34</v>
+        <v>4791.24</v>
       </c>
     </row>
     <row r="2674" spans="1:5" x14ac:dyDescent="0.2">
@@ -56330,7 +56330,7 @@
         <v>21</v>
       </c>
       <c r="E2674" s="3">
-        <v>5474.58</v>
+        <v>5912.54</v>
       </c>
     </row>
     <row r="2675" spans="1:5" x14ac:dyDescent="0.2">
@@ -56347,7 +56347,7 @@
         <v>21</v>
       </c>
       <c r="E2675" s="3">
-        <v>7125.16</v>
+        <v>7695.18</v>
       </c>
     </row>
     <row r="2676" spans="1:5" x14ac:dyDescent="0.2">
@@ -56364,7 +56364,7 @@
         <v>21</v>
       </c>
       <c r="E2676" s="3">
-        <v>1415.14</v>
+        <v>1528.36</v>
       </c>
     </row>
     <row r="2677" spans="1:5" x14ac:dyDescent="0.2">
@@ -56381,7 +56381,7 @@
         <v>21</v>
       </c>
       <c r="E2677" s="3">
-        <v>1589.24</v>
+        <v>1716.39</v>
       </c>
     </row>
     <row r="2678" spans="1:5" x14ac:dyDescent="0.2">
@@ -56398,7 +56398,7 @@
         <v>21</v>
       </c>
       <c r="E2678" s="3">
-        <v>1786.5</v>
+        <v>1929.44</v>
       </c>
     </row>
     <row r="2679" spans="1:5" x14ac:dyDescent="0.2">
@@ -56415,7 +56415,7 @@
         <v>21</v>
       </c>
       <c r="E2679" s="3">
-        <v>2230.7600000000002</v>
+        <v>2409.16</v>
       </c>
     </row>
     <row r="2680" spans="1:5" x14ac:dyDescent="0.2">
@@ -56432,7 +56432,7 @@
         <v>21</v>
       </c>
       <c r="E2680" s="3">
-        <v>2709.63</v>
+        <v>2926.4</v>
       </c>
     </row>
     <row r="2681" spans="1:5" x14ac:dyDescent="0.2">
@@ -56449,7 +56449,7 @@
         <v>21</v>
       </c>
       <c r="E2681" s="3">
-        <v>3329.37</v>
+        <v>3595.72</v>
       </c>
     </row>
     <row r="2682" spans="1:5" x14ac:dyDescent="0.2">
@@ -62280,7 +62280,7 @@
         <v>21</v>
       </c>
       <c r="E3024" s="3">
-        <v>16880.61</v>
+        <v>16966.580000000002</v>
       </c>
     </row>
     <row r="3025" spans="1:5" x14ac:dyDescent="0.2">
@@ -62297,7 +62297,7 @@
         <v>21</v>
       </c>
       <c r="E3025" s="3">
-        <v>16880.61</v>
+        <v>16966.580000000002</v>
       </c>
     </row>
     <row r="3026" spans="1:5" x14ac:dyDescent="0.2">
@@ -63419,7 +63419,7 @@
         <v>21</v>
       </c>
       <c r="E3091" s="3">
-        <v>10506.48</v>
+        <v>10559.99</v>
       </c>
     </row>
     <row r="3092" spans="1:5" x14ac:dyDescent="0.2">
@@ -63436,7 +63436,7 @@
         <v>21</v>
       </c>
       <c r="E3092" s="3">
-        <v>11524.2</v>
+        <v>11582.89</v>
       </c>
     </row>
     <row r="3093" spans="1:5" x14ac:dyDescent="0.2">
@@ -63453,7 +63453,7 @@
         <v>21</v>
       </c>
       <c r="E3093" s="3">
-        <v>8291.44</v>
+        <v>8333.67</v>
       </c>
     </row>
     <row r="3094" spans="1:5" x14ac:dyDescent="0.2">
@@ -63470,7 +63470,7 @@
         <v>21</v>
       </c>
       <c r="E3094" s="3">
-        <v>7812.51</v>
+        <v>7852.3</v>
       </c>
     </row>
     <row r="3095" spans="1:5" x14ac:dyDescent="0.2">
@@ -63487,7 +63487,7 @@
         <v>21</v>
       </c>
       <c r="E3095" s="3">
-        <v>7602.98</v>
+        <v>7641.7</v>
       </c>
     </row>
     <row r="3096" spans="1:5" x14ac:dyDescent="0.2">
@@ -63504,7 +63504,7 @@
         <v>21</v>
       </c>
       <c r="E3096" s="3">
-        <v>9818.02</v>
+        <v>9868.02</v>
       </c>
     </row>
     <row r="3097" spans="1:5" x14ac:dyDescent="0.2">
@@ -63521,7 +63521,7 @@
         <v>21</v>
       </c>
       <c r="E3097" s="3">
-        <v>29259.48</v>
+        <v>29408.52</v>
       </c>
     </row>
     <row r="3098" spans="1:5" x14ac:dyDescent="0.2">
@@ -63538,7 +63538,7 @@
         <v>21</v>
       </c>
       <c r="E3098" s="3">
-        <v>20683.689999999999</v>
+        <v>20789.04</v>
       </c>
     </row>
     <row r="3099" spans="1:5" x14ac:dyDescent="0.2">
@@ -63555,7 +63555,7 @@
         <v>21</v>
       </c>
       <c r="E3099" s="3">
-        <v>24754.57</v>
+        <v>24880.66</v>
       </c>
     </row>
     <row r="3100" spans="1:5" x14ac:dyDescent="0.2">
@@ -63572,7 +63572,7 @@
         <v>21</v>
       </c>
       <c r="E3100" s="3">
-        <v>30636.400000000001</v>
+        <v>30792.45</v>
       </c>
     </row>
     <row r="3101" spans="1:5" x14ac:dyDescent="0.2">
@@ -63589,7 +63589,7 @@
         <v>21</v>
       </c>
       <c r="E3101" s="3">
-        <v>24679.75</v>
+        <v>24805.45</v>
       </c>
     </row>
     <row r="3102" spans="1:5" x14ac:dyDescent="0.2">
@@ -63606,7 +63606,7 @@
         <v>21</v>
       </c>
       <c r="E3102" s="3">
-        <v>26984.57</v>
+        <v>27122.02</v>
       </c>
     </row>
     <row r="3103" spans="1:5" x14ac:dyDescent="0.2">
@@ -63623,7 +63623,7 @@
         <v>21</v>
       </c>
       <c r="E3103" s="3">
-        <v>23302.82</v>
+        <v>23421.52</v>
       </c>
     </row>
     <row r="3104" spans="1:5" x14ac:dyDescent="0.2">
@@ -63691,7 +63691,7 @@
         <v>21</v>
       </c>
       <c r="E3107" s="3">
-        <v>542.54</v>
+        <v>545.29999999999995</v>
       </c>
     </row>
     <row r="3108" spans="1:5" x14ac:dyDescent="0.2">
@@ -63708,7 +63708,7 @@
         <v>21</v>
       </c>
       <c r="E3108" s="3">
-        <v>542.54</v>
+        <v>545.29999999999995</v>
       </c>
     </row>
     <row r="3109" spans="1:5" x14ac:dyDescent="0.2">
@@ -64456,7 +64456,7 @@
         <v>21</v>
       </c>
       <c r="E3152" s="3">
-        <v>4842.7299999999996</v>
+        <v>4867.3900000000003</v>
       </c>
     </row>
     <row r="3153" spans="1:5" x14ac:dyDescent="0.2">
@@ -64558,7 +64558,7 @@
         <v>21</v>
       </c>
       <c r="E3158" s="3">
-        <v>2006.36</v>
+        <v>2016.58</v>
       </c>
     </row>
     <row r="3159" spans="1:5" x14ac:dyDescent="0.2">
@@ -64575,7 +64575,7 @@
         <v>21</v>
       </c>
       <c r="E3159" s="3">
-        <v>2655.48</v>
+        <v>2669.01</v>
       </c>
     </row>
     <row r="3160" spans="1:5" x14ac:dyDescent="0.2">
@@ -64592,7 +64592,7 @@
         <v>21</v>
       </c>
       <c r="E3160" s="3">
-        <v>3717.68</v>
+        <v>3736.61</v>
       </c>
     </row>
     <row r="3161" spans="1:5" x14ac:dyDescent="0.2">
@@ -64609,7 +64609,7 @@
         <v>21</v>
       </c>
       <c r="E3161" s="3">
-        <v>6019.09</v>
+        <v>6049.75</v>
       </c>
     </row>
     <row r="3162" spans="1:5" x14ac:dyDescent="0.2">
@@ -64626,7 +64626,7 @@
         <v>21</v>
       </c>
       <c r="E3162" s="3">
-        <v>10710.45</v>
+        <v>10765</v>
       </c>
     </row>
     <row r="3163" spans="1:5" x14ac:dyDescent="0.2">
@@ -64643,7 +64643,7 @@
         <v>21</v>
       </c>
       <c r="E3163" s="3">
-        <v>1563.78</v>
+        <v>1571.75</v>
       </c>
     </row>
     <row r="3164" spans="1:5" x14ac:dyDescent="0.2">
@@ -64660,7 +64660,7 @@
         <v>21</v>
       </c>
       <c r="E3164" s="3">
-        <v>2109.63</v>
+        <v>2120.38</v>
       </c>
     </row>
     <row r="3165" spans="1:5" x14ac:dyDescent="0.2">
@@ -64677,7 +64677,7 @@
         <v>21</v>
       </c>
       <c r="E3165" s="3">
-        <v>2109.63</v>
+        <v>2120.38</v>
       </c>
     </row>
     <row r="3166" spans="1:5" x14ac:dyDescent="0.2">
@@ -64694,7 +64694,7 @@
         <v>21</v>
       </c>
       <c r="E3166" s="3">
-        <v>3629.16</v>
+        <v>3647.64</v>
       </c>
     </row>
     <row r="3167" spans="1:5" x14ac:dyDescent="0.2">
@@ -64711,7 +64711,7 @@
         <v>21</v>
       </c>
       <c r="E3167" s="3">
-        <v>5355.23</v>
+        <v>5382.5</v>
       </c>
     </row>
     <row r="3168" spans="1:5" x14ac:dyDescent="0.2">
@@ -64728,7 +64728,7 @@
         <v>21</v>
       </c>
       <c r="E3168" s="3">
-        <v>5443.73</v>
+        <v>5471.47</v>
       </c>
     </row>
     <row r="3169" spans="1:5" x14ac:dyDescent="0.2">
@@ -64745,7 +64745,7 @@
         <v>21</v>
       </c>
       <c r="E3169" s="3">
-        <v>958.92</v>
+        <v>963.81</v>
       </c>
     </row>
     <row r="3170" spans="1:5" x14ac:dyDescent="0.2">
@@ -64762,7 +64762,7 @@
         <v>21</v>
       </c>
       <c r="E3170" s="3">
-        <v>1298.24</v>
+        <v>1304.8499999999999</v>
       </c>
     </row>
     <row r="3171" spans="1:5" x14ac:dyDescent="0.2">
@@ -64779,7 +64779,7 @@
         <v>21</v>
       </c>
       <c r="E3171" s="3">
-        <v>1272.1600000000001</v>
+        <v>1278.6300000000001</v>
       </c>
     </row>
     <row r="3172" spans="1:5" x14ac:dyDescent="0.2">
@@ -64796,7 +64796,7 @@
         <v>21</v>
       </c>
       <c r="E3172" s="3">
-        <v>3292.63</v>
+        <v>3309.4</v>
       </c>
     </row>
     <row r="3173" spans="1:5" x14ac:dyDescent="0.2">
@@ -64813,7 +64813,7 @@
         <v>21</v>
       </c>
       <c r="E3173" s="3">
-        <v>5283.18</v>
+        <v>5310.08</v>
       </c>
     </row>
     <row r="3174" spans="1:5" x14ac:dyDescent="0.2">
@@ -64830,7 +64830,7 @@
         <v>21</v>
       </c>
       <c r="E3174" s="3">
-        <v>8994.8700000000008</v>
+        <v>9040.67</v>
       </c>
     </row>
     <row r="3175" spans="1:5" x14ac:dyDescent="0.2">
@@ -64847,7 +64847,7 @@
         <v>21</v>
       </c>
       <c r="E3175" s="3">
-        <v>8994.8700000000008</v>
+        <v>9040.67</v>
       </c>
     </row>
     <row r="3176" spans="1:5" x14ac:dyDescent="0.2">
@@ -64864,7 +64864,7 @@
         <v>21</v>
       </c>
       <c r="E3176" s="3">
-        <v>15235.89</v>
+        <v>15313.49</v>
       </c>
     </row>
     <row r="3177" spans="1:5" x14ac:dyDescent="0.2">
@@ -64881,7 +64881,7 @@
         <v>21</v>
       </c>
       <c r="E3177" s="3">
-        <v>15235.89</v>
+        <v>15313.49</v>
       </c>
     </row>
     <row r="3178" spans="1:5" x14ac:dyDescent="0.2">
@@ -64898,7 +64898,7 @@
         <v>21</v>
       </c>
       <c r="E3178" s="3">
-        <v>6645.12</v>
+        <v>6678.97</v>
       </c>
     </row>
     <row r="3179" spans="1:5" x14ac:dyDescent="0.2">
@@ -64915,7 +64915,7 @@
         <v>21</v>
       </c>
       <c r="E3179" s="3">
-        <v>24664.78</v>
+        <v>24790.400000000001</v>
       </c>
     </row>
     <row r="3180" spans="1:5" x14ac:dyDescent="0.2">
@@ -64932,7 +64932,7 @@
         <v>21</v>
       </c>
       <c r="E3180" s="3">
-        <v>24664.78</v>
+        <v>24790.400000000001</v>
       </c>
     </row>
     <row r="3181" spans="1:5" x14ac:dyDescent="0.2">
@@ -64949,7 +64949,7 @@
         <v>21</v>
       </c>
       <c r="E3181" s="3">
-        <v>2843.63</v>
+        <v>2858.12</v>
       </c>
     </row>
     <row r="3182" spans="1:5" x14ac:dyDescent="0.2">
@@ -64966,7 +64966,7 @@
         <v>21</v>
       </c>
       <c r="E3182" s="3">
-        <v>3247.72</v>
+        <v>3264.27</v>
       </c>
     </row>
     <row r="3183" spans="1:5" x14ac:dyDescent="0.2">
@@ -64983,7 +64983,7 @@
         <v>21</v>
       </c>
       <c r="E3183" s="3">
-        <v>2394.64</v>
+        <v>2406.84</v>
       </c>
     </row>
     <row r="3184" spans="1:5" x14ac:dyDescent="0.2">
@@ -65000,7 +65000,7 @@
         <v>21</v>
       </c>
       <c r="E3184" s="3">
-        <v>1975.58</v>
+        <v>1985.64</v>
       </c>
     </row>
     <row r="3185" spans="1:5" x14ac:dyDescent="0.2">
@@ -65017,7 +65017,7 @@
         <v>21</v>
       </c>
       <c r="E3185" s="3">
-        <v>2170.15</v>
+        <v>2181.19</v>
       </c>
     </row>
     <row r="3186" spans="1:5" x14ac:dyDescent="0.2">
@@ -65034,7 +65034,7 @@
         <v>21</v>
       </c>
       <c r="E3186" s="3">
-        <v>2424.5700000000002</v>
+        <v>2436.92</v>
       </c>
     </row>
     <row r="3187" spans="1:5" x14ac:dyDescent="0.2">
@@ -65051,7 +65051,7 @@
         <v>21</v>
       </c>
       <c r="E3187" s="3">
-        <v>5283.18</v>
+        <v>5310.08</v>
       </c>
     </row>
     <row r="3188" spans="1:5" x14ac:dyDescent="0.2">
@@ -65068,7 +65068,7 @@
         <v>21</v>
       </c>
       <c r="E3188" s="3">
-        <v>1272.1600000000001</v>
+        <v>1278.6300000000001</v>
       </c>
     </row>
     <row r="3189" spans="1:5" x14ac:dyDescent="0.2">
@@ -65085,7 +65085,7 @@
         <v>21</v>
       </c>
       <c r="E3189" s="3">
-        <v>3292.63</v>
+        <v>3309.4</v>
       </c>
     </row>
     <row r="3190" spans="1:5" x14ac:dyDescent="0.2">
@@ -65102,7 +65102,7 @@
         <v>21</v>
       </c>
       <c r="E3190" s="3">
-        <v>6645.12</v>
+        <v>6678.97</v>
       </c>
     </row>
     <row r="3191" spans="1:5" x14ac:dyDescent="0.2">
@@ -65119,7 +65119,7 @@
         <v>21</v>
       </c>
       <c r="E3191" s="3">
-        <v>29903.68</v>
+        <v>30056</v>
       </c>
     </row>
     <row r="3192" spans="1:5" x14ac:dyDescent="0.2">
@@ -65136,7 +65136,7 @@
         <v>21</v>
       </c>
       <c r="E3192" s="3">
-        <v>6345.79</v>
+        <v>6378.11</v>
       </c>
     </row>
     <row r="3193" spans="1:5" x14ac:dyDescent="0.2">
@@ -65153,7 +65153,7 @@
         <v>21</v>
       </c>
       <c r="E3193" s="3">
-        <v>10626.21</v>
+        <v>10680.33</v>
       </c>
     </row>
     <row r="3194" spans="1:5" x14ac:dyDescent="0.2">
@@ -65170,7 +65170,7 @@
         <v>21</v>
       </c>
       <c r="E3194" s="3">
-        <v>21267.37</v>
+        <v>21375.71</v>
       </c>
     </row>
     <row r="3195" spans="1:5" x14ac:dyDescent="0.2">
@@ -65187,7 +65187,7 @@
         <v>21</v>
       </c>
       <c r="E3195" s="3">
-        <v>18693.150000000001</v>
+        <v>18788.36</v>
       </c>
     </row>
     <row r="3196" spans="1:5" x14ac:dyDescent="0.2">
@@ -65204,7 +65204,7 @@
         <v>21</v>
       </c>
       <c r="E3196" s="3">
-        <v>37356.36</v>
+        <v>37546.629999999997</v>
       </c>
     </row>
     <row r="3197" spans="1:5" x14ac:dyDescent="0.2">
@@ -65221,7 +65221,7 @@
         <v>21</v>
       </c>
       <c r="E3197" s="3">
-        <v>7932.24</v>
+        <v>7972.64</v>
       </c>
     </row>
     <row r="3198" spans="1:5" x14ac:dyDescent="0.2">
@@ -65238,7 +65238,7 @@
         <v>21</v>
       </c>
       <c r="E3198" s="3">
-        <v>13200.44</v>
+        <v>13267.68</v>
       </c>
     </row>
     <row r="3199" spans="1:5" x14ac:dyDescent="0.2">
@@ -65255,7 +65255,7 @@
         <v>21</v>
       </c>
       <c r="E3199" s="3">
-        <v>26400.89</v>
+        <v>26535.360000000001</v>
       </c>
     </row>
     <row r="3200" spans="1:5" x14ac:dyDescent="0.2">
@@ -65272,7 +65272,7 @@
         <v>21</v>
       </c>
       <c r="E3200" s="3">
-        <v>25413.1</v>
+        <v>25542.54</v>
       </c>
     </row>
     <row r="3201" spans="1:5" x14ac:dyDescent="0.2">
@@ -65289,7 +65289,7 @@
         <v>21</v>
       </c>
       <c r="E3201" s="3">
-        <v>50811.24</v>
+        <v>51070.03</v>
       </c>
     </row>
     <row r="3202" spans="1:5" x14ac:dyDescent="0.2">
@@ -65306,7 +65306,7 @@
         <v>21</v>
       </c>
       <c r="E3202" s="3">
-        <v>37610.78</v>
+        <v>37802.36</v>
       </c>
     </row>
     <row r="3203" spans="1:5" x14ac:dyDescent="0.2">
@@ -65323,7 +65323,7 @@
         <v>21</v>
       </c>
       <c r="E3203" s="3">
-        <v>15445.42</v>
+        <v>15524.09</v>
       </c>
     </row>
     <row r="3204" spans="1:5" x14ac:dyDescent="0.2">
@@ -65340,7 +65340,7 @@
         <v>21</v>
       </c>
       <c r="E3204" s="3">
-        <v>30890.84</v>
+        <v>31048.17</v>
       </c>
     </row>
     <row r="3205" spans="1:5" x14ac:dyDescent="0.2">
@@ -65357,7 +65357,7 @@
         <v>21</v>
       </c>
       <c r="E3205" s="3">
-        <v>31384.720000000001</v>
+        <v>31544.58</v>
       </c>
     </row>
     <row r="3206" spans="1:5" x14ac:dyDescent="0.2">
@@ -65374,7 +65374,7 @@
         <v>21</v>
       </c>
       <c r="E3206" s="3">
-        <v>62769.46</v>
+        <v>63089.17</v>
       </c>
     </row>
     <row r="3207" spans="1:5" x14ac:dyDescent="0.2">
@@ -65391,7 +65391,7 @@
         <v>21</v>
       </c>
       <c r="E3207" s="3">
-        <v>26161.42</v>
+        <v>26294.67</v>
       </c>
     </row>
     <row r="3208" spans="1:5" x14ac:dyDescent="0.2">
@@ -65408,7 +65408,7 @@
         <v>21</v>
       </c>
       <c r="E3208" s="3">
-        <v>52307.89</v>
+        <v>52574.31</v>
       </c>
     </row>
     <row r="3209" spans="1:5" x14ac:dyDescent="0.2">
@@ -65425,7 +65425,7 @@
         <v>21</v>
       </c>
       <c r="E3209" s="3">
-        <v>47084.58</v>
+        <v>47324.4</v>
       </c>
     </row>
     <row r="3210" spans="1:5" x14ac:dyDescent="0.2">
@@ -65442,7 +65442,7 @@
         <v>21</v>
       </c>
       <c r="E3210" s="3">
-        <v>94154.2</v>
+        <v>94633.75</v>
       </c>
     </row>
     <row r="3211" spans="1:5" x14ac:dyDescent="0.2">
@@ -65459,7 +65459,7 @@
         <v>21</v>
       </c>
       <c r="E3211" s="3">
-        <v>17435.95</v>
+        <v>17524.77</v>
       </c>
     </row>
     <row r="3212" spans="1:5" x14ac:dyDescent="0.2">
@@ -65476,7 +65476,7 @@
         <v>21</v>
       </c>
       <c r="E3212" s="3">
-        <v>34871.919999999998</v>
+        <v>35049.54</v>
       </c>
     </row>
     <row r="3213" spans="1:5" x14ac:dyDescent="0.2">
@@ -65493,7 +65493,7 @@
         <v>21</v>
       </c>
       <c r="E3213" s="3">
-        <v>32686.81</v>
+        <v>32853.300000000003</v>
       </c>
     </row>
     <row r="3214" spans="1:5" x14ac:dyDescent="0.2">
@@ -65510,7 +65510,7 @@
         <v>21</v>
       </c>
       <c r="E3214" s="3">
-        <v>65388.59</v>
+        <v>65721.64</v>
       </c>
     </row>
     <row r="3215" spans="1:5" x14ac:dyDescent="0.2">
@@ -65544,7 +65544,7 @@
         <v>21</v>
       </c>
       <c r="E3216" s="3">
-        <v>58593.82</v>
+        <v>58892.25</v>
       </c>
     </row>
     <row r="3217" spans="1:5" x14ac:dyDescent="0.2">
@@ -65595,7 +65595,7 @@
         <v>21</v>
       </c>
       <c r="E3219" s="3">
-        <v>75236.539999999994</v>
+        <v>75619.75</v>
       </c>
     </row>
     <row r="3220" spans="1:5" x14ac:dyDescent="0.2">
@@ -65612,7 +65612,7 @@
         <v>21</v>
       </c>
       <c r="E3220" s="3">
-        <v>28391.42</v>
+        <v>28536.04</v>
       </c>
     </row>
     <row r="3221" spans="1:5" x14ac:dyDescent="0.2">
@@ -65816,7 +65816,7 @@
         <v>21</v>
       </c>
       <c r="E3232" s="3">
-        <v>7703.99</v>
+        <v>7743.24</v>
       </c>
     </row>
     <row r="3233" spans="1:5" x14ac:dyDescent="0.2">
